--- a/milestones-consolidated.xlsx
+++ b/milestones-consolidated.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-1860" yWindow="-16000" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="3660" yWindow="-19280" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="406">
   <si>
     <t>center</t>
   </si>
@@ -832,13 +832,418 @@
   </si>
   <si>
     <t>Use microenvironment microarray (MEMA) based platform to assess the impacts of ~3000 different pairwise combinations of ME perturbagens (MEPs) on 10 biological response endpoints.</t>
+  </si>
+  <si>
+    <t>PHASE ONE DATA</t>
+  </si>
+  <si>
+    <t>Moerke 2 Color Apoptosis</t>
+  </si>
+  <si>
+    <t>Moerke 2 Color Apoptosis: IA-LM, IST-MEL1, NCI-H1648, PC-9 and SK-LMS-1 cells. Dose response of anti-mitotic compounds in human cancer cell lines at 24, 48, and 72 hours to determine their effects on apoptosis.  In this assay, the cell-permeable DNA dye Hoechst 33342 is used to stain the nuclei of all cells.  The fluorescent caspase 3 reporter NucView488 stains the nuclei of cells undergoing apoptosis (in which caspase 3 is active).</t>
+  </si>
+  <si>
+    <t>COLO-800,epithelial-like,,skin,50012;IA-LM,,,lung,50017;IST-MEL1,epithelial-like,,skin,50020;NCI-H1648,,,lung,50032;PC-9,,,lung,50038</t>
+  </si>
+  <si>
+    <t>RO-3306,small molecule,10104-101,LSM-1104;BI-2536,small molecule,10041-101,LSM-1041;MPS-1-IN-1,small molecule,10105-101,LSM-1105;Staurosporine,small molecule,10103-101,LSM-1103;GW843682,small molecule,10014-101,LSM-1014;Tozasertib,small molecule,10021-101,LSM-1021;XMD-12,small molecule,10106-101,LSM-1106;Taxol,small molecule,10102-101,LSM-1102</t>
+  </si>
+  <si>
+    <t>false\small molecules,8</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20001/</t>
+  </si>
+  <si>
+    <t>LP1</t>
+  </si>
+  <si>
+    <t>Moerke 3 Color Apoptosis</t>
+  </si>
+  <si>
+    <t>Moerke 3 Color Apoptosis: Dose response of anti-mitotic compounds in human cancer cell lines at 24 and 48 hours to determine their effects on apoptosis and cell death.  In this assay, the cell-permeable DNA dye Hoechst 33342 is used to stain the nuclei of all cells.  The fluorescent caspase 3 reporter NucView488 stains the nuclei of cells undergoing apoptosis (in which caspase 3 is active), and the cell-impermeable DNA dye TO-PRO3 stains only the nuclei of dead or dying cells in which membrane integrity is compromised.</t>
+  </si>
+  <si>
+    <t>5637.0,epithelial,,urinary bladder,50001;BPH-1,epitheloid,,prostate,50005;HUTU-80,epithelial,,intestine,50016;KYSE-140,,,esophagus,50024;KYSE-180,epitheloid,,esophagus,50026;NCI-H810,epithelial,,lung,50037;SK-LMS-1,,,uterus,50042</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20002/</t>
+  </si>
+  <si>
+    <t>Tang Mitosis/Apoptosis ver.II -- Data from PMID: 23788527: Differential Determinants of Cancer Cell Insensitivity to Antimitotic Drugs Discriminated by a One-Step Cell Imaging Assay (2013).</t>
+  </si>
+  <si>
+    <t>Tang Mitosis/Apoptosis ver.II: Dose response of anti-mitotic compounds in human cancer cell lines at 24, 48 and 72 hours to determine effect on apoptosis, mitosis and cell death. In screening for small-molecule compounds that are effective at killing cancer cells, one-dimensional readout GI50, which is the EC50 value of growth inhibition, is usually used as the only criterion. A major problem with this one-readout approach is that other useful information is discarded, which could be critical for understanding the action of the compounds. In this screen, we use a single-cell-based imaging assay that can report multi-dimensional physiological responses in cells treated with small molecule kinase inhibitors. The data in this dataset are described in PMID: 23788527: Differential Determinants of Cancer Cell Insensitivity to Antimitotic Drugs Discriminated by a One-Step Cell Imaging Assay (J. Biomolecular Screening, 2013). The image analysis algorithm is available at https://github.com/xietiao/Tang_et_al_LINCS_cell_scoring.</t>
+  </si>
+  <si>
+    <t>5637.0,epithelial,,urinary bladder,50001;647-V,epithelial-like,,urinary bladder,50002;A375.S2,epithelial,,skin,50003;AGS,epithelial,,stomach,50004;Ca Ski,epithelial,,cervix,50006;Ca9-22,epithelial-like,,head &amp; neck,50007;CAL-51,epithelial-like,,breast,50008;Calu-1,epithelial,,lung,50009;Calu-3,epithelial,,lung,50010;COLO-679,fibroblastic,,skin,50011;FU97,epithelial-like,,stomach,50013;HEC-1,,,uterus,50014;HLF,,,liver,50015;Ishikawa,epithelial-like,,uterus,50018;Ishikawa (Heraklio) 02 ER-,epithelial,,uterus,50019;JHH-6,epithelial-like,,liver,50021;KMRC-20,epithelial-like,,kidney,50023;KYSE-140,,,esophagus,50024;KYSE-150,epitheloid,,esophagus,50025;KYSE-450,epitheloid,,esophagus,50027;LNZTA3WT4,,,brain,50028;MDA-MB-435S,melanocyte,,skin,50030;MT-3,epithelial,,breast,50031;NCI-H1651,epithelial,,lung,50033;NCI-H1915,large cell,,lung,50035;NCI-H2023,,,lung,50036;PE/CA-PJ15,epithelial-like,,head &amp; neck,50039;PL4,,,pancreas,50040;SK-OV-3,epithelial,,ovary,50044;SW527,epithelial,,breast,50046;SW620,epithelial,,intestine,50047;T24,epithelial,,urinary bladder,50048;WiDr,epithelial,,intestine,50049</t>
+  </si>
+  <si>
+    <t>33\cell lines</t>
+  </si>
+  <si>
+    <t>BI-2536,small molecule,10041-101,LSM-1041;MLN8054,small molecule,10066-101,LSM-1066;Tozasertib,small molecule,10021-101,LSM-1021;GSK1070916,small molecule,10062-101,LSM-1062;Barasertib,small molecule,10067-101,LSM-1067;KIN001-220,small molecule,10065-101,LSM-1065;MPS-1-IN-1,small molecule,10105-101,LSM-1105;Taxol,small molecule,10102-101,LSM-1102</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20003/</t>
+  </si>
+  <si>
+    <t>Tang Proliferation/Mitosis</t>
+  </si>
+  <si>
+    <t>Tang Proliferation/Mitosis: Dose response of anti-mitotic compounds in human cancer cell lines at 24, 48 and 72 hours to determine effect on cell proliferation and mitosis.</t>
+  </si>
+  <si>
+    <t>5637.0,epithelial,,urinary bladder,50001;BPH-1,epitheloid,,prostate,50005;COLO-800,epithelial-like,,skin,50012;HUTU-80,epithelial,,intestine,50016;IA-LM,,,lung,50017;IST-MEL1,epithelial-like,,skin,50020;KATO III,spherical,,stomach,50022;KYSE-140,,,esophagus,50024;KYSE-180,epitheloid,,esophagus,50026;NCI-H1648,,,lung,50032;NCI-H1703,epithelial,,lung,50034;NCI-H810,epithelial,,lung,50037;PC-9,,,lung,50038;SJCRH30,fibroblast,,muscle,50041;SK-LMS-1,,,uterus,50042;SK-MES,epithelial,,lung,50043;SNB75,,,brain,50045</t>
+  </si>
+  <si>
+    <t>17\cell lines</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20004/</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 10.24 uM to 0.04 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>The CMT platform uses a DNA stain or Resazurin based assay to determine cell viability following compound treatment, as indicated in the formatted assay data. A single cell line is seeded in each 384 well plate and assayed against a panel of compounds. In each 384 well plate, 4 to 8 test compounds are assayed at nine different doses.  In each plate, 42 Control wells are treated with DMSO only (no test compound), and 32 wells contain no cells.  After a 72 hour incubation, the relative cell number in each well is determined using bulk fluorescence measurement (either resazurin or Syto 60). For the Syto 60 assay, cells are fixed before staining.  We report an average FI : Control Ratio for each cell line and compound concentration.  This ratio is calculated by dividing the average FI for each condition by the averaged signal in Control (DMSO treated) wells.  Conditions where more cells are viable have a high ratio; conditions where fewer cells are viable have a lower ratio.- Cell Density at seeding time: variable (~15% confluence) to insure continuous growth during compound treatment.- Doses: 9 concentrations, 2-fold apart. Actual concentrations are provided and may vary among compounds. Concentrations used are based on published literature and pre-screening work done at CMT to estimate potency.- Compound treatment duration: 72h.</t>
+  </si>
+  <si>
+    <t>CAL-51,epithelial-like,,breast,50008;FU97,epithelial-like,,stomach,50013;KMRC-20,epithelial-like,,kidney,50023;MCF7,epithelial,,breast,50029;MDA-MB-435S,melanocyte,,skin,50030;NCI-H1703,epithelial,,lung,50034;PE/CA-PJ15,epithelial-like,,head &amp; neck,50039;SW527,epithelial,,breast,50046;MDA-MB-231,epithelial,,breast,50058;769-P,,,kidney,50072;786-O,,,kidney,50073;A2058,,,skin,50078;A-427,,,lung,50082;A549,,,lung,50084;ACHN,,,kidney,50087;ASH-3,,,thyroid,50089;AsPC-1,,,pancreas,50090;AU565,,,breast,50091;BT-20,,,breast,50105;BT-549,,,breast,50108;BxPC-3,,,pancreas,50109;Caki-1,,,kidney,50118;CAL-120,,,breast,50120;CAL-78,,,bone,50129;CAL-85-1,,,breast,50130;CAMA-1,,,breast,50131;COLO 792,,,skin,50146;COLO 858,,,skin,50149;DAN-G,,,pancreas,50161;DMS 273,,,lung,50167;EBC-1,,,lung,50173;EFM-192B,,,breast,50177;EFM-192C,,,breast,50178;EN,,,uterus,50183;G-292 Clone A141B1,,,bone,50193;G-401,,,kidney,50195;G-402,,,kidney,50196;HCC1143,,,breast,50205;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC38,,,breast,50216;HCC-56,,,intestine,50218;HCC70,,,breast,50219;HCC-78,,,lung,50220;HDQ-P1,,,breast,50225;HLE,,,liver,50228;HN,,,head &amp; neck,50230;HO-1-u-1,,,head &amp; neck,50232;HPAC,,,pancreas,50234;HPAF-II,,,pancreas,50235;Hs 683,,,brain,50241;Hs 766T,,,pancreas,50243;HSC-4,,,head &amp; neck,50246;HT 1376,,,urinary bladder,50248;HUP-T3,,,pancreas,50260;HUP-T4,,,pancreas,50261;IHH-4,,,thyroid,50265;IM-95,,,stomach,50266;JHH-1,,,liver,50272;JHH-2,,,liver,50273;JHH-4,,,liver,50274;JHH-7,,,liver,50275;JIMT-1,,,breast,50276;KMH-2,,,thyroid,50283;KP-2,,,pancreas,50287;KP-4,,,pancreas,50290;KPL-1,,,breast,50291;LC-1 sq,,,lung,50301;LU99A,,,lung,50319;MB 157,,,breast,50324;MDA-MB-157,,,breast,50328;MDA-MB-175-VII,,,breast,50329;MDA-MB-415,,,breast,50332;MDA-MB-436,,,breast,50333;MDA-MB-453,,,breast,50334;MDA-MB-468,,,breast,50335;MES-SA/Dx-5,,,uterus,50341;MFE-319,,,uterus,50345;ML-1,,,thyroid,50355;NCI-H1568,,,lung,50366;NCI-H1688,,,lung,50371;NCI-H1792,,,lung,50376;NCI-H196,,,lung,50381;NCI-H2110,,,lung,50389;NCI-H2228,,,lung,50397;NCI-H23,,,lung,50400;NCI-H2444,,,lung,50404;NCI-H460,,,lung,50410;NCI-H647,,,lung,50415;NCI-H838,,,lung,50419;NY,,,bone,50426;OSC-20,,,head &amp; neck,50435;Panc 02.03,,,pancreas,50444;Panc 04.03,,,pancreas,50446;Panc 08.13,,,pancreas,50447;Panc 10.05,,,pancreas,50448;PANC-1,,,pancreas,50449;PA-TU-8902,,,pancreas,50450;PA-TU-8988S,,,pancreas,50451;PA-TU-8988T,,,pancreas,50452;PL45,,,pancreas,50456;RT4,,,urinary bladder,50474;SCaBER,,,urinary bladder,50482;SCC-15,,,head &amp; neck,50483;SKN,,,uterus,50503;SNU-182,,,liver,50512;SU.86.86,,,pancreas,50520;SUIT-2,,,pancreas,50521;SW 1271,,,lung,50524;SW 13,,,adrenal gland,50525;SW 1417,,,intestine,50526;SW 156,,,kidney,50528;T47D,,,breast,50541;TOV-112D,,,ovary,50547;UACC-893,,,breast,50557;UMC-11,,,lung,50558;VM-CUB1,,,urinary bladder,50561;VMRC-RCZ,,,kidney,50565;YAPC,,,pancreas,50572;ZR-75-1,,,breast,50574;ZR-75-30,,,breast,50575;HCC1500,epithelial,,breast,50579;CFPAC-1,,,pancreas,50609;ChaGo-K-1,,,lung,50610;KP-1N,,,pancreas,50695;KP-1NL,,,pancreas,50696;NCI-H1563,,,lung,50755;RH-30,,,muscle,50817;SK-MEL-3,,,skin,50834;SW 1990,,,pancreas,50853;BB65-RCC,,,kidney,50892;D-423MG,,,brain,50911;HA7-RCC,,,kidney,50950;LB1047-RCC,,,kidney,50978;LB2241-RCC,,,kidney,50979;LB996-RCC,,,kidney,50985;LXF-289,,,lung,50996;MZ1-PC,,,pancreas,51004;OC-314,,,ovary,51031;OS-RC-2,,,kidney,51035;RCC10RGB,,,kidney,51039;RXF393,,,kidney,51044;SK-MEL-5,,,skin,51051;SK-MG-1,,,brain,51052;TK10,,,kidney,51077;YH-13,,,brain,51080</t>
+  </si>
+  <si>
+    <t>150\cell lines</t>
+  </si>
+  <si>
+    <t>GSK1070916,small molecule,10062-101,LSM-1062</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20015/</t>
+  </si>
+  <si>
+    <t>A549 cells -- High-throughput Secretomic Analysis of Single Cells: Data published in Lu, et al. (2013) Analytical Chem. PMID: 23339603</t>
+  </si>
+  <si>
+    <t>This micro-fluidics assay is performed using a microchip developed by Yale LINCS U01 team (http://www.eng.yale.edu/fanlab/Rong_Fan_Group/NIH_LINCS_-_Yale_Tech_U01.html ). This microchip consists of a PDMS microwell array containing &gt;5000 single-cell trapping chambers and a high-density antibody barcode array fabricated by Yale LINCS__ flow patterning method. The assay does not require external fluid handling equipment and can be performed anywhere in a typical cell biology lab.</t>
+  </si>
+  <si>
+    <t>A549,,,lung,50084</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20121/</t>
+  </si>
+  <si>
+    <t>Breast cell line dose response to target inhibition measured by high throughput microscopy: Data published in Fallahi-Sichani et al. (2013) Nature Chemical Biology. PMID: 24013279</t>
+  </si>
+  <si>
+    <t>To investigate how a shallow dose-response curve might arise (as seen in data analyzed in Fallahi-Sichani et al. (2013) Nature Chemical Biology. PMID: 24013279), this assay focuses on drugs inhibiting the PI3K/Akt/mTOR pathway that varied widely in Hill slope (HS) and Emax values independent of proliferation rate. For six compounds with varying HS, target inhibition was measured by immunofluorescence microscopy and cell killing in four breast cell lines (HER2-amplified AU565 and HCC1954 cancer cells, hormone receptor-positive T47D cancer cells, and non-transformed MCF10A cells). The effects of the mTOR inhibitor PP242, PI3K inhibitor GSK1059615, dual specificity mTOR/PI3K inhibitor dactolisib (BEZ235), Akt inhibitors MK2206 and triciribine, and also an EGFR inhibitor gefitinib were probed 6 hr and 24 hr after drug exposure in 9-point dose-response assays using antibodies specific for p-ERK (Thr202/Tyr204), p-Akt (Ser473), p-4EBP1 (Thr37/46), and p-S6 (Ser235/236). A shallow dose-response curve is correlated with high cell-to-cell variability in target (p-4EBP1) inhibition by PP242 and dactolisib as compared to drugs for which HS ~ 1 or HS &gt; 1 (in four of four cell lines tested). This dataset refers to data shown in Figure 5 and Supplementary Figures 5, 7, 8 and 9 of the paper.</t>
+  </si>
+  <si>
+    <t>AU565,,,breast,50091;HCC1954,,,breast,50213;MCF 10A,epithelial,,breast,50583;T47D,,,breast,50541</t>
+  </si>
+  <si>
+    <t>Gefitinib,small molecule,10098-101,LSM-1098;PP242 hydrate,small molecule,10345-111,LSM-6357;GSK1059615,small molecule,10172-101,LSM-1173;MK2206,small molecule,10057-102,LSM-1057;Triciribine,small molecule,10280-101,LSM-3810;BEZ235,small molecule,10232-101,LSM-4255</t>
+  </si>
+  <si>
+    <t>false\small molecules,6</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20136/</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (3 compound doses) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>The CMT platform uses a DNA stain based assay to determine cell viability following compound treatment.</t>
+  </si>
+  <si>
+    <t>5637.0,epithelial,,urinary bladder,50001;647-V,epithelial-like,,urinary bladder,50002;A375.S2,epithelial,,skin,50003;AGS,epithelial,,stomach,50004;BPH-1,epitheloid,,prostate,50005;Ca Ski,epithelial,,cervix,50006;Ca9-22,epithelial-like,,head &amp; neck,50007;CAL-51,epithelial-like,,breast,50008;Calu-1,epithelial,,lung,50009;Calu-3,epithelial,,lung,50010;COLO-679,fibroblastic,,skin,50011;FU97,epithelial-like,,stomach,50013;HEC-1,,,uterus,50014;HLF,,,liver,50015;Ishikawa,epithelial-like,,uterus,50018;Ishikawa (Heraklio) 02 ER-,epithelial,,uterus,50019;JHH-6,epithelial-like,,liver,50021;KATO III,spherical,,stomach,50022;KMRC-20,epithelial-like,,kidney,50023;KYSE-140,,,esophagus,50024;KYSE-150,epitheloid,,esophagus,50025;KYSE-180,epitheloid,,esophagus,50026;KYSE-450,epitheloid,,esophagus,50027;LNZTA3WT4,,,brain,50028;MCF7,epithelial,,breast,50029;MDA-MB-435S,melanocyte,,skin,50030;MT-3,epithelial,,breast,50031;NCI-H1648,,,lung,50032;NCI-H1651,epithelial,,lung,50033;NCI-H1703,epithelial,,lung,50034;NCI-H1915,large cell,,lung,50035;NCI-H2023,,,lung,50036;NCI-H810,epithelial,,lung,50037;PC-9,,,lung,50038;PE/CA-PJ15,epithelial-like,,head &amp; neck,50039;PL4,,,pancreas,50040;SJCRH30,fibroblast,,muscle,50041;SK-MES,epithelial,,lung,50043;SK-OV-3,epithelial,,ovary,50044;SW527,epithelial,,breast,50046;SW620,epithelial,,intestine,50047;T24,epithelial,,urinary bladder,50048;WiDr,epithelial,,intestine,50049;Hep 3B2.1-7,epithelial,,liver,50051;Hep G2,epithelial,,liver,50052;Huh7,,,liver,50055;SK-BR-3,epithelial,,breast,50057;MDA-MB-231,epithelial,,breast,50058;A-375,epithelial,,skin,50060;HeLa,epithelial,,cervix,50061;1205Lu,,,skin,50062;1321N1,,,brain,50063;143B,,,bone,50064;143B PML BK TK,,,bone,50065;1A6,,,urinary bladder,50066;22RV1,,,prostate,50067;23132/87,,,stomach,50068;42-MG-BA,,,brain,50069;621-101,,,kidney,50070;639-V,,,ureter,50071;769-P,,,kidney,50072;786-O,,,kidney,50073;8305C,,,thyroid,50074;8505C,,,thyroid,50075;A172,,,brain,50076;A-204,,,muscle,50077;A2058,,,skin,50078;A2780,,,ovary,50079;A2780ADR,,,ovary,50080;A373-C6,,,skin,50081;A-427,,,lung,50082;A431,,,skin,50083;A549,,,lung,50084;A673,,,muscle,50085;ABC-1,,,lung,50086;ACHN,,,kidney,50087;AN3CA,,,uterus,50088;ASH-3,,,thyroid,50089;AsPC-1,,,pancreas,50090;AU565,,,breast,50091;AZ-521,,,stomach,50092;B-CPAP,,,thyroid,50093;BE(2)-C,,,nervous system,50094;BEN,,,lung,50095;BeWo,,,miscellaneous,50096;BFTC-905,,,urinary bladder,50097;BFTC-909,,,kidney,50098;BHT-101,,,thyroid,50099;BHY,,,head &amp; neck,50100;BICR 10,,,head &amp; neck,50101;BICR 22,,,head &amp; neck,50102;BICR 31,,,head &amp; neck,50103;BICR 78,,,head &amp; neck,50104;BT-20,,,breast,50105;BT-474,,,breast,50106;BT-483,,,breast,50107;BT-549,,,breast,50108;BxPC-3,,,pancreas,50109;C170,,,intestine,50110;C2BBe1,,,intestine,50111;C32,,,skin,50112;C-33 A,,,cervix,50113;C3A,,,liver,50114;C-4 I,,,cervix,50115;C-4 II,,,cervix,50116;Caco-2,,,intestine,50117;Caki-1,,,kidney,50118;CAL 27,,,head &amp; neck,50119;CAL-120,,,breast,50120;CAL-12T,,,lung,50121;CAL-148,,,breast,50122;CAL-29,,,urinary bladder,50123;CAL-33,,,head &amp; neck,50124;CAL-39,,,vulva,50125;CAL-54,,,kidney,50126;CAL-62,,,thyroid,50127;CAL-72,,,bone,50128;CAL-78,,,bone,50129;CAL-85-1,,,breast,50130;CAMA-1,,,breast,50131;Caov-3,,,ovary,50132;Caov-4,,,ovary,50133;Capan-1,,,pancreas,50134;Capan-2,,,pancreas,50135;CaR-1,,,intestine,50136;CCF-STTG1,,,brain,50137;CCK-81,,,intestine,50138;CHP-212,,,nervous system,50139;CL-40,,,intestine,50140;CoCM-1,,,intestine,50141;COLO 201,,,intestine,50142;COLO 205,,,intestine,50143;COLO 320DM,,,intestine,50144;COLO 741,,,intestine,50145;COLO 792,,,skin,50146;COLO 853,,,skin,50147;COLO 857,,,skin,50148;COLO 858,,,skin,50149;COLO-206F,,,intestine,50150;COLO-320,,,intestine,50151;COLO-678,,,intestine,50152;COLO-680N,,,esophagus,50153;COLO-783,,,skin,50154;COLO-818,,,skin,50155;COLO-824,,,breast,50156;COLO-849,,,skin,50157;COR-L 105,,,lung,50158;COR-L 23/CPR,,,lung,50159;COR-L23,,,lung,50160;DAN-G,,,pancreas,50161;Daoy,,,brain,50162;DBTRG-05MG,,,brain,50163;Detroit 562,,,head &amp; neck,50164;DK-MG,,,brain,50165;DLD-1,,,intestine,50166;DMS 273,,,lung,50167;DMS 53,,,lung,50168;DOK,,,head &amp; neck,50169;DoTc2 4510,,,cervix,50170;DU 145,,,prostate,50171;DV-90,,,lung,50172;EBC-1,,,lung,50173;EFE-184,,,uterus,50174;EFM-19,,,breast,50175;EFM-192A,,,breast,50176;EFM-192B,,,breast,50177;EFM-192C,,,breast,50178;EFO-21,,,ovary,50179;EFO-27,,,ovary,50180;EGI-1,,,biliary tract,50181;EJ138,,,urinary bladder,50182;EN,,,uterus,50183;EPLC-272H,,,lung,50184;ES-2,,,ovary,50185;ESS-1,,,uterus,50186;EVSA-T,,,breast,50187;FaDu,,,head &amp; neck,50188;FLYA13,,,miscellaneous,50189;FTC-133,,,thyroid,50190;FTC-238,,,thyroid,50191;FU-OV-1,,,ovary,50192;G-292 Clone A141B1,,,bone,50193;G-361,,,skin,50194;G-401,,,kidney,50195;G-402,,,kidney,50196;GAMG,,,brain,50197;GCT,,,miscellaneous,50198;GMS-10,,,brain,50199;GOS-3,,,brain,50200;GP5d,,,intestine,50201;H4,,,brain,50202;H69V,,,lung,50203;HARA,,,lung,50204;HCC1143,,,breast,50205;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC-15,,,lung,50209;HCC1569,,,breast,50210;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC202,,,breast,50214;HCC-366,,,lung,50215;HCC38,,,breast,50216;HCC-44,,,lung,50217;HCC-56,,,intestine,50218;HCC70,,,breast,50219;HCC-78,,,lung,50220;HCC-827,,,lung,50221;HCT 116,,,intestine,50222;HCT-15,,,intestine,50223;HCT-8,,,intestine,50224;HDQ-P1,,,breast,50225;H-EMC-SS,,,bone,50226;HGC-27,,,stomach,50227;HLE,,,liver,50228;HMVII,,,skin,50229;HN,,,head &amp; neck,50230;HO-1-N-1,,,head &amp; neck,50231;HO-1-u-1,,,head &amp; neck,50232;HOS,,,bone,50233;HPAC,,,pancreas,50234;HPAF-II,,,pancreas,50235;HRT-18,,,intestine,50236;Hs 257.T,,,intestine,50237;Hs 578T,,,breast,50238;Hs 588.T,,,cervix,50239;Hs 633T,,,miscellaneous,50240;Hs 683,,,brain,50241;Hs 746T,,,stomach,50242;Hs 766T,,,pancreas,50243;HSC-2,,,head &amp; neck,50244;HSC-3,,,head &amp; neck,50245;HSC-4,,,head &amp; neck,50246;HT 1080,,,miscellaneous,50247;HT 1376,,,urinary bladder,50248;HT115,,,intestine,50249;HT-1197,,,urinary bladder,50250;HT-29,,,intestine,50251;HT-3,,,cervix,50252;HT55,,,intestine,50253;HTC-C3,,,thyroid,50254;HuCCT1,,,biliary tract,50255;huH-1,,,liver,50256;HuO-3N1,,,bone,50257;HuO9,,,bone,50258;HuO9N2,,,bone,50259;HUP-T3,,,pancreas,50260;HUP-T4,,,pancreas,50261;IGR-1,,,skin,50262;IGR-37,,,skin,50263;IGR-39,,,skin,50264;IHH-4,,,thyroid,50265;IM-95,,,stomach,50266;IM-95m,,,stomach,50267;IMR-32,,,nervous system,50268;IPC-298,,,skin,50269;J82,,,urinary bladder,50270;JAR,,,miscellaneous,50271;JHH-1,,,liver,50272;JHH-2,,,liver,50273;JHH-4,,,liver,50274;JHH-7,,,liver,50275;JIMT-1,,,breast,50276;KELLY,,,nervous system,50277;KG-1-C,,,brain,50278;KHM-3S,,,lung,50279;KHOS/NP,,,bone,50280;KHOS-240S,,,bone,50281;KHOS-312H,,,bone,50282;KMH-2,,,thyroid,50283;KMRC-1,,,kidney,50284;KON,,,head &amp; neck,50285;KOSC-2 cl3-43,,,head &amp; neck,50286;KP-2,,,pancreas,50287;KP-3,,,pancreas,50288;KP-3L,,,pancreas,50289;KP-4,,,pancreas,50290;KPL-1,,,breast,50291;KU-19-19,,,urinary bladder,50292;KYSE-220,,,esophagus,50293;KYSE-270,,,esophagus,50294;KYSE-30,,,esophagus,50295;KYSE-410,,,esophagus,50296;KYSE-50,,,esophagus,50297;KYSE-510,,,esophagus,50298;KYSE-520,,,esophagus,50299;KYSE-70,,,esophagus,50300;LC-1 sq,,,lung,50301;LCLC-103H,,,lung,50302;LCLC-97TM1,,,lung,50303;LK-2,,,lung,50304;LN-18,,,brain,50305;LN-229,,,brain,50306;LN-405,,,brain,50307;LNZTA3WT11,,,brain,50308;LOU-NH91,,,lung,50309;LoVo,,,intestine,50310;LS174T,,,intestine,50311;LS180,,,intestine,50312;Lu-134-A-H,,,lung,50313;Lu-135,,,lung,50314;LU65,,,lung,50315;LU65A,,,lung,50316;LU65B,,,lung,50317;LU65C,,,lung,50318;LU99A,,,lung,50319;LU99B,,,lung,50320;LU99C,,,lung,50321;LUDLU-1,,,lung,50322;M059J,,,brain,50323;MB 157,,,breast,50324;MCAS,,,ovary,50325;MC-IXC,,,nervous system,50326;MDA-MB-134-VI,,,breast,50327;MDA-MB-157,,,breast,50328;MDA-MB-175-VII,,,breast,50329;MDA-MB-330,,,breast,50330;MDA-MB-361,,,breast,50331;MDA-MB-415,,,breast,50332;MDA-MB-436,,,breast,50333;MDA-MB-453,,,breast,50334;MDA-MB-468,,,breast,50335;MDST8,,,intestine,50336;ME-180,,,cervix,50337;MEL-HO,,,skin,50338;MEL-JUSO,,,skin,50339;MES-SA,,,uterus,50340;MES-SA/Dx-5,,,uterus,50341;MEWO,,,skin,50342;MFE-280,,,uterus,50343;MFE-296,,,uterus,50344;MFE-319,,,uterus,50345;MFM-223,,,breast,50346;MG-63,,,bone,50347;MHH-ES-1,,,nervous system,50348;MIA PaCa-2,,,pancreas,50349;MKN1,,,stomach,50350;MKN28,,,stomach,50351;MKN45,,,stomach,50352;MKN7,,,stomach,50353;MKN74,,,stomach,50354;ML-1,,,thyroid,50355;MOG-G-CCM,,,brain,50356;MOG-G-UVW,,,brain,50357;MS751,,,cervix,50358;MSTO-211H,,,pleura,50359;NB69,,,nervous system,50360;NCC-IT-A3,,,testes,50361;NCI-H1048,,,lung,50362;NCI-H1299,,,lung,50363;NCI-H1435,,,lung,50364;NCI-H1437,,,lung,50365;NCI-H1568,,,lung,50366;NCI-H1573,,,lung,50367;NCI-H1581,,,lung,50368;NCI-H1623,,,lung,50369;NCI-H1650,,,lung,50370;NCI-H1688,,,lung,50371;NCI-H1693,,,lung,50372;NCI-H1734,,,lung,50373;NCI-H1755,,,lung,50374;NCI-H1781,,,lung,50375;NCI-H1792,,,lung,50376;NCI-H1793,,,lung,50377;NCI-H1869,,,lung,50378;NCI-H1876,,,lung,50379;NCI-H1944,,,lung,50380;NCI-H196,,,lung,50381;NCI-H1993,,,lung,50382;NCI-H2009,,,lung,50383;NCI-H2029,,,lung,50384;NCI-H2030,,,lung,50385;NCI-H2073,,,lung,50386;NCI-H2085,,,lung,50387;NCI-H2087,,,lung,50388;NCI-H2110,,,lung,50389;NCI-H2122,,,lung,50390;NCI-H2135,,,lung,50391;NCI-H2170,,,lung,50392;NCI-H2172,,,lung,50393;NCI-H2195,,,lung,50394;NCI-H2196,,,lung,50395;NCI-H2198,,,lung,50396;NCI-H2228,,,lung,50397;NCI-H2286,,,lung,50398;NCI-H2291,,,lung,50399;NCI-H23,,,lung,50400;NCI-H2342,,,lung,50401;NCI-H2347,,,lung,50402;NCI-H2405,,,lung,50403;NCI-H2444,,,lung,50404;NCI-H2452,,,lung,50405;NCI-H3122,,,lung,50406;NCI-H322,,,lung,50407;NCI-H358,,,lung,50408;NCI-H441,,,lung,50409;NCI-H460,,,lung,50410;NCI-H520,,,lung,50411;NCI-H522,,,lung,50412;NCI-H596,,,lung,50413;NCI-H630,,,intestine,50414;NCI-H647,,,lung,50415;NCI-H650,,,lung,50416;NCI-H661,,,lung,50417;NCI-H727,,,lung,50418;NCI-H838,,,lung,50419;NCI-H841,,,lung,50420;NCI-N87,,,stomach,50421;NIH:OVCAR-3,,,ovary,50422;NUGC-2,,,stomach,50423;NUGC-3,,,stomach,50424;NUGC-4,,,stomach,50425;NY,,,bone,50426;OAW28,,,ovary,50427;OAW42,,,ovary,50428;OCUG-1,,,gall bladder,50429;OCUM-1,,,stomach,50430;OE19,,,esophagus,50431;OE21,,,esophagus,50432;OE33,,,esophagus,50433;OSC-19,,,head &amp; neck,50434;OSC-20,,,head &amp; neck,50435;OUMS-23,,,intestine,50436;OV-90,,,ovary,50437;OVISE,,,ovary,50438;OVKATE,,,ovary,50439;OVMIU,,,ovary,50440;OVSAYO,,,ovary,50441;OVTOKO,,,ovary,50442;PA-1,,,ovary,50443;Panc 02.03,,,pancreas,50444;Panc 03.27,,,pancreas,50445;Panc 04.03,,,pancreas,50446;Panc 08.13,,,pancreas,50447;Panc 10.05,,,pancreas,50448;PANC-1,,,pancreas,50449;PA-TU-8902,,,pancreas,50450;PA-TU-8988S,,,pancreas,50451;PA-TU-8988T,,,pancreas,50452;PC-14,,,lung,50453;PC-3,,,prostate,50454;PFSK-1,,,brain,50455;PL45,,,pancreas,50456;PLC/PRF/5,,,liver,50457;QGP-1,,,pancreas,50458;RCM-1,,,intestine,50459;RD,,,muscle,50460;RD-ES,,,nervous system,50461;RERF-GC-1B,,,stomach,50462;RERF-LC-Ad1,,,lung,50463;RERF-LC-KJ,,,lung,50464;RERF-LC-MA,,,lung,50465;RERF-LC-Sq1,,,lung,50466;RKN,,,ovary,50467;RMG-I,,,ovary,50468;RO82-W-1,,,thyroid,50469;RPMI 2650,,,head &amp; neck,50470;RPMI-7951,,,skin,50471;RT-112,,,urinary bladder,50472;RT112/84,,,urinary bladder,50473;RT4,,,urinary bladder,50474;RVH-421,,,skin,50475;S-117,,,thyroid,50476;Saos-2,,,bone,50477;SAS,,,head &amp; neck,50478;SAT,,,head &amp; neck,50479;SBC-3,,,lung,50480;SBC-5,,,lung,50481;SCaBER,,,urinary bladder,50482;SCC-15,,,head &amp; neck,50483;SCC-25,,,head &amp; neck,50484;SCC-4,,,head &amp; neck,50485;SCC-9,,,head &amp; neck,50486;SCCH-196,,,miscellaneous,50487;SCCH-26,,,nervous system,50488;SCH,,,stomach,50489;SCLC-21H,,,lung,50490;SHP-77,,,lung,50491;SH-SY5Y,,,nervous system,50492;SiHa,,,cervix,50493;SISO,,,cervix,50494;SK-CO-1,,,intestine,50495;SK-ES-1,,,bone,50496;SKG-IIIa,,,cervix,50497;SKG-IIIb,,,cervix,50498;SK-HEP-1,,,liver,50499;SK-LU-1,,,lung,50500;SK-MEL-2,,,skin,50501;SK-MEL-30,,,skin,50502;SKN,,,uterus,50503;SKN-3,,,head &amp; neck,50504;SK-N-AS,,,nervous system,50505;SK-N-DZ,,,nervous system,50506;SK-NEP-1,,,kidney,50507;SK-N-SH,,,nervous system,50508;SNG-M,,,uterus,50509;SNU-1,,,stomach,50510;SNU-16,,,stomach,50511;SNU-182,,,liver,50512;SNU-387,,,liver,50513;SNU-398,,,liver,50514;SNU-423,,,liver,50515;SNU-449,,,liver,50516;SNU-475,,,liver,50517;SNU-5,,,stomach,50518;STC 1,,,lung,50519;SU.86.86,,,pancreas,50520;SUIT-2,,,pancreas,50521;SW 1088,,,brain,50522;SW 1116,,,intestine,50523;SW 1271,,,lung,50524;SW 13,,,adrenal gland,50525;SW 1417,,,intestine,50526;SW 1463,,,intestine,50527;SW 156,,,kidney,50528;SW 1573,,,lung,50529;SW 1783,,,brain,50530;SW 48,,,intestine,50531;SW 626,,,ovary,50532;SW 780,,,urinary bladder,50533;SW 900,,,lung,50534;SW-1710,,,urinary bladder,50535;SW756,,,cervix,50536;SW837,,,intestine,50537;SW-948,,,intestine,50538;T.T,,,esophagus,50539;T.Tn,,,esophagus,50540;T47D,,,breast,50541;T84,,,intestine,50542;T98G,,,brain,50543;TASK1,,,nervous system,50544;TCCSUP,,,urinary bladder,50545;TGW,,,adrenal gland,50546;TOV-112D,,,ovary,50547;TOV-21G,,,ovary,50548;TT2609-C02,,,thyroid,50549;TYK-nu,,,ovary,50550;U-118 MG,,,brain,50551;U-138 MG,,,brain,50552;U-2 OS,,,bone,50553;U-251 MG,,,brain,50554;U373 MG,,,brain,50555;UACC-812,,,breast,50556;UACC-893,,,breast,50557;UMC-11,,,lung,50558;UM-UC-3,,,urinary bladder,50559;VCaP,,,prostate,50560;VM-CUB1,,,urinary bladder,50561;VMRC-LCP,,,lung,50562;VMRC-MELG,,,skin,50563;VMRC-RCW,,,kidney,50564;VMRC-RCZ,,,kidney,50565;WM 266-4,,,skin,50566;WM-115,,,skin,50567;WM1552C,,,skin,50568;WM278,,,skin,50569;WM35,,,skin,50570;WM793B,,,skin,50571;YAPC,,,pancreas,50572;YKG-1,,,brain,50573;ZR-75-1,,,breast,50574;ZR-75-30,,,breast,50575</t>
+  </si>
+  <si>
+    <t>564\cell lines</t>
+  </si>
+  <si>
+    <t>GSK461364,small molecule,10013-101,LSM-1013;Dasatinib,small molecule,10020-101,LSM-1020;Tozasertib,small molecule,10021-101,LSM-1021;GNF2,small molecule,10022-101,LSM-1022;Imatinib,small molecule,10023-103,LSM-1023;NVP-TAE684,small molecule,10024-101,LSM-1024;CGP60474,small molecule,10025-101,LSM-1025;PD173074,small molecule,10026-101,LSM-1026;Crizotinib,small molecule,10027-101,LSM-1027;Saracatinib,small molecule,10032-101,LSM-1032;WH-4-023,small molecule,10038-101,LSM-5613;WH-4-025,small molecule,10039-101,LSM-5431;BI-2536,small molecule,10041-101,LSM-1041;KIN001-127,small molecule,10043-101,LSM-1043;A443654,small molecule,10045-101,LSM-1045;AZ-628,small molecule,10050-101,LSM-1050;Lapatinib,small molecule,10051-104,LSM-1051;Torin1,small molecule,10079-101,LSM-1079;MG-132,small molecule,10107-101,LSM-1107;Geldanamycin,small molecule,10108-101,LSM-1108;Rapamycin,small molecule,10052-101,LSM-1052;(R)- Roscovitine,small molecule,10001-101,LSM-1001;Sorafenib,small molecule,10008-101,LSM-1008;Erlotinib,small molecule,10097-101,LSM-1097;XMD8-85,small molecule,10093-101,LSM-1093</t>
+  </si>
+  <si>
+    <t>false\small molecules,25</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20006/</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (3 compound doses) -- DNA Staining (2nd)</t>
+  </si>
+  <si>
+    <t>5637.0,epithelial,,urinary bladder,50001;647-V,epithelial-like,,urinary bladder,50002;A375.S2,epithelial,,skin,50003;AGS,epithelial,,stomach,50004;BPH-1,epitheloid,,prostate,50005;Ca Ski,epithelial,,cervix,50006;Ca9-22,epithelial-like,,head &amp; neck,50007;CAL-51,epithelial-like,,breast,50008;Calu-1,epithelial,,lung,50009;Calu-3,epithelial,,lung,50010;COLO-679,fibroblastic,,skin,50011;FU97,epithelial-like,,stomach,50013;HEC-1,,,uterus,50014;HLF,,,liver,50015;Ishikawa,epithelial-like,,uterus,50018;Ishikawa (Heraklio) 02 ER-,epithelial,,uterus,50019;JHH-6,epithelial-like,,liver,50021;KMRC-20,epithelial-like,,kidney,50023;KYSE-140,,,esophagus,50024;KYSE-150,epitheloid,,esophagus,50025;KYSE-180,epitheloid,,esophagus,50026;KYSE-450,epitheloid,,esophagus,50027;LNZTA3WT4,,,brain,50028;MCF7,epithelial,,breast,50029;MDA-MB-435S,melanocyte,,skin,50030;MT-3,epithelial,,breast,50031;NCI-H1648,,,lung,50032;NCI-H1651,epithelial,,lung,50033;NCI-H1703,epithelial,,lung,50034;NCI-H1915,large cell,,lung,50035;NCI-H2023,,,lung,50036;NCI-H810,epithelial,,lung,50037;PE/CA-PJ15,epithelial-like,,head &amp; neck,50039;SJCRH30,fibroblast,,muscle,50041;SK-MES,epithelial,,lung,50043;SK-OV-3,epithelial,,ovary,50044;SW527,epithelial,,breast,50046;SW620,epithelial,,intestine,50047;T24,epithelial,,urinary bladder,50048;WiDr,epithelial,,intestine,50049;Hep 3B2.1-7,epithelial,,liver,50051;Hep G2,epithelial,,liver,50052;Huh7,,,liver,50055;SK-BR-3,epithelial,,breast,50057;MDA-MB-231,epithelial,,breast,50058;A-375,epithelial,,skin,50060;HeLa,epithelial,,cervix,50061;1205Lu,,,skin,50062;1321N1,,,brain,50063;143B,,,bone,50064;143B PML BK TK,,,bone,50065;1A6,,,urinary bladder,50066;22RV1,,,prostate,50067;23132/87,,,stomach,50068;42-MG-BA,,,brain,50069;639-V,,,ureter,50071;769-P,,,kidney,50072;786-O,,,kidney,50073;8305C,,,thyroid,50074;8505C,,,thyroid,50075;A172,,,brain,50076;A-204,,,muscle,50077;A2058,,,skin,50078;A2780,,,ovary,50079;A2780ADR,,,ovary,50080;A373-C6,,,skin,50081;A-427,,,lung,50082;A431,,,skin,50083;A549,,,lung,50084;A673,,,muscle,50085;ABC-1,,,lung,50086;ACHN,,,kidney,50087;AN3CA,,,uterus,50088;ASH-3,,,thyroid,50089;AsPC-1,,,pancreas,50090;AU565,,,breast,50091;AZ-521,,,stomach,50092;B-CPAP,,,thyroid,50093;BE(2)-C,,,nervous system,50094;BEN,,,lung,50095;BeWo,,,miscellaneous,50096;BFTC-905,,,urinary bladder,50097;BFTC-909,,,kidney,50098;BHT-101,,,thyroid,50099;BHY,,,head &amp; neck,50100;BICR 10,,,head &amp; neck,50101;BICR 22,,,head &amp; neck,50102;BICR 31,,,head &amp; neck,50103;BICR 78,,,head &amp; neck,50104;BT-20,,,breast,50105;BT-474,,,breast,50106;BT-483,,,breast,50107;BT-549,,,breast,50108;BxPC-3,,,pancreas,50109;C170,,,intestine,50110;C2BBe1,,,intestine,50111;C32,,,skin,50112;C-33 A,,,cervix,50113;C3A,,,liver,50114;C-4 I,,,cervix,50115;C-4 II,,,cervix,50116;Caco-2,,,intestine,50117;Caki-1,,,kidney,50118;CAL 27,,,head &amp; neck,50119;CAL-120,,,breast,50120;CAL-12T,,,lung,50121;CAL-148,,,breast,50122;CAL-29,,,urinary bladder,50123;CAL-33,,,head &amp; neck,50124;CAL-39,,,vulva,50125;CAL-54,,,kidney,50126;CAL-62,,,thyroid,50127;CAL-72,,,bone,50128;CAL-78,,,bone,50129;CAL-85-1,,,breast,50130;CAMA-1,,,breast,50131;Caov-3,,,ovary,50132;Caov-4,,,ovary,50133;Capan-1,,,pancreas,50134;Capan-2,,,pancreas,50135;CaR-1,,,intestine,50136;CCF-STTG1,,,brain,50137;CCK-81,,,intestine,50138;CHP-212,,,nervous system,50139;CL-40,,,intestine,50140;CoCM-1,,,intestine,50141;COLO 201,,,intestine,50142;COLO 205,,,intestine,50143;COLO 320DM,,,intestine,50144;COLO 741,,,intestine,50145;COLO 792,,,skin,50146;COLO 853,,,skin,50147;COLO 857,,,skin,50148;COLO 858,,,skin,50149;COLO-206F,,,intestine,50150;COLO-320,,,intestine,50151;COLO-678,,,intestine,50152;COLO-680N,,,esophagus,50153;COLO-783,,,skin,50154;COLO-818,,,skin,50155;COLO-824,,,breast,50156;COLO-849,,,skin,50157;COR-L 105,,,lung,50158;COR-L 23/CPR,,,lung,50159;COR-L23,,,lung,50160;DAN-G,,,pancreas,50161;Daoy,,,brain,50162;DBTRG-05MG,,,brain,50163;Detroit 562,,,head &amp; neck,50164;DK-MG,,,brain,50165;DLD-1,,,intestine,50166;DMS 273,,,lung,50167;DMS 53,,,lung,50168;DOK,,,head &amp; neck,50169;DoTc2 4510,,,cervix,50170;DU 145,,,prostate,50171;DV-90,,,lung,50172;EBC-1,,,lung,50173;EFE-184,,,uterus,50174;EFM-19,,,breast,50175;EFM-192A,,,breast,50176;EFM-192B,,,breast,50177;EFM-192C,,,breast,50178;EFO-21,,,ovary,50179;EFO-27,,,ovary,50180;EGI-1,,,biliary tract,50181;EJ138,,,urinary bladder,50182;EN,,,uterus,50183;EPLC-272H,,,lung,50184;ESS-1,,,uterus,50186;EVSA-T,,,breast,50187;FaDu,,,head &amp; neck,50188;FLYA13,,,miscellaneous,50189;FTC-133,,,thyroid,50190;FTC-238,,,thyroid,50191;FU-OV-1,,,ovary,50192;G-292 Clone A141B1,,,bone,50193;G-361,,,skin,50194;G-401,,,kidney,50195;G-402,,,kidney,50196;GAMG,,,brain,50197;GCT,,,miscellaneous,50198;GMS-10,,,brain,50199;GOS-3,,,brain,50200;GP5d,,,intestine,50201;H4,,,brain,50202;H69V,,,lung,50203;HARA,,,lung,50204;HCC1143,,,breast,50205;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC-15,,,lung,50209;HCC1569,,,breast,50210;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC202,,,breast,50214;HCC-366,,,lung,50215;HCC38,,,breast,50216;HCC-44,,,lung,50217;HCC-56,,,intestine,50218;HCC70,,,breast,50219;HCC-78,,,lung,50220;HCC-827,,,lung,50221;HCT 116,,,intestine,50222;HCT-15,,,intestine,50223;HCT-8,,,intestine,50224;HDQ-P1,,,breast,50225;H-EMC-SS,,,bone,50226;HGC-27,,,stomach,50227;HLE,,,liver,50228;HMVII,,,skin,50229;HN,,,head &amp; neck,50230;HO-1-N-1,,,head &amp; neck,50231;HO-1-u-1,,,head &amp; neck,50232;HOS,,,bone,50233;HPAC,,,pancreas,50234;HPAF-II,,,pancreas,50235;HRT-18,,,intestine,50236;Hs 257.T,,,intestine,50237;Hs 578T,,,breast,50238;Hs 588.T,,,cervix,50239;Hs 633T,,,miscellaneous,50240;Hs 683,,,brain,50241;Hs 746T,,,stomach,50242;Hs 766T,,,pancreas,50243;HSC-2,,,head &amp; neck,50244;HSC-3,,,head &amp; neck,50245;HSC-4,,,head &amp; neck,50246;HT 1080,,,miscellaneous,50247;HT 1376,,,urinary bladder,50248;HT115,,,intestine,50249;HT-1197,,,urinary bladder,50250;HT-29,,,intestine,50251;HT-3,,,cervix,50252;HT55,,,intestine,50253;HTC-C3,,,thyroid,50254;HuCCT1,,,biliary tract,50255;huH-1,,,liver,50256;HuO-3N1,,,bone,50257;HuO9,,,bone,50258;HuO9N2,,,bone,50259;HUP-T3,,,pancreas,50260;HUP-T4,,,pancreas,50261;IGR-1,,,skin,50262;IGR-37,,,skin,50263;IGR-39,,,skin,50264;IHH-4,,,thyroid,50265;IM-95,,,stomach,50266;IM-95m,,,stomach,50267;IPC-298,,,skin,50269;J82,,,urinary bladder,50270;JAR,,,miscellaneous,50271;JHH-1,,,liver,50272;JHH-2,,,liver,50273;JHH-4,,,liver,50274;JHH-7,,,liver,50275;JIMT-1,,,breast,50276;KELLY,,,nervous system,50277;KG-1-C,,,brain,50278;KHM-3S,,,lung,50279;KHOS/NP,,,bone,50280;KHOS-240S,,,bone,50281;KHOS-312H,,,bone,50282;KMH-2,,,thyroid,50283;KMRC-1,,,kidney,50284;KON,,,head &amp; neck,50285;KOSC-2 cl3-43,,,head &amp; neck,50286;KP-2,,,pancreas,50287;KP-3,,,pancreas,50288;KP-3L,,,pancreas,50289;KP-4,,,pancreas,50290;KPL-1,,,breast,50291;KU-19-19,,,urinary bladder,50292;KYSE-220,,,esophagus,50293;KYSE-270,,,esophagus,50294;KYSE-30,,,esophagus,50295;KYSE-410,,,esophagus,50296;KYSE-50,,,esophagus,50297;KYSE-510,,,esophagus,50298;KYSE-520,,,esophagus,50299;KYSE-70,,,esophagus,50300;LC-1 sq,,,lung,50301;LCLC-103H,,,lung,50302;LCLC-97TM1,,,lung,50303;LK-2,,,lung,50304;LN-18,,,brain,50305;LN-229,,,brain,50306;LN-405,,,brain,50307;LNZTA3WT11,,,brain,50308;LOU-NH91,,,lung,50309;LoVo,,,intestine,50310;LS174T,,,intestine,50311;LS180,,,intestine,50312;Lu-134-A-H,,,lung,50313;Lu-135,,,lung,50314;LU65A,,,lung,50316;LU65B,,,lung,50317;LU65C,,,lung,50318;LU99A,,,lung,50319;LU99B,,,lung,50320;LU99C,,,lung,50321;LUDLU-1,,,lung,50322;M059J,,,brain,50323;MB 157,,,breast,50324;MCAS,,,ovary,50325;MC-IXC,,,nervous system,50326;MDA-MB-157,,,breast,50328;MDA-MB-175-VII,,,breast,50329;MDA-MB-330,,,breast,50330;MDA-MB-361,,,breast,50331;MDA-MB-415,,,breast,50332;MDA-MB-436,,,breast,50333;MDA-MB-453,,,breast,50334;MDA-MB-468,,,breast,50335;MDST8,,,intestine,50336;ME-180,,,cervix,50337;MEL-HO,,,skin,50338;MEL-JUSO,,,skin,50339;MES-SA,,,uterus,50340;MES-SA/Dx-5,,,uterus,50341;MEWO,,,skin,50342;MFE-280,,,uterus,50343;MFE-296,,,uterus,50344;MFE-319,,,uterus,50345;MFM-223,,,breast,50346;MG-63,,,bone,50347;MHH-ES-1,,,nervous system,50348;MIA PaCa-2,,,pancreas,50349;MKN1,,,stomach,50350;MKN28,,,stomach,50351;MKN45,,,stomach,50352;MKN7,,,stomach,50353;MKN74,,,stomach,50354;ML-1,,,thyroid,50355;MOG-G-CCM,,,brain,50356;MOG-G-UVW,,,brain,50357;MS751,,,cervix,50358;MSTO-211H,,,pleura,50359;NB69,,,nervous system,50360;NCC-IT-A3,,,testes,50361;NCI-H1048,,,lung,50362;NCI-H1299,,,lung,50363;NCI-H1435,,,lung,50364;NCI-H1437,,,lung,50365;NCI-H1568,,,lung,50366;NCI-H1573,,,lung,50367;NCI-H1581,,,lung,50368;NCI-H1623,,,lung,50369;NCI-H1650,,,lung,50370;NCI-H1688,,,lung,50371;NCI-H1693,,,lung,50372;NCI-H1734,,,lung,50373;NCI-H1755,,,lung,50374;NCI-H1781,,,lung,50375;NCI-H1792,,,lung,50376;NCI-H1793,,,lung,50377;NCI-H1869,,,lung,50378;NCI-H1944,,,lung,50380;NCI-H196,,,lung,50381;NCI-H1993,,,lung,50382;NCI-H2009,,,lung,50383;NCI-H2029,,,lung,50384;NCI-H2030,,,lung,50385;NCI-H2073,,,lung,50386;NCI-H2085,,,lung,50387;NCI-H2087,,,lung,50388;NCI-H2110,,,lung,50389;NCI-H2122,,,lung,50390;NCI-H2135,,,lung,50391;NCI-H2170,,,lung,50392;NCI-H2172,,,lung,50393;NCI-H2195,,,lung,50394;NCI-H2196,,,lung,50395;NCI-H2228,,,lung,50397;NCI-H2286,,,lung,50398;NCI-H2291,,,lung,50399;NCI-H23,,,lung,50400;NCI-H2342,,,lung,50401;NCI-H2347,,,lung,50402;NCI-H2405,,,lung,50403;NCI-H2444,,,lung,50404;NCI-H2452,,,lung,50405;NCI-H322,,,lung,50407;NCI-H358,,,lung,50408;NCI-H441,,,lung,50409;NCI-H460,,,lung,50410;NCI-H520,,,lung,50411;NCI-H522,,,lung,50412;NCI-H596,,,lung,50413;NCI-H630,,,intestine,50414;NCI-H647,,,lung,50415;NCI-H650,,,lung,50416;NCI-H661,,,lung,50417;NCI-H727,,,lung,50418;NCI-H838,,,lung,50419;NCI-H841,,,lung,50420;NCI-N87,,,stomach,50421;NIH:OVCAR-3,,,ovary,50422;NUGC-2,,,stomach,50423;NUGC-3,,,stomach,50424;NUGC-4,,,stomach,50425;NY,,,bone,50426;OAW28,,,ovary,50427;OAW42,,,ovary,50428;OCUG-1,,,gall bladder,50429;OCUM-1,,,stomach,50430;OE19,,,esophagus,50431;OE21,,,esophagus,50432;OE33,,,esophagus,50433;OSC-19,,,head &amp; neck,50434;OSC-20,,,head &amp; neck,50435;OUMS-23,,,intestine,50436;OV-90,,,ovary,50437;OVISE,,,ovary,50438;OVKATE,,,ovary,50439;OVMIU,,,ovary,50440;OVSAYO,,,ovary,50441;OVTOKO,,,ovary,50442;PA-1,,,ovary,50443;Panc 02.03,,,pancreas,50444;Panc 03.27,,,pancreas,50445;Panc 04.03,,,pancreas,50446;Panc 08.13,,,pancreas,50447;Panc 10.05,,,pancreas,50448;PANC-1,,,pancreas,50449;PA-TU-8902,,,pancreas,50450;PA-TU-8988S,,,pancreas,50451;PA-TU-8988T,,,pancreas,50452;PC-14,,,lung,50453;PC-3,,,prostate,50454;PFSK-1,,,brain,50455;PL45,,,pancreas,50456;PLC/PRF/5,,,liver,50457;QGP-1,,,pancreas,50458;RCM-1,,,intestine,50459;RD,,,muscle,50460;RERF-GC-1B,,,stomach,50462;RERF-LC-Ad1,,,lung,50463;RERF-LC-KJ,,,lung,50464;RERF-LC-MA,,,lung,50465;RERF-LC-Sq1,,,lung,50466;RKN,,,ovary,50467;RMG-I,,,ovary,50468;RO82-W-1,,,thyroid,50469;RPMI 2650,,,head &amp; neck,50470;RPMI-7951,,,skin,50471;RT-112,,,urinary bladder,50472;RT112/84,,,urinary bladder,50473;RT4,,,urinary bladder,50474;RVH-421,,,skin,50475;S-117,,,thyroid,50476;Saos-2,,,bone,50477;SAS,,,head &amp; neck,50478;SAT,,,head &amp; neck,50479;SBC-3,,,lung,50480;SBC-5,,,lung,50481;SCaBER,,,urinary bladder,50482;SCC-25,,,head &amp; neck,50484;SCC-4,,,head &amp; neck,50485;SCC-9,,,head &amp; neck,50486;SCCH-196,,,miscellaneous,50487;SCCH-26,,,nervous system,50488;SCH,,,stomach,50489;SCLC-21H,,,lung,50490;SHP-77,,,lung,50491;SH-SY5Y,,,nervous system,50492;SiHa,,,cervix,50493;SISO,,,cervix,50494;SK-CO-1,,,intestine,50495;SK-ES-1,,,bone,50496;SKG-IIIa,,,cervix,50497;SKG-IIIb,,,cervix,50498;SK-HEP-1,,,liver,50499;SK-LU-1,,,lung,50500;SK-MEL-2,,,skin,50501;SK-MEL-30,,,skin,50502;SKN,,,uterus,50503;SKN-3,,,head &amp; neck,50504;SK-N-AS,,,nervous system,50505;SK-N-DZ,,,nervous system,50506;SK-NEP-1,,,kidney,50507;SK-N-SH,,,nervous system,50508;SNG-M,,,uterus,50509;SNU-1,,,stomach,50510;SNU-16,,,stomach,50511;SNU-182,,,liver,50512;SNU-387,,,liver,50513;SNU-398,,,liver,50514;SNU-423,,,liver,50515;SNU-449,,,liver,50516;SNU-475,,,liver,50517;SNU-5,,,stomach,50518;STC 1,,,lung,50519;SU.86.86,,,pancreas,50520;SUIT-2,,,pancreas,50521;SW 1088,,,brain,50522;SW 1116,,,intestine,50523;SW 1271,,,lung,50524;SW 13,,,adrenal gland,50525;SW 1417,,,intestine,50526;SW 1463,,,intestine,50527;SW 156,,,kidney,50528;SW 1573,,,lung,50529;SW 1783,,,brain,50530;SW 48,,,intestine,50531;SW 626,,,ovary,50532;SW 780,,,urinary bladder,50533;SW 900,,,lung,50534;SW-1710,,,urinary bladder,50535;SW756,,,cervix,50536;SW837,,,intestine,50537;SW-948,,,intestine,50538;T.T,,,esophagus,50539;T.Tn,,,esophagus,50540;T47D,,,breast,50541;T84,,,intestine,50542;T98G,,,brain,50543;TASK1,,,nervous system,50544;TCCSUP,,,urinary bladder,50545;TGW,,,adrenal gland,50546;TOV-112D,,,ovary,50547;TOV-21G,,,ovary,50548;TT2609-C02,,,thyroid,50549;TYK-nu,,,ovary,50550;U-118 MG,,,brain,50551;U-138 MG,,,brain,50552;U-2 OS,,,bone,50553;U-251 MG,,,brain,50554;U373 MG,,,brain,50555;UACC-812,,,breast,50556;UACC-893,,,breast,50557;UMC-11,,,lung,50558;UM-UC-3,,,urinary bladder,50559;VCaP,,,prostate,50560;VM-CUB1,,,urinary bladder,50561;VMRC-LCP,,,lung,50562;VMRC-MELG,,,skin,50563;VMRC-RCW,,,kidney,50564;VMRC-RCZ,,,kidney,50565;WM 266-4,,,skin,50566;WM-115,,,skin,50567;WM1552C,,,skin,50568;WM278,,,skin,50569;WM35,,,skin,50570;WM793B,,,skin,50571;YAPC,,,pancreas,50572;YKG-1,,,brain,50573;ZR-75-1,,,breast,50574;ZR-75-30,,,breast,50575;LU65,,,lung,50315;RD-ES,,,nervous system,50461;SCC-15,,,head &amp; neck,50483;ES-2,,,ovary,50185;IMR-32,,,nervous system,50268;MDA-MB-134-VI,,,breast,50327;NCI-H1876,,,lung,50379;NCI-H2198,,,lung,50396</t>
+  </si>
+  <si>
+    <t>559\cell lines</t>
+  </si>
+  <si>
+    <t>Neratinib,small molecule,10018-101,LSM-1018;Taxol,small molecule,10102-101,LSM-1102;PHA-665752,small molecule,10125-101,LSM-1125;Sunitinib,small molecule,10175-101,LSM-1176;Y-27632,small molecule,10176-101,LSM-1177;BMS-536924, KIN001-126,small molecule,10209-101,LSM-1210;Go 6976,small molecule,10210-101,LSM-1211;Go-6983,small molecule,10211-101,LSM-1212;KIN001-021/CGP082996,small molecule,10212-101,LSM-1213;KIN001-111/A770041,small molecule,10213-101,LSM-1214;KIN001-123/WZ-1-84,small molecule,10214-101,LSM-1215;KIN001-135,small molecule,10215-101,LSM-1216;KN-93,small molecule,10216-101,LSM-1217;S-Trityl-L-cysteine,small molecule,10217-101,LSM-1218;SU6656,small molecule,10218-101,LSM-1219;U-0126,small molecule,10219-101,LSM-1220</t>
+  </si>
+  <si>
+    <t>false\small molecules,16</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20007/</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 8 uM to 0.03125 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>5637.0,epithelial,,urinary bladder,50001;647-V,epithelial-like,,urinary bladder,50002;A375.S2,epithelial,,skin,50003;AGS,epithelial,,stomach,50004;BPH-1,epitheloid,,prostate,50005;Ca Ski,epithelial,,cervix,50006;Ca9-22,epithelial-like,,head &amp; neck,50007;CAL-51,epithelial-like,,breast,50008;Calu-1,epithelial,,lung,50009;Calu-3,epithelial,,lung,50010;COLO-679,fibroblastic,,skin,50011;COLO-800,epithelial-like,,skin,50012;FU97,epithelial-like,,stomach,50013;HEC-1,,,uterus,50014;HLF,,,liver,50015;HUTU-80,epithelial,,intestine,50016;IA-LM,,,lung,50017;Ishikawa,epithelial-like,,uterus,50018;Ishikawa (Heraklio) 02 ER-,epithelial,,uterus,50019;IST-MEL1,epithelial-like,,skin,50020;JHH-6,epithelial-like,,liver,50021;KMRC-20,epithelial-like,,kidney,50023;KYSE-140,,,esophagus,50024;KYSE-150,epitheloid,,esophagus,50025;KYSE-180,epitheloid,,esophagus,50026;KYSE-450,epitheloid,,esophagus,50027;LNZTA3WT4,,,brain,50028;MCF7,epithelial,,breast,50029;MDA-MB-435S,melanocyte,,skin,50030;MT-3,epithelial,,breast,50031;NCI-H1648,,,lung,50032;NCI-H1651,epithelial,,lung,50033;NCI-H1703,epithelial,,lung,50034;NCI-H1915,large cell,,lung,50035;NCI-H2023,,,lung,50036;NCI-H810,epithelial,,lung,50037;PE/CA-PJ15,epithelial-like,,head &amp; neck,50039;SJCRH30,fibroblast,,muscle,50041;SK-LMS-1,,,uterus,50042;SK-MES,epithelial,,lung,50043;SK-OV-3,epithelial,,ovary,50044;SNB75,,,brain,50045;SW527,epithelial,,breast,50046;SW620,epithelial,,intestine,50047;T24,epithelial,,urinary bladder,50048;WiDr,epithelial,,intestine,50049;Hep 3B2.1-7,epithelial,,liver,50051;Hep G2,epithelial,,liver,50052;Huh7,,,liver,50055;SK-BR-3,epithelial,,breast,50057;MDA-MB-231,epithelial,,breast,50058;LNCaP,epithelial,,prostate,50059;A-375,epithelial,,skin,50060;HeLa,epithelial,,cervix,50061;1205Lu,,,skin,50062;1321N1,,,brain,50063;143B,,,bone,50064;143B PML BK TK,,,bone,50065;1A6,,,urinary bladder,50066;22RV1,,,prostate,50067;23132/87,,,stomach,50068;42-MG-BA,,,brain,50069;639-V,,,ureter,50071;769-P,,,kidney,50072;786-O,,,kidney,50073;8305C,,,thyroid,50074;8505C,,,thyroid,50075;A172,,,brain,50076;A-204,,,muscle,50077;A2058,,,skin,50078;A2780,,,ovary,50079;A2780ADR,,,ovary,50080;A373-C6,,,skin,50081;A-427,,,lung,50082;A431,,,skin,50083;A549,,,lung,50084;A673,,,muscle,50085;ABC-1,,,lung,50086;ACHN,,,kidney,50087;AN3CA,,,uterus,50088;ASH-3,,,thyroid,50089;AsPC-1,,,pancreas,50090;AU565,,,breast,50091;AZ-521,,,stomach,50092;B-CPAP,,,thyroid,50093;BE(2)-C,,,nervous system,50094;BEN,,,lung,50095;BeWo,,,miscellaneous,50096;BFTC-905,,,urinary bladder,50097;BFTC-909,,,kidney,50098;BHT-101,,,thyroid,50099;BHY,,,head &amp; neck,50100;BICR 10,,,head &amp; neck,50101;BICR 22,,,head &amp; neck,50102;BICR 31,,,head &amp; neck,50103;BICR 78,,,head &amp; neck,50104;BT-20,,,breast,50105;BT-474,,,breast,50106;BT-483,,,breast,50107;BT-549,,,breast,50108;BxPC-3,,,pancreas,50109;C170,,,intestine,50110;C2BBe1,,,intestine,50111;C32,,,skin,50112;C-33 A,,,cervix,50113;C3A,,,liver,50114;C-4 I,,,cervix,50115;C-4 II,,,cervix,50116;Caco-2,,,intestine,50117;Caki-1,,,kidney,50118;CAL 27,,,head &amp; neck,50119;CAL-120,,,breast,50120;CAL-12T,,,lung,50121;CAL-148,,,breast,50122;CAL-29,,,urinary bladder,50123;CAL-33,,,head &amp; neck,50124;CAL-39,,,vulva,50125;CAL-54,,,kidney,50126;CAL-62,,,thyroid,50127;CAL-72,,,bone,50128;CAL-78,,,bone,50129;CAL-85-1,,,breast,50130;CAMA-1,,,breast,50131;Caov-3,,,ovary,50132;Caov-4,,,ovary,50133;Capan-1,,,pancreas,50134;Capan-2,,,pancreas,50135;CaR-1,,,intestine,50136;CCF-STTG1,,,brain,50137;CCK-81,,,intestine,50138;CHP-212,,,nervous system,50139;CoCM-1,,,intestine,50141;COLO 201,,,intestine,50142;COLO 205,,,intestine,50143;COLO 320DM,,,intestine,50144;COLO 741,,,intestine,50145;COLO 792,,,skin,50146;COLO 853,,,skin,50147;COLO 857,,,skin,50148;COLO 858,,,skin,50149;COLO-206F,,,intestine,50150;COLO-320,,,intestine,50151;COLO-678,,,intestine,50152;COLO-680N,,,esophagus,50153;COLO-783,,,skin,50154;COLO-824,,,breast,50156;COLO-849,,,skin,50157;COR-L 105,,,lung,50158;COR-L 23/CPR,,,lung,50159;COR-L23,,,lung,50160;DAN-G,,,pancreas,50161;Daoy,,,brain,50162;DBTRG-05MG,,,brain,50163;Detroit 562,,,head &amp; neck,50164;DK-MG,,,brain,50165;DLD-1,,,intestine,50166;DMS 273,,,lung,50167;DMS 53,,,lung,50168;DOK,,,head &amp; neck,50169;DoTc2 4510,,,cervix,50170;DU 145,,,prostate,50171;DV-90,,,lung,50172;EBC-1,,,lung,50173;EFE-184,,,uterus,50174;EFM-19,,,breast,50175;EFM-192A,,,breast,50176;EFM-192B,,,breast,50177;EFM-192C,,,breast,50178;EFO-21,,,ovary,50179;EFO-27,,,ovary,50180;EGI-1,,,biliary tract,50181;EJ138,,,urinary bladder,50182;EN,,,uterus,50183;EPLC-272H,,,lung,50184;ES-2,,,ovary,50185;ESS-1,,,uterus,50186;EVSA-T,,,breast,50187;FaDu,,,head &amp; neck,50188;FLYA13,,,miscellaneous,50189;FTC-133,,,thyroid,50190;FTC-238,,,thyroid,50191;FU-OV-1,,,ovary,50192;G-292 Clone A141B1,,,bone,50193;G-361,,,skin,50194;G-401,,,kidney,50195;G-402,,,kidney,50196;GAMG,,,brain,50197;GCT,,,miscellaneous,50198;GMS-10,,,brain,50199;GOS-3,,,brain,50200;GP5d,,,intestine,50201;H4,,,brain,50202;HARA,,,lung,50204;HCC1143,,,breast,50205;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC-15,,,lung,50209;HCC1569,,,breast,50210;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC202,,,breast,50214;HCC-366,,,lung,50215;HCC38,,,breast,50216;HCC-44,,,lung,50217;HCC-56,,,intestine,50218;HCC70,,,breast,50219;HCC-78,,,lung,50220;HCC-827,,,lung,50221;HCT 116,,,intestine,50222;HCT-15,,,intestine,50223;HCT-8,,,intestine,50224;HDQ-P1,,,breast,50225;H-EMC-SS,,,bone,50226;HGC-27,,,stomach,50227;HLE,,,liver,50228;HMVII,,,skin,50229;HN,,,head &amp; neck,50230;HO-1-N-1,,,head &amp; neck,50231;HO-1-u-1,,,head &amp; neck,50232;HOS,,,bone,50233;HPAC,,,pancreas,50234;HPAF-II,,,pancreas,50235;HRT-18,,,intestine,50236;Hs 257.T,,,intestine,50237;Hs 578T,,,breast,50238;Hs 588.T,,,cervix,50239;Hs 633T,,,miscellaneous,50240;Hs 683,,,brain,50241;Hs 766T,,,pancreas,50243;HSC-2,,,head &amp; neck,50244;HSC-3,,,head &amp; neck,50245;HSC-4,,,head &amp; neck,50246;HT 1080,,,miscellaneous,50247;HT 1376,,,urinary bladder,50248;HT115,,,intestine,50249;HT-1197,,,urinary bladder,50250;HT-29,,,intestine,50251;HT-3,,,cervix,50252;HT55,,,intestine,50253;HTC-C3,,,thyroid,50254;HuCCT1,,,biliary tract,50255;huH-1,,,liver,50256;HuO-3N1,,,bone,50257;HuO9,,,bone,50258;HuO9N2,,,bone,50259;HUP-T3,,,pancreas,50260;HUP-T4,,,pancreas,50261;IGR-1,,,skin,50262;IGR-37,,,skin,50263;IGR-39,,,skin,50264;IHH-4,,,thyroid,50265;IM-95,,,stomach,50266;IM-95m,,,stomach,50267;IMR-32,,,nervous system,50268;IPC-298,,,skin,50269;J82,,,urinary bladder,50270;JAR,,,miscellaneous,50271;JHH-1,,,liver,50272;JHH-2,,,liver,50273;JHH-4,,,liver,50274;JHH-7,,,liver,50275;JIMT-1,,,breast,50276;KELLY,,,nervous system,50277;KG-1-C,,,brain,50278;KHOS/NP,,,bone,50280;KHOS-240S,,,bone,50281;KHOS-312H,,,bone,50282;KMH-2,,,thyroid,50283;KMRC-1,,,kidney,50284;KON,,,head &amp; neck,50285;KOSC-2 cl3-43,,,head &amp; neck,50286;KP-2,,,pancreas,50287;KP-3,,,pancreas,50288;KP-3L,,,pancreas,50289;KP-4,,,pancreas,50290;KPL-1,,,breast,50291;KU-19-19,,,urinary bladder,50292;KYSE-220,,,esophagus,50293;KYSE-270,,,esophagus,50294;KYSE-30,,,esophagus,50295;KYSE-410,,,esophagus,50296;KYSE-50,,,esophagus,50297;KYSE-510,,,esophagus,50298;KYSE-520,,,esophagus,50299;KYSE-70,,,esophagus,50300;LC-1 sq,,,lung,50301;LCLC-103H,,,lung,50302;LCLC-97TM1,,,lung,50303;LK-2,,,lung,50304;LN-18,,,brain,50305;LN-229,,,brain,50306;LN-405,,,brain,50307;LNZTA3WT11,,,brain,50308;LOU-NH91,,,lung,50309;LoVo,,,intestine,50310;LS174T,,,intestine,50311;LS180,,,intestine,50312;Lu-135,,,lung,50314;LU65,,,lung,50315;LU65A,,,lung,50316;LU65B,,,lung,50317;LU65C,,,lung,50318;LU99A,,,lung,50319;LU99B,,,lung,50320;LU99C,,,lung,50321;LUDLU-1,,,lung,50322;M059J,,,brain,50323;MB 157,,,breast,50324;MCAS,,,ovary,50325;MC-IXC,,,nervous system,50326;MDA-MB-134-VI,,,breast,50327;MDA-MB-157,,,breast,50328;MDA-MB-175-VII,,,breast,50329;MDA-MB-330,,,breast,50330;MDA-MB-361,,,breast,50331;MDA-MB-415,,,breast,50332;MDA-MB-436,,,breast,50333;MDA-MB-453,,,breast,50334;MDA-MB-468,,,breast,50335;MDST8,,,intestine,50336;ME-180,,,cervix,50337;MEL-HO,,,skin,50338;MEL-JUSO,,,skin,50339;MES-SA,,,uterus,50340;MES-SA/Dx-5,,,uterus,50341;MEWO,,,skin,50342;MFE-280,,,uterus,50343;MFE-296,,,uterus,50344;MFE-319,,,uterus,50345;MFM-223,,,breast,50346;MG-63,,,bone,50347;MHH-ES-1,,,nervous system,50348;MIA PaCa-2,,,pancreas,50349;MKN1,,,stomach,50350;MKN28,,,stomach,50351;MKN45,,,stomach,50352;MKN7,,,stomach,50353;MKN74,,,stomach,50354;ML-1,,,thyroid,50355;MOG-G-CCM,,,brain,50356;MOG-G-UVW,,,brain,50357;MS751,,,cervix,50358;MSTO-211H,,,pleura,50359;NB69,,,nervous system,50360;NCC-IT-A3,,,testes,50361;NCI-H1048,,,lung,50362;NCI-H1299,,,lung,50363;NCI-H1435,,,lung,50364;NCI-H1437,,,lung,50365;NCI-H1568,,,lung,50366;NCI-H1573,,,lung,50367;NCI-H1581,,,lung,50368;NCI-H1623,,,lung,50369;NCI-H1650,,,lung,50370;NCI-H1688,,,lung,50371;NCI-H1693,,,lung,50372;NCI-H1734,,,lung,50373;NCI-H1755,,,lung,50374;NCI-H1781,,,lung,50375;NCI-H1792,,,lung,50376;NCI-H1793,,,lung,50377;NCI-H1869,,,lung,50378;NCI-H1876,,,lung,50379;NCI-H1944,,,lung,50380;NCI-H196,,,lung,50381;NCI-H1993,,,lung,50382;NCI-H2009,,,lung,50383;NCI-H2029,,,lung,50384;NCI-H2030,,,lung,50385;NCI-H2073,,,lung,50386;NCI-H2085,,,lung,50387;NCI-H2087,,,lung,50388;NCI-H2110,,,lung,50389;NCI-H2122,,,lung,50390;NCI-H2135,,,lung,50391;NCI-H2170,,,lung,50392;NCI-H2172,,,lung,50393;NCI-H2195,,,lung,50394;NCI-H2196,,,lung,50395;NCI-H2198,,,lung,50396;NCI-H2228,,,lung,50397;NCI-H2286,,,lung,50398;NCI-H2291,,,lung,50399;NCI-H23,,,lung,50400;NCI-H2342,,,lung,50401;NCI-H2347,,,lung,50402;NCI-H2405,,,lung,50403;NCI-H2444,,,lung,50404;NCI-H2452,,,lung,50405;NCI-H322,,,lung,50407;NCI-H358,,,lung,50408;NCI-H441,,,lung,50409;NCI-H460,,,lung,50410;NCI-H520,,,lung,50411;NCI-H522,,,lung,50412;NCI-H596,,,lung,50413;NCI-H647,,,lung,50415;NCI-H650,,,lung,50416;NCI-H661,,,lung,50417;NCI-H727,,,lung,50418;NCI-H838,,,lung,50419;NCI-H841,,,lung,50420;NCI-N87,,,stomach,50421;NIH:OVCAR-3,,,ovary,50422;NUGC-3,,,stomach,50424;NUGC-4,,,stomach,50425;NY,,,bone,50426;OAW28,,,ovary,50427;OAW42,,,ovary,50428;OCUG-1,,,gall bladder,50429;OCUM-1,,,stomach,50430;OE19,,,esophagus,50431;OE21,,,esophagus,50432;OE33,,,esophagus,50433;OSC-19,,,head &amp; neck,50434;OSC-20,,,head &amp; neck,50435;OUMS-23,,,intestine,50436;OV-90,,,ovary,50437;OVISE,,,ovary,50438;OVKATE,,,ovary,50439;OVMIU,,,ovary,50440;OVSAYO,,,ovary,50441;OVTOKO,,,ovary,50442;PA-1,,,ovary,50443;Panc 02.03,,,pancreas,50444;Panc 03.27,,,pancreas,50445;Panc 04.03,,,pancreas,50446;Panc 08.13,,,pancreas,50447;Panc 10.05,,,pancreas,50448;PANC-1,,,pancreas,50449;PA-TU-8902,,,pancreas,50450;PA-TU-8988S,,,pancreas,50451;PA-TU-8988T,,,pancreas,50452;PC-14,,,lung,50453;PC-3,,,prostate,50454;PFSK-1,,,brain,50455;PL45,,,pancreas,50456;PLC/PRF/5,,,liver,50457;RCM-1,,,intestine,50459;RD,,,muscle,50460;RD-ES,,,nervous system,50461;RERF-GC-1B,,,stomach,50462;RERF-LC-Ad1,,,lung,50463;RERF-LC-KJ,,,lung,50464;RERF-LC-MA,,,lung,50465;RERF-LC-Sq1,,,lung,50466;RKN,,,ovary,50467;RMG-I,,,ovary,50468;RO82-W-1,,,thyroid,50469;RPMI 2650,,,head &amp; neck,50470;RPMI-7951,,,skin,50471;RT-112,,,urinary bladder,50472;RT112/84,,,urinary bladder,50473;RT4,,,urinary bladder,50474;RVH-421,,,skin,50475;S-117,,,thyroid,50476;Saos-2,,,bone,50477;SAS,,,head &amp; neck,50478;SAT,,,head &amp; neck,50479;SBC-3,,,lung,50480;SBC-5,,,lung,50481;SCaBER,,,urinary bladder,50482;SCC-15,,,head &amp; neck,50483;SCC-25,,,head &amp; neck,50484;SCC-4,,,head &amp; neck,50485;SCC-9,,,head &amp; neck,50486;SCCH-26,,,nervous system,50488;SCH,,,stomach,50489;SCLC-21H,,,lung,50490;SHP-77,,,lung,50491;SiHa,,,cervix,50493;SISO,,,cervix,50494;SK-CO-1,,,intestine,50495;SK-ES-1,,,bone,50496;SKG-IIIa,,,cervix,50497;SKG-IIIb,,,cervix,50498;SK-HEP-1,,,liver,50499;SK-LU-1,,,lung,50500;SK-MEL-2,,,skin,50501;SK-MEL-30,,,skin,50502;SKN,,,uterus,50503;SKN-3,,,head &amp; neck,50504;SK-N-AS,,,nervous system,50505;SK-N-DZ,,,nervous system,50506;SK-NEP-1,,,kidney,50507;SK-N-SH,,,nervous system,50508;SNG-M,,,uterus,50509;SNU-1,,,stomach,50510;SNU-16,,,stomach,50511;SNU-182,,,liver,50512;SNU-387,,,liver,50513;SNU-398,,,liver,50514;SNU-423,,,liver,50515;SNU-449,,,liver,50516;SNU-475,,,liver,50517;SNU-5,,,stomach,50518;SU.86.86,,,pancreas,50520;SUIT-2,,,pancreas,50521;SW 1088,,,brain,50522;SW 1271,,,lung,50524;SW 13,,,adrenal gland,50525;SW 1417,,,intestine,50526;SW 1463,,,intestine,50527;SW 156,,,kidney,50528;SW 1573,,,lung,50529;SW 1783,,,brain,50530;SW 48,,,intestine,50531;SW 626,,,ovary,50532;SW 780,,,urinary bladder,50533;SW 900,,,lung,50534;SW-1710,,,urinary bladder,50535;SW756,,,cervix,50536;SW837,,,intestine,50537;SW-948,,,intestine,50538;T.T,,,esophagus,50539;T.Tn,,,esophagus,50540;T47D,,,breast,50541;T84,,,intestine,50542;T98G,,,brain,50543;TASK1,,,nervous system,50544;TCCSUP,,,urinary bladder,50545;TGW,,,adrenal gland,50546;TOV-112D,,,ovary,50547;TOV-21G,,,ovary,50548;TT2609-C02,,,thyroid,50549;TYK-nu,,,ovary,50550;U-118 MG,,,brain,50551;U-138 MG,,,brain,50552;U-2 OS,,,bone,50553;U-251 MG,,,brain,50554;U373 MG,,,brain,50555;UACC-812,,,breast,50556;UACC-893,,,breast,50557;UMC-11,,,lung,50558;UM-UC-3,,,urinary bladder,50559;VCaP,,,prostate,50560;VM-CUB1,,,urinary bladder,50561;VMRC-LCP,,,lung,50562;VMRC-MELG,,,skin,50563;VMRC-RCW,,,kidney,50564;VMRC-RCZ,,,kidney,50565;WM 266-4,,,skin,50566;WM-115,,,skin,50567;WM1552C,,,skin,50568;WM278,,,skin,50569;WM35,,,skin,50570;WM793B,,,skin,50571;YAPC,,,pancreas,50572;YKG-1,,,brain,50573;ZR-75-1,,,breast,50574;ZR-75-30,,,breast,50575;DU4475,epithelial,,breast,50577;HCC1187,epithelial,,breast,50578;HCC1500,epithelial,,breast,50579;HCC1599,epithelial,,breast,50580;HCC2157,epithelial,,breast,50581;HCC2218,epithelial,,breast,50582;2B8,,,lymphatic system,50585;A2780cis,,,ovary,50586;A3,,,blood,50587;A3/KAW,,,lymphatic system,50588;AGR-ON,,,blood,50589;ALL-SIL,,,blood,50590;AMO-1,,,lymphatic system,50591;ARH-77,,,blood,50592;BALL-1,,,blood,50593;BC-1,,,lymphatic system,50594;BC-2,,,lymphatic system,50595;BC-3,,,lymphatic system,50596;BDCM,,,blood,50597;BE(2)-M17,,,nervous system,50598;BL-41,,,lymphatic system,50599;BL-70,,,lymphatic system,50600;C8166,,,blood,50601;CA46,,,lymphatic system,50602;CCRF-CEM,,,blood,50603;CCRF-HSB-2,,,blood,50604;CCRF-SB,,,blood,50605;CEM/C1,,,blood,50606;CEM/C2,,,blood,50607;CESS,,,blood,50608;CFPAC-1,,,pancreas,50609;ChaGo-K-1,,,lung,50610;CHP-126,,,nervous system,50611;CI-1,,,lymphatic system,50612;CL-11,,,intestine,50613;Clone 15 HL-60,,,blood,50614;CMK,,,blood,50615;COLO 684,,,uterus,50616;COLO-704,,,ovary,50617;COR-L279,,,lung,50618;COR-L51,,,lung,50619;COR-L88,,,lung,50620;COR-L95,,,lung,50621;CPC-N,,,lung,50622;CTV-1,,,blood,50623;D283 Med,,,brain,50624;Daudi,,,lymphatic system,50625;DB,,,lymphatic system,50626;DERL-2,,,lymphatic system,50627;DG-75,,,lymphatic system,50628;DMS 114,,,lung,50629;DMS 153,,,lung,50630;DMS 79,,,lung,50631;DND-41,,,blood,50632;EB1,,,lymphatic system,50633;EB2,,,lymphatic system,50634;EB-3,,,lymphatic system,50635;EHEB,,,blood,50636;EJM,,,blood,50637;Eos-HL-60,,,blood,50638;Farage,,,lymphatic system,50639;GA-10 (Clone 20),,,lymphatic system,50641;GDM-1,,,blood,50642;GOTO,,,nervous system,50643;Gp2D,,,intestine,50644;GRANTA-519,,,lymphatic system,50645;H33HJ-JA1,,,blood,50646;HC-1,,,blood,50647;HCC-33,,,lung,50648;HDLM-2,,,lymphatic system,50649;HD-MY-Z,,,lymphatic system,50650;HEL,,,blood,50651;HEL 92.1.7,,,blood,50652;HH,,,lymphatic system,50653;HL-60,,,blood,50654;HL60(S),,,blood,50655;HL-60/MX2,,,blood,50656;HL60RG,,,blood,50657;Hs 445,,,lymphatic system,50658;HS-Sultan,,,lymphatic system,50659;HT,,,lymphatic system,50660;HuT 78,,,lymphatic system,50661;I 2.1,,,blood,50662;I 9.2,,,blood,50663;IM-9,,,lymphatic system,50664;J.gamma1,,,blood,50665;J.gamma1.WT,,,blood,50666;J.RT3-T3.5,,,blood,50667;J45.01,,,blood,50668;Jiyoye,,,lymphatic system,50669;JJN-3,,,blood,50670;JKT-beta-del,,,blood,50671;JM1,,,lymphatic system,50672;JSC-1,,,lymphatic system,50673;Jurkat, Clone E6-1,,,blood,50674;JURL-MK1,,,blood,50675;JURL-MK2,,,blood,50676;K-562,,,blood,50677;K562/ADM,,,blood,50678;KARPAS-231,,,blood,50679;KARPAS-299,,,lymphatic system,50680;KARPAS-422,,,lymphatic system,50681;KARPAS-45,,,blood,50682;KARPAS-620,,,blood,50683;KCL-22,,,blood,50685;KE-37,,,blood,50686;KG-1,,,blood,50687;KG-1a,,,blood,50688;KM-H2,,,lymphatic system,50689;KMOE-2,,,blood,50690;KMS-12-BM,,,blood,50691;KMS-12-PE,,,blood,50692;KO52,,,blood,50693;KOPN-8,,,blood,50694;KP-1N,,,pancreas,50695;KP-1NL,,,pancreas,50696;KU812,,,blood,50697;KU812E,,,blood,50698;KU812F,,,blood,50699;KY821,,,blood,50700;KY821A3,,,blood,50701;KYM-1,,,muscle,50702;L-1236,,,lymphatic system,50703;L-363,,,blood,50704;L-428,,,lymphatic system,50705;L-540,,,lymphatic system,50706;LAMA-84,,,blood,50707;LC4-1,,,blood,50708;Loucy,,,blood,50709;LP-1,,,blood,50710;Lu-134-B,,,lung,50711;M059K,,,brain,50712;MC/CAR,,,lymphatic system,50713;MC116,,,lymphatic system,50714;ME-1,,,blood,50715;MEC-1,,,blood,50716;MEC-2,,,blood,50717;MEG-01,,,blood,50718;MHH-NB-11,,,nervous system,50719;MHH-PREB-1,,,lymphatic system,50720;MJ,,,lymphatic system,50721;ML-2,,,blood,50722;MLMA,,,blood,50723;MOLM-13,,,blood,50724;MOLP-8,,,blood,50725;MOLT-14,,,blood,50726;MOLT-16,,,blood,50727;MOLT-4,,,blood,50728;MOLT-4F,,,blood,50729;MONO-MAC-1,,,blood,50730;MONO-MAC-6,,,blood,50731;MRK-nu-1,,,breast,50732;MS-1-L,,,lung,50733;MV-4-11,,,blood,50734;MY,,,blood,50735;MY-M12,,,blood,50736;MY-M13,,,blood,50737;NALM-19,,,blood,50738;NALM-6,,,blood,50739;NAMALWA,,,lymphatic system,50740;NAMALWA.PNT,,,lymphatic system,50741;NB(TU)1-10,,,nervous system,50742;NB-1,,,nervous system,50743;NB-4,,,blood,50744;NC-37,,,lymphatic system,50745;NCI-H1092,,,lung,50746;NCI-H1155,,,lung,50747;NCI-H1304,,,lung,50748;NCI-H1385,,,lung,50749;NCI-H1395,,,lung,50750;NCI-H1404,,,lung,50751;NCI-H1417,,,lung,50752;NCI-H1436,,,lung,50753;NCI-H1522,,,lung,50754;NCI-H1563,,,lung,50755;NCI-H1618,,,lung,50756;NCI-H1666,,,lung,50757;NCI-H1694,,,lung,50758;NCI-H1770,,,lung,50759;NCI-H1836,,,lung,50760;NCI-H1838,,,lung,50761;NCI-H187,,,lung,50762;NCI-H1882,,,lung,50763;NCI-H1963,,,lung,50764;NCI-H1975,,,lung,50765;NCI-H2081,,,lung,50766;NCI-H209,,,lung,50767;NCI-H2106,,,lung,50768;NCI-H211,,,lung,50769;NCI-H2141,,,lung,50770;NCI-H2171,,,lung,50771;NCI-H220,,,lung,50772;NCI-H2227,,,lung,50773;NCI-H226,,,lung,50774;NCI-H345,,,lung,50775;NCI-H446,,,lung,50776;NCI-H510A,,,lung,50777;NCI-H524,,,lung,50778;NCI-H526,,,lung,50779;NCI-H69,,,lung,50780;NCI-H719,,,lung,50781;NCI-H720,,,lung,50782;NCI-H748,,,lung,50783;NCI-H82,,,lung,50784;NCI-H847,,,lung,50785;NCI-H889,,,lung,50786;NEC8,,,testes,50787;NH-12,,,nervous system,50788;NK-92MI,,,lymphatic system,50789;NOMO-1/ADM,,,blood,50790;NU-DUL-1,,,lymphatic system,50791;OCI-AML2,,,blood,50792;OCI-AML3,,,blood,50793;OCI-AML5,,,blood,50794;OCI-LY-19,,,lymphatic system,50795;OCI-M1,,,blood,50796;OPM-2,,,blood,50797;P116.cl39,,,blood,50798;P12-ICHIKAWA,,,blood,50799;P30/OHK,,,blood,50800;P31/FUJ,,,blood,50801;P32/ISH,,,lymphatic system,50802;P3HR-1,,,lymphatic system,50803;PC-3 [JPC-3],,,lung,50804;PEER,,,blood,50805;PF-382,,,blood,50806;Pfeiffer,,,lymphatic system,50807;PL-21,,,blood,50808;PSN1,,,pancreas,50809;Raji,,,lymphatic system,50810;Ramos (RA 1),,,blood,50811;RC-K8,,,lymphatic system,50812;REC-1,,,lymphatic system,50813;Reh,,,blood,50814;RERF-LC-MS,,,lung,50815;RH-1,,,bone,50816;RH-30,,,muscle,50817;RH-41,,,muscle,50818;RL,,,lymphatic system,50819;ROS-50,,,blood,50820;RPMI 1788,,,blood,50821;RPMI 6666,,,lymphatic system,50822;RPMI 8226,,,blood,50823;RPMI-8402,,,blood,50824;RS4;11,,,blood,50825;SBC-1,,,lung,50826;SBC-2,,,lung,50827;SC-1,,,lymphatic system,50828;SCC-3,,,lymphatic system,50829;Sci-1,,,lymphatic system,50830;SIG-M5,,,blood,50831;SIMA,,,nervous system,50832;SK-MEL-1,,,skin,50833;SK-MEL-3,,,skin,50834;SK-N-BE(2),,,nervous system,50835;SK-N-FI,,,nervous system,50836;SLVL,,,lymphatic system,50837;SNB-19,,,brain,50838;SR,,,lymphatic system,50839;ST486,,,lymphatic system,50840;SU-DHL-1,,,lymphatic system,50841;SU-DHL-16,,,lymphatic system,50843;SU-DHL-4,,,lymphatic system,50844;SU-DHL-5,,,lymphatic system,50845;SU-DHL-6,,,lymphatic system,50846;SU-DHL-8,,,lymphatic system,50847;SUP-B15,,,blood,50848;SUP-HD1,,,lymphatic system,50849;SUP-M2,,,lymphatic system,50850;SUP-T1,,,blood,50851;SW 1990,,,pancreas,50853;TALL-1,,,blood,50854;TANOUE,,,blood,50855;TC-71,,,bone,50856;Tera-1,,,testes,50857;TF-1,,,blood,50858;TF-1.CN5a.1,,,blood,50859;TF-1a,,,blood,50860;THP-1,,,blood,50861;TK,,,lymphatic system,50862;Toledo,,,lymphatic system,50863;TT,,,thyroid,50864;TUR,,,lymphatic system,50865;U266B1,,,blood,50866;U-698-M,,,blood,50867;U-87 MG,,,brain,50868;U-937,,,lymphatic system,50869;VAL,,,lymphatic system,50870;WIL2 NS,,,lymphatic system,50871;WILCL,,,blood,50872;WSU-DLCL2,,,lymphatic system,50873;WSU-NHL,,,lymphatic system,50874;YMB-1,,,breast,50875;YT,,,lymphatic system,50876;8-MG-BA,,,brain,50878;A101D,,,skin,50879;A253,,,head &amp; neck,50880;A388,,,miscellaneous,50881;A498,,,kidney,50882;A704,,,kidney,50884;ACN,,,nervous system,50885;ALL-PO,,,blood,50886;AM-38,,,brain,50887;ATN-1,,,blood,50888;BB30-HNC,,,head &amp; neck,50890;BB49-HNC,,,head &amp; neck,50891;BB65-RCC,,,kidney,50892;BE-13,,,blood,50893;Becker,,,brain,50894;BOKU,,,cervix,50895;BV-173,,,blood,50896;Calu-6,,,lung,50897;CAS-1,,,brain,50898;CGTH-W-1,,,thyroid,50899;COLO-320-HSR,,,intestine,50900;COLO-668,,,lung,50901;COLO-829,,,skin,50902;CP66-MEL,,,skin,50904;CW-2,,,intestine,50906;D-263MG,,,brain,50908;D-392MG,,,brain,50910;D-502MG,,,brain,50912;D-542MG,,,brain,50913;DEL,,,blood,50915;DJM-1,,,skin,50916;DOHH-2,,,lymphatic system,50917;DSH1,,,urinary tract,50918;ECC4,,,intestine,50921;EC-GI-10,,,esophagus,50922;EKVX,,,lung,50923;EM-2,,,blood,50924;EoL-1-cell,,,blood,50925;ES1,,,bone,50926;ES4,,,bone,50928;ES5,,,bone,50929;ES6,,,bone,50930;ES7,,,bone,50931;ES8,,,bone,50932;ETK-1,,,biliary tract,50933;EW-1,,,bone,50934;EW-11,,,bone,50935;EW-13,,,bone,50936;EW-16,,,bone,50937;EW-18,,,bone,50938;EW-24,,,bone,50939;EW-3,,,bone,50940;EW-7,,,bone,50941;GAK,,,skin,50942;GB-1,,,brain,50943;GCIY,,,stomach,50944;GI-1,,,brain,50945;GI-ME-N,,,nervous system,50946;GR-ST,,,blood,50947;GT3TKB,,,stomach,50948;HA7-RCC,,,kidney,50950;HAL-01,,,blood,50951;HCC2998,,,intestine,50952;HCE-T,,,head &amp; neck,50954;HOP-62,,,lung,50955;HT-144,,,skin,50956;IMR-5,,,nervous system,50957;IST-MES1,,,pleura,50958;IST-SL2,,,lung,50960;JVM-2,,,blood,50962;JVM-3,,,blood,50963;K5,,,thyroid,50964;KALS-1,,,brain,50965;KGN,,,ovary,50966;KINGS-1,,,brain,50967;KM12,,,intestine,50969;KNS-42,,,brain,50970;KNS-81-FD,,,brain,50971;KP-N-YS,,,nervous system,50973;KS-1,,,brain,50974;KURAMOCHI,,,ovary,50975;LAN-5,,,nervous system,50976;LAN-6,,,nervous system,50977;LB1047-RCC,,,kidney,50978;LB2241-RCC,,,kidney,50979;LB2518-MEL,,,skin,50980;LB373-MEL-D,,,skin,50981;LB771-HNC,,,head &amp; neck,50983;LB831-BLC,,,urinary tract,50984;LB996-RCC,,,kidney,50985;LC-2-ad,,,lung,50987;LOXIMVI,,,skin,50988;LS-1034,,,intestine,50989;LS-123,,,intestine,50990;LS-411N,,,intestine,50991;LS-513,,,intestine,50992;LU-134-A,,,lung,50993;LU-165,,,lung,50995;LXF-289,,,lung,50996;MFH-ino,,,miscellaneous,50997;MHH-CALL-2,,,blood,50998;MMAC-SF,,,skin,50999;MN-60,,,blood,51000;MPP-89,,,pleura,51002;MUTZ-1,,,blood,51003;MZ1-PC,,,pancreas,51004;MZ2-MEL,,,skin,51005;MZ7-mel,,,skin,51006;NB10,,,nervous system,51007;NB12,,,nervous system,51008;NB13,,,nervous system,51009;NB14,,,nervous system,51010;NB16,,,nervous system,51011;NB5,,,nervous system,51013;NB6,,,nervous system,51014;NB7,,,nervous system,51015;NCI-H1355,,,lung,51017;NCI-H157,,,lung,51018;NCI-H2126,,,lung,51019;NCI-H322M,,,lung,51020;NCI-H64,,,lung,51021;NCI-H716,,,intestine,51022;NCI-H747,,,intestine,51023;NKM-1,,,blood,51024;NMC-G1,,,brain,51025;no-10,,,brain,51026;no-11,,,brain,51027;NOMO-1,,,blood,51028;NOS-1,,,bone,51029;NTERA-S-cl-D1,,,testes,51030;OCUB-M,,,breast,51032;OMC-1,,,cervix,51033;ONS-76,,,brain,51034;OS-RC-2,,,kidney,51035;OVCAR-4,,,ovary,51036;QIMR-WIL,,,blood,51037;Ramos-2G6-4C10,,,lymphatic system,51038;RCC10RGB,,,kidney,51039;RKO,,,intestine,51041;RPMI-8866,,,blood,51043;RXF393,,,kidney,51044;SF126,,,brain,51045;SF268,,,brain,51046;SF539,,,brain,51047;SH-4,,,skin,51048;SJSA-1,,,bone,51049;SK-MM-2,,,blood,51053;SK-PN-DW,,,bone,51054;SK-UT-1,,,uterus,51055;SNU-C1,,,intestine,51056;SNU-C2B,,,intestine,51057;SW403,,,intestine,51058;SW684,,,miscellaneous,51059;SW872,,,miscellaneous,51060;SW954,,,vulva,51061;SW962,,,vulva,51062;SW982,,,miscellaneous,51063;TE-1,,,esophagus,51064;TE-10,,,esophagus,51065;TE-12,,,esophagus,51067;TE-15,,,esophagus,51068;TE-441-T,,,muscle,51069;TE-5,,,esophagus,51070;TE-6,,,esophagus,51071;TE-8,,,esophagus,51072;TE-9,,,esophagus,51073;TGBC11TKB,,,stomach,51074;TGBC1TKB,,,biliary tract,51075;TK10,,,kidney,51077;UACC-257,,,skin,51078;VA-ES-BJ,,,miscellaneous,51079;ECC10,,,stomach,50919;JEG-3,,,miscellaneous,50961;697.0,,,blood,50877;LU-139,,,lung,50994;CTB-1,,,lymphatic system,50905;ES3,,,bone,50927;TE-11,,,esophagus,51066;IST-SL1,,,lung,50959;TGBC24TKB,,,biliary tract,51076;KLE,,,uterus,50968;LC-1F,,,lung,50986;HCE-4,,,esophagus,50953;A4-Fuk,,,skin,50883;SK-MEL-24,,,skin,51050;CP50-MEL-B,,,skin,50903;YH-13,,,brain,51080;OC-314,,,ovary,51031;RF-48,,,stomach,51040;SK-MG-1,,,brain,51052;B2-17,,,brain,50889;Mo-T,,,blood,51001;KP-N-YN,,,nervous system,50972;D-423MG,,,brain,50911;H9,,,lymphatic system,50949;D-566MG,,,brain,50914;SK-MEL-5,,,skin,51051;NBsusSR,,,nervous system,51016;LB647-SCLC,,,lung,50982</t>
+  </si>
+  <si>
+    <t>1046\cell lines</t>
+  </si>
+  <si>
+    <t>BAY61-3606,small molecule,10166-107,LSM-1167;AS601245,small molecule,10034-101,LSM-1034;Pazopanib,small molecule,10114-101,LSM-1114</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20008/</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 5.12 uM to 0.02 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>5637.0,epithelial,,urinary bladder,50001;647-V,epithelial-like,,urinary bladder,50002;A375.S2,epithelial,,skin,50003;AGS,epithelial,,stomach,50004;BPH-1,epitheloid,,prostate,50005;Ca Ski,epithelial,,cervix,50006;Ca9-22,epithelial-like,,head &amp; neck,50007;CAL-51,epithelial-like,,breast,50008;Calu-1,epithelial,,lung,50009;Calu-3,epithelial,,lung,50010;COLO-679,fibroblastic,,skin,50011;COLO-800,epithelial-like,,skin,50012;FU97,epithelial-like,,stomach,50013;HEC-1,,,uterus,50014;HLF,,,liver,50015;HUTU-80,epithelial,,intestine,50016;IA-LM,,,lung,50017;Ishikawa,epithelial-like,,uterus,50018;Ishikawa (Heraklio) 02 ER-,epithelial,,uterus,50019;IST-MEL1,epithelial-like,,skin,50020;JHH-6,epithelial-like,,liver,50021;KMRC-20,epithelial-like,,kidney,50023;KYSE-140,,,esophagus,50024;KYSE-150,epitheloid,,esophagus,50025;KYSE-180,epitheloid,,esophagus,50026;KYSE-450,epitheloid,,esophagus,50027;LNZTA3WT4,,,brain,50028;MCF7,epithelial,,breast,50029;MDA-MB-435S,melanocyte,,skin,50030;MT-3,epithelial,,breast,50031;NCI-H1648,,,lung,50032;NCI-H1651,epithelial,,lung,50033;NCI-H1703,epithelial,,lung,50034;NCI-H1915,large cell,,lung,50035;NCI-H2023,,,lung,50036;NCI-H810,epithelial,,lung,50037;PE/CA-PJ15,epithelial-like,,head &amp; neck,50039;SJCRH30,fibroblast,,muscle,50041;SK-LMS-1,,,uterus,50042;SK-MES,epithelial,,lung,50043;SK-OV-3,epithelial,,ovary,50044;SNB75,,,brain,50045;SW527,epithelial,,breast,50046;SW620,epithelial,,intestine,50047;T24,epithelial,,urinary bladder,50048;WiDr,epithelial,,intestine,50049;Hep 3B2.1-7,epithelial,,liver,50051;Hep G2,epithelial,,liver,50052;Huh7,,,liver,50055;SK-BR-3,epithelial,,breast,50057;MDA-MB-231,epithelial,,breast,50058;LNCaP,epithelial,,prostate,50059;A-375,epithelial,,skin,50060;HeLa,epithelial,,cervix,50061;1205Lu,,,skin,50062;1321N1,,,brain,50063;143B,,,bone,50064;143B PML BK TK,,,bone,50065;1A6,,,urinary bladder,50066;22RV1,,,prostate,50067;23132/87,,,stomach,50068;42-MG-BA,,,brain,50069;639-V,,,ureter,50071;769-P,,,kidney,50072;786-O,,,kidney,50073;8305C,,,thyroid,50074;8505C,,,thyroid,50075;A172,,,brain,50076;A-204,,,muscle,50077;A2058,,,skin,50078;A2780,,,ovary,50079;A2780ADR,,,ovary,50080;A373-C6,,,skin,50081;A-427,,,lung,50082;A431,,,skin,50083;A549,,,lung,50084;A673,,,muscle,50085;ABC-1,,,lung,50086;ACHN,,,kidney,50087;AN3CA,,,uterus,50088;ASH-3,,,thyroid,50089;AsPC-1,,,pancreas,50090;AU565,,,breast,50091;AZ-521,,,stomach,50092;B-CPAP,,,thyroid,50093;BE(2)-C,,,nervous system,50094;BEN,,,lung,50095;BeWo,,,miscellaneous,50096;BFTC-905,,,urinary bladder,50097;BFTC-909,,,kidney,50098;BHT-101,,,thyroid,50099;BHY,,,head &amp; neck,50100;BICR 10,,,head &amp; neck,50101;BICR 22,,,head &amp; neck,50102;BICR 31,,,head &amp; neck,50103;BICR 78,,,head &amp; neck,50104;BT-20,,,breast,50105;BT-474,,,breast,50106;BT-483,,,breast,50107;BT-549,,,breast,50108;BxPC-3,,,pancreas,50109;C170,,,intestine,50110;C2BBe1,,,intestine,50111;C32,,,skin,50112;C-33 A,,,cervix,50113;C3A,,,liver,50114;C-4 I,,,cervix,50115;C-4 II,,,cervix,50116;Caco-2,,,intestine,50117;Caki-1,,,kidney,50118;CAL 27,,,head &amp; neck,50119;CAL-120,,,breast,50120;CAL-12T,,,lung,50121;CAL-148,,,breast,50122;CAL-29,,,urinary bladder,50123;CAL-33,,,head &amp; neck,50124;CAL-39,,,vulva,50125;CAL-54,,,kidney,50126;CAL-62,,,thyroid,50127;CAL-72,,,bone,50128;CAL-78,,,bone,50129;CAL-85-1,,,breast,50130;CAMA-1,,,breast,50131;Caov-3,,,ovary,50132;Caov-4,,,ovary,50133;Capan-1,,,pancreas,50134;Capan-2,,,pancreas,50135;CaR-1,,,intestine,50136;CCF-STTG1,,,brain,50137;CCK-81,,,intestine,50138;CHP-212,,,nervous system,50139;CoCM-1,,,intestine,50141;COLO 201,,,intestine,50142;COLO 205,,,intestine,50143;COLO 320DM,,,intestine,50144;COLO 741,,,intestine,50145;COLO 792,,,skin,50146;COLO 853,,,skin,50147;COLO 857,,,skin,50148;COLO 858,,,skin,50149;COLO-206F,,,intestine,50150;COLO-320,,,intestine,50151;COLO-678,,,intestine,50152;COLO-680N,,,esophagus,50153;COLO-783,,,skin,50154;COLO-818,,,skin,50155;COLO-824,,,breast,50156;COLO-849,,,skin,50157;COR-L 105,,,lung,50158;COR-L 23/CPR,,,lung,50159;COR-L23,,,lung,50160;DAN-G,,,pancreas,50161;Daoy,,,brain,50162;DBTRG-05MG,,,brain,50163;Detroit 562,,,head &amp; neck,50164;DK-MG,,,brain,50165;DLD-1,,,intestine,50166;DMS 273,,,lung,50167;DMS 53,,,lung,50168;DOK,,,head &amp; neck,50169;DoTc2 4510,,,cervix,50170;DU 145,,,prostate,50171;DV-90,,,lung,50172;EBC-1,,,lung,50173;EFE-184,,,uterus,50174;EFM-19,,,breast,50175;EFM-192A,,,breast,50176;EFM-192B,,,breast,50177;EFM-192C,,,breast,50178;EFO-21,,,ovary,50179;EFO-27,,,ovary,50180;EGI-1,,,biliary tract,50181;EJ138,,,urinary bladder,50182;EN,,,uterus,50183;EPLC-272H,,,lung,50184;ES-2,,,ovary,50185;ESS-1,,,uterus,50186;EVSA-T,,,breast,50187;FaDu,,,head &amp; neck,50188;FLYA13,,,miscellaneous,50189;FTC-133,,,thyroid,50190;FTC-238,,,thyroid,50191;FU-OV-1,,,ovary,50192;G-292 Clone A141B1,,,bone,50193;G-361,,,skin,50194;G-401,,,kidney,50195;G-402,,,kidney,50196;GAMG,,,brain,50197;GCT,,,miscellaneous,50198;GMS-10,,,brain,50199;GOS-3,,,brain,50200;GP5d,,,intestine,50201;H4,,,brain,50202;HARA,,,lung,50204;HCC1143,,,breast,50205;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC-15,,,lung,50209;HCC1569,,,breast,50210;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC-366,,,lung,50215;HCC38,,,breast,50216;HCC-44,,,lung,50217;HCC-56,,,intestine,50218;HCC70,,,breast,50219;HCC-78,,,lung,50220;HCC-827,,,lung,50221;HCT 116,,,intestine,50222;HCT-15,,,intestine,50223;HCT-8,,,intestine,50224;HDQ-P1,,,breast,50225;H-EMC-SS,,,bone,50226;HGC-27,,,stomach,50227;HLE,,,liver,50228;HMVII,,,skin,50229;HN,,,head &amp; neck,50230;HO-1-N-1,,,head &amp; neck,50231;HO-1-u-1,,,head &amp; neck,50232;HOS,,,bone,50233;HPAC,,,pancreas,50234;HPAF-II,,,pancreas,50235;HRT-18,,,intestine,50236;Hs 257.T,,,intestine,50237;Hs 578T,,,breast,50238;Hs 588.T,,,cervix,50239;Hs 633T,,,miscellaneous,50240;Hs 683,,,brain,50241;Hs 746T,,,stomach,50242;Hs 766T,,,pancreas,50243;HSC-2,,,head &amp; neck,50244;HSC-3,,,head &amp; neck,50245;HSC-4,,,head &amp; neck,50246;HT 1080,,,miscellaneous,50247;HT 1376,,,urinary bladder,50248;HT115,,,intestine,50249;HT-1197,,,urinary bladder,50250;HT-29,,,intestine,50251;HT-3,,,cervix,50252;HT55,,,intestine,50253;HTC-C3,,,thyroid,50254;HuCCT1,,,biliary tract,50255;huH-1,,,liver,50256;HuO-3N1,,,bone,50257;HuO9,,,bone,50258;HuO9N2,,,bone,50259;HUP-T3,,,pancreas,50260;HUP-T4,,,pancreas,50261;IGR-1,,,skin,50262;IGR-37,,,skin,50263;IGR-39,,,skin,50264;IHH-4,,,thyroid,50265;IM-95,,,stomach,50266;IM-95m,,,stomach,50267;IMR-32,,,nervous system,50268;IPC-298,,,skin,50269;J82,,,urinary bladder,50270;JAR,,,miscellaneous,50271;JHH-1,,,liver,50272;JHH-2,,,liver,50273;JHH-4,,,liver,50274;JHH-7,,,liver,50275;JIMT-1,,,breast,50276;KELLY,,,nervous system,50277;KG-1-C,,,brain,50278;KHOS/NP,,,bone,50280;KHOS-240S,,,bone,50281;KHOS-312H,,,bone,50282;KMH-2,,,thyroid,50283;KMRC-1,,,kidney,50284;KON,,,head &amp; neck,50285;KOSC-2 cl3-43,,,head &amp; neck,50286;KP-2,,,pancreas,50287;KP-3,,,pancreas,50288;KP-3L,,,pancreas,50289;KP-4,,,pancreas,50290;KPL-1,,,breast,50291;KU-19-19,,,urinary bladder,50292;KYSE-220,,,esophagus,50293;KYSE-270,,,esophagus,50294;KYSE-30,,,esophagus,50295;KYSE-410,,,esophagus,50296;KYSE-50,,,esophagus,50297;KYSE-510,,,esophagus,50298;KYSE-520,,,esophagus,50299;KYSE-70,,,esophagus,50300;LC-1 sq,,,lung,50301;LCLC-103H,,,lung,50302;LCLC-97TM1,,,lung,50303;LK-2,,,lung,50304;LN-18,,,brain,50305;LN-229,,,brain,50306;LN-405,,,brain,50307;LNZTA3WT11,,,brain,50308;LOU-NH91,,,lung,50309;LoVo,,,intestine,50310;LS174T,,,intestine,50311;LS180,,,intestine,50312;Lu-135,,,lung,50314;LU65,,,lung,50315;LU65A,,,lung,50316;LU65B,,,lung,50317;LU65C,,,lung,50318;LU99A,,,lung,50319;LU99B,,,lung,50320;LU99C,,,lung,50321;LUDLU-1,,,lung,50322;M059J,,,brain,50323;MB 157,,,breast,50324;MCAS,,,ovary,50325;MC-IXC,,,nervous system,50326;MDA-MB-134-VI,,,breast,50327;MDA-MB-157,,,breast,50328;MDA-MB-175-VII,,,breast,50329;MDA-MB-330,,,breast,50330;MDA-MB-361,,,breast,50331;MDA-MB-415,,,breast,50332;MDA-MB-436,,,breast,50333;MDA-MB-453,,,breast,50334;MDA-MB-468,,,breast,50335;MDST8,,,intestine,50336;ME-180,,,cervix,50337;MEL-HO,,,skin,50338;MEL-JUSO,,,skin,50339;MES-SA,,,uterus,50340;MES-SA/Dx-5,,,uterus,50341;MEWO,,,skin,50342;MFE-280,,,uterus,50343;MFE-296,,,uterus,50344;MFE-319,,,uterus,50345;MFM-223,,,breast,50346;MG-63,,,bone,50347;MHH-ES-1,,,nervous system,50348;MIA PaCa-2,,,pancreas,50349;MKN1,,,stomach,50350;MKN28,,,stomach,50351;MKN45,,,stomach,50352;MKN7,,,stomach,50353;MKN74,,,stomach,50354;ML-1,,,thyroid,50355;MOG-G-CCM,,,brain,50356;MOG-G-UVW,,,brain,50357;MS751,,,cervix,50358;MSTO-211H,,,pleura,50359;NB69,,,nervous system,50360;NCC-IT-A3,,,testes,50361;NCI-H1048,,,lung,50362;NCI-H1299,,,lung,50363;NCI-H1435,,,lung,50364;NCI-H1437,,,lung,50365;NCI-H1568,,,lung,50366;NCI-H1573,,,lung,50367;NCI-H1581,,,lung,50368;NCI-H1623,,,lung,50369;NCI-H1650,,,lung,50370;NCI-H1688,,,lung,50371;NCI-H1693,,,lung,50372;NCI-H1734,,,lung,50373;NCI-H1755,,,lung,50374;NCI-H1781,,,lung,50375;NCI-H1792,,,lung,50376;NCI-H1793,,,lung,50377;NCI-H1869,,,lung,50378;NCI-H1876,,,lung,50379;NCI-H1944,,,lung,50380;NCI-H196,,,lung,50381;NCI-H1993,,,lung,50382;NCI-H2009,,,lung,50383;NCI-H2029,,,lung,50384;NCI-H2030,,,lung,50385;NCI-H2073,,,lung,50386;NCI-H2085,,,lung,50387;NCI-H2087,,,lung,50388;NCI-H2110,,,lung,50389;NCI-H2122,,,lung,50390;NCI-H2135,,,lung,50391;NCI-H2170,,,lung,50392;NCI-H2172,,,lung,50393;NCI-H2195,,,lung,50394;NCI-H2196,,,lung,50395;NCI-H2198,,,lung,50396;NCI-H2228,,,lung,50397;NCI-H2286,,,lung,50398;NCI-H2291,,,lung,50399;NCI-H23,,,lung,50400;NCI-H2342,,,lung,50401;NCI-H2347,,,lung,50402;NCI-H2405,,,lung,50403;NCI-H2444,,,lung,50404;NCI-H2452,,,lung,50405;NCI-H322,,,lung,50407;NCI-H358,,,lung,50408;NCI-H441,,,lung,50409;NCI-H460,,,lung,50410;NCI-H520,,,lung,50411;NCI-H522,,,lung,50412;NCI-H596,,,lung,50413;NCI-H630,,,intestine,50414;NCI-H647,,,lung,50415;NCI-H650,,,lung,50416;NCI-H661,,,lung,50417;NCI-H727,,,lung,50418;NCI-H838,,,lung,50419;NCI-H841,,,lung,50420;NCI-N87,,,stomach,50421;NIH:OVCAR-3,,,ovary,50422;NUGC-3,,,stomach,50424;NUGC-4,,,stomach,50425;NY,,,bone,50426;OAW28,,,ovary,50427;OAW42,,,ovary,50428;OCUG-1,,,gall bladder,50429;OCUM-1,,,stomach,50430;OE19,,,esophagus,50431;OE21,,,esophagus,50432;OE33,,,esophagus,50433;OSC-19,,,head &amp; neck,50434;OSC-20,,,head &amp; neck,50435;OUMS-23,,,intestine,50436;OV-90,,,ovary,50437;OVISE,,,ovary,50438;OVKATE,,,ovary,50439;OVMIU,,,ovary,50440;OVSAYO,,,ovary,50441;OVTOKO,,,ovary,50442;PA-1,,,ovary,50443;Panc 02.03,,,pancreas,50444;Panc 03.27,,,pancreas,50445;Panc 04.03,,,pancreas,50446;Panc 08.13,,,pancreas,50447;Panc 10.05,,,pancreas,50448;PANC-1,,,pancreas,50449;PA-TU-8902,,,pancreas,50450;PA-TU-8988S,,,pancreas,50451;PA-TU-8988T,,,pancreas,50452;PC-14,,,lung,50453;PC-3,,,prostate,50454;PFSK-1,,,brain,50455;PL45,,,pancreas,50456;PLC/PRF/5,,,liver,50457;RCM-1,,,intestine,50459;RD,,,muscle,50460;RD-ES,,,nervous system,50461;RERF-GC-1B,,,stomach,50462;RERF-LC-Ad1,,,lung,50463;RERF-LC-KJ,,,lung,50464;RERF-LC-MA,,,lung,50465;RERF-LC-Sq1,,,lung,50466;RKN,,,ovary,50467;RMG-I,,,ovary,50468;RO82-W-1,,,thyroid,50469;RPMI 2650,,,head &amp; neck,50470;RPMI-7951,,,skin,50471;RT-112,,,urinary bladder,50472;RT112/84,,,urinary bladder,50473;RT4,,,urinary bladder,50474;RVH-421,,,skin,50475;S-117,,,thyroid,50476;Saos-2,,,bone,50477;SAS,,,head &amp; neck,50478;SAT,,,head &amp; neck,50479;SBC-3,,,lung,50480;SBC-5,,,lung,50481;SCaBER,,,urinary bladder,50482;SCC-15,,,head &amp; neck,50483;SCC-25,,,head &amp; neck,50484;SCC-4,,,head &amp; neck,50485;SCC-9,,,head &amp; neck,50486;SCCH-26,,,nervous system,50488;SCH,,,stomach,50489;SCLC-21H,,,lung,50490;SHP-77,,,lung,50491;SiHa,,,cervix,50493;SISO,,,cervix,50494;SK-CO-1,,,intestine,50495;SK-ES-1,,,bone,50496;SKG-IIIa,,,cervix,50497;SKG-IIIb,,,cervix,50498;SK-HEP-1,,,liver,50499;SK-LU-1,,,lung,50500;SK-MEL-2,,,skin,50501;SK-MEL-30,,,skin,50502;SKN,,,uterus,50503;SKN-3,,,head &amp; neck,50504;SK-N-AS,,,nervous system,50505;SK-N-DZ,,,nervous system,50506;SK-NEP-1,,,kidney,50507;SK-N-SH,,,nervous system,50508;SNG-M,,,uterus,50509;SNU-1,,,stomach,50510;SNU-16,,,stomach,50511;SNU-182,,,liver,50512;SNU-387,,,liver,50513;SNU-398,,,liver,50514;SNU-423,,,liver,50515;SNU-449,,,liver,50516;SNU-475,,,liver,50517;SNU-5,,,stomach,50518;SU.86.86,,,pancreas,50520;SUIT-2,,,pancreas,50521;SW 1088,,,brain,50522;SW 1271,,,lung,50524;SW 13,,,adrenal gland,50525;SW 1417,,,intestine,50526;SW 1463,,,intestine,50527;SW 156,,,kidney,50528;SW 1573,,,lung,50529;SW 1783,,,brain,50530;SW 48,,,intestine,50531;SW 626,,,ovary,50532;SW 780,,,urinary bladder,50533;SW 900,,,lung,50534;SW-1710,,,urinary bladder,50535;SW756,,,cervix,50536;SW837,,,intestine,50537;SW-948,,,intestine,50538;T.T,,,esophagus,50539;T.Tn,,,esophagus,50540;T47D,,,breast,50541;T84,,,intestine,50542;T98G,,,brain,50543;TASK1,,,nervous system,50544;TCCSUP,,,urinary bladder,50545;TGW,,,adrenal gland,50546;TOV-112D,,,ovary,50547;TOV-21G,,,ovary,50548;TT2609-C02,,,thyroid,50549;TYK-nu,,,ovary,50550;U-118 MG,,,brain,50551;U-138 MG,,,brain,50552;U-2 OS,,,bone,50553;U-251 MG,,,brain,50554;U373 MG,,,brain,50555;UACC-812,,,breast,50556;UACC-893,,,breast,50557;UMC-11,,,lung,50558;UM-UC-3,,,urinary bladder,50559;VCaP,,,prostate,50560;VM-CUB1,,,urinary bladder,50561;VMRC-LCP,,,lung,50562;VMRC-MELG,,,skin,50563;VMRC-RCW,,,kidney,50564;VMRC-RCZ,,,kidney,50565;WM 266-4,,,skin,50566;WM-115,,,skin,50567;WM1552C,,,skin,50568;WM278,,,skin,50569;WM35,,,skin,50570;WM793B,,,skin,50571;YAPC,,,pancreas,50572;YKG-1,,,brain,50573;ZR-75-1,,,breast,50574;ZR-75-30,,,breast,50575;DU4475,epithelial,,breast,50577;HCC1187,epithelial,,breast,50578;HCC1500,epithelial,,breast,50579;HCC1599,epithelial,,breast,50580;HCC2157,epithelial,,breast,50581;HCC2218,epithelial,,breast,50582;2B8,,,lymphatic system,50585;A2780cis,,,ovary,50586;A3,,,blood,50587;A3/KAW,,,lymphatic system,50588;AGR-ON,,,blood,50589;ALL-SIL,,,blood,50590;AMO-1,,,lymphatic system,50591;ARH-77,,,blood,50592;BALL-1,,,blood,50593;BC-1,,,lymphatic system,50594;BC-2,,,lymphatic system,50595;BC-3,,,lymphatic system,50596;BDCM,,,blood,50597;BE(2)-M17,,,nervous system,50598;BL-41,,,lymphatic system,50599;BL-70,,,lymphatic system,50600;C8166,,,blood,50601;CA46,,,lymphatic system,50602;CCRF-CEM,,,blood,50603;CCRF-HSB-2,,,blood,50604;CCRF-SB,,,blood,50605;CEM/C1,,,blood,50606;CEM/C2,,,blood,50607;CESS,,,blood,50608;CFPAC-1,,,pancreas,50609;ChaGo-K-1,,,lung,50610;CHP-126,,,nervous system,50611;CI-1,,,lymphatic system,50612;CL-11,,,intestine,50613;Clone 15 HL-60,,,blood,50614;CMK,,,blood,50615;COLO 684,,,uterus,50616;COLO-704,,,ovary,50617;COR-L279,,,lung,50618;COR-L51,,,lung,50619;COR-L88,,,lung,50620;COR-L95,,,lung,50621;CPC-N,,,lung,50622;CTV-1,,,blood,50623;D283 Med,,,brain,50624;Daudi,,,lymphatic system,50625;DB,,,lymphatic system,50626;DERL-2,,,lymphatic system,50627;DG-75,,,lymphatic system,50628;DMS 114,,,lung,50629;DMS 153,,,lung,50630;DMS 79,,,lung,50631;DND-41,,,blood,50632;EB1,,,lymphatic system,50633;EB2,,,lymphatic system,50634;EB-3,,,lymphatic system,50635;EHEB,,,blood,50636;EJM,,,blood,50637;Eos-HL-60,,,blood,50638;Farage,,,lymphatic system,50639;GA-10,,,lymphatic system,50640;GA-10 (Clone 20),,,lymphatic system,50641;GDM-1,,,blood,50642;GOTO,,,nervous system,50643;Gp2D,,,intestine,50644;GRANTA-519,,,lymphatic system,50645;H33HJ-JA1,,,blood,50646;HC-1,,,blood,50647;HCC-33,,,lung,50648;HDLM-2,,,lymphatic system,50649;HD-MY-Z,,,lymphatic system,50650;HEL,,,blood,50651;HEL 92.1.7,,,blood,50652;HH,,,lymphatic system,50653;HL-60,,,blood,50654;HL60(S),,,blood,50655;HL-60/MX2,,,blood,50656;HL60RG,,,blood,50657;Hs 445,,,lymphatic system,50658;HS-Sultan,,,lymphatic system,50659;HT,,,lymphatic system,50660;HuT 78,,,lymphatic system,50661;I 2.1,,,blood,50662;I 9.2,,,blood,50663;IM-9,,,lymphatic system,50664;J.gamma1,,,blood,50665;J.gamma1.WT,,,blood,50666;J.RT3-T3.5,,,blood,50667;J45.01,,,blood,50668;Jiyoye,,,lymphatic system,50669;JJN-3,,,blood,50670;JKT-beta-del,,,blood,50671;JM1,,,lymphatic system,50672;JSC-1,,,lymphatic system,50673;Jurkat, Clone E6-1,,,blood,50674;JURL-MK1,,,blood,50675;JURL-MK2,,,blood,50676;K-562,,,blood,50677;K562/ADM,,,blood,50678;KARPAS-231,,,blood,50679;KARPAS-299,,,lymphatic system,50680;KARPAS-422,,,lymphatic system,50681;KARPAS-45,,,blood,50682;KARPAS-620,,,blood,50683;Kasumi-1,,,blood,50684;KCL-22,,,blood,50685;KE-37,,,blood,50686;KG-1,,,blood,50687;KG-1a,,,blood,50688;KM-H2,,,lymphatic system,50689;KMOE-2,,,blood,50690;KMS-12-BM,,,blood,50691;KMS-12-PE,,,blood,50692;KO52,,,blood,50693;KOPN-8,,,blood,50694;KP-1N,,,pancreas,50695;KP-1NL,,,pancreas,50696;KU812,,,blood,50697;KU812E,,,blood,50698;KU812F,,,blood,50699;KY821,,,blood,50700;KY821A3,,,blood,50701;KYM-1,,,muscle,50702;L-1236,,,lymphatic system,50703;L-363,,,blood,50704;L-428,,,lymphatic system,50705;L-540,,,lymphatic system,50706;LAMA-84,,,blood,50707;LC4-1,,,blood,50708;Loucy,,,blood,50709;LP-1,,,blood,50710;Lu-134-B,,,lung,50711;M059K,,,brain,50712;MC/CAR,,,lymphatic system,50713;MC116,,,lymphatic system,50714;ME-1,,,blood,50715;MEC-1,,,blood,50716;MEC-2,,,blood,50717;MEG-01,,,blood,50718;MHH-NB-11,,,nervous system,50719;MHH-PREB-1,,,lymphatic system,50720;MJ,,,lymphatic system,50721;ML-2,,,blood,50722;MLMA,,,blood,50723;MOLM-13,,,blood,50724;MOLP-8,,,blood,50725;MOLT-14,,,blood,50726;MOLT-16,,,blood,50727;MOLT-4,,,blood,50728;MOLT-4F,,,blood,50729;MONO-MAC-1,,,blood,50730;MONO-MAC-6,,,blood,50731;MRK-nu-1,,,breast,50732;MS-1-L,,,lung,50733;MV-4-11,,,blood,50734;MY,,,blood,50735;MY-M12,,,blood,50736;MY-M13,,,blood,50737;NALM-19,,,blood,50738;NALM-6,,,blood,50739;NAMALWA,,,lymphatic system,50740;NAMALWA.PNT,,,lymphatic system,50741;NB(TU)1-10,,,nervous system,50742;NB-1,,,nervous system,50743;NB-4,,,blood,50744;NC-37,,,lymphatic system,50745;NCI-H1092,,,lung,50746;NCI-H1155,,,lung,50747;NCI-H1304,,,lung,50748;NCI-H1385,,,lung,50749;NCI-H1395,,,lung,50750;NCI-H1404,,,lung,50751;NCI-H1417,,,lung,50752;NCI-H1436,,,lung,50753;NCI-H1522,,,lung,50754;NCI-H1563,,,lung,50755;NCI-H1618,,,lung,50756;NCI-H1666,,,lung,50757;NCI-H1694,,,lung,50758;NCI-H1770,,,lung,50759;NCI-H1836,,,lung,50760;NCI-H1838,,,lung,50761;NCI-H187,,,lung,50762;NCI-H1882,,,lung,50763;NCI-H1963,,,lung,50764;NCI-H1975,,,lung,50765;NCI-H2081,,,lung,50766;NCI-H209,,,lung,50767;NCI-H2106,,,lung,50768;NCI-H211,,,lung,50769;NCI-H2141,,,lung,50770;NCI-H2171,,,lung,50771;NCI-H220,,,lung,50772;NCI-H2227,,,lung,50773;NCI-H226,,,lung,50774;NCI-H345,,,lung,50775;NCI-H446,,,lung,50776;NCI-H510A,,,lung,50777;NCI-H524,,,lung,50778;NCI-H526,,,lung,50779;NCI-H69,,,lung,50780;NCI-H719,,,lung,50781;NCI-H720,,,lung,50782;NCI-H748,,,lung,50783;NCI-H82,,,lung,50784;NCI-H847,,,lung,50785;NCI-H889,,,lung,50786;NEC8,,,testes,50787;NH-12,,,nervous system,50788;NK-92MI,,,lymphatic system,50789;NOMO-1/ADM,,,blood,50790;NU-DUL-1,,,lymphatic system,50791;OCI-AML2,,,blood,50792;OCI-AML3,,,blood,50793;OCI-AML5,,,blood,50794;OCI-LY-19,,,lymphatic system,50795;OCI-M1,,,blood,50796;OPM-2,,,blood,50797;P116.cl39,,,blood,50798;P12-ICHIKAWA,,,blood,50799;P30/OHK,,,blood,50800;P31/FUJ,,,blood,50801;P32/ISH,,,lymphatic system,50802;P3HR-1,,,lymphatic system,50803;PC-3 [JPC-3],,,lung,50804;PEER,,,blood,50805;PF-382,,,blood,50806;Pfeiffer,,,lymphatic system,50807;PL-21,,,blood,50808;PSN1,,,pancreas,50809;Raji,,,lymphatic system,50810;Ramos (RA 1),,,blood,50811;RC-K8,,,lymphatic system,50812;REC-1,,,lymphatic system,50813;Reh,,,blood,50814;RERF-LC-MS,,,lung,50815;RH-1,,,bone,50816;RH-30,,,muscle,50817;RH-41,,,muscle,50818;RL,,,lymphatic system,50819;ROS-50,,,blood,50820;RPMI 1788,,,blood,50821;RPMI 6666,,,lymphatic system,50822;RPMI 8226,,,blood,50823;RPMI-8402,,,blood,50824;RS4;11,,,blood,50825;SBC-1,,,lung,50826;SBC-2,,,lung,50827;SC-1,,,lymphatic system,50828;SCC-3,,,lymphatic system,50829;Sci-1,,,lymphatic system,50830;SIG-M5,,,blood,50831;SIMA,,,nervous system,50832;SK-MEL-1,,,skin,50833;SK-MEL-3,,,skin,50834;SK-N-BE(2),,,nervous system,50835;SK-N-FI,,,nervous system,50836;SLVL,,,lymphatic system,50837;SNB-19,,,brain,50838;SR,,,lymphatic system,50839;ST486,,,lymphatic system,50840;SU-DHL-1,,,lymphatic system,50841;SU-DHL-10,,,lymphatic system,50842;SU-DHL-16,,,lymphatic system,50843;SU-DHL-4,,,lymphatic system,50844;SU-DHL-5,,,lymphatic system,50845;SU-DHL-6,,,lymphatic system,50846;SU-DHL-8,,,lymphatic system,50847;SUP-B15,,,blood,50848;SUP-HD1,,,lymphatic system,50849;SUP-M2,,,lymphatic system,50850;SUP-T1,,,blood,50851;SVG p12,,,brain,50852;SW 1990,,,pancreas,50853;TALL-1,,,blood,50854;TANOUE,,,blood,50855;TC-71,,,bone,50856;Tera-1,,,testes,50857;TF-1,,,blood,50858;TF-1.CN5a.1,,,blood,50859;TF-1a,,,blood,50860;THP-1,,,blood,50861;TK,,,lymphatic system,50862;Toledo,,,lymphatic system,50863;TT,,,thyroid,50864;TUR,,,lymphatic system,50865;U266B1,,,blood,50866;U-698-M,,,blood,50867;U-87 MG,,,brain,50868;U-937,,,lymphatic system,50869;VAL,,,lymphatic system,50870;WIL2 NS,,,lymphatic system,50871;WILCL,,,blood,50872;WSU-DLCL2,,,lymphatic system,50873;WSU-NHL,,,lymphatic system,50874;YMB-1,,,breast,50875;YT,,,lymphatic system,50876;8-MG-BA,,,brain,50878;A253,,,head &amp; neck,50880;A498,,,kidney,50882;A704,,,kidney,50884;ACN,,,nervous system,50885;ALL-PO,,,blood,50886;AM-38,,,brain,50887;ATN-1,,,blood,50888;BB30-HNC,,,head &amp; neck,50890;BB49-HNC,,,head &amp; neck,50891;BE-13,,,blood,50893;Becker,,,brain,50894;BOKU,,,cervix,50895;BV-173,,,blood,50896;Calu-6,,,lung,50897;CAS-1,,,brain,50898;COLO-320-HSR,,,intestine,50900;COLO-668,,,lung,50901;COLO-829,,,skin,50902;CP66-MEL,,,skin,50904;CW-2,,,intestine,50906;D-247MG,,,brain,50907;D-263MG,,,brain,50908;D-336MG,,,brain,50909;D-392MG,,,brain,50910;D-542MG,,,brain,50913;DEL,,,blood,50915;DJM-1,,,skin,50916;DOHH-2,,,lymphatic system,50917;DSH1,,,urinary tract,50918;ECC12,,,stomach,50920;ECC4,,,intestine,50921;EC-GI-10,,,esophagus,50922;EKVX,,,lung,50923;EM-2,,,blood,50924;EoL-1-cell,,,blood,50925;ES1,,,bone,50926;ES4,,,bone,50928;ES5,,,bone,50929;ES6,,,bone,50930;ES7,,,bone,50931;ES8,,,bone,50932;ETK-1,,,biliary tract,50933;EW-1,,,bone,50934;EW-11,,,bone,50935;EW-13,,,bone,50936;EW-16,,,bone,50937;EW-18,,,bone,50938;EW-24,,,bone,50939;EW-3,,,bone,50940;EW-7,,,bone,50941;GAK,,,skin,50942;GB-1,,,brain,50943;GI-1,,,brain,50945;GI-ME-N,,,nervous system,50946;GR-ST,,,blood,50947;GT3TKB,,,stomach,50948;HAL-01,,,blood,50951;HCC2998,,,intestine,50952;HCE-T,,,head &amp; neck,50954;HOP-62,,,lung,50955;HT-144,,,skin,50956;IMR-5,,,nervous system,50957;IST-MES1,,,pleura,50958;IST-SL2,,,lung,50960;JVM-2,,,blood,50962;JVM-3,,,blood,50963;K5,,,thyroid,50964;KALS-1,,,brain,50965;KGN,,,ovary,50966;KINGS-1,,,brain,50967;KM12,,,intestine,50969;KNS-42,,,brain,50970;KNS-81-FD,,,brain,50971;KP-N-YS,,,nervous system,50973;KS-1,,,brain,50974;KURAMOCHI,,,ovary,50975;LAN-5,,,nervous system,50976;LAN-6,,,nervous system,50977;LB1047-RCC,,,kidney,50978;LB2241-RCC,,,kidney,50979;LB2518-MEL,,,skin,50980;LB373-MEL-D,,,skin,50981;LB771-HNC,,,head &amp; neck,50983;LB831-BLC,,,urinary tract,50984;LB996-RCC,,,kidney,50985;LOXIMVI,,,skin,50988;LS-123,,,intestine,50990;LS-411N,,,intestine,50991;LS-513,,,intestine,50992;LU-134-A,,,lung,50993;LU-165,,,lung,50995;LXF-289,,,lung,50996;MFH-ino,,,miscellaneous,50997;MHH-CALL-2,,,blood,50998;MMAC-SF,,,skin,50999;MN-60,,,blood,51000;MPP-89,,,pleura,51002;MUTZ-1,,,blood,51003;MZ1-PC,,,pancreas,51004;MZ2-MEL,,,skin,51005;MZ7-mel,,,skin,51006;NB10,,,nervous system,51007;NB13,,,nervous system,51009;NB14,,,nervous system,51010;NB16,,,nervous system,51011;NB17,,,nervous system,51012;NB5,,,nervous system,51013;NB6,,,nervous system,51014;NB7,,,nervous system,51015;NCI-H1355,,,lung,51017;NCI-H157,,,lung,51018;NCI-H2126,,,lung,51019;NCI-H322M,,,lung,51020;NCI-H64,,,lung,51021;NCI-H716,,,intestine,51022;NCI-H747,,,intestine,51023;NKM-1,,,blood,51024;NMC-G1,,,brain,51025;no-10,,,brain,51026;no-11,,,brain,51027;NOMO-1,,,blood,51028;NOS-1,,,bone,51029;NTERA-S-cl-D1,,,testes,51030;OMC-1,,,cervix,51033;ONS-76,,,brain,51034;OS-RC-2,,,kidney,51035;QIMR-WIL,,,blood,51037;Ramos-2G6-4C10,,,lymphatic system,51038;RCC10RGB,,,kidney,51039;RKO,,,intestine,51041;RL95-2,,,uterus,51042;RPMI-8866,,,blood,51043;SF126,,,brain,51045;SF268,,,brain,51046;SF539,,,brain,51047;SH-4,,,skin,51048;SK-MM-2,,,blood,51053;SK-PN-DW,,,bone,51054;SK-UT-1,,,uterus,51055;SNU-C1,,,intestine,51056;SNU-C2B,,,intestine,51057;SW403,,,intestine,51058;SW684,,,miscellaneous,51059;SW872,,,miscellaneous,51060;SW954,,,vulva,51061;SW982,,,miscellaneous,51063;TE-1,,,esophagus,51064;TE-10,,,esophagus,51065;TE-441-T,,,muscle,51069;TE-5,,,esophagus,51070;TE-6,,,esophagus,51071;TGBC11TKB,,,stomach,51074;TGBC1TKB,,,biliary tract,51075;TK10,,,kidney,51077;UACC-257,,,skin,51078;ECC10,,,stomach,50919;JEG-3,,,miscellaneous,50961;697.0,,,blood,50877;LU-139,,,lung,50994;CTB-1,,,lymphatic system,50905;ES3,,,bone,50927;TE-11,,,esophagus,51066;IST-SL1,,,lung,50959;TGBC24TKB,,,biliary tract,51076;KLE,,,uterus,50968;LC-1F,,,lung,50986;HCE-4,,,esophagus,50953;A4-Fuk,,,skin,50883;SK-MEL-24,,,skin,51050;CP50-MEL-B,,,skin,50903;YH-13,,,brain,51080;OC-314,,,ovary,51031;RF-48,,,stomach,51040;SK-MG-1,,,brain,51052;B2-17,,,brain,50889;Mo-T,,,blood,51001;KP-N-YN,,,nervous system,50972;D-423MG,,,brain,50911;H9,,,lymphatic system,50949;D-566MG,,,brain,50914;SK-MEL-5,,,skin,51051;NBsusSR,,,nervous system,51016;A101D,,,skin,50879;A388,,,miscellaneous,50881;BB65-RCC,,,kidney,50892;D-502MG,,,brain,50912;GCIY,,,stomach,50944;HA7-RCC,,,kidney,50950;LC-2-ad,,,lung,50987;LS-1034,,,intestine,50989;NB12,,,nervous system,51008;OCUB-M,,,breast,51032;OVCAR-4,,,ovary,51036;RXF393,,,kidney,51044;SJSA-1,,,bone,51049;SW962,,,vulva,51062;TE-12,,,esophagus,51067;TE-15,,,esophagus,51068;TE-8,,,esophagus,51072;TE-9,,,esophagus,51073;VA-ES-BJ,,,miscellaneous,51079;CGTH-W-1,,,thyroid,50899;LB647-SCLC,,,lung,50982</t>
+  </si>
+  <si>
+    <t>1057\cell lines</t>
+  </si>
+  <si>
+    <t>AZD-6482,small molecule,10059-101,LSM-1059;JNK-9L,small molecule,10100-101,None;HG-6-64-01,small molecule,10017-101,LSM-6015</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20009/</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 2.56 uM to 0.01 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>5637.0,epithelial,,urinary bladder,50001;647-V,epithelial-like,,urinary bladder,50002;A375.S2,epithelial,,skin,50003;AGS,epithelial,,stomach,50004;BPH-1,epitheloid,,prostate,50005;Ca Ski,epithelial,,cervix,50006;Ca9-22,epithelial-like,,head &amp; neck,50007;CAL-51,epithelial-like,,breast,50008;Calu-1,epithelial,,lung,50009;Calu-3,epithelial,,lung,50010;COLO-679,fibroblastic,,skin,50011;COLO-800,epithelial-like,,skin,50012;FU97,epithelial-like,,stomach,50013;HEC-1,,,uterus,50014;HLF,,,liver,50015;HUTU-80,epithelial,,intestine,50016;IA-LM,,,lung,50017;Ishikawa,epithelial-like,,uterus,50018;Ishikawa (Heraklio) 02 ER-,epithelial,,uterus,50019;IST-MEL1,epithelial-like,,skin,50020;JHH-6,epithelial-like,,liver,50021;KMRC-20,epithelial-like,,kidney,50023;KYSE-140,,,esophagus,50024;KYSE-150,epitheloid,,esophagus,50025;KYSE-180,epitheloid,,esophagus,50026;KYSE-450,epitheloid,,esophagus,50027;LNZTA3WT4,,,brain,50028;MCF7,epithelial,,breast,50029;MDA-MB-435S,melanocyte,,skin,50030;MT-3,epithelial,,breast,50031;NCI-H1648,,,lung,50032;NCI-H1651,epithelial,,lung,50033;NCI-H1703,epithelial,,lung,50034;NCI-H1915,large cell,,lung,50035;NCI-H2023,,,lung,50036;NCI-H810,epithelial,,lung,50037;PE/CA-PJ15,epithelial-like,,head &amp; neck,50039;SJCRH30,fibroblast,,muscle,50041;SK-LMS-1,,,uterus,50042;SK-MES,epithelial,,lung,50043;SK-OV-3,epithelial,,ovary,50044;SNB75,,,brain,50045;SW527,epithelial,,breast,50046;SW620,epithelial,,intestine,50047;T24,epithelial,,urinary bladder,50048;WiDr,epithelial,,intestine,50049;Hep 3B2.1-7,epithelial,,liver,50051;Hep G2,epithelial,,liver,50052;Huh7,,,liver,50055;SK-BR-3,epithelial,,breast,50057;MDA-MB-231,epithelial,,breast,50058;LNCaP,epithelial,,prostate,50059;A-375,epithelial,,skin,50060;HeLa,epithelial,,cervix,50061;1205Lu,,,skin,50062;1321N1,,,brain,50063;143B,,,bone,50064;143B PML BK TK,,,bone,50065;1A6,,,urinary bladder,50066;22RV1,,,prostate,50067;23132/87,,,stomach,50068;42-MG-BA,,,brain,50069;639-V,,,ureter,50071;769-P,,,kidney,50072;786-O,,,kidney,50073;8305C,,,thyroid,50074;8505C,,,thyroid,50075;A172,,,brain,50076;A-204,,,muscle,50077;A2058,,,skin,50078;A2780,,,ovary,50079;A2780ADR,,,ovary,50080;A373-C6,,,skin,50081;A-427,,,lung,50082;A431,,,skin,50083;A549,,,lung,50084;A673,,,muscle,50085;ABC-1,,,lung,50086;ACHN,,,kidney,50087;AN3CA,,,uterus,50088;ASH-3,,,thyroid,50089;AsPC-1,,,pancreas,50090;AU565,,,breast,50091;AZ-521,,,stomach,50092;B-CPAP,,,thyroid,50093;BE(2)-C,,,nervous system,50094;BEN,,,lung,50095;BeWo,,,miscellaneous,50096;BFTC-905,,,urinary bladder,50097;BFTC-909,,,kidney,50098;BHT-101,,,thyroid,50099;BHY,,,head &amp; neck,50100;BICR 10,,,head &amp; neck,50101;BICR 22,,,head &amp; neck,50102;BICR 31,,,head &amp; neck,50103;BICR 78,,,head &amp; neck,50104;BT-20,,,breast,50105;BT-474,,,breast,50106;BT-483,,,breast,50107;BT-549,,,breast,50108;BxPC-3,,,pancreas,50109;C170,,,intestine,50110;C2BBe1,,,intestine,50111;C32,,,skin,50112;C-33 A,,,cervix,50113;C3A,,,liver,50114;C-4 I,,,cervix,50115;C-4 II,,,cervix,50116;Caco-2,,,intestine,50117;Caki-1,,,kidney,50118;CAL 27,,,head &amp; neck,50119;CAL-120,,,breast,50120;CAL-12T,,,lung,50121;CAL-148,,,breast,50122;CAL-29,,,urinary bladder,50123;CAL-33,,,head &amp; neck,50124;CAL-39,,,vulva,50125;CAL-54,,,kidney,50126;CAL-62,,,thyroid,50127;CAL-72,,,bone,50128;CAL-78,,,bone,50129;CAL-85-1,,,breast,50130;CAMA-1,,,breast,50131;Caov-3,,,ovary,50132;Caov-4,,,ovary,50133;Capan-1,,,pancreas,50134;Capan-2,,,pancreas,50135;CaR-1,,,intestine,50136;CCF-STTG1,,,brain,50137;CCK-81,,,intestine,50138;CHP-212,,,nervous system,50139;CoCM-1,,,intestine,50141;COLO 201,,,intestine,50142;COLO 205,,,intestine,50143;COLO 320DM,,,intestine,50144;COLO 741,,,intestine,50145;COLO 792,,,skin,50146;COLO 853,,,skin,50147;COLO 857,,,skin,50148;COLO 858,,,skin,50149;COLO-206F,,,intestine,50150;COLO-320,,,intestine,50151;COLO-678,,,intestine,50152;COLO-680N,,,esophagus,50153;COLO-783,,,skin,50154;COLO-818,,,skin,50155;COLO-824,,,breast,50156;COLO-849,,,skin,50157;COR-L 105,,,lung,50158;COR-L 23/CPR,,,lung,50159;COR-L23,,,lung,50160;DAN-G,,,pancreas,50161;Daoy,,,brain,50162;DBTRG-05MG,,,brain,50163;Detroit 562,,,head &amp; neck,50164;DK-MG,,,brain,50165;DLD-1,,,intestine,50166;DMS 273,,,lung,50167;DMS 53,,,lung,50168;DOK,,,head &amp; neck,50169;DoTc2 4510,,,cervix,50170;DU 145,,,prostate,50171;DV-90,,,lung,50172;EBC-1,,,lung,50173;EFE-184,,,uterus,50174;EFM-19,,,breast,50175;EFM-192A,,,breast,50176;EFM-192B,,,breast,50177;EFM-192C,,,breast,50178;EFO-21,,,ovary,50179;EFO-27,,,ovary,50180;EGI-1,,,biliary tract,50181;EJ138,,,urinary bladder,50182;EN,,,uterus,50183;EPLC-272H,,,lung,50184;ES-2,,,ovary,50185;ESS-1,,,uterus,50186;EVSA-T,,,breast,50187;FaDu,,,head &amp; neck,50188;FLYA13,,,miscellaneous,50189;FTC-133,,,thyroid,50190;FTC-238,,,thyroid,50191;FU-OV-1,,,ovary,50192;G-292 Clone A141B1,,,bone,50193;G-361,,,skin,50194;G-401,,,kidney,50195;G-402,,,kidney,50196;GAMG,,,brain,50197;GCT,,,miscellaneous,50198;GMS-10,,,brain,50199;GOS-3,,,brain,50200;GP5d,,,intestine,50201;H4,,,brain,50202;HARA,,,lung,50204;HCC1143,,,breast,50205;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC-15,,,lung,50209;HCC1569,,,breast,50210;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC-366,,,lung,50215;HCC38,,,breast,50216;HCC-44,,,lung,50217;HCC-56,,,intestine,50218;HCC70,,,breast,50219;HCC-78,,,lung,50220;HCC-827,,,lung,50221;HCT 116,,,intestine,50222;HCT-15,,,intestine,50223;HCT-8,,,intestine,50224;HDQ-P1,,,breast,50225;H-EMC-SS,,,bone,50226;HGC-27,,,stomach,50227;HLE,,,liver,50228;HMVII,,,skin,50229;HN,,,head &amp; neck,50230;HO-1-N-1,,,head &amp; neck,50231;HO-1-u-1,,,head &amp; neck,50232;HOS,,,bone,50233;HPAC,,,pancreas,50234;HPAF-II,,,pancreas,50235;HRT-18,,,intestine,50236;Hs 257.T,,,intestine,50237;Hs 578T,,,breast,50238;Hs 588.T,,,cervix,50239;Hs 633T,,,miscellaneous,50240;Hs 683,,,brain,50241;Hs 746T,,,stomach,50242;Hs 766T,,,pancreas,50243;HSC-2,,,head &amp; neck,50244;HSC-3,,,head &amp; neck,50245;HSC-4,,,head &amp; neck,50246;HT 1080,,,miscellaneous,50247;HT 1376,,,urinary bladder,50248;HT115,,,intestine,50249;HT-1197,,,urinary bladder,50250;HT-29,,,intestine,50251;HT-3,,,cervix,50252;HT55,,,intestine,50253;HTC-C3,,,thyroid,50254;HuCCT1,,,biliary tract,50255;huH-1,,,liver,50256;HuO-3N1,,,bone,50257;HuO9,,,bone,50258;HuO9N2,,,bone,50259;HUP-T3,,,pancreas,50260;HUP-T4,,,pancreas,50261;IGR-1,,,skin,50262;IGR-37,,,skin,50263;IGR-39,,,skin,50264;IHH-4,,,thyroid,50265;IM-95,,,stomach,50266;IM-95m,,,stomach,50267;IMR-32,,,nervous system,50268;IPC-298,,,skin,50269;J82,,,urinary bladder,50270;JAR,,,miscellaneous,50271;JHH-1,,,liver,50272;JHH-2,,,liver,50273;JHH-4,,,liver,50274;JHH-7,,,liver,50275;JIMT-1,,,breast,50276;KELLY,,,nervous system,50277;KG-1-C,,,brain,50278;KHOS/NP,,,bone,50280;KHOS-240S,,,bone,50281;KHOS-312H,,,bone,50282;KMH-2,,,thyroid,50283;KMRC-1,,,kidney,50284;KON,,,head &amp; neck,50285;KOSC-2 cl3-43,,,head &amp; neck,50286;KP-2,,,pancreas,50287;KP-3,,,pancreas,50288;KP-3L,,,pancreas,50289;KP-4,,,pancreas,50290;KPL-1,,,breast,50291;KU-19-19,,,urinary bladder,50292;KYSE-220,,,esophagus,50293;KYSE-270,,,esophagus,50294;KYSE-30,,,esophagus,50295;KYSE-410,,,esophagus,50296;KYSE-50,,,esophagus,50297;KYSE-510,,,esophagus,50298;KYSE-520,,,esophagus,50299;KYSE-70,,,esophagus,50300;LC-1 sq,,,lung,50301;LCLC-103H,,,lung,50302;LCLC-97TM1,,,lung,50303;LK-2,,,lung,50304;LN-18,,,brain,50305;LN-229,,,brain,50306;LN-405,,,brain,50307;LNZTA3WT11,,,brain,50308;LOU-NH91,,,lung,50309;LoVo,,,intestine,50310;LS174T,,,intestine,50311;LS180,,,intestine,50312;Lu-135,,,lung,50314;LU65,,,lung,50315;LU65A,,,lung,50316;LU65B,,,lung,50317;LU65C,,,lung,50318;LU99A,,,lung,50319;LU99B,,,lung,50320;LU99C,,,lung,50321;LUDLU-1,,,lung,50322;M059J,,,brain,50323;MB 157,,,breast,50324;MCAS,,,ovary,50325;MC-IXC,,,nervous system,50326;MDA-MB-134-VI,,,breast,50327;MDA-MB-157,,,breast,50328;MDA-MB-175-VII,,,breast,50329;MDA-MB-330,,,breast,50330;MDA-MB-361,,,breast,50331;MDA-MB-415,,,breast,50332;MDA-MB-436,,,breast,50333;MDA-MB-453,,,breast,50334;MDA-MB-468,,,breast,50335;MDST8,,,intestine,50336;ME-180,,,cervix,50337;MEL-HO,,,skin,50338;MEL-JUSO,,,skin,50339;MES-SA,,,uterus,50340;MES-SA/Dx-5,,,uterus,50341;MEWO,,,skin,50342;MFE-280,,,uterus,50343;MFE-296,,,uterus,50344;MFE-319,,,uterus,50345;MFM-223,,,breast,50346;MG-63,,,bone,50347;MHH-ES-1,,,nervous system,50348;MIA PaCa-2,,,pancreas,50349;MKN1,,,stomach,50350;MKN28,,,stomach,50351;MKN45,,,stomach,50352;MKN7,,,stomach,50353;MKN74,,,stomach,50354;ML-1,,,thyroid,50355;MOG-G-CCM,,,brain,50356;MOG-G-UVW,,,brain,50357;MS751,,,cervix,50358;MSTO-211H,,,pleura,50359;NB69,,,nervous system,50360;NCC-IT-A3,,,testes,50361;NCI-H1048,,,lung,50362;NCI-H1299,,,lung,50363;NCI-H1435,,,lung,50364;NCI-H1437,,,lung,50365;NCI-H1568,,,lung,50366;NCI-H1573,,,lung,50367;NCI-H1581,,,lung,50368;NCI-H1623,,,lung,50369;NCI-H1650,,,lung,50370;NCI-H1688,,,lung,50371;NCI-H1693,,,lung,50372;NCI-H1734,,,lung,50373;NCI-H1755,,,lung,50374;NCI-H1781,,,lung,50375;NCI-H1792,,,lung,50376;NCI-H1793,,,lung,50377;NCI-H1869,,,lung,50378;NCI-H1876,,,lung,50379;NCI-H1944,,,lung,50380;NCI-H196,,,lung,50381;NCI-H1993,,,lung,50382;NCI-H2009,,,lung,50383;NCI-H2029,,,lung,50384;NCI-H2030,,,lung,50385;NCI-H2073,,,lung,50386;NCI-H2085,,,lung,50387;NCI-H2087,,,lung,50388;NCI-H2110,,,lung,50389;NCI-H2122,,,lung,50390;NCI-H2135,,,lung,50391;NCI-H2170,,,lung,50392;NCI-H2172,,,lung,50393;NCI-H2195,,,lung,50394;NCI-H2196,,,lung,50395;NCI-H2198,,,lung,50396;NCI-H2228,,,lung,50397;NCI-H2286,,,lung,50398;NCI-H2291,,,lung,50399;NCI-H23,,,lung,50400;NCI-H2342,,,lung,50401;NCI-H2347,,,lung,50402;NCI-H2405,,,lung,50403;NCI-H2444,,,lung,50404;NCI-H2452,,,lung,50405;NCI-H322,,,lung,50407;NCI-H358,,,lung,50408;NCI-H441,,,lung,50409;NCI-H460,,,lung,50410;NCI-H520,,,lung,50411;NCI-H522,,,lung,50412;NCI-H596,,,lung,50413;NCI-H630,,,intestine,50414;NCI-H647,,,lung,50415;NCI-H650,,,lung,50416;NCI-H661,,,lung,50417;NCI-H727,,,lung,50418;NCI-H838,,,lung,50419;NCI-H841,,,lung,50420;NCI-N87,,,stomach,50421;NIH:OVCAR-3,,,ovary,50422;NUGC-3,,,stomach,50424;NUGC-4,,,stomach,50425;NY,,,bone,50426;OAW28,,,ovary,50427;OAW42,,,ovary,50428;OCUG-1,,,gall bladder,50429;OCUM-1,,,stomach,50430;OE19,,,esophagus,50431;OE21,,,esophagus,50432;OE33,,,esophagus,50433;OSC-19,,,head &amp; neck,50434;OSC-20,,,head &amp; neck,50435;OUMS-23,,,intestine,50436;OV-90,,,ovary,50437;OVISE,,,ovary,50438;OVKATE,,,ovary,50439;OVMIU,,,ovary,50440;OVSAYO,,,ovary,50441;OVTOKO,,,ovary,50442;PA-1,,,ovary,50443;Panc 02.03,,,pancreas,50444;Panc 03.27,,,pancreas,50445;Panc 04.03,,,pancreas,50446;Panc 08.13,,,pancreas,50447;Panc 10.05,,,pancreas,50448;PANC-1,,,pancreas,50449;PA-TU-8902,,,pancreas,50450;PA-TU-8988S,,,pancreas,50451;PA-TU-8988T,,,pancreas,50452;PC-14,,,lung,50453;PC-3,,,prostate,50454;PFSK-1,,,brain,50455;PL45,,,pancreas,50456;PLC/PRF/5,,,liver,50457;RCM-1,,,intestine,50459;RD,,,muscle,50460;RD-ES,,,nervous system,50461;RERF-GC-1B,,,stomach,50462;RERF-LC-Ad1,,,lung,50463;RERF-LC-KJ,,,lung,50464;RERF-LC-MA,,,lung,50465;RERF-LC-Sq1,,,lung,50466;RKN,,,ovary,50467;RMG-I,,,ovary,50468;RO82-W-1,,,thyroid,50469;RPMI 2650,,,head &amp; neck,50470;RPMI-7951,,,skin,50471;RT-112,,,urinary bladder,50472;RT112/84,,,urinary bladder,50473;RT4,,,urinary bladder,50474;RVH-421,,,skin,50475;S-117,,,thyroid,50476;Saos-2,,,bone,50477;SAS,,,head &amp; neck,50478;SAT,,,head &amp; neck,50479;SBC-3,,,lung,50480;SBC-5,,,lung,50481;SCaBER,,,urinary bladder,50482;SCC-15,,,head &amp; neck,50483;SCC-25,,,head &amp; neck,50484;SCC-4,,,head &amp; neck,50485;SCC-9,,,head &amp; neck,50486;SCCH-26,,,nervous system,50488;SCH,,,stomach,50489;SCLC-21H,,,lung,50490;SHP-77,,,lung,50491;SiHa,,,cervix,50493;SISO,,,cervix,50494;SK-CO-1,,,intestine,50495;SK-ES-1,,,bone,50496;SKG-IIIa,,,cervix,50497;SKG-IIIb,,,cervix,50498;SK-HEP-1,,,liver,50499;SK-LU-1,,,lung,50500;SK-MEL-2,,,skin,50501;SK-MEL-30,,,skin,50502;SKN,,,uterus,50503;SKN-3,,,head &amp; neck,50504;SK-N-AS,,,nervous system,50505;SK-N-DZ,,,nervous system,50506;SK-NEP-1,,,kidney,50507;SK-N-SH,,,nervous system,50508;SNG-M,,,uterus,50509;SNU-1,,,stomach,50510;SNU-16,,,stomach,50511;SNU-182,,,liver,50512;SNU-387,,,liver,50513;SNU-398,,,liver,50514;SNU-423,,,liver,50515;SNU-449,,,liver,50516;SNU-475,,,liver,50517;SNU-5,,,stomach,50518;SU.86.86,,,pancreas,50520;SUIT-2,,,pancreas,50521;SW 1088,,,brain,50522;SW 1271,,,lung,50524;SW 13,,,adrenal gland,50525;SW 1417,,,intestine,50526;SW 1463,,,intestine,50527;SW 156,,,kidney,50528;SW 1573,,,lung,50529;SW 1783,,,brain,50530;SW 48,,,intestine,50531;SW 626,,,ovary,50532;SW 780,,,urinary bladder,50533;SW 900,,,lung,50534;SW-1710,,,urinary bladder,50535;SW756,,,cervix,50536;SW837,,,intestine,50537;SW-948,,,intestine,50538;T.T,,,esophagus,50539;T.Tn,,,esophagus,50540;T47D,,,breast,50541;T84,,,intestine,50542;T98G,,,brain,50543;TASK1,,,nervous system,50544;TCCSUP,,,urinary bladder,50545;TGW,,,adrenal gland,50546;TOV-112D,,,ovary,50547;TOV-21G,,,ovary,50548;TT2609-C02,,,thyroid,50549;TYK-nu,,,ovary,50550;U-118 MG,,,brain,50551;U-138 MG,,,brain,50552;U-2 OS,,,bone,50553;U-251 MG,,,brain,50554;U373 MG,,,brain,50555;UACC-812,,,breast,50556;UACC-893,,,breast,50557;UMC-11,,,lung,50558;UM-UC-3,,,urinary bladder,50559;VCaP,,,prostate,50560;VM-CUB1,,,urinary bladder,50561;VMRC-LCP,,,lung,50562;VMRC-MELG,,,skin,50563;VMRC-RCW,,,kidney,50564;VMRC-RCZ,,,kidney,50565;WM 266-4,,,skin,50566;WM-115,,,skin,50567;WM1552C,,,skin,50568;WM278,,,skin,50569;WM35,,,skin,50570;WM793B,,,skin,50571;YAPC,,,pancreas,50572;YKG-1,,,brain,50573;ZR-75-1,,,breast,50574;ZR-75-30,,,breast,50575;DU4475,epithelial,,breast,50577;HCC1187,epithelial,,breast,50578;HCC1500,epithelial,,breast,50579;HCC1599,epithelial,,breast,50580;HCC2157,epithelial,,breast,50581;HCC2218,epithelial,,breast,50582;2B8,,,lymphatic system,50585;A2780cis,,,ovary,50586;A3,,,blood,50587;A3/KAW,,,lymphatic system,50588;AGR-ON,,,blood,50589;ALL-SIL,,,blood,50590;AMO-1,,,lymphatic system,50591;ARH-77,,,blood,50592;BALL-1,,,blood,50593;BC-1,,,lymphatic system,50594;BC-2,,,lymphatic system,50595;BC-3,,,lymphatic system,50596;BDCM,,,blood,50597;BE(2)-M17,,,nervous system,50598;BL-41,,,lymphatic system,50599;BL-70,,,lymphatic system,50600;C8166,,,blood,50601;CA46,,,lymphatic system,50602;CCRF-CEM,,,blood,50603;CCRF-HSB-2,,,blood,50604;CCRF-SB,,,blood,50605;CEM/C1,,,blood,50606;CEM/C2,,,blood,50607;CESS,,,blood,50608;CFPAC-1,,,pancreas,50609;ChaGo-K-1,,,lung,50610;CHP-126,,,nervous system,50611;CI-1,,,lymphatic system,50612;CL-11,,,intestine,50613;Clone 15 HL-60,,,blood,50614;CMK,,,blood,50615;COLO 684,,,uterus,50616;COLO-704,,,ovary,50617;COR-L279,,,lung,50618;COR-L51,,,lung,50619;COR-L88,,,lung,50620;COR-L95,,,lung,50621;CPC-N,,,lung,50622;CTV-1,,,blood,50623;D283 Med,,,brain,50624;Daudi,,,lymphatic system,50625;DB,,,lymphatic system,50626;DERL-2,,,lymphatic system,50627;DG-75,,,lymphatic system,50628;DMS 114,,,lung,50629;DMS 153,,,lung,50630;DMS 79,,,lung,50631;DND-41,,,blood,50632;EB1,,,lymphatic system,50633;EB2,,,lymphatic system,50634;EB-3,,,lymphatic system,50635;EHEB,,,blood,50636;EJM,,,blood,50637;Eos-HL-60,,,blood,50638;Farage,,,lymphatic system,50639;GA-10,,,lymphatic system,50640;GA-10 (Clone 20),,,lymphatic system,50641;GDM-1,,,blood,50642;GOTO,,,nervous system,50643;Gp2D,,,intestine,50644;GRANTA-519,,,lymphatic system,50645;H33HJ-JA1,,,blood,50646;HC-1,,,blood,50647;HCC-33,,,lung,50648;HDLM-2,,,lymphatic system,50649;HD-MY-Z,,,lymphatic system,50650;HEL,,,blood,50651;HEL 92.1.7,,,blood,50652;HH,,,lymphatic system,50653;HL-60,,,blood,50654;HL60(S),,,blood,50655;HL-60/MX2,,,blood,50656;HL60RG,,,blood,50657;Hs 445,,,lymphatic system,50658;HS-Sultan,,,lymphatic system,50659;HT,,,lymphatic system,50660;HuT 78,,,lymphatic system,50661;I 2.1,,,blood,50662;I 9.2,,,blood,50663;IM-9,,,lymphatic system,50664;J.gamma1,,,blood,50665;J.gamma1.WT,,,blood,50666;J.RT3-T3.5,,,blood,50667;J45.01,,,blood,50668;Jiyoye,,,lymphatic system,50669;JJN-3,,,blood,50670;JKT-beta-del,,,blood,50671;JM1,,,lymphatic system,50672;JSC-1,,,lymphatic system,50673;Jurkat, Clone E6-1,,,blood,50674;JURL-MK1,,,blood,50675;JURL-MK2,,,blood,50676;K-562,,,blood,50677;K562/ADM,,,blood,50678;KARPAS-231,,,blood,50679;KARPAS-299,,,lymphatic system,50680;KARPAS-422,,,lymphatic system,50681;KARPAS-45,,,blood,50682;KARPAS-620,,,blood,50683;Kasumi-1,,,blood,50684;KCL-22,,,blood,50685;KE-37,,,blood,50686;KG-1,,,blood,50687;KG-1a,,,blood,50688;KM-H2,,,lymphatic system,50689;KMOE-2,,,blood,50690;KMS-12-BM,,,blood,50691;KMS-12-PE,,,blood,50692;KO52,,,blood,50693;KOPN-8,,,blood,50694;KP-1N,,,pancreas,50695;KP-1NL,,,pancreas,50696;KU812,,,blood,50697;KU812E,,,blood,50698;KU812F,,,blood,50699;KY821,,,blood,50700;KY821A3,,,blood,50701;KYM-1,,,muscle,50702;L-1236,,,lymphatic system,50703;L-363,,,blood,50704;L-428,,,lymphatic system,50705;L-540,,,lymphatic system,50706;LAMA-84,,,blood,50707;LC4-1,,,blood,50708;Loucy,,,blood,50709;LP-1,,,blood,50710;Lu-134-B,,,lung,50711;M059K,,,brain,50712;MC/CAR,,,lymphatic system,50713;MC116,,,lymphatic system,50714;ME-1,,,blood,50715;MEC-1,,,blood,50716;MEC-2,,,blood,50717;MEG-01,,,blood,50718;MHH-NB-11,,,nervous system,50719;MHH-PREB-1,,,lymphatic system,50720;MJ,,,lymphatic system,50721;ML-2,,,blood,50722;MLMA,,,blood,50723;MOLM-13,,,blood,50724;MOLP-8,,,blood,50725;MOLT-14,,,blood,50726;MOLT-16,,,blood,50727;MOLT-4,,,blood,50728;MOLT-4F,,,blood,50729;MONO-MAC-1,,,blood,50730;MONO-MAC-6,,,blood,50731;MRK-nu-1,,,breast,50732;MS-1-L,,,lung,50733;MV-4-11,,,blood,50734;MY,,,blood,50735;MY-M12,,,blood,50736;MY-M13,,,blood,50737;NALM-19,,,blood,50738;NALM-6,,,blood,50739;NAMALWA,,,lymphatic system,50740;NAMALWA.PNT,,,lymphatic system,50741;NB(TU)1-10,,,nervous system,50742;NB-1,,,nervous system,50743;NB-4,,,blood,50744;NC-37,,,lymphatic system,50745;NCI-H1092,,,lung,50746;NCI-H1155,,,lung,50747;NCI-H1304,,,lung,50748;NCI-H1385,,,lung,50749;NCI-H1395,,,lung,50750;NCI-H1404,,,lung,50751;NCI-H1417,,,lung,50752;NCI-H1436,,,lung,50753;NCI-H1522,,,lung,50754;NCI-H1563,,,lung,50755;NCI-H1618,,,lung,50756;NCI-H1666,,,lung,50757;NCI-H1694,,,lung,50758;NCI-H1770,,,lung,50759;NCI-H1836,,,lung,50760;NCI-H1838,,,lung,50761;NCI-H187,,,lung,50762;NCI-H1882,,,lung,50763;NCI-H1963,,,lung,50764;NCI-H1975,,,lung,50765;NCI-H2081,,,lung,50766;NCI-H209,,,lung,50767;NCI-H2106,,,lung,50768;NCI-H211,,,lung,50769;NCI-H2141,,,lung,50770;NCI-H2171,,,lung,50771;NCI-H220,,,lung,50772;NCI-H2227,,,lung,50773;NCI-H226,,,lung,50774;NCI-H345,,,lung,50775;NCI-H446,,,lung,50776;NCI-H510A,,,lung,50777;NCI-H524,,,lung,50778;NCI-H526,,,lung,50779;NCI-H69,,,lung,50780;NCI-H719,,,lung,50781;NCI-H720,,,lung,50782;NCI-H748,,,lung,50783;NCI-H82,,,lung,50784;NCI-H847,,,lung,50785;NCI-H889,,,lung,50786;NEC8,,,testes,50787;NH-12,,,nervous system,50788;NK-92MI,,,lymphatic system,50789;NOMO-1/ADM,,,blood,50790;NU-DUL-1,,,lymphatic system,50791;OCI-AML2,,,blood,50792;OCI-AML3,,,blood,50793;OCI-AML5,,,blood,50794;OCI-LY-19,,,lymphatic system,50795;OCI-M1,,,blood,50796;OPM-2,,,blood,50797;P116.cl39,,,blood,50798;P12-ICHIKAWA,,,blood,50799;P30/OHK,,,blood,50800;P31/FUJ,,,blood,50801;P32/ISH,,,lymphatic system,50802;P3HR-1,,,lymphatic system,50803;PC-3 [JPC-3],,,lung,50804;PEER,,,blood,50805;PF-382,,,blood,50806;Pfeiffer,,,lymphatic system,50807;PL-21,,,blood,50808;PSN1,,,pancreas,50809;Raji,,,lymphatic system,50810;Ramos (RA 1),,,blood,50811;RC-K8,,,lymphatic system,50812;REC-1,,,lymphatic system,50813;Reh,,,blood,50814;RERF-LC-MS,,,lung,50815;RH-1,,,bone,50816;RH-30,,,muscle,50817;RH-41,,,muscle,50818;RL,,,lymphatic system,50819;ROS-50,,,blood,50820;RPMI 1788,,,blood,50821;RPMI 6666,,,lymphatic system,50822;RPMI 8226,,,blood,50823;RPMI-8402,,,blood,50824;RS4;11,,,blood,50825;SBC-1,,,lung,50826;SBC-2,,,lung,50827;SC-1,,,lymphatic system,50828;SCC-3,,,lymphatic system,50829;Sci-1,,,lymphatic system,50830;SIG-M5,,,blood,50831;SIMA,,,nervous system,50832;SK-MEL-1,,,skin,50833;SK-MEL-3,,,skin,50834;SK-N-BE(2),,,nervous system,50835;SK-N-FI,,,nervous system,50836;SLVL,,,lymphatic system,50837;SNB-19,,,brain,50838;SR,,,lymphatic system,50839;ST486,,,lymphatic system,50840;SU-DHL-1,,,lymphatic system,50841;SU-DHL-10,,,lymphatic system,50842;SU-DHL-16,,,lymphatic system,50843;SU-DHL-4,,,lymphatic system,50844;SU-DHL-5,,,lymphatic system,50845;SU-DHL-6,,,lymphatic system,50846;SU-DHL-8,,,lymphatic system,50847;SUP-B15,,,blood,50848;SUP-HD1,,,lymphatic system,50849;SUP-M2,,,lymphatic system,50850;SUP-T1,,,blood,50851;SVG p12,,,brain,50852;SW 1990,,,pancreas,50853;TALL-1,,,blood,50854;TANOUE,,,blood,50855;TC-71,,,bone,50856;Tera-1,,,testes,50857;TF-1,,,blood,50858;TF-1.CN5a.1,,,blood,50859;TF-1a,,,blood,50860;THP-1,,,blood,50861;TK,,,lymphatic system,50862;Toledo,,,lymphatic system,50863;TT,,,thyroid,50864;TUR,,,lymphatic system,50865;U266B1,,,blood,50866;U-698-M,,,blood,50867;U-87 MG,,,brain,50868;U-937,,,lymphatic system,50869;VAL,,,lymphatic system,50870;WIL2 NS,,,lymphatic system,50871;WILCL,,,blood,50872;WSU-DLCL2,,,lymphatic system,50873;WSU-NHL,,,lymphatic system,50874;YMB-1,,,breast,50875;YT,,,lymphatic system,50876;HCC202,,,breast,50214;CGTH-W-1,,,thyroid,50899;LB647-SCLC,,,lung,50982;8-MG-BA,,,brain,50878;A253,,,head &amp; neck,50880;A498,,,kidney,50882;A704,,,kidney,50884;ACN,,,nervous system,50885;ALL-PO,,,blood,50886;AM-38,,,brain,50887;ATN-1,,,blood,50888;BB30-HNC,,,head &amp; neck,50890;BB49-HNC,,,head &amp; neck,50891;BE-13,,,blood,50893;Becker,,,brain,50894;BOKU,,,cervix,50895;BV-173,,,blood,50896;Calu-6,,,lung,50897;CAS-1,,,brain,50898;COLO-320-HSR,,,intestine,50900;COLO-668,,,lung,50901;COLO-829,,,skin,50902;CP66-MEL,,,skin,50904;CW-2,,,intestine,50906;D-247MG,,,brain,50907;D-263MG,,,brain,50908;D-336MG,,,brain,50909;D-392MG,,,brain,50910;D-542MG,,,brain,50913;DEL,,,blood,50915;DJM-1,,,skin,50916;DOHH-2,,,lymphatic system,50917;DSH1,,,urinary tract,50918;ECC12,,,stomach,50920;ECC4,,,intestine,50921;EC-GI-10,,,esophagus,50922;EKVX,,,lung,50923;EM-2,,,blood,50924;EoL-1-cell,,,blood,50925;ES1,,,bone,50926;ES4,,,bone,50928;ES5,,,bone,50929;ES6,,,bone,50930;ES7,,,bone,50931;ES8,,,bone,50932;ETK-1,,,biliary tract,50933;EW-1,,,bone,50934;EW-11,,,bone,50935;EW-13,,,bone,50936;EW-16,,,bone,50937;EW-18,,,bone,50938;EW-24,,,bone,50939;EW-3,,,bone,50940;EW-7,,,bone,50941;GAK,,,skin,50942;GB-1,,,brain,50943;GI-1,,,brain,50945;GI-ME-N,,,nervous system,50946;GR-ST,,,blood,50947;GT3TKB,,,stomach,50948;HAL-01,,,blood,50951;HCC2998,,,intestine,50952;HCE-T,,,head &amp; neck,50954;HOP-62,,,lung,50955;HT-144,,,skin,50956;IMR-5,,,nervous system,50957;IST-MES1,,,pleura,50958;IST-SL2,,,lung,50960;JVM-2,,,blood,50962;JVM-3,,,blood,50963;K5,,,thyroid,50964;KALS-1,,,brain,50965;KGN,,,ovary,50966;KINGS-1,,,brain,50967;KM12,,,intestine,50969;KNS-42,,,brain,50970;KNS-81-FD,,,brain,50971;KP-N-YS,,,nervous system,50973;KS-1,,,brain,50974;KURAMOCHI,,,ovary,50975;LAN-5,,,nervous system,50976;LAN-6,,,nervous system,50977;LB1047-RCC,,,kidney,50978;LB2241-RCC,,,kidney,50979;LB2518-MEL,,,skin,50980;LB373-MEL-D,,,skin,50981;LB771-HNC,,,head &amp; neck,50983;LB831-BLC,,,urinary tract,50984;LB996-RCC,,,kidney,50985;LOXIMVI,,,skin,50988;LS-123,,,intestine,50990;LS-411N,,,intestine,50991;LS-513,,,intestine,50992;LU-134-A,,,lung,50993;LU-165,,,lung,50995;LXF-289,,,lung,50996;MFH-ino,,,miscellaneous,50997;MHH-CALL-2,,,blood,50998;MMAC-SF,,,skin,50999;MN-60,,,blood,51000;MPP-89,,,pleura,51002;MUTZ-1,,,blood,51003;MZ1-PC,,,pancreas,51004;MZ2-MEL,,,skin,51005;MZ7-mel,,,skin,51006;NB10,,,nervous system,51007;NB13,,,nervous system,51009;NB14,,,nervous system,51010;NB16,,,nervous system,51011;NB17,,,nervous system,51012;NB5,,,nervous system,51013;NB6,,,nervous system,51014;NB7,,,nervous system,51015;NCI-H1355,,,lung,51017;NCI-H157,,,lung,51018;NCI-H2126,,,lung,51019;NCI-H322M,,,lung,51020;NCI-H64,,,lung,51021;NCI-H716,,,intestine,51022;NCI-H747,,,intestine,51023;NKM-1,,,blood,51024;NMC-G1,,,brain,51025;no-10,,,brain,51026;no-11,,,brain,51027;NOMO-1,,,blood,51028;NOS-1,,,bone,51029;NTERA-S-cl-D1,,,testes,51030;OMC-1,,,cervix,51033;ONS-76,,,brain,51034;OS-RC-2,,,kidney,51035;QIMR-WIL,,,blood,51037;Ramos-2G6-4C10,,,lymphatic system,51038;RCC10RGB,,,kidney,51039;RKO,,,intestine,51041;RL95-2,,,uterus,51042;RPMI-8866,,,blood,51043;SF126,,,brain,51045;SF268,,,brain,51046;SF539,,,brain,51047;SH-4,,,skin,51048;SK-MM-2,,,blood,51053;SK-PN-DW,,,bone,51054;SK-UT-1,,,uterus,51055;SNU-C1,,,intestine,51056;SNU-C2B,,,intestine,51057;SW403,,,intestine,51058;SW684,,,miscellaneous,51059;SW872,,,miscellaneous,51060;SW954,,,vulva,51061;SW982,,,miscellaneous,51063;TE-1,,,esophagus,51064;TE-10,,,esophagus,51065;TE-441-T,,,muscle,51069;TE-5,,,esophagus,51070;TE-6,,,esophagus,51071;TGBC11TKB,,,stomach,51074;TGBC1TKB,,,biliary tract,51075;TK10,,,kidney,51077;UACC-257,,,skin,51078;ECC10,,,stomach,50919;JEG-3,,,miscellaneous,50961;697.0,,,blood,50877;LU-139,,,lung,50994;CTB-1,,,lymphatic system,50905;ES3,,,bone,50927;TE-11,,,esophagus,51066;IST-SL1,,,lung,50959;TGBC24TKB,,,biliary tract,51076;KLE,,,uterus,50968;LC-1F,,,lung,50986;HCE-4,,,esophagus,50953;A4-Fuk,,,skin,50883;SK-MEL-24,,,skin,51050;CP50-MEL-B,,,skin,50903;YH-13,,,brain,51080;OC-314,,,ovary,51031;RF-48,,,stomach,51040;SK-MG-1,,,brain,51052;B2-17,,,brain,50889;Mo-T,,,blood,51001;KP-N-YN,,,nervous system,50972;D-423MG,,,brain,50911;H9,,,lymphatic system,50949;D-566MG,,,brain,50914;SK-MEL-5,,,skin,51051;NBsusSR,,,nervous system,51016;A101D,,,skin,50879;A388,,,miscellaneous,50881;BB65-RCC,,,kidney,50892;D-502MG,,,brain,50912;GCIY,,,stomach,50944;HA7-RCC,,,kidney,50950;LC-2-ad,,,lung,50987;LS-1034,,,intestine,50989;NB12,,,nervous system,51008;OCUB-M,,,breast,51032;OVCAR-4,,,ovary,51036;RXF393,,,kidney,51044;SJSA-1,,,bone,51049;SW962,,,vulva,51062;TE-12,,,esophagus,51067;TE-15,,,esophagus,51068;TE-8,,,esophagus,51072;TE-9,,,esophagus,51073;VA-ES-BJ,,,miscellaneous,51079;NUGC-2,,,stomach,50423;QGP-1,,,pancreas,50458;SW 1116,,,intestine,50523</t>
+  </si>
+  <si>
+    <t>1061\cell lines</t>
+  </si>
+  <si>
+    <t>CHIR-99021,small molecule,10180-101,LSM-1181;PF562271,small molecule,10072-101,LSM-1072;OSI 906,small molecule,10135-101,LSM-1135;Sigma A6730,small molecule,10035-109,LSM-1035;GSK1070916,small molecule,10062-101,LSM-1062;BMS-754807,small molecule,10290-101,LSM-6218</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20010/</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 1.024 uM to 0.004 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>5637.0,epithelial,,urinary bladder,50001;647-V,epithelial-like,,urinary bladder,50002;A375.S2,epithelial,,skin,50003;AGS,epithelial,,stomach,50004;BPH-1,epitheloid,,prostate,50005;Ca Ski,epithelial,,cervix,50006;Ca9-22,epithelial-like,,head &amp; neck,50007;CAL-51,epithelial-like,,breast,50008;Calu-1,epithelial,,lung,50009;Calu-3,epithelial,,lung,50010;COLO-679,fibroblastic,,skin,50011;COLO-800,epithelial-like,,skin,50012;HEC-1,,,uterus,50014;HLF,,,liver,50015;HUTU-80,epithelial,,intestine,50016;IA-LM,,,lung,50017;Ishikawa,epithelial-like,,uterus,50018;Ishikawa (Heraklio) 02 ER-,epithelial,,uterus,50019;IST-MEL1,epithelial-like,,skin,50020;JHH-6,epithelial-like,,liver,50021;KYSE-140,,,esophagus,50024;KYSE-150,epitheloid,,esophagus,50025;KYSE-180,epitheloid,,esophagus,50026;KYSE-450,epitheloid,,esophagus,50027;LNZTA3WT4,,,brain,50028;MCF7,epithelial,,breast,50029;MDA-MB-435S,melanocyte,,skin,50030;MT-3,epithelial,,breast,50031;NCI-H1648,,,lung,50032;NCI-H1651,epithelial,,lung,50033;NCI-H1703,epithelial,,lung,50034;NCI-H1915,large cell,,lung,50035;NCI-H2023,,,lung,50036;NCI-H810,epithelial,,lung,50037;PE/CA-PJ15,epithelial-like,,head &amp; neck,50039;SK-LMS-1,,,uterus,50042;SK-MES,epithelial,,lung,50043;SK-OV-3,epithelial,,ovary,50044;SNB75,,,brain,50045;SW527,epithelial,,breast,50046;SW620,epithelial,,intestine,50047;T24,epithelial,,urinary bladder,50048;WiDr,epithelial,,intestine,50049;Hep 3B2.1-7,epithelial,,liver,50051;Hep G2,epithelial,,liver,50052;Huh7,,,liver,50055;SK-BR-3,epithelial,,breast,50057;MDA-MB-231,epithelial,,breast,50058;A-375,epithelial,,skin,50060;HeLa,epithelial,,cervix,50061;1205Lu,,,skin,50062;1321N1,,,brain,50063;143B,,,bone,50064;143B PML BK TK,,,bone,50065;1A6,,,urinary bladder,50066;22RV1,,,prostate,50067;23132/87,,,stomach,50068;42-MG-BA,,,brain,50069;639-V,,,ureter,50071;769-P,,,kidney,50072;786-O,,,kidney,50073;8305C,,,thyroid,50074;8505C,,,thyroid,50075;A172,,,brain,50076;A-204,,,muscle,50077;A2058,,,skin,50078;A2780,,,ovary,50079;A2780ADR,,,ovary,50080;A373-C6,,,skin,50081;A-427,,,lung,50082;A549,,,lung,50084;A673,,,muscle,50085;ABC-1,,,lung,50086;ACHN,,,kidney,50087;AN3CA,,,uterus,50088;ASH-3,,,thyroid,50089;AsPC-1,,,pancreas,50090;AU565,,,breast,50091;AZ-521,,,stomach,50092;B-CPAP,,,thyroid,50093;BE(2)-C,,,nervous system,50094;BEN,,,lung,50095;BeWo,,,miscellaneous,50096;BFTC-905,,,urinary bladder,50097;BFTC-909,,,kidney,50098;BHT-101,,,thyroid,50099;BHY,,,head &amp; neck,50100;BICR 10,,,head &amp; neck,50101;BICR 22,,,head &amp; neck,50102;BICR 31,,,head &amp; neck,50103;BICR 78,,,head &amp; neck,50104;BT-20,,,breast,50105;BT-474,,,breast,50106;BT-483,,,breast,50107;BT-549,,,breast,50108;BxPC-3,,,pancreas,50109;C170,,,intestine,50110;C2BBe1,,,intestine,50111;C32,,,skin,50112;C-33 A,,,cervix,50113;C3A,,,liver,50114;C-4 I,,,cervix,50115;C-4 II,,,cervix,50116;Caco-2,,,intestine,50117;Caki-1,,,kidney,50118;CAL 27,,,head &amp; neck,50119;CAL-120,,,breast,50120;CAL-12T,,,lung,50121;CAL-29,,,urinary bladder,50123;CAL-33,,,head &amp; neck,50124;CAL-39,,,vulva,50125;CAL-62,,,thyroid,50127;CAL-72,,,bone,50128;CAL-78,,,bone,50129;CAL-85-1,,,breast,50130;CAMA-1,,,breast,50131;Caov-3,,,ovary,50132;Caov-4,,,ovary,50133;Capan-2,,,pancreas,50135;CaR-1,,,intestine,50136;CCF-STTG1,,,brain,50137;CCK-81,,,intestine,50138;CHP-212,,,nervous system,50139;CoCM-1,,,intestine,50141;COLO 201,,,intestine,50142;COLO 205,,,intestine,50143;COLO 741,,,intestine,50145;COLO 792,,,skin,50146;COLO 853,,,skin,50147;COLO 857,,,skin,50148;COLO 858,,,skin,50149;COLO-678,,,intestine,50152;COLO-680N,,,esophagus,50153;COLO-783,,,skin,50154;COLO-818,,,skin,50155;COLO-849,,,skin,50157;COR-L 105,,,lung,50158;COR-L23,,,lung,50160;DAN-G,,,pancreas,50161;Daoy,,,brain,50162;DBTRG-05MG,,,brain,50163;Detroit 562,,,head &amp; neck,50164;DK-MG,,,brain,50165;DMS 273,,,lung,50167;DMS 53,,,lung,50168;DOK,,,head &amp; neck,50169;DoTc2 4510,,,cervix,50170;DU 145,,,prostate,50171;DV-90,,,lung,50172;EBC-1,,,lung,50173;EFE-184,,,uterus,50174;EFM-19,,,breast,50175;EFM-192A,,,breast,50176;EFM-192B,,,breast,50177;EFM-192C,,,breast,50178;EFO-21,,,ovary,50179;EFO-27,,,ovary,50180;EGI-1,,,biliary tract,50181;EJ138,,,urinary bladder,50182;EN,,,uterus,50183;EPLC-272H,,,lung,50184;ESS-1,,,uterus,50186;FaDu,,,head &amp; neck,50188;FLYA13,,,miscellaneous,50189;FTC-133,,,thyroid,50190;FTC-238,,,thyroid,50191;FU-OV-1,,,ovary,50192;G-292 Clone A141B1,,,bone,50193;G-401,,,kidney,50195;G-402,,,kidney,50196;GAMG,,,brain,50197;GCT,,,miscellaneous,50198;GMS-10,,,brain,50199;GOS-3,,,brain,50200;GP5d,,,intestine,50201;H4,,,brain,50202;HARA,,,lung,50204;HCC1143,,,breast,50205;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC-15,,,lung,50209;HCC1569,,,breast,50210;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC-366,,,lung,50215;HCC38,,,breast,50216;HCC-44,,,lung,50217;HCC-56,,,intestine,50218;HCC70,,,breast,50219;HCC-78,,,lung,50220;HCC-827,,,lung,50221;HCT 116,,,intestine,50222;HCT-15,,,intestine,50223;HCT-8,,,intestine,50224;HDQ-P1,,,breast,50225;HGC-27,,,stomach,50227;HLE,,,liver,50228;HMVII,,,skin,50229;HN,,,head &amp; neck,50230;HO-1-N-1,,,head &amp; neck,50231;HO-1-u-1,,,head &amp; neck,50232;HOS,,,bone,50233;HPAC,,,pancreas,50234;HPAF-II,,,pancreas,50235;HRT-18,,,intestine,50236;Hs 257.T,,,intestine,50237;Hs 578T,,,breast,50238;Hs 588.T,,,cervix,50239;Hs 633T,,,miscellaneous,50240;Hs 683,,,brain,50241;Hs 746T,,,stomach,50242;Hs 766T,,,pancreas,50243;HSC-2,,,head &amp; neck,50244;HSC-3,,,head &amp; neck,50245;HSC-4,,,head &amp; neck,50246;HT 1080,,,miscellaneous,50247;HT 1376,,,urinary bladder,50248;HT115,,,intestine,50249;HT-1197,,,urinary bladder,50250;HT-29,,,intestine,50251;HT-3,,,cervix,50252;HT55,,,intestine,50253;HTC-C3,,,thyroid,50254;HuCCT1,,,biliary tract,50255;huH-1,,,liver,50256;HuO9,,,bone,50258;HuO9N2,,,bone,50259;HUP-T3,,,pancreas,50260;HUP-T4,,,pancreas,50261;IGR-1,,,skin,50262;IGR-37,,,skin,50263;IGR-39,,,skin,50264;IHH-4,,,thyroid,50265;IM-95,,,stomach,50266;IM-95m,,,stomach,50267;IPC-298,,,skin,50269;J82,,,urinary bladder,50270;JHH-1,,,liver,50272;JHH-2,,,liver,50273;JHH-4,,,liver,50274;JHH-7,,,liver,50275;JIMT-1,,,breast,50276;KELLY,,,nervous system,50277;KG-1-C,,,brain,50278;KHOS/NP,,,bone,50280;KHOS-240S,,,bone,50281;KHOS-312H,,,bone,50282;KMH-2,,,thyroid,50283;KMRC-1,,,kidney,50284;KON,,,head &amp; neck,50285;KOSC-2 cl3-43,,,head &amp; neck,50286;KP-2,,,pancreas,50287;KPL-1,,,breast,50291;KU-19-19,,,urinary bladder,50292;KYSE-220,,,esophagus,50293;KYSE-270,,,esophagus,50294;KYSE-30,,,esophagus,50295;KYSE-410,,,esophagus,50296;KYSE-50,,,esophagus,50297;KYSE-510,,,esophagus,50298;KYSE-520,,,esophagus,50299;KYSE-70,,,esophagus,50300;LC-1 sq,,,lung,50301;LCLC-103H,,,lung,50302;LCLC-97TM1,,,lung,50303;LK-2,,,lung,50304;LN-18,,,brain,50305;LN-229,,,brain,50306;LN-405,,,brain,50307;LNZTA3WT11,,,brain,50308;LoVo,,,intestine,50310;LS174T,,,intestine,50311;LS180,,,intestine,50312;Lu-135,,,lung,50314;LU65A,,,lung,50316;LU65B,,,lung,50317;LU65C,,,lung,50318;LU99A,,,lung,50319;LU99B,,,lung,50320;LU99C,,,lung,50321;LUDLU-1,,,lung,50322;M059J,,,brain,50323;MB 157,,,breast,50324;MCAS,,,ovary,50325;MC-IXC,,,nervous system,50326;MDA-MB-134-VI,,,breast,50327;MDA-MB-175-VII,,,breast,50329;MDA-MB-330,,,breast,50330;MDA-MB-361,,,breast,50331;MDA-MB-415,,,breast,50332;MDA-MB-436,,,breast,50333;MDA-MB-453,,,breast,50334;MDA-MB-468,,,breast,50335;ME-180,,,cervix,50337;MEL-HO,,,skin,50338;MEL-JUSO,,,skin,50339;MES-SA,,,uterus,50340;MES-SA/Dx-5,,,uterus,50341;MEWO,,,skin,50342;MFE-280,,,uterus,50343;MFE-296,,,uterus,50344;MFE-319,,,uterus,50345;MFM-223,,,breast,50346;MG-63,,,bone,50347;MHH-ES-1,,,nervous system,50348;MIA PaCa-2,,,pancreas,50349;MKN1,,,stomach,50350;MKN28,,,stomach,50351;MKN45,,,stomach,50352;MKN7,,,stomach,50353;MKN74,,,stomach,50354;ML-1,,,thyroid,50355;MOG-G-CCM,,,brain,50356;MOG-G-UVW,,,brain,50357;MS751,,,cervix,50358;NB69,,,nervous system,50360;NCC-IT-A3,,,testes,50361;NCI-H1048,,,lung,50362;NCI-H1299,,,lung,50363;NCI-H1435,,,lung,50364;NCI-H1437,,,lung,50365;NCI-H1568,,,lung,50366;NCI-H1573,,,lung,50367;NCI-H1623,,,lung,50369;NCI-H1650,,,lung,50370;NCI-H1688,,,lung,50371;NCI-H1693,,,lung,50372;NCI-H1734,,,lung,50373;NCI-H1755,,,lung,50374;NCI-H1781,,,lung,50375;NCI-H1792,,,lung,50376;NCI-H1793,,,lung,50377;NCI-H1944,,,lung,50380;NCI-H196,,,lung,50381;NCI-H1993,,,lung,50382;NCI-H2009,,,lung,50383;NCI-H2029,,,lung,50384;NCI-H2030,,,lung,50385;NCI-H2073,,,lung,50386;NCI-H2085,,,lung,50387;NCI-H2110,,,lung,50389;NCI-H2122,,,lung,50390;NCI-H2135,,,lung,50391;NCI-H2170,,,lung,50392;NCI-H2172,,,lung,50393;NCI-H2195,,,lung,50394;NCI-H2198,,,lung,50396;NCI-H2228,,,lung,50397;NCI-H2286,,,lung,50398;NCI-H2291,,,lung,50399;NCI-H23,,,lung,50400;NCI-H2342,,,lung,50401;NCI-H2347,,,lung,50402;NCI-H2405,,,lung,50403;NCI-H2444,,,lung,50404;NCI-H2452,,,lung,50405;NCI-H322,,,lung,50407;NCI-H358,,,lung,50408;NCI-H441,,,lung,50409;NCI-H460,,,lung,50410;NCI-H520,,,lung,50411;NCI-H522,,,lung,50412;NCI-H596,,,lung,50413;NCI-H630,,,intestine,50414;NCI-H647,,,lung,50415;NCI-H650,,,lung,50416;NCI-H661,,,lung,50417;NCI-H727,,,lung,50418;NCI-H838,,,lung,50419;NCI-H841,,,lung,50420;NCI-N87,,,stomach,50421;NIH:OVCAR-3,,,ovary,50422;NUGC-3,,,stomach,50424;NUGC-4,,,stomach,50425;NY,,,bone,50426;OAW28,,,ovary,50427;OAW42,,,ovary,50428;OE19,,,esophagus,50431;OE21,,,esophagus,50432;OE33,,,esophagus,50433;OSC-19,,,head &amp; neck,50434;OSC-20,,,head &amp; neck,50435;OUMS-23,,,intestine,50436;OV-90,,,ovary,50437;OVISE,,,ovary,50438;OVKATE,,,ovary,50439;OVMIU,,,ovary,50440;OVSAYO,,,ovary,50441;OVTOKO,,,ovary,50442;PA-1,,,ovary,50443;Panc 02.03,,,pancreas,50444;Panc 03.27,,,pancreas,50445;Panc 04.03,,,pancreas,50446;Panc 08.13,,,pancreas,50447;Panc 10.05,,,pancreas,50448;PANC-1,,,pancreas,50449;PA-TU-8902,,,pancreas,50450;PA-TU-8988S,,,pancreas,50451;PA-TU-8988T,,,pancreas,50452;PC-14,,,lung,50453;PC-3,,,prostate,50454;PFSK-1,,,brain,50455;PL45,,,pancreas,50456;PLC/PRF/5,,,liver,50457;RCM-1,,,intestine,50459;RD,,,muscle,50460;RERF-GC-1B,,,stomach,50462;RERF-LC-Ad1,,,lung,50463;RERF-LC-KJ,,,lung,50464;RERF-LC-Sq1,,,lung,50466;RKN,,,ovary,50467;RMG-I,,,ovary,50468;RO82-W-1,,,thyroid,50469;RPMI 2650,,,head &amp; neck,50470;RPMI-7951,,,skin,50471;RT-112,,,urinary bladder,50472;RT112/84,,,urinary bladder,50473;RT4,,,urinary bladder,50474;RVH-421,,,skin,50475;S-117,,,thyroid,50476;Saos-2,,,bone,50477;SAS,,,head &amp; neck,50478;SAT,,,head &amp; neck,50479;SBC-3,,,lung,50480;SBC-5,,,lung,50481;SCaBER,,,urinary bladder,50482;SCC-15,,,head &amp; neck,50483;SCC-25,,,head &amp; neck,50484;SCC-4,,,head &amp; neck,50485;SCC-9,,,head &amp; neck,50486;SCCH-26,,,nervous system,50488;SiHa,,,cervix,50493;SISO,,,cervix,50494;SK-CO-1,,,intestine,50495;SKG-IIIa,,,cervix,50497;SKG-IIIb,,,cervix,50498;SK-HEP-1,,,liver,50499;SK-LU-1,,,lung,50500;SK-MEL-2,,,skin,50501;SK-MEL-30,,,skin,50502;SKN,,,uterus,50503;SKN-3,,,head &amp; neck,50504;SK-N-AS,,,nervous system,50505;SK-N-SH,,,nervous system,50508;SNG-M,,,uterus,50509;SNU-182,,,liver,50512;SNU-387,,,liver,50513;SNU-398,,,liver,50514;SNU-423,,,liver,50515;SNU-449,,,liver,50516;SNU-475,,,liver,50517;SU.86.86,,,pancreas,50520;SUIT-2,,,pancreas,50521;SW 1088,,,brain,50522;SW 1271,,,lung,50524;SW 13,,,adrenal gland,50525;SW 1463,,,intestine,50527;SW 156,,,kidney,50528;SW 1573,,,lung,50529;SW 1783,,,brain,50530;SW 48,,,intestine,50531;SW 626,,,ovary,50532;SW 780,,,urinary bladder,50533;SW 900,,,lung,50534;SW-1710,,,urinary bladder,50535;SW756,,,cervix,50536;SW837,,,intestine,50537;SW-948,,,intestine,50538;T.T,,,esophagus,50539;T.Tn,,,esophagus,50540;T47D,,,breast,50541;T84,,,intestine,50542;T98G,,,brain,50543;TASK1,,,nervous system,50544;TCCSUP,,,urinary bladder,50545;TOV-112D,,,ovary,50547;TOV-21G,,,ovary,50548;TT2609-C02,,,thyroid,50549;TYK-nu,,,ovary,50550;U-118 MG,,,brain,50551;U-138 MG,,,brain,50552;U-2 OS,,,bone,50553;U-251 MG,,,brain,50554;U373 MG,,,brain,50555;UACC-893,,,breast,50557;UMC-11,,,lung,50558;UM-UC-3,,,urinary bladder,50559;VMRC-LCP,,,lung,50562;VMRC-MELG,,,skin,50563;VMRC-RCZ,,,kidney,50565;WM 266-4,,,skin,50566;WM-115,,,skin,50567;WM1552C,,,skin,50568;WM278,,,skin,50569;WM35,,,skin,50570;WM793B,,,skin,50571;YAPC,,,pancreas,50572;YKG-1,,,brain,50573;ZR-75-1,,,breast,50574;ZR-75-30,,,breast,50575;DU4475,epithelial,,breast,50577;HCC1500,epithelial,,breast,50579;A2780cis,,,ovary,50586;A3,,,blood,50587;BC-2,,,lymphatic system,50595;BC-3,,,lymphatic system,50596;CEM/C2,,,blood,50607;CFPAC-1,,,pancreas,50609;ChaGo-K-1,,,lung,50610;COLO-704,,,ovary,50617;COR-L95,,,lung,50621;DMS 114,,,lung,50629;EJM,,,blood,50637;GA-10 (Clone 20),,,lymphatic system,50641;Gp2D,,,intestine,50644;HCC-33,,,lung,50648;HEL 92.1.7,,,blood,50652;HL60(S),,,blood,50655;HL-60/MX2,,,blood,50656;I 2.1,,,blood,50662;I 9.2,,,blood,50663;IM-9,,,lymphatic system,50664;J.gamma1,,,blood,50665;JM1,,,lymphatic system,50672;Jurkat, Clone E6-1,,,blood,50674;KARPAS-231,,,blood,50679;KMOE-2,,,blood,50690;KP-1N,,,pancreas,50695;KP-1NL,,,pancreas,50696;KU812,,,blood,50697;KU812E,,,blood,50698;KYM-1,,,muscle,50702;Lu-134-B,,,lung,50711;M059K,,,brain,50712;MHH-NB-11,,,nervous system,50719;NCI-H1385,,,lung,50749;NCI-H1563,,,lung,50755;NCI-H1618,,,lung,50756;NCI-H1666,,,lung,50757;NCI-H1836,,,lung,50760;NCI-H1838,,,lung,50761;NCI-H1963,,,lung,50764;NCI-H1975,,,lung,50765;NCI-H2081,,,lung,50766;NCI-H2106,,,lung,50768;NCI-H211,,,lung,50769;NCI-H220,,,lung,50772;NCI-H2227,,,lung,50773;NCI-H719,,,lung,50781;NCI-H720,,,lung,50782;NCI-H748,,,lung,50783;OCI-AML3,,,blood,50793;P116.cl39,,,blood,50798;PC-3 [JPC-3],,,lung,50804;PEER,,,blood,50805;Pfeiffer,,,lymphatic system,50807;PSN1,,,pancreas,50809;RERF-LC-MS,,,lung,50815;RH-30,,,muscle,50817;ROS-50,,,blood,50820;SBC-2,,,lung,50827;SC-1,,,lymphatic system,50828;SK-MEL-3,,,skin,50834;SK-N-BE(2),,,nervous system,50835;SNB-19,,,brain,50838;SU-DHL-16,,,lymphatic system,50843;SUP-HD1,,,lymphatic system,50849;SVG p12,,,brain,50852;SW 1990,,,pancreas,50853;TALL-1,,,blood,50854;Tera-1,,,testes,50857;TF-1,,,blood,50858;TF-1.CN5a.1,,,blood,50859;Toledo,,,lymphatic system,50863;TT,,,thyroid,50864;YMB-1,,,breast,50875;FU97,epithelial-like,,stomach,50013;KMRC-20,epithelial-like,,kidney,50023;SJCRH30,fibroblast,,muscle,50041;LNCaP,epithelial,,prostate,50059;A431,,,skin,50083;CAL-148,,,breast,50122;CAL-54,,,kidney,50126;Capan-1,,,pancreas,50134;COLO 320DM,,,intestine,50144;COLO-206F,,,intestine,50150;COLO-320,,,intestine,50151;COLO-824,,,breast,50156;COR-L 23/CPR,,,lung,50159;DLD-1,,,intestine,50166;ES-2,,,ovary,50185;EVSA-T,,,breast,50187;G-361,,,skin,50194;HCC202,,,breast,50214;H-EMC-SS,,,bone,50226;HuO-3N1,,,bone,50257;IMR-32,,,nervous system,50268;JAR,,,miscellaneous,50271;KP-3,,,pancreas,50288;KP-3L,,,pancreas,50289;KP-4,,,pancreas,50290;LOU-NH91,,,lung,50309;LU65,,,lung,50315;MDA-MB-157,,,breast,50328;MDST8,,,intestine,50336;MSTO-211H,,,pleura,50359;NCI-H1581,,,lung,50368;NCI-H1869,,,lung,50378;NCI-H1876,,,lung,50379;NCI-H2087,,,lung,50388;NCI-H2196,,,lung,50395;OCUG-1,,,gall bladder,50429;OCUM-1,,,stomach,50430;RD-ES,,,nervous system,50461;RERF-LC-MA,,,lung,50465;SCH,,,stomach,50489;SCLC-21H,,,lung,50490;SHP-77,,,lung,50491;SK-ES-1,,,bone,50496;SK-N-DZ,,,nervous system,50506;SK-NEP-1,,,kidney,50507;SNU-1,,,stomach,50510;SNU-16,,,stomach,50511;SNU-5,,,stomach,50518;SW 1417,,,intestine,50526;TGW,,,adrenal gland,50546;UACC-812,,,breast,50556;VCaP,,,prostate,50560;VM-CUB1,,,urinary bladder,50561;VMRC-RCW,,,kidney,50564;HCC1187,epithelial,,breast,50578;HCC1599,epithelial,,breast,50580;HCC2157,epithelial,,breast,50581;HCC2218,epithelial,,breast,50582;2B8,,,lymphatic system,50585;A3/KAW,,,lymphatic system,50588;AGR-ON,,,blood,50589;ALL-SIL,,,blood,50590;AMO-1,,,lymphatic system,50591;ARH-77,,,blood,50592;BALL-1,,,blood,50593;BC-1,,,lymphatic system,50594;BDCM,,,blood,50597;BE(2)-M17,,,nervous system,50598;BL-41,,,lymphatic system,50599;BL-70,,,lymphatic system,50600;C8166,,,blood,50601;CA46,,,lymphatic system,50602;CCRF-CEM,,,blood,50603;CCRF-HSB-2,,,blood,50604;CCRF-SB,,,blood,50605;CEM/C1,,,blood,50606;CESS,,,blood,50608;CHP-126,,,nervous system,50611;CI-1,,,lymphatic system,50612;CL-11,,,intestine,50613;Clone 15 HL-60,,,blood,50614;CMK,,,blood,50615;COLO 684,,,uterus,50616;COR-L279,,,lung,50618;COR-L51,,,lung,50619;COR-L88,,,lung,50620;CPC-N,,,lung,50622;CTV-1,,,blood,50623;D283 Med,,,brain,50624;Daudi,,,lymphatic system,50625;DB,,,lymphatic system,50626;DERL-2,,,lymphatic system,50627;DG-75,,,lymphatic system,50628;DMS 153,,,lung,50630;DMS 79,,,lung,50631;DND-41,,,blood,50632;EB1,,,lymphatic system,50633;EB2,,,lymphatic system,50634;EB-3,,,lymphatic system,50635;EHEB,,,blood,50636;Eos-HL-60,,,blood,50638;Farage,,,lymphatic system,50639;GDM-1,,,blood,50642;GOTO,,,nervous system,50643;GRANTA-519,,,lymphatic system,50645;H33HJ-JA1,,,blood,50646;HC-1,,,blood,50647;HDLM-2,,,lymphatic system,50649;HD-MY-Z,,,lymphatic system,50650;HEL,,,blood,50651;HH,,,lymphatic system,50653;HL-60,,,blood,50654;HL60RG,,,blood,50657;Hs 445,,,lymphatic system,50658;HS-Sultan,,,lymphatic system,50659;HT,,,lymphatic system,50660;HuT 78,,,lymphatic system,50661;J.gamma1.WT,,,blood,50666;J.RT3-T3.5,,,blood,50667;J45.01,,,blood,50668;Jiyoye,,,lymphatic system,50669;JJN-3,,,blood,50670;JKT-beta-del,,,blood,50671;JSC-1,,,lymphatic system,50673;JURL-MK1,,,blood,50675;JURL-MK2,,,blood,50676;K-562,,,blood,50677;K562/ADM,,,blood,50678;KARPAS-299,,,lymphatic system,50680;KARPAS-422,,,lymphatic system,50681;KARPAS-45,,,blood,50682;KARPAS-620,,,blood,50683;KCL-22,,,blood,50685;KE-37,,,blood,50686;KG-1,,,blood,50687;KG-1a,,,blood,50688;KM-H2,,,lymphatic system,50689;KMS-12-BM,,,blood,50691;KMS-12-PE,,,blood,50692;KO52,,,blood,50693;KOPN-8,,,blood,50694;KU812F,,,blood,50699;KY821,,,blood,50700;KY821A3,,,blood,50701;L-1236,,,lymphatic system,50703;L-363,,,blood,50704;L-428,,,lymphatic system,50705;L-540,,,lymphatic system,50706;LAMA-84,,,blood,50707;LC4-1,,,blood,50708;Loucy,,,blood,50709;LP-1,,,blood,50710;MC/CAR,,,lymphatic system,50713;MC116,,,lymphatic system,50714;ME-1,,,blood,50715;MEC-1,,,blood,50716;MEC-2,,,blood,50717;MEG-01,,,blood,50718;MHH-PREB-1,,,lymphatic system,50720;MJ,,,lymphatic system,50721;ML-2,,,blood,50722;MLMA,,,blood,50723;MOLM-13,,,blood,50724;MOLP-8,,,blood,50725;MOLT-14,,,blood,50726;MOLT-16,,,blood,50727;MOLT-4,,,blood,50728;MOLT-4F,,,blood,50729;MONO-MAC-1,,,blood,50730;MONO-MAC-6,,,blood,50731;MRK-nu-1,,,breast,50732;MS-1-L,,,lung,50733;MV-4-11,,,blood,50734;MY,,,blood,50735;MY-M12,,,blood,50736;MY-M13,,,blood,50737;NALM-19,,,blood,50738;NALM-6,,,blood,50739;NAMALWA,,,lymphatic system,50740;NAMALWA.PNT,,,lymphatic system,50741;NB(TU)1-10,,,nervous system,50742;NB-1,,,nervous system,50743;NB-4,,,blood,50744;NC-37,,,lymphatic system,50745;NCI-H1092,,,lung,50746;NCI-H1155,,,lung,50747;NCI-H1304,,,lung,50748;NCI-H1395,,,lung,50750;NCI-H1404,,,lung,50751;NCI-H1417,,,lung,50752;NCI-H1436,,,lung,50753;NCI-H1522,,,lung,50754;NCI-H1694,,,lung,50758;NCI-H1770,,,lung,50759;NCI-H187,,,lung,50762;NCI-H1882,,,lung,50763;NCI-H209,,,lung,50767;NCI-H2141,,,lung,50770;NCI-H2171,,,lung,50771;NCI-H226,,,lung,50774;NCI-H345,,,lung,50775;NCI-H446,,,lung,50776;NCI-H510A,,,lung,50777;NCI-H524,,,lung,50778;NCI-H526,,,lung,50779;NCI-H69,,,lung,50780;NCI-H82,,,lung,50784;NCI-H847,,,lung,50785;NCI-H889,,,lung,50786;NEC8,,,testes,50787;NH-12,,,nervous system,50788;NK-92MI,,,lymphatic system,50789;NOMO-1/ADM,,,blood,50790;NU-DUL-1,,,lymphatic system,50791;OCI-AML2,,,blood,50792;OCI-AML5,,,blood,50794;OCI-LY-19,,,lymphatic system,50795;OCI-M1,,,blood,50796;OPM-2,,,blood,50797;P12-ICHIKAWA,,,blood,50799;P30/OHK,,,blood,50800;P31/FUJ,,,blood,50801;P32/ISH,,,lymphatic system,50802;P3HR-1,,,lymphatic system,50803;PF-382,,,blood,50806;PL-21,,,blood,50808;Raji,,,lymphatic system,50810;Ramos (RA 1),,,blood,50811;RC-K8,,,lymphatic system,50812;REC-1,,,lymphatic system,50813;Reh,,,blood,50814;RH-1,,,bone,50816;RH-41,,,muscle,50818;RL,,,lymphatic system,50819;RPMI 1788,,,blood,50821;RPMI 6666,,,lymphatic system,50822;RPMI 8226,,,blood,50823;RPMI-8402,,,blood,50824;RS4;11,,,blood,50825;SBC-1,,,lung,50826;SCC-3,,,lymphatic system,50829;Sci-1,,,lymphatic system,50830;SIG-M5,,,blood,50831;SIMA,,,nervous system,50832;SK-MEL-1,,,skin,50833;SK-N-FI,,,nervous system,50836;SLVL,,,lymphatic system,50837;SR,,,lymphatic system,50839;ST486,,,lymphatic system,50840;SU-DHL-1,,,lymphatic system,50841;SU-DHL-4,,,lymphatic system,50844;SU-DHL-5,,,lymphatic system,50845;SU-DHL-6,,,lymphatic system,50846;SU-DHL-8,,,lymphatic system,50847;SUP-B15,,,blood,50848;SUP-M2,,,lymphatic system,50850;SUP-T1,,,blood,50851;TANOUE,,,blood,50855;TC-71,,,bone,50856;TF-1a,,,blood,50860;THP-1,,,blood,50861;TK,,,lymphatic system,50862;TUR,,,lymphatic system,50865;U266B1,,,blood,50866;U-698-M,,,blood,50867;U-87 MG,,,brain,50868;U-937,,,lymphatic system,50869;VAL,,,lymphatic system,50870;WIL2 NS,,,lymphatic system,50871;WILCL,,,blood,50872;WSU-DLCL2,,,lymphatic system,50873;WSU-NHL,,,lymphatic system,50874;YT,,,lymphatic system,50876;CGTH-W-1,,,thyroid,50899;8-MG-BA,,,brain,50878;A253,,,head &amp; neck,50880;A498,,,kidney,50882;A704,,,kidney,50884;ACN,,,nervous system,50885;BB30-HNC,,,head &amp; neck,50890;BE-13,,,blood,50893;Becker,,,brain,50894;BV-173,,,blood,50896;Calu-6,,,lung,50897;COLO-320-HSR,,,intestine,50900;COLO-668,,,lung,50901;COLO-829,,,skin,50902;CP66-MEL,,,skin,50904;CW-2,,,intestine,50906;D-247MG,,,brain,50907;D-263MG,,,brain,50908;D-336MG,,,brain,50909;D-392MG,,,brain,50910;D-542MG,,,brain,50913;DJM-1,,,skin,50916;DSH1,,,urinary tract,50918;ECC12,,,stomach,50920;EC-GI-10,,,esophagus,50922;EKVX,,,lung,50923;ES1,,,bone,50926;ES4,,,bone,50928;ES5,,,bone,50929;ES6,,,bone,50930;ES7,,,bone,50931;ES8,,,bone,50932;ETK-1,,,biliary tract,50933;EW-1,,,bone,50934;EW-11,,,bone,50935;EW-13,,,bone,50936;EW-16,,,bone,50937;EW-24,,,bone,50939;EW-3,,,bone,50940;EW-7,,,bone,50941;GAK,,,skin,50942;GB-1,,,brain,50943;GI-1,,,brain,50945;GI-ME-N,,,nervous system,50946;GT3TKB,,,stomach,50948;HAL-01,,,blood,50951;HCC2998,,,intestine,50952;HCE-T,,,head &amp; neck,50954;HOP-62,,,lung,50955;HT-144,,,skin,50956;IMR-5,,,nervous system,50957;IST-MES1,,,pleura,50958;IST-SL2,,,lung,50960;JVM-3,,,blood,50963;K5,,,thyroid,50964;KALS-1,,,brain,50965;KGN,,,ovary,50966;KINGS-1,,,brain,50967;KNS-42,,,brain,50970;KNS-81-FD,,,brain,50971;KP-N-YS,,,nervous system,50973;KS-1,,,brain,50974;KURAMOCHI,,,ovary,50975;LAN-5,,,nervous system,50976;LAN-6,,,nervous system,50977;LB1047-RCC,,,kidney,50978;LB2241-RCC,,,kidney,50979;LB2518-MEL,,,skin,50980;LB373-MEL-D,,,skin,50981;LB771-HNC,,,head &amp; neck,50983;LB831-BLC,,,urinary tract,50984;LB996-RCC,,,kidney,50985;LS-123,,,intestine,50990;LS-411N,,,intestine,50991;LS-513,,,intestine,50992;LXF-289,,,lung,50996;MFH-ino,,,miscellaneous,50997;MMAC-SF,,,skin,50999;MPP-89,,,pleura,51002;MZ1-PC,,,pancreas,51004;MZ2-MEL,,,skin,51005;MZ7-mel,,,skin,51006;NB10,,,nervous system,51007;NB13,,,nervous system,51009;NB14,,,nervous system,51010;NB16,,,nervous system,51011;NB17,,,nervous system,51012;NB5,,,nervous system,51013;NB6,,,nervous system,51014;NB7,,,nervous system,51015;NCI-H1355,,,lung,51017;NCI-H157,,,lung,51018;NCI-H2126,,,lung,51019;NCI-H322M,,,lung,51020;NCI-H64,,,lung,51021;NCI-H716,,,intestine,51022;NCI-H747,,,intestine,51023;NKM-1,,,blood,51024;no-10,,,brain,51026;no-11,,,brain,51027;NOS-1,,,bone,51029;NTERA-S-cl-D1,,,testes,51030;OMC-1,,,cervix,51033;ONS-76,,,brain,51034;OS-RC-2,,,kidney,51035;RCC10RGB,,,kidney,51039;RKO,,,intestine,51041;RL95-2,,,uterus,51042;SF126,,,brain,51045;SF268,,,brain,51046;SF539,,,brain,51047;SH-4,,,skin,51048;SK-PN-DW,,,bone,51054;SK-UT-1,,,uterus,51055;SNU-C1,,,intestine,51056;SNU-C2B,,,intestine,51057;SW403,,,intestine,51058;SW684,,,miscellaneous,51059;SW872,,,miscellaneous,51060;SW954,,,vulva,51061;SW982,,,miscellaneous,51063;TE-1,,,esophagus,51064;TE-10,,,esophagus,51065;TE-441-T,,,muscle,51069;TE-5,,,esophagus,51070;TE-6,,,esophagus,51071;TGBC11TKB,,,stomach,51074;TGBC1TKB,,,biliary tract,51075;TK10,,,kidney,51077;UACC-257,,,skin,51078;ECC10,,,stomach,50919;JEG-3,,,miscellaneous,50961;697.0,,,blood,50877;LU-139,,,lung,50994;CTB-1,,,lymphatic system,50905;ES3,,,bone,50927;TE-11,,,esophagus,51066;TGBC24TKB,,,biliary tract,51076;KLE,,,uterus,50968;LC-1F,,,lung,50986;HCE-4,,,esophagus,50953;A4-Fuk,,,skin,50883;SK-MEL-24,,,skin,51050;CP50-MEL-B,,,skin,50903;YH-13,,,brain,51080;OC-314,,,ovary,51031;RF-48,,,stomach,51040;SK-MG-1,,,brain,51052;B2-17,,,brain,50889;Mo-T,,,blood,51001;KP-N-YN,,,nervous system,50972;D-423MG,,,brain,50911;H9,,,lymphatic system,50949;D-566MG,,,brain,50914;SK-MEL-5,,,skin,51051;NBsusSR,,,nervous system,51016;A101D,,,skin,50879;A388,,,miscellaneous,50881;BB65-RCC,,,kidney,50892;BOKU,,,cervix,50895;D-502MG,,,brain,50912;GCIY,,,stomach,50944;HA7-RCC,,,kidney,50950;LC-2-ad,,,lung,50987;LS-1034,,,intestine,50989;NB12,,,nervous system,51008;OCUB-M,,,breast,51032;OVCAR-4,,,ovary,51036;RXF393,,,kidney,51044;SJSA-1,,,bone,51049;SW962,,,vulva,51062;TE-12,,,esophagus,51067;TE-15,,,esophagus,51068;TE-8,,,esophagus,51072;TE-9,,,esophagus,51073;VA-ES-BJ,,,miscellaneous,51079;LB647-SCLC,,,lung,50982;ALL-PO,,,blood,50886;AM-38,,,brain,50887;ATN-1,,,blood,50888;BB49-HNC,,,head &amp; neck,50891;CAS-1,,,brain,50898;DEL,,,blood,50915;DOHH-2,,,lymphatic system,50917;ECC4,,,intestine,50921;EM-2,,,blood,50924;EoL-1-cell,,,blood,50925;EW-18,,,bone,50938;GR-ST,,,blood,50947;JVM-2,,,blood,50962;KM12,,,intestine,50969;LOXIMVI,,,skin,50988;LU-134-A,,,lung,50993;LU-165,,,lung,50995;MHH-CALL-2,,,blood,50998;MN-60,,,blood,51000;MUTZ-1,,,blood,51003;NMC-G1,,,brain,51025;NOMO-1,,,blood,51028;QIMR-WIL,,,blood,51037;Ramos-2G6-4C10,,,lymphatic system,51038;RPMI-8866,,,blood,51043;SK-MM-2,,,blood,51053;IST-SL1,,,lung,50959</t>
+  </si>
+  <si>
+    <t>1055\cell lines</t>
+  </si>
+  <si>
+    <t>A 769662,small molecule,10174-101,LSM-1175;GSK1904529A,small molecule,10134-101,LSM-1134;Doxorubicin,small molecule,10248-101,LSM-4062;Gemcitabine,small molecule,10252-101,LSM-5333</t>
+  </si>
+  <si>
+    <t>false\small molecules,4</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20011/</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 0.512 uM to 0.002 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>5637.0,epithelial,,urinary bladder,50001;647-V,epithelial-like,,urinary bladder,50002;A375.S2,epithelial,,skin,50003;AGS,epithelial,,stomach,50004;BPH-1,epitheloid,,prostate,50005;Ca Ski,epithelial,,cervix,50006;Ca9-22,epithelial-like,,head &amp; neck,50007;CAL-51,epithelial-like,,breast,50008;Calu-1,epithelial,,lung,50009;Calu-3,epithelial,,lung,50010;COLO-679,fibroblastic,,skin,50011;COLO-800,epithelial-like,,skin,50012;FU97,epithelial-like,,stomach,50013;HEC-1,,,uterus,50014;HLF,,,liver,50015;HUTU-80,epithelial,,intestine,50016;IA-LM,,,lung,50017;Ishikawa,epithelial-like,,uterus,50018;Ishikawa (Heraklio) 02 ER-,epithelial,,uterus,50019;IST-MEL1,epithelial-like,,skin,50020;JHH-6,epithelial-like,,liver,50021;KMRC-20,epithelial-like,,kidney,50023;KYSE-140,,,esophagus,50024;KYSE-150,epitheloid,,esophagus,50025;KYSE-180,epitheloid,,esophagus,50026;KYSE-450,epitheloid,,esophagus,50027;LNZTA3WT4,,,brain,50028;MCF7,epithelial,,breast,50029;MDA-MB-435S,melanocyte,,skin,50030;MT-3,epithelial,,breast,50031;NCI-H1648,,,lung,50032;NCI-H1651,epithelial,,lung,50033;NCI-H1703,epithelial,,lung,50034;NCI-H1915,large cell,,lung,50035;NCI-H2023,,,lung,50036;NCI-H810,epithelial,,lung,50037;PE/CA-PJ15,epithelial-like,,head &amp; neck,50039;SJCRH30,fibroblast,,muscle,50041;SK-LMS-1,,,uterus,50042;SK-OV-3,epithelial,,ovary,50044;SNB75,,,brain,50045;SW527,epithelial,,breast,50046;SW620,epithelial,,intestine,50047;T24,epithelial,,urinary bladder,50048;WiDr,epithelial,,intestine,50049;Hep 3B2.1-7,epithelial,,liver,50051;Hep G2,epithelial,,liver,50052;Huh7,,,liver,50055;1205Lu,,,skin,50062;1321N1,,,brain,50063;143B,,,bone,50064;143B PML BK TK,,,bone,50065;1A6,,,urinary bladder,50066;22RV1,,,prostate,50067;23132/87,,,stomach,50068;42-MG-BA,,,brain,50069;639-V,,,ureter,50071;769-P,,,kidney,50072;786-O,,,kidney,50073;8305C,,,thyroid,50074;8505C,,,thyroid,50075;A172,,,brain,50076;A-204,,,muscle,50077;A2058,,,skin,50078;A2780,,,ovary,50079;A2780ADR,,,ovary,50080;A373-C6,,,skin,50081;A-427,,,lung,50082;A431,,,skin,50083;A549,,,lung,50084;A673,,,muscle,50085;ABC-1,,,lung,50086;ACHN,,,kidney,50087;AN3CA,,,uterus,50088;ASH-3,,,thyroid,50089;AsPC-1,,,pancreas,50090;AU565,,,breast,50091;AZ-521,,,stomach,50092;B-CPAP,,,thyroid,50093;BE(2)-C,,,nervous system,50094;BEN,,,lung,50095;BeWo,,,miscellaneous,50096;BFTC-905,,,urinary bladder,50097;BFTC-909,,,kidney,50098;BHT-101,,,thyroid,50099;BHY,,,head &amp; neck,50100;BICR 10,,,head &amp; neck,50101;BICR 22,,,head &amp; neck,50102;BICR 31,,,head &amp; neck,50103;BICR 78,,,head &amp; neck,50104;BT-20,,,breast,50105;BT-474,,,breast,50106;BT-483,,,breast,50107;BT-549,,,breast,50108;BxPC-3,,,pancreas,50109;C170,,,intestine,50110;C2BBe1,,,intestine,50111;C32,,,skin,50112;C-33 A,,,cervix,50113;C3A,,,liver,50114;C-4 I,,,cervix,50115;C-4 II,,,cervix,50116;Caco-2,,,intestine,50117;Caki-1,,,kidney,50118;CAL 27,,,head &amp; neck,50119;CAL-120,,,breast,50120;CAL-12T,,,lung,50121;CAL-148,,,breast,50122;CAL-29,,,urinary bladder,50123;CAL-33,,,head &amp; neck,50124;CAL-39,,,vulva,50125;CAL-54,,,kidney,50126;CAL-62,,,thyroid,50127;CAL-72,,,bone,50128;CAL-78,,,bone,50129;CAL-85-1,,,breast,50130;CAMA-1,,,breast,50131;Caov-3,,,ovary,50132;Caov-4,,,ovary,50133;Capan-1,,,pancreas,50134;Capan-2,,,pancreas,50135;CaR-1,,,intestine,50136;CCF-STTG1,,,brain,50137;CCK-81,,,intestine,50138;CHP-212,,,nervous system,50139;CoCM-1,,,intestine,50141;COLO 201,,,intestine,50142;COLO 205,,,intestine,50143;COLO 320DM,,,intestine,50144;COLO 741,,,intestine,50145;COLO 792,,,skin,50146;COLO 853,,,skin,50147;COLO 857,,,skin,50148;COLO 858,,,skin,50149;COLO-206F,,,intestine,50150;COLO-320,,,intestine,50151;COLO-678,,,intestine,50152;COLO-680N,,,esophagus,50153;COLO-783,,,skin,50154;COLO-818,,,skin,50155;COLO-824,,,breast,50156;COLO-849,,,skin,50157;COR-L 105,,,lung,50158;COR-L 23/CPR,,,lung,50159;COR-L23,,,lung,50160;DAN-G,,,pancreas,50161;Daoy,,,brain,50162;DBTRG-05MG,,,brain,50163;Detroit 562,,,head &amp; neck,50164;DK-MG,,,brain,50165;DLD-1,,,intestine,50166;DMS 273,,,lung,50167;DMS 53,,,lung,50168;DOK,,,head &amp; neck,50169;DoTc2 4510,,,cervix,50170;DU 145,,,prostate,50171;DV-90,,,lung,50172;EBC-1,,,lung,50173;EFE-184,,,uterus,50174;EFM-19,,,breast,50175;EFM-192A,,,breast,50176;EFM-192B,,,breast,50177;EFM-192C,,,breast,50178;EFO-21,,,ovary,50179;EFO-27,,,ovary,50180;EGI-1,,,biliary tract,50181;EJ138,,,urinary bladder,50182;EN,,,uterus,50183;EPLC-272H,,,lung,50184;ES-2,,,ovary,50185;ESS-1,,,uterus,50186;EVSA-T,,,breast,50187;FaDu,,,head &amp; neck,50188;FLYA13,,,miscellaneous,50189;FTC-133,,,thyroid,50190;FTC-238,,,thyroid,50191;FU-OV-1,,,ovary,50192;G-292 Clone A141B1,,,bone,50193;G-361,,,skin,50194;G-401,,,kidney,50195;G-402,,,kidney,50196;GAMG,,,brain,50197;GCT,,,miscellaneous,50198;GMS-10,,,brain,50199;GOS-3,,,brain,50200;GP5d,,,intestine,50201;H4,,,brain,50202;HARA,,,lung,50204;HCC1143,,,breast,50205;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC-15,,,lung,50209;HCC1569,,,breast,50210;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC-366,,,lung,50215;HCC38,,,breast,50216;HCC-44,,,lung,50217;HCC-56,,,intestine,50218;HCC70,,,breast,50219;HCC-78,,,lung,50220;HCC-827,,,lung,50221;HCT 116,,,intestine,50222;HCT-15,,,intestine,50223;HCT-8,,,intestine,50224;HDQ-P1,,,breast,50225;H-EMC-SS,,,bone,50226;HGC-27,,,stomach,50227;HLE,,,liver,50228;HMVII,,,skin,50229;HN,,,head &amp; neck,50230;HO-1-N-1,,,head &amp; neck,50231;HO-1-u-1,,,head &amp; neck,50232;HOS,,,bone,50233;HPAC,,,pancreas,50234;HPAF-II,,,pancreas,50235;HRT-18,,,intestine,50236;Hs 257.T,,,intestine,50237;Hs 578T,,,breast,50238;Hs 588.T,,,cervix,50239;Hs 633T,,,miscellaneous,50240;Hs 683,,,brain,50241;Hs 746T,,,stomach,50242;Hs 766T,,,pancreas,50243;HSC-2,,,head &amp; neck,50244;HSC-3,,,head &amp; neck,50245;HSC-4,,,head &amp; neck,50246;HT 1080,,,miscellaneous,50247;HT 1376,,,urinary bladder,50248;HT115,,,intestine,50249;HT-1197,,,urinary bladder,50250;HT-29,,,intestine,50251;HT-3,,,cervix,50252;HT55,,,intestine,50253;HTC-C3,,,thyroid,50254;HuCCT1,,,biliary tract,50255;huH-1,,,liver,50256;HuO-3N1,,,bone,50257;HuO9,,,bone,50258;HuO9N2,,,bone,50259;HUP-T3,,,pancreas,50260;HUP-T4,,,pancreas,50261;IGR-1,,,skin,50262;IGR-37,,,skin,50263;IGR-39,,,skin,50264;IHH-4,,,thyroid,50265;IM-95,,,stomach,50266;IM-95m,,,stomach,50267;IMR-32,,,nervous system,50268;IPC-298,,,skin,50269;J82,,,urinary bladder,50270;JAR,,,miscellaneous,50271;JHH-1,,,liver,50272;JHH-2,,,liver,50273;JHH-4,,,liver,50274;JHH-7,,,liver,50275;JIMT-1,,,breast,50276;KELLY,,,nervous system,50277;KG-1-C,,,brain,50278;KHOS/NP,,,bone,50280;KHOS-240S,,,bone,50281;KHOS-312H,,,bone,50282;KMH-2,,,thyroid,50283;KMRC-1,,,kidney,50284;KON,,,head &amp; neck,50285;KOSC-2 cl3-43,,,head &amp; neck,50286;KP-2,,,pancreas,50287;KP-3,,,pancreas,50288;KP-3L,,,pancreas,50289;KP-4,,,pancreas,50290;KPL-1,,,breast,50291;KU-19-19,,,urinary bladder,50292;KYSE-220,,,esophagus,50293;KYSE-270,,,esophagus,50294;KYSE-30,,,esophagus,50295;KYSE-410,,,esophagus,50296;KYSE-50,,,esophagus,50297;KYSE-510,,,esophagus,50298;KYSE-520,,,esophagus,50299;KYSE-70,,,esophagus,50300;LC-1 sq,,,lung,50301;LCLC-103H,,,lung,50302;LCLC-97TM1,,,lung,50303;LK-2,,,lung,50304;LN-18,,,brain,50305;LN-229,,,brain,50306;LN-405,,,brain,50307;LNZTA3WT11,,,brain,50308;LOU-NH91,,,lung,50309;LoVo,,,intestine,50310;LS174T,,,intestine,50311;LS180,,,intestine,50312;Lu-135,,,lung,50314;LU65,,,lung,50315;LU65A,,,lung,50316;LU65B,,,lung,50317;LU65C,,,lung,50318;LU99A,,,lung,50319;LU99B,,,lung,50320;LU99C,,,lung,50321;LUDLU-1,,,lung,50322;M059J,,,brain,50323;MB 157,,,breast,50324;MCAS,,,ovary,50325;MC-IXC,,,nervous system,50326;MDA-MB-134-VI,,,breast,50327;MDA-MB-157,,,breast,50328;MDA-MB-175-VII,,,breast,50329;MDA-MB-330,,,breast,50330;MDA-MB-361,,,breast,50331;MDA-MB-415,,,breast,50332;MDA-MB-436,,,breast,50333;MDA-MB-453,,,breast,50334;MDA-MB-468,,,breast,50335;MDST8,,,intestine,50336;ME-180,,,cervix,50337;MEL-HO,,,skin,50338;MEL-JUSO,,,skin,50339;MES-SA,,,uterus,50340;MES-SA/Dx-5,,,uterus,50341;MEWO,,,skin,50342;MFE-280,,,uterus,50343;MFE-296,,,uterus,50344;MFE-319,,,uterus,50345;MFM-223,,,breast,50346;MG-63,,,bone,50347;MHH-ES-1,,,nervous system,50348;MIA PaCa-2,,,pancreas,50349;MKN1,,,stomach,50350;MKN28,,,stomach,50351;MKN45,,,stomach,50352;MKN7,,,stomach,50353;MKN74,,,stomach,50354;ML-1,,,thyroid,50355;MOG-G-CCM,,,brain,50356;MOG-G-UVW,,,brain,50357;MS751,,,cervix,50358;MSTO-211H,,,pleura,50359;NB69,,,nervous system,50360;NCC-IT-A3,,,testes,50361;NCI-H1048,,,lung,50362;NCI-H1299,,,lung,50363;NCI-H1435,,,lung,50364;NCI-H1437,,,lung,50365;NCI-H1568,,,lung,50366;NCI-H1573,,,lung,50367;NCI-H1581,,,lung,50368;NCI-H1623,,,lung,50369;NCI-H1650,,,lung,50370;NCI-H1688,,,lung,50371;NCI-H1693,,,lung,50372;NCI-H1734,,,lung,50373;NCI-H1755,,,lung,50374;NCI-H1781,,,lung,50375;NCI-H1792,,,lung,50376;NCI-H1793,,,lung,50377;NCI-H1869,,,lung,50378;NCI-H1876,,,lung,50379;NCI-H1944,,,lung,50380;NCI-H196,,,lung,50381;NCI-H1993,,,lung,50382;NCI-H2009,,,lung,50383;NCI-H2029,,,lung,50384;NCI-H2030,,,lung,50385;NCI-H2073,,,lung,50386;NCI-H2085,,,lung,50387;NCI-H2087,,,lung,50388;NCI-H2110,,,lung,50389;NCI-H2122,,,lung,50390;NCI-H2135,,,lung,50391;NCI-H2170,,,lung,50392;NCI-H2172,,,lung,50393;NCI-H2195,,,lung,50394;NCI-H2196,,,lung,50395;NCI-H2198,,,lung,50396;NCI-H2228,,,lung,50397;NCI-H2286,,,lung,50398;NCI-H2291,,,lung,50399;NCI-H23,,,lung,50400;NCI-H2342,,,lung,50401;NCI-H2347,,,lung,50402;NCI-H2405,,,lung,50403;NCI-H2444,,,lung,50404;NCI-H2452,,,lung,50405;NCI-H322,,,lung,50407;NCI-H358,,,lung,50408;NCI-H441,,,lung,50409;NCI-H460,,,lung,50410;NCI-H520,,,lung,50411;NCI-H522,,,lung,50412;NCI-H596,,,lung,50413;NCI-H630,,,intestine,50414;NCI-H647,,,lung,50415;NCI-H650,,,lung,50416;NCI-H661,,,lung,50417;NCI-H727,,,lung,50418;NCI-H838,,,lung,50419;NCI-H841,,,lung,50420;NCI-N87,,,stomach,50421;NIH:OVCAR-3,,,ovary,50422;NUGC-3,,,stomach,50424;NUGC-4,,,stomach,50425;NY,,,bone,50426;OAW28,,,ovary,50427;OAW42,,,ovary,50428;OCUG-1,,,gall bladder,50429;OCUM-1,,,stomach,50430;OE19,,,esophagus,50431;OE21,,,esophagus,50432;OE33,,,esophagus,50433;OSC-19,,,head &amp; neck,50434;OSC-20,,,head &amp; neck,50435;OUMS-23,,,intestine,50436;OV-90,,,ovary,50437;OVISE,,,ovary,50438;OVKATE,,,ovary,50439;OVMIU,,,ovary,50440;OVSAYO,,,ovary,50441;OVTOKO,,,ovary,50442;PA-1,,,ovary,50443;Panc 02.03,,,pancreas,50444;Panc 03.27,,,pancreas,50445;Panc 04.03,,,pancreas,50446;Panc 08.13,,,pancreas,50447;Panc 10.05,,,pancreas,50448;PANC-1,,,pancreas,50449;PA-TU-8902,,,pancreas,50450;PA-TU-8988S,,,pancreas,50451;PA-TU-8988T,,,pancreas,50452;PC-14,,,lung,50453;PC-3,,,prostate,50454;PFSK-1,,,brain,50455;PL45,,,pancreas,50456;PLC/PRF/5,,,liver,50457;RCM-1,,,intestine,50459;RD,,,muscle,50460;RD-ES,,,nervous system,50461;RERF-GC-1B,,,stomach,50462;RERF-LC-Ad1,,,lung,50463;RERF-LC-KJ,,,lung,50464;RERF-LC-MA,,,lung,50465;RERF-LC-Sq1,,,lung,50466;RKN,,,ovary,50467;RMG-I,,,ovary,50468;RO82-W-1,,,thyroid,50469;RPMI 2650,,,head &amp; neck,50470;RPMI-7951,,,skin,50471;RT-112,,,urinary bladder,50472;RT112/84,,,urinary bladder,50473;RT4,,,urinary bladder,50474;RVH-421,,,skin,50475;S-117,,,thyroid,50476;Saos-2,,,bone,50477;SAS,,,head &amp; neck,50478;SAT,,,head &amp; neck,50479;SBC-3,,,lung,50480;SBC-5,,,lung,50481;SCaBER,,,urinary bladder,50482;SCC-15,,,head &amp; neck,50483;SCC-25,,,head &amp; neck,50484;SCC-4,,,head &amp; neck,50485;SCC-9,,,head &amp; neck,50486;SCCH-26,,,nervous system,50488;SCH,,,stomach,50489;SCLC-21H,,,lung,50490;SHP-77,,,lung,50491;SiHa,,,cervix,50493;SISO,,,cervix,50494;SK-CO-1,,,intestine,50495;SK-ES-1,,,bone,50496;SKG-IIIa,,,cervix,50497;SKG-IIIb,,,cervix,50498;SK-HEP-1,,,liver,50499;SK-LU-1,,,lung,50500;SK-MEL-2,,,skin,50501;SK-MEL-30,,,skin,50502;SKN,,,uterus,50503;SKN-3,,,head &amp; neck,50504;SK-N-AS,,,nervous system,50505;SK-N-DZ,,,nervous system,50506;SK-NEP-1,,,kidney,50507;SK-N-SH,,,nervous system,50508;SNG-M,,,uterus,50509;SNU-1,,,stomach,50510;SNU-16,,,stomach,50511;SNU-182,,,liver,50512;SNU-387,,,liver,50513;SNU-398,,,liver,50514;SNU-423,,,liver,50515;SNU-449,,,liver,50516;SNU-475,,,liver,50517;SNU-5,,,stomach,50518;SU.86.86,,,pancreas,50520;SUIT-2,,,pancreas,50521;SW 1088,,,brain,50522;SW 1271,,,lung,50524;SW 13,,,adrenal gland,50525;SW 1417,,,intestine,50526;SW 1463,,,intestine,50527;SW 156,,,kidney,50528;SW 1573,,,lung,50529;SW 1783,,,brain,50530;SW 48,,,intestine,50531;SW 626,,,ovary,50532;SW 780,,,urinary bladder,50533;SW 900,,,lung,50534;SW-1710,,,urinary bladder,50535;SW756,,,cervix,50536;SW837,,,intestine,50537;SW-948,,,intestine,50538;T.T,,,esophagus,50539;T.Tn,,,esophagus,50540;T47D,,,breast,50541;T84,,,intestine,50542;T98G,,,brain,50543;TASK1,,,nervous system,50544;TCCSUP,,,urinary bladder,50545;TGW,,,adrenal gland,50546;TOV-112D,,,ovary,50547;TOV-21G,,,ovary,50548;TT2609-C02,,,thyroid,50549;TYK-nu,,,ovary,50550;U-118 MG,,,brain,50551;U-138 MG,,,brain,50552;U-2 OS,,,bone,50553;U-251 MG,,,brain,50554;U373 MG,,,brain,50555;UACC-812,,,breast,50556;UACC-893,,,breast,50557;UMC-11,,,lung,50558;UM-UC-3,,,urinary bladder,50559;VCaP,,,prostate,50560;VM-CUB1,,,urinary bladder,50561;VMRC-LCP,,,lung,50562;VMRC-MELG,,,skin,50563;VMRC-RCW,,,kidney,50564;VMRC-RCZ,,,kidney,50565;WM 266-4,,,skin,50566;WM-115,,,skin,50567;WM1552C,,,skin,50568;WM278,,,skin,50569;WM35,,,skin,50570;WM793B,,,skin,50571;YAPC,,,pancreas,50572;YKG-1,,,brain,50573;ZR-75-1,,,breast,50574;ZR-75-30,,,breast,50575;2B8,,,lymphatic system,50585;A2780cis,,,ovary,50586;A3,,,blood,50587;A3/KAW,,,lymphatic system,50588;AGR-ON,,,blood,50589;ALL-SIL,,,blood,50590;AMO-1,,,lymphatic system,50591;ARH-77,,,blood,50592;BALL-1,,,blood,50593;BC-1,,,lymphatic system,50594;BC-2,,,lymphatic system,50595;BC-3,,,lymphatic system,50596;BDCM,,,blood,50597;BE(2)-M17,,,nervous system,50598;BL-41,,,lymphatic system,50599;BL-70,,,lymphatic system,50600;C8166,,,blood,50601;CA46,,,lymphatic system,50602;CCRF-CEM,,,blood,50603;CCRF-HSB-2,,,blood,50604;CCRF-SB,,,blood,50605;CEM/C1,,,blood,50606;CEM/C2,,,blood,50607;CESS,,,blood,50608;CFPAC-1,,,pancreas,50609;ChaGo-K-1,,,lung,50610;CHP-126,,,nervous system,50611;CI-1,,,lymphatic system,50612;CL-11,,,intestine,50613;Clone 15 HL-60,,,blood,50614;CMK,,,blood,50615;COLO 684,,,uterus,50616;COLO-704,,,ovary,50617;COR-L279,,,lung,50618;COR-L51,,,lung,50619;COR-L88,,,lung,50620;COR-L95,,,lung,50621;CPC-N,,,lung,50622;CTV-1,,,blood,50623;D283 Med,,,brain,50624;Daudi,,,lymphatic system,50625;DB,,,lymphatic system,50626;DERL-2,,,lymphatic system,50627;DG-75,,,lymphatic system,50628;DMS 114,,,lung,50629;DMS 153,,,lung,50630;DMS 79,,,lung,50631;DND-41,,,blood,50632;EB1,,,lymphatic system,50633;EB2,,,lymphatic system,50634;EB-3,,,lymphatic system,50635;EHEB,,,blood,50636;EJM,,,blood,50637;Eos-HL-60,,,blood,50638;Farage,,,lymphatic system,50639;GA-10,,,lymphatic system,50640;GA-10 (Clone 20),,,lymphatic system,50641;GDM-1,,,blood,50642;GOTO,,,nervous system,50643;Gp2D,,,intestine,50644;GRANTA-519,,,lymphatic system,50645;H33HJ-JA1,,,blood,50646;HC-1,,,blood,50647;HCC-33,,,lung,50648;HDLM-2,,,lymphatic system,50649;HD-MY-Z,,,lymphatic system,50650;HEL,,,blood,50651;HEL 92.1.7,,,blood,50652;HH,,,lymphatic system,50653;HL-60,,,blood,50654;HL60(S),,,blood,50655;HL-60/MX2,,,blood,50656;HL60RG,,,blood,50657;Hs 445,,,lymphatic system,50658;HS-Sultan,,,lymphatic system,50659;HT,,,lymphatic system,50660;HuT 78,,,lymphatic system,50661;I 2.1,,,blood,50662;I 9.2,,,blood,50663;IM-9,,,lymphatic system,50664;J.gamma1,,,blood,50665;J.gamma1.WT,,,blood,50666;J.RT3-T3.5,,,blood,50667;J45.01,,,blood,50668;Jiyoye,,,lymphatic system,50669;JJN-3,,,blood,50670;JKT-beta-del,,,blood,50671;JM1,,,lymphatic system,50672;JSC-1,,,lymphatic system,50673;Jurkat, Clone E6-1,,,blood,50674;JURL-MK1,,,blood,50675;JURL-MK2,,,blood,50676;K-562,,,blood,50677;K562/ADM,,,blood,50678;KARPAS-231,,,blood,50679;KARPAS-299,,,lymphatic system,50680;KARPAS-422,,,lymphatic system,50681;KARPAS-45,,,blood,50682;KARPAS-620,,,blood,50683;Kasumi-1,,,blood,50684;KCL-22,,,blood,50685;KE-37,,,blood,50686;KG-1,,,blood,50687;KG-1a,,,blood,50688;KM-H2,,,lymphatic system,50689;KMOE-2,,,blood,50690;KMS-12-BM,,,blood,50691;KMS-12-PE,,,blood,50692;KO52,,,blood,50693;KOPN-8,,,blood,50694;KP-1N,,,pancreas,50695;KP-1NL,,,pancreas,50696;KU812,,,blood,50697;KU812E,,,blood,50698;KU812F,,,blood,50699;KY821,,,blood,50700;KY821A3,,,blood,50701;KYM-1,,,muscle,50702;L-1236,,,lymphatic system,50703;L-363,,,blood,50704;L-428,,,lymphatic system,50705;L-540,,,lymphatic system,50706;LAMA-84,,,blood,50707;LC4-1,,,blood,50708;Loucy,,,blood,50709;LP-1,,,blood,50710;Lu-134-B,,,lung,50711;M059K,,,brain,50712;MC/CAR,,,lymphatic system,50713;MC116,,,lymphatic system,50714;ME-1,,,blood,50715;MEC-1,,,blood,50716;MEC-2,,,blood,50717;MEG-01,,,blood,50718;MHH-NB-11,,,nervous system,50719;MHH-PREB-1,,,lymphatic system,50720;MJ,,,lymphatic system,50721;ML-2,,,blood,50722;MLMA,,,blood,50723;MOLM-13,,,blood,50724;MOLP-8,,,blood,50725;MOLT-14,,,blood,50726;MOLT-16,,,blood,50727;MOLT-4,,,blood,50728;MOLT-4F,,,blood,50729;MONO-MAC-1,,,blood,50730;MONO-MAC-6,,,blood,50731;MRK-nu-1,,,breast,50732;MS-1-L,,,lung,50733;MV-4-11,,,blood,50734;MY,,,blood,50735;MY-M12,,,blood,50736;MY-M13,,,blood,50737;NALM-19,,,blood,50738;NALM-6,,,blood,50739;NAMALWA,,,lymphatic system,50740;NAMALWA.PNT,,,lymphatic system,50741;NB(TU)1-10,,,nervous system,50742;NB-1,,,nervous system,50743;NB-4,,,blood,50744;NC-37,,,lymphatic system,50745;NCI-H1092,,,lung,50746;NCI-H1155,,,lung,50747;NCI-H1304,,,lung,50748;NCI-H1385,,,lung,50749;NCI-H1395,,,lung,50750;NCI-H1404,,,lung,50751;NCI-H1417,,,lung,50752;NCI-H1436,,,lung,50753;NCI-H1522,,,lung,50754;NCI-H1563,,,lung,50755;NCI-H1618,,,lung,50756;NCI-H1666,,,lung,50757;NCI-H1694,,,lung,50758;NCI-H1770,,,lung,50759;NCI-H1836,,,lung,50760;NCI-H1838,,,lung,50761;NCI-H187,,,lung,50762;NCI-H1882,,,lung,50763;NCI-H1963,,,lung,50764;NCI-H1975,,,lung,50765;NCI-H2081,,,lung,50766;NCI-H209,,,lung,50767;NCI-H2106,,,lung,50768;NCI-H211,,,lung,50769;NCI-H2141,,,lung,50770;NCI-H2171,,,lung,50771;NCI-H220,,,lung,50772;NCI-H2227,,,lung,50773;NCI-H226,,,lung,50774;NCI-H345,,,lung,50775;NCI-H446,,,lung,50776;NCI-H510A,,,lung,50777;NCI-H524,,,lung,50778;NCI-H526,,,lung,50779;NCI-H69,,,lung,50780;NCI-H719,,,lung,50781;NCI-H720,,,lung,50782;NCI-H748,,,lung,50783;NCI-H82,,,lung,50784;NCI-H847,,,lung,50785;NCI-H889,,,lung,50786;NEC8,,,testes,50787;NH-12,,,nervous system,50788;NK-92MI,,,lymphatic system,50789;NOMO-1/ADM,,,blood,50790;NU-DUL-1,,,lymphatic system,50791;OCI-AML2,,,blood,50792;OCI-AML3,,,blood,50793;OCI-AML5,,,blood,50794;OCI-LY-19,,,lymphatic system,50795;OCI-M1,,,blood,50796;OPM-2,,,blood,50797;P116.cl39,,,blood,50798;P12-ICHIKAWA,,,blood,50799;P30/OHK,,,blood,50800;P31/FUJ,,,blood,50801;P32/ISH,,,lymphatic system,50802;P3HR-1,,,lymphatic system,50803;PC-3 [JPC-3],,,lung,50804;PEER,,,blood,50805;PF-382,,,blood,50806;Pfeiffer,,,lymphatic system,50807;PL-21,,,blood,50808;PSN1,,,pancreas,50809;Raji,,,lymphatic system,50810;Ramos (RA 1),,,blood,50811;RC-K8,,,lymphatic system,50812;REC-1,,,lymphatic system,50813;Reh,,,blood,50814;RERF-LC-MS,,,lung,50815;RH-1,,,bone,50816;RH-30,,,muscle,50817;RH-41,,,muscle,50818;RL,,,lymphatic system,50819;ROS-50,,,blood,50820;RPMI 1788,,,blood,50821;RPMI 6666,,,lymphatic system,50822;RPMI 8226,,,blood,50823;RPMI-8402,,,blood,50824;RS4;11,,,blood,50825;SBC-1,,,lung,50826;SBC-2,,,lung,50827;SC-1,,,lymphatic system,50828;SCC-3,,,lymphatic system,50829;Sci-1,,,lymphatic system,50830;SIG-M5,,,blood,50831;SIMA,,,nervous system,50832;SK-MEL-1,,,skin,50833;SK-MEL-3,,,skin,50834;SK-N-BE(2),,,nervous system,50835;SK-N-FI,,,nervous system,50836;SLVL,,,lymphatic system,50837;SNB-19,,,brain,50838;SR,,,lymphatic system,50839;ST486,,,lymphatic system,50840;SU-DHL-1,,,lymphatic system,50841;SU-DHL-10,,,lymphatic system,50842;SU-DHL-16,,,lymphatic system,50843;SU-DHL-4,,,lymphatic system,50844;SU-DHL-5,,,lymphatic system,50845;SU-DHL-6,,,lymphatic system,50846;SU-DHL-8,,,lymphatic system,50847;SUP-B15,,,blood,50848;SUP-HD1,,,lymphatic system,50849;SUP-M2,,,lymphatic system,50850;SUP-T1,,,blood,50851;SVG p12,,,brain,50852;SW 1990,,,pancreas,50853;TALL-1,,,blood,50854;TANOUE,,,blood,50855;TC-71,,,bone,50856;Tera-1,,,testes,50857;TF-1,,,blood,50858;TF-1.CN5a.1,,,blood,50859;TF-1a,,,blood,50860;THP-1,,,blood,50861;TK,,,lymphatic system,50862;Toledo,,,lymphatic system,50863;TT,,,thyroid,50864;TUR,,,lymphatic system,50865;U266B1,,,blood,50866;U-698-M,,,blood,50867;U-87 MG,,,brain,50868;U-937,,,lymphatic system,50869;VAL,,,lymphatic system,50870;WIL2 NS,,,lymphatic system,50871;WILCL,,,blood,50872;WSU-DLCL2,,,lymphatic system,50873;WSU-NHL,,,lymphatic system,50874;YMB-1,,,breast,50875;YT,,,lymphatic system,50876;A-375,epithelial,,skin,50060;DU4475,epithelial,,breast,50577;HCC1187,epithelial,,breast,50578;HCC1500,epithelial,,breast,50579;HCC1599,epithelial,,breast,50580;HCC2157,epithelial,,breast,50581;HCC2218,epithelial,,breast,50582;HeLa,epithelial,,cervix,50061;LNCaP,epithelial,,prostate,50059;MDA-MB-231,epithelial,,breast,50058;SK-BR-3,epithelial,,breast,50057;SK-MES,epithelial,,lung,50043;CGTH-W-1,,,thyroid,50899;LB647-SCLC,,,lung,50982;8-MG-BA,,,brain,50878;A253,,,head &amp; neck,50880;A498,,,kidney,50882;A704,,,kidney,50884;ACN,,,nervous system,50885;ALL-PO,,,blood,50886;AM-38,,,brain,50887;ATN-1,,,blood,50888;BB30-HNC,,,head &amp; neck,50890;BB49-HNC,,,head &amp; neck,50891;BE-13,,,blood,50893;Becker,,,brain,50894;BOKU,,,cervix,50895;BV-173,,,blood,50896;Calu-6,,,lung,50897;CAS-1,,,brain,50898;COLO-320-HSR,,,intestine,50900;COLO-668,,,lung,50901;COLO-829,,,skin,50902;CP66-MEL,,,skin,50904;CW-2,,,intestine,50906;D-247MG,,,brain,50907;D-263MG,,,brain,50908;D-336MG,,,brain,50909;D-392MG,,,brain,50910;D-542MG,,,brain,50913;DEL,,,blood,50915;DJM-1,,,skin,50916;DOHH-2,,,lymphatic system,50917;DSH1,,,urinary tract,50918;ECC12,,,stomach,50920;ECC4,,,intestine,50921;EC-GI-10,,,esophagus,50922;EKVX,,,lung,50923;EM-2,,,blood,50924;EoL-1-cell,,,blood,50925;ES1,,,bone,50926;ES4,,,bone,50928;ES5,,,bone,50929;ES6,,,bone,50930;ES7,,,bone,50931;ES8,,,bone,50932;ETK-1,,,biliary tract,50933;EW-1,,,bone,50934;EW-11,,,bone,50935;EW-13,,,bone,50936;EW-16,,,bone,50937;EW-18,,,bone,50938;EW-24,,,bone,50939;EW-3,,,bone,50940;EW-7,,,bone,50941;GAK,,,skin,50942;GB-1,,,brain,50943;GI-1,,,brain,50945;GI-ME-N,,,nervous system,50946;GR-ST,,,blood,50947;GT3TKB,,,stomach,50948;HAL-01,,,blood,50951;HCC2998,,,intestine,50952;HCE-T,,,head &amp; neck,50954;HOP-62,,,lung,50955;HT-144,,,skin,50956;IMR-5,,,nervous system,50957;IST-MES1,,,pleura,50958;IST-SL2,,,lung,50960;JVM-2,,,blood,50962;JVM-3,,,blood,50963;K5,,,thyroid,50964;KALS-1,,,brain,50965;KGN,,,ovary,50966;KINGS-1,,,brain,50967;KM12,,,intestine,50969;KNS-42,,,brain,50970;KNS-81-FD,,,brain,50971;KP-N-YS,,,nervous system,50973;KS-1,,,brain,50974;KURAMOCHI,,,ovary,50975;LAN-5,,,nervous system,50976;LAN-6,,,nervous system,50977;LB1047-RCC,,,kidney,50978;LB2241-RCC,,,kidney,50979;LB2518-MEL,,,skin,50980;LB373-MEL-D,,,skin,50981;LB771-HNC,,,head &amp; neck,50983;LB831-BLC,,,urinary tract,50984;LB996-RCC,,,kidney,50985;LOXIMVI,,,skin,50988;LS-123,,,intestine,50990;LS-411N,,,intestine,50991;LS-513,,,intestine,50992;LU-134-A,,,lung,50993;LU-165,,,lung,50995;LXF-289,,,lung,50996;MFH-ino,,,miscellaneous,50997;MHH-CALL-2,,,blood,50998;MMAC-SF,,,skin,50999;MN-60,,,blood,51000;MPP-89,,,pleura,51002;MUTZ-1,,,blood,51003;MZ1-PC,,,pancreas,51004;MZ2-MEL,,,skin,51005;MZ7-mel,,,skin,51006;NB10,,,nervous system,51007;NB13,,,nervous system,51009;NB14,,,nervous system,51010;NB16,,,nervous system,51011;NB17,,,nervous system,51012;NB5,,,nervous system,51013;NB6,,,nervous system,51014;NB7,,,nervous system,51015;NCI-H1355,,,lung,51017;NCI-H157,,,lung,51018;NCI-H2126,,,lung,51019;NCI-H322M,,,lung,51020;NCI-H64,,,lung,51021;NCI-H716,,,intestine,51022;NCI-H747,,,intestine,51023;NKM-1,,,blood,51024;NMC-G1,,,brain,51025;no-10,,,brain,51026;no-11,,,brain,51027;NOMO-1,,,blood,51028;NOS-1,,,bone,51029;NTERA-S-cl-D1,,,testes,51030;OMC-1,,,cervix,51033;ONS-76,,,brain,51034;OS-RC-2,,,kidney,51035;QIMR-WIL,,,blood,51037;Ramos-2G6-4C10,,,lymphatic system,51038;RCC10RGB,,,kidney,51039;RKO,,,intestine,51041;RL95-2,,,uterus,51042;RPMI-8866,,,blood,51043;SF126,,,brain,51045;SF268,,,brain,51046;SF539,,,brain,51047;SH-4,,,skin,51048;SK-MM-2,,,blood,51053;SK-PN-DW,,,bone,51054;SK-UT-1,,,uterus,51055;SNU-C1,,,intestine,51056;SNU-C2B,,,intestine,51057;SW403,,,intestine,51058;SW684,,,miscellaneous,51059;SW872,,,miscellaneous,51060;SW954,,,vulva,51061;SW982,,,miscellaneous,51063;TE-1,,,esophagus,51064;TE-10,,,esophagus,51065;TE-441-T,,,muscle,51069;TE-5,,,esophagus,51070;TE-6,,,esophagus,51071;TGBC11TKB,,,stomach,51074;TGBC1TKB,,,biliary tract,51075;TK10,,,kidney,51077;UACC-257,,,skin,51078;ECC10,,,stomach,50919;JEG-3,,,miscellaneous,50961;697.0,,,blood,50877;LU-139,,,lung,50994;CTB-1,,,lymphatic system,50905;ES3,,,bone,50927;TE-11,,,esophagus,51066;IST-SL1,,,lung,50959;TGBC24TKB,,,biliary tract,51076;KLE,,,uterus,50968;LC-1F,,,lung,50986;HCE-4,,,esophagus,50953;A4-Fuk,,,skin,50883;SK-MEL-24,,,skin,51050;CP50-MEL-B,,,skin,50903;YH-13,,,brain,51080;OC-314,,,ovary,51031;RF-48,,,stomach,51040;SK-MG-1,,,brain,51052;B2-17,,,brain,50889;Mo-T,,,blood,51001;KP-N-YN,,,nervous system,50972;D-423MG,,,brain,50911;H9,,,lymphatic system,50949;D-566MG,,,brain,50914;SK-MEL-5,,,skin,51051;NBsusSR,,,nervous system,51016;A101D,,,skin,50879;A388,,,miscellaneous,50881;BB65-RCC,,,kidney,50892;D-502MG,,,brain,50912;GCIY,,,stomach,50944;HA7-RCC,,,kidney,50950;LC-2-ad,,,lung,50987;LS-1034,,,intestine,50989;NB12,,,nervous system,51008;OCUB-M,,,breast,51032;OVCAR-4,,,ovary,51036;RXF393,,,kidney,51044;SJSA-1,,,bone,51049;SW962,,,vulva,51062;TE-12,,,esophagus,51067;TE-15,,,esophagus,51068;TE-8,,,esophagus,51072;TE-9,,,esophagus,51073;VA-ES-BJ,,,miscellaneous,51079;HCC202,,,breast,50214</t>
+  </si>
+  <si>
+    <t>1058\cell lines</t>
+  </si>
+  <si>
+    <t>PKC412,small molecule,10220-101,LSM-1221;Ponatinib,small molecule,10150-101,LSM-1151;Thapsigargin,small molecule,10293-101,LSM-3545</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20012/</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 8 nM to 0.03125 nM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>5637.0,epithelial,,urinary bladder,50001;647-V,epithelial-like,,urinary bladder,50002;A375.S2,epithelial,,skin,50003;AGS,epithelial,,stomach,50004;BPH-1,epitheloid,,prostate,50005;Ca Ski,epithelial,,cervix,50006;Ca9-22,epithelial-like,,head &amp; neck,50007;CAL-51,epithelial-like,,breast,50008;Calu-1,epithelial,,lung,50009;Calu-3,epithelial,,lung,50010;COLO-679,fibroblastic,,skin,50011;COLO-800,epithelial-like,,skin,50012;FU97,epithelial-like,,stomach,50013;HEC-1,,,uterus,50014;HLF,,,liver,50015;HUTU-80,epithelial,,intestine,50016;IA-LM,,,lung,50017;Ishikawa,epithelial-like,,uterus,50018;Ishikawa (Heraklio) 02 ER-,epithelial,,uterus,50019;IST-MEL1,epithelial-like,,skin,50020;JHH-6,epithelial-like,,liver,50021;KMRC-20,epithelial-like,,kidney,50023;KYSE-140,,,esophagus,50024;KYSE-150,epitheloid,,esophagus,50025;KYSE-180,epitheloid,,esophagus,50026;KYSE-450,epitheloid,,esophagus,50027;LNZTA3WT4,,,brain,50028;MCF7,epithelial,,breast,50029;MDA-MB-435S,melanocyte,,skin,50030;MT-3,epithelial,,breast,50031;NCI-H1648,,,lung,50032;NCI-H1651,epithelial,,lung,50033;NCI-H1703,epithelial,,lung,50034;NCI-H1915,large cell,,lung,50035;NCI-H2023,,,lung,50036;NCI-H810,epithelial,,lung,50037;PE/CA-PJ15,epithelial-like,,head &amp; neck,50039;SJCRH30,fibroblast,,muscle,50041;SK-LMS-1,,,uterus,50042;SK-MES,epithelial,,lung,50043;SK-OV-3,epithelial,,ovary,50044;SNB75,,,brain,50045;SW527,epithelial,,breast,50046;SW620,epithelial,,intestine,50047;T24,epithelial,,urinary bladder,50048;WiDr,epithelial,,intestine,50049;Hep 3B2.1-7,epithelial,,liver,50051;Hep G2,epithelial,,liver,50052;Huh7,,,liver,50055;SK-BR-3,epithelial,,breast,50057;MDA-MB-231,epithelial,,breast,50058;LNCaP,epithelial,,prostate,50059;A-375,epithelial,,skin,50060;HeLa,epithelial,,cervix,50061;1205Lu,,,skin,50062;1321N1,,,brain,50063;143B,,,bone,50064;143B PML BK TK,,,bone,50065;1A6,,,urinary bladder,50066;22RV1,,,prostate,50067;23132/87,,,stomach,50068;42-MG-BA,,,brain,50069;639-V,,,ureter,50071;769-P,,,kidney,50072;786-O,,,kidney,50073;8305C,,,thyroid,50074;8505C,,,thyroid,50075;A172,,,brain,50076;A-204,,,muscle,50077;A2058,,,skin,50078;A2780,,,ovary,50079;A2780ADR,,,ovary,50080;A373-C6,,,skin,50081;A-427,,,lung,50082;A431,,,skin,50083;A549,,,lung,50084;A673,,,muscle,50085;ABC-1,,,lung,50086;ACHN,,,kidney,50087;AN3CA,,,uterus,50088;ASH-3,,,thyroid,50089;AsPC-1,,,pancreas,50090;AU565,,,breast,50091;AZ-521,,,stomach,50092;B-CPAP,,,thyroid,50093;BE(2)-C,,,nervous system,50094;BEN,,,lung,50095;BeWo,,,miscellaneous,50096;BFTC-905,,,urinary bladder,50097;BFTC-909,,,kidney,50098;BHT-101,,,thyroid,50099;BHY,,,head &amp; neck,50100;BICR 10,,,head &amp; neck,50101;BICR 22,,,head &amp; neck,50102;BICR 31,,,head &amp; neck,50103;BICR 78,,,head &amp; neck,50104;BT-20,,,breast,50105;BT-474,,,breast,50106;BT-483,,,breast,50107;BT-549,,,breast,50108;BxPC-3,,,pancreas,50109;C170,,,intestine,50110;C2BBe1,,,intestine,50111;C32,,,skin,50112;C-33 A,,,cervix,50113;C3A,,,liver,50114;C-4 I,,,cervix,50115;C-4 II,,,cervix,50116;Caco-2,,,intestine,50117;Caki-1,,,kidney,50118;CAL 27,,,head &amp; neck,50119;CAL-120,,,breast,50120;CAL-12T,,,lung,50121;CAL-148,,,breast,50122;CAL-29,,,urinary bladder,50123;CAL-33,,,head &amp; neck,50124;CAL-39,,,vulva,50125;CAL-54,,,kidney,50126;CAL-62,,,thyroid,50127;CAL-72,,,bone,50128;CAL-78,,,bone,50129;CAL-85-1,,,breast,50130;CAMA-1,,,breast,50131;Caov-3,,,ovary,50132;Caov-4,,,ovary,50133;Capan-1,,,pancreas,50134;Capan-2,,,pancreas,50135;CaR-1,,,intestine,50136;CCF-STTG1,,,brain,50137;CCK-81,,,intestine,50138;CHP-212,,,nervous system,50139;CoCM-1,,,intestine,50141;COLO 201,,,intestine,50142;COLO 205,,,intestine,50143;COLO 320DM,,,intestine,50144;COLO 741,,,intestine,50145;COLO 792,,,skin,50146;COLO 853,,,skin,50147;COLO 857,,,skin,50148;COLO 858,,,skin,50149;COLO-206F,,,intestine,50150;COLO-320,,,intestine,50151;COLO-678,,,intestine,50152;COLO-680N,,,esophagus,50153;COLO-783,,,skin,50154;COLO-824,,,breast,50156;COLO-849,,,skin,50157;COR-L 105,,,lung,50158;COR-L 23/CPR,,,lung,50159;COR-L23,,,lung,50160;DAN-G,,,pancreas,50161;Daoy,,,brain,50162;DBTRG-05MG,,,brain,50163;Detroit 562,,,head &amp; neck,50164;DK-MG,,,brain,50165;DLD-1,,,intestine,50166;DMS 273,,,lung,50167;DMS 53,,,lung,50168;DOK,,,head &amp; neck,50169;DoTc2 4510,,,cervix,50170;DU 145,,,prostate,50171;DV-90,,,lung,50172;EBC-1,,,lung,50173;EFE-184,,,uterus,50174;EFM-19,,,breast,50175;EFM-192A,,,breast,50176;EFM-192B,,,breast,50177;EFM-192C,,,breast,50178;EFO-21,,,ovary,50179;EFO-27,,,ovary,50180;EGI-1,,,biliary tract,50181;EJ138,,,urinary bladder,50182;EN,,,uterus,50183;EPLC-272H,,,lung,50184;ES-2,,,ovary,50185;ESS-1,,,uterus,50186;EVSA-T,,,breast,50187;FaDu,,,head &amp; neck,50188;FLYA13,,,miscellaneous,50189;FTC-133,,,thyroid,50190;FTC-238,,,thyroid,50191;FU-OV-1,,,ovary,50192;G-292 Clone A141B1,,,bone,50193;G-361,,,skin,50194;G-401,,,kidney,50195;G-402,,,kidney,50196;GAMG,,,brain,50197;GCT,,,miscellaneous,50198;GMS-10,,,brain,50199;GOS-3,,,brain,50200;GP5d,,,intestine,50201;H4,,,brain,50202;HARA,,,lung,50204;HCC1143,,,breast,50205;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC-15,,,lung,50209;HCC1569,,,breast,50210;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC202,,,breast,50214;HCC-366,,,lung,50215;HCC38,,,breast,50216;HCC-44,,,lung,50217;HCC-56,,,intestine,50218;HCC70,,,breast,50219;HCC-78,,,lung,50220;HCC-827,,,lung,50221;HCT 116,,,intestine,50222;HCT-15,,,intestine,50223;HCT-8,,,intestine,50224;HDQ-P1,,,breast,50225;H-EMC-SS,,,bone,50226;HGC-27,,,stomach,50227;HLE,,,liver,50228;HMVII,,,skin,50229;HN,,,head &amp; neck,50230;HO-1-N-1,,,head &amp; neck,50231;HO-1-u-1,,,head &amp; neck,50232;HOS,,,bone,50233;HPAC,,,pancreas,50234;HPAF-II,,,pancreas,50235;HRT-18,,,intestine,50236;Hs 257.T,,,intestine,50237;Hs 578T,,,breast,50238;Hs 588.T,,,cervix,50239;Hs 633T,,,miscellaneous,50240;Hs 683,,,brain,50241;Hs 766T,,,pancreas,50243;HSC-2,,,head &amp; neck,50244;HSC-3,,,head &amp; neck,50245;HSC-4,,,head &amp; neck,50246;HT 1080,,,miscellaneous,50247;HT 1376,,,urinary bladder,50248;HT115,,,intestine,50249;HT-1197,,,urinary bladder,50250;HT-29,,,intestine,50251;HT-3,,,cervix,50252;HT55,,,intestine,50253;HTC-C3,,,thyroid,50254;HuCCT1,,,biliary tract,50255;huH-1,,,liver,50256;HuO-3N1,,,bone,50257;HuO9,,,bone,50258;HuO9N2,,,bone,50259;HUP-T3,,,pancreas,50260;HUP-T4,,,pancreas,50261;IGR-1,,,skin,50262;IGR-37,,,skin,50263;IGR-39,,,skin,50264;IHH-4,,,thyroid,50265;IM-95,,,stomach,50266;IM-95m,,,stomach,50267;IMR-32,,,nervous system,50268;IPC-298,,,skin,50269;J82,,,urinary bladder,50270;JAR,,,miscellaneous,50271;JHH-1,,,liver,50272;JHH-2,,,liver,50273;JHH-4,,,liver,50274;JHH-7,,,liver,50275;JIMT-1,,,breast,50276;KELLY,,,nervous system,50277;KG-1-C,,,brain,50278;KHOS/NP,,,bone,50280;KHOS-240S,,,bone,50281;KHOS-312H,,,bone,50282;KMH-2,,,thyroid,50283;KMRC-1,,,kidney,50284;KON,,,head &amp; neck,50285;KOSC-2 cl3-43,,,head &amp; neck,50286;KP-2,,,pancreas,50287;KP-3,,,pancreas,50288;KP-3L,,,pancreas,50289;KP-4,,,pancreas,50290;KPL-1,,,breast,50291;KU-19-19,,,urinary bladder,50292;KYSE-220,,,esophagus,50293;KYSE-270,,,esophagus,50294;KYSE-30,,,esophagus,50295;KYSE-410,,,esophagus,50296;KYSE-50,,,esophagus,50297;KYSE-510,,,esophagus,50298;KYSE-520,,,esophagus,50299;KYSE-70,,,esophagus,50300;LC-1 sq,,,lung,50301;LCLC-103H,,,lung,50302;LCLC-97TM1,,,lung,50303;LK-2,,,lung,50304;LN-18,,,brain,50305;LN-229,,,brain,50306;LN-405,,,brain,50307;LNZTA3WT11,,,brain,50308;LOU-NH91,,,lung,50309;LoVo,,,intestine,50310;LS174T,,,intestine,50311;LS180,,,intestine,50312;Lu-135,,,lung,50314;LU65,,,lung,50315;LU65A,,,lung,50316;LU65B,,,lung,50317;LU65C,,,lung,50318;LU99A,,,lung,50319;LU99B,,,lung,50320;LU99C,,,lung,50321;LUDLU-1,,,lung,50322;M059J,,,brain,50323;MB 157,,,breast,50324;MCAS,,,ovary,50325;MC-IXC,,,nervous system,50326;MDA-MB-134-VI,,,breast,50327;MDA-MB-157,,,breast,50328;MDA-MB-175-VII,,,breast,50329;MDA-MB-330,,,breast,50330;MDA-MB-361,,,breast,50331;MDA-MB-415,,,breast,50332;MDA-MB-436,,,breast,50333;MDA-MB-453,,,breast,50334;MDA-MB-468,,,breast,50335;MDST8,,,intestine,50336;ME-180,,,cervix,50337;MEL-HO,,,skin,50338;MEL-JUSO,,,skin,50339;MES-SA,,,uterus,50340;MES-SA/Dx-5,,,uterus,50341;MEWO,,,skin,50342;MFE-280,,,uterus,50343;MFE-296,,,uterus,50344;MFE-319,,,uterus,50345;MFM-223,,,breast,50346;MG-63,,,bone,50347;MHH-ES-1,,,nervous system,50348;MIA PaCa-2,,,pancreas,50349;MKN1,,,stomach,50350;MKN28,,,stomach,50351;MKN45,,,stomach,50352;MKN7,,,stomach,50353;MKN74,,,stomach,50354;ML-1,,,thyroid,50355;MOG-G-CCM,,,brain,50356;MOG-G-UVW,,,brain,50357;MS751,,,cervix,50358;MSTO-211H,,,pleura,50359;NB69,,,nervous system,50360;NCC-IT-A3,,,testes,50361;NCI-H1048,,,lung,50362;NCI-H1299,,,lung,50363;NCI-H1435,,,lung,50364;NCI-H1437,,,lung,50365;NCI-H1568,,,lung,50366;NCI-H1573,,,lung,50367;NCI-H1581,,,lung,50368;NCI-H1623,,,lung,50369;NCI-H1650,,,lung,50370;NCI-H1688,,,lung,50371;NCI-H1693,,,lung,50372;NCI-H1734,,,lung,50373;NCI-H1755,,,lung,50374;NCI-H1781,,,lung,50375;NCI-H1792,,,lung,50376;NCI-H1793,,,lung,50377;NCI-H1869,,,lung,50378;NCI-H1876,,,lung,50379;NCI-H1944,,,lung,50380;NCI-H196,,,lung,50381;NCI-H1993,,,lung,50382;NCI-H2009,,,lung,50383;NCI-H2029,,,lung,50384;NCI-H2030,,,lung,50385;NCI-H2073,,,lung,50386;NCI-H2085,,,lung,50387;NCI-H2087,,,lung,50388;NCI-H2110,,,lung,50389;NCI-H2122,,,lung,50390;NCI-H2135,,,lung,50391;NCI-H2170,,,lung,50392;NCI-H2172,,,lung,50393;NCI-H2195,,,lung,50394;NCI-H2196,,,lung,50395;NCI-H2198,,,lung,50396;NCI-H2228,,,lung,50397;NCI-H2286,,,lung,50398;NCI-H2291,,,lung,50399;NCI-H23,,,lung,50400;NCI-H2342,,,lung,50401;NCI-H2347,,,lung,50402;NCI-H2405,,,lung,50403;NCI-H2444,,,lung,50404;NCI-H2452,,,lung,50405;NCI-H322,,,lung,50407;NCI-H358,,,lung,50408;NCI-H441,,,lung,50409;NCI-H460,,,lung,50410;NCI-H520,,,lung,50411;NCI-H522,,,lung,50412;NCI-H596,,,lung,50413;NCI-H647,,,lung,50415;NCI-H650,,,lung,50416;NCI-H661,,,lung,50417;NCI-H727,,,lung,50418;NCI-H838,,,lung,50419;NCI-H841,,,lung,50420;NCI-N87,,,stomach,50421;NIH:OVCAR-3,,,ovary,50422;NUGC-3,,,stomach,50424;NUGC-4,,,stomach,50425;NY,,,bone,50426;OAW28,,,ovary,50427;OAW42,,,ovary,50428;OCUG-1,,,gall bladder,50429;OCUM-1,,,stomach,50430;OE19,,,esophagus,50431;OE21,,,esophagus,50432;OE33,,,esophagus,50433;OSC-19,,,head &amp; neck,50434;OSC-20,,,head &amp; neck,50435;OUMS-23,,,intestine,50436;OV-90,,,ovary,50437;OVISE,,,ovary,50438;OVKATE,,,ovary,50439;OVMIU,,,ovary,50440;OVSAYO,,,ovary,50441;OVTOKO,,,ovary,50442;PA-1,,,ovary,50443;Panc 02.03,,,pancreas,50444;Panc 03.27,,,pancreas,50445;Panc 04.03,,,pancreas,50446;Panc 08.13,,,pancreas,50447;Panc 10.05,,,pancreas,50448;PANC-1,,,pancreas,50449;PA-TU-8902,,,pancreas,50450;PA-TU-8988S,,,pancreas,50451;PA-TU-8988T,,,pancreas,50452;PC-14,,,lung,50453;PC-3,,,prostate,50454;PFSK-1,,,brain,50455;PL45,,,pancreas,50456;PLC/PRF/5,,,liver,50457;RCM-1,,,intestine,50459;RD,,,muscle,50460;RD-ES,,,nervous system,50461;RERF-GC-1B,,,stomach,50462;RERF-LC-Ad1,,,lung,50463;RERF-LC-KJ,,,lung,50464;RERF-LC-MA,,,lung,50465;RERF-LC-Sq1,,,lung,50466;RKN,,,ovary,50467;RMG-I,,,ovary,50468;RO82-W-1,,,thyroid,50469;RPMI 2650,,,head &amp; neck,50470;RPMI-7951,,,skin,50471;RT-112,,,urinary bladder,50472;RT112/84,,,urinary bladder,50473;RT4,,,urinary bladder,50474;RVH-421,,,skin,50475;S-117,,,thyroid,50476;Saos-2,,,bone,50477;SAS,,,head &amp; neck,50478;SAT,,,head &amp; neck,50479;SBC-3,,,lung,50480;SBC-5,,,lung,50481;SCaBER,,,urinary bladder,50482;SCC-15,,,head &amp; neck,50483;SCC-25,,,head &amp; neck,50484;SCC-4,,,head &amp; neck,50485;SCC-9,,,head &amp; neck,50486;SCCH-26,,,nervous system,50488;SCH,,,stomach,50489;SCLC-21H,,,lung,50490;SHP-77,,,lung,50491;SiHa,,,cervix,50493;SISO,,,cervix,50494;SK-CO-1,,,intestine,50495;SK-ES-1,,,bone,50496;SKG-IIIa,,,cervix,50497;SKG-IIIb,,,cervix,50498;SK-HEP-1,,,liver,50499;SK-LU-1,,,lung,50500;SK-MEL-2,,,skin,50501;SK-MEL-30,,,skin,50502;SKN,,,uterus,50503;SKN-3,,,head &amp; neck,50504;SK-N-AS,,,nervous system,50505;SK-N-DZ,,,nervous system,50506;SK-NEP-1,,,kidney,50507;SK-N-SH,,,nervous system,50508;SNG-M,,,uterus,50509;SNU-1,,,stomach,50510;SNU-16,,,stomach,50511;SNU-182,,,liver,50512;SNU-387,,,liver,50513;SNU-398,,,liver,50514;SNU-423,,,liver,50515;SNU-449,,,liver,50516;SNU-475,,,liver,50517;SNU-5,,,stomach,50518;SU.86.86,,,pancreas,50520;SUIT-2,,,pancreas,50521;SW 1088,,,brain,50522;SW 1271,,,lung,50524;SW 13,,,adrenal gland,50525;SW 1417,,,intestine,50526;SW 1463,,,intestine,50527;SW 156,,,kidney,50528;SW 1573,,,lung,50529;SW 1783,,,brain,50530;SW 48,,,intestine,50531;SW 626,,,ovary,50532;SW 780,,,urinary bladder,50533;SW 900,,,lung,50534;SW-1710,,,urinary bladder,50535;SW756,,,cervix,50536;SW837,,,intestine,50537;SW-948,,,intestine,50538;T.T,,,esophagus,50539;T.Tn,,,esophagus,50540;T47D,,,breast,50541;T84,,,intestine,50542;T98G,,,brain,50543;TASK1,,,nervous system,50544;TCCSUP,,,urinary bladder,50545;TGW,,,adrenal gland,50546;TOV-112D,,,ovary,50547;TOV-21G,,,ovary,50548;TT2609-C02,,,thyroid,50549;TYK-nu,,,ovary,50550;U-118 MG,,,brain,50551;U-138 MG,,,brain,50552;U-2 OS,,,bone,50553;U-251 MG,,,brain,50554;U373 MG,,,brain,50555;UACC-812,,,breast,50556;UACC-893,,,breast,50557;UMC-11,,,lung,50558;UM-UC-3,,,urinary bladder,50559;VCaP,,,prostate,50560;VM-CUB1,,,urinary bladder,50561;VMRC-LCP,,,lung,50562;VMRC-MELG,,,skin,50563;VMRC-RCW,,,kidney,50564;VMRC-RCZ,,,kidney,50565;WM 266-4,,,skin,50566;WM-115,,,skin,50567;WM1552C,,,skin,50568;WM278,,,skin,50569;WM35,,,skin,50570;WM793B,,,skin,50571;YAPC,,,pancreas,50572;YKG-1,,,brain,50573;ZR-75-1,,,breast,50574;ZR-75-30,,,breast,50575;DU4475,epithelial,,breast,50577;HCC1187,epithelial,,breast,50578;HCC1500,epithelial,,breast,50579;HCC1599,epithelial,,breast,50580;HCC2157,epithelial,,breast,50581;HCC2218,epithelial,,breast,50582;2B8,,,lymphatic system,50585;A2780cis,,,ovary,50586;A3,,,blood,50587;A3/KAW,,,lymphatic system,50588;AGR-ON,,,blood,50589;ALL-SIL,,,blood,50590;AMO-1,,,lymphatic system,50591;ARH-77,,,blood,50592;BALL-1,,,blood,50593;BC-1,,,lymphatic system,50594;BC-2,,,lymphatic system,50595;BC-3,,,lymphatic system,50596;BDCM,,,blood,50597;BE(2)-M17,,,nervous system,50598;BL-41,,,lymphatic system,50599;BL-70,,,lymphatic system,50600;C8166,,,blood,50601;CA46,,,lymphatic system,50602;CCRF-CEM,,,blood,50603;CCRF-HSB-2,,,blood,50604;CCRF-SB,,,blood,50605;CEM/C1,,,blood,50606;CEM/C2,,,blood,50607;CESS,,,blood,50608;CFPAC-1,,,pancreas,50609;ChaGo-K-1,,,lung,50610;CHP-126,,,nervous system,50611;CI-1,,,lymphatic system,50612;CL-11,,,intestine,50613;Clone 15 HL-60,,,blood,50614;CMK,,,blood,50615;COLO 684,,,uterus,50616;COLO-704,,,ovary,50617;COR-L279,,,lung,50618;COR-L51,,,lung,50619;COR-L88,,,lung,50620;COR-L95,,,lung,50621;CPC-N,,,lung,50622;CTV-1,,,blood,50623;D283 Med,,,brain,50624;Daudi,,,lymphatic system,50625;DB,,,lymphatic system,50626;DERL-2,,,lymphatic system,50627;DG-75,,,lymphatic system,50628;DMS 114,,,lung,50629;DMS 153,,,lung,50630;DMS 79,,,lung,50631;DND-41,,,blood,50632;EB1,,,lymphatic system,50633;EB2,,,lymphatic system,50634;EB-3,,,lymphatic system,50635;EHEB,,,blood,50636;EJM,,,blood,50637;Eos-HL-60,,,blood,50638;Farage,,,lymphatic system,50639;GA-10 (Clone 20),,,lymphatic system,50641;GDM-1,,,blood,50642;GOTO,,,nervous system,50643;Gp2D,,,intestine,50644;GRANTA-519,,,lymphatic system,50645;H33HJ-JA1,,,blood,50646;HC-1,,,blood,50647;HCC-33,,,lung,50648;HDLM-2,,,lymphatic system,50649;HD-MY-Z,,,lymphatic system,50650;HEL,,,blood,50651;HEL 92.1.7,,,blood,50652;HH,,,lymphatic system,50653;HL-60,,,blood,50654;HL60(S),,,blood,50655;HL-60/MX2,,,blood,50656;HL60RG,,,blood,50657;Hs 445,,,lymphatic system,50658;HS-Sultan,,,lymphatic system,50659;HT,,,lymphatic system,50660;HuT 78,,,lymphatic system,50661;I 2.1,,,blood,50662;I 9.2,,,blood,50663;IM-9,,,lymphatic system,50664;J.gamma1,,,blood,50665;J.gamma1.WT,,,blood,50666;J.RT3-T3.5,,,blood,50667;J45.01,,,blood,50668;Jiyoye,,,lymphatic system,50669;JJN-3,,,blood,50670;JKT-beta-del,,,blood,50671;JM1,,,lymphatic system,50672;JSC-1,,,lymphatic system,50673;Jurkat, Clone E6-1,,,blood,50674;JURL-MK1,,,blood,50675;JURL-MK2,,,blood,50676;K-562,,,blood,50677;K562/ADM,,,blood,50678;KARPAS-231,,,blood,50679;KARPAS-299,,,lymphatic system,50680;KARPAS-422,,,lymphatic system,50681;KARPAS-45,,,blood,50682;KARPAS-620,,,blood,50683;KCL-22,,,blood,50685;KE-37,,,blood,50686;KG-1,,,blood,50687;KG-1a,,,blood,50688;KM-H2,,,lymphatic system,50689;KMOE-2,,,blood,50690;KMS-12-BM,,,blood,50691;KMS-12-PE,,,blood,50692;KO52,,,blood,50693;KOPN-8,,,blood,50694;KP-1N,,,pancreas,50695;KP-1NL,,,pancreas,50696;KU812,,,blood,50697;KU812E,,,blood,50698;KU812F,,,blood,50699;KY821,,,blood,50700;KY821A3,,,blood,50701;KYM-1,,,muscle,50702;L-1236,,,lymphatic system,50703;L-363,,,blood,50704;L-428,,,lymphatic system,50705;L-540,,,lymphatic system,50706;LAMA-84,,,blood,50707;LC4-1,,,blood,50708;Loucy,,,blood,50709;LP-1,,,blood,50710;Lu-134-B,,,lung,50711;M059K,,,brain,50712;MC/CAR,,,lymphatic system,50713;MC116,,,lymphatic system,50714;ME-1,,,blood,50715;MEC-1,,,blood,50716;MEC-2,,,blood,50717;MEG-01,,,blood,50718;MHH-NB-11,,,nervous system,50719;MHH-PREB-1,,,lymphatic system,50720;MJ,,,lymphatic system,50721;ML-2,,,blood,50722;MLMA,,,blood,50723;MOLM-13,,,blood,50724;MOLP-8,,,blood,50725;MOLT-14,,,blood,50726;MOLT-16,,,blood,50727;MOLT-4,,,blood,50728;MOLT-4F,,,blood,50729;MONO-MAC-1,,,blood,50730;MONO-MAC-6,,,blood,50731;MRK-nu-1,,,breast,50732;MS-1-L,,,lung,50733;MV-4-11,,,blood,50734;MY,,,blood,50735;MY-M12,,,blood,50736;MY-M13,,,blood,50737;NALM-19,,,blood,50738;NALM-6,,,blood,50739;NAMALWA,,,lymphatic system,50740;NAMALWA.PNT,,,lymphatic system,50741;NB(TU)1-10,,,nervous system,50742;NB-1,,,nervous system,50743;NB-4,,,blood,50744;NC-37,,,lymphatic system,50745;NCI-H1092,,,lung,50746;NCI-H1155,,,lung,50747;NCI-H1304,,,lung,50748;NCI-H1385,,,lung,50749;NCI-H1395,,,lung,50750;NCI-H1404,,,lung,50751;NCI-H1417,,,lung,50752;NCI-H1436,,,lung,50753;NCI-H1522,,,lung,50754;NCI-H1563,,,lung,50755;NCI-H1618,,,lung,50756;NCI-H1666,,,lung,50757;NCI-H1694,,,lung,50758;NCI-H1770,,,lung,50759;NCI-H1836,,,lung,50760;NCI-H1838,,,lung,50761;NCI-H187,,,lung,50762;NCI-H1882,,,lung,50763;NCI-H1963,,,lung,50764;NCI-H1975,,,lung,50765;NCI-H2081,,,lung,50766;NCI-H209,,,lung,50767;NCI-H2106,,,lung,50768;NCI-H211,,,lung,50769;NCI-H2141,,,lung,50770;NCI-H2171,,,lung,50771;NCI-H220,,,lung,50772;NCI-H2227,,,lung,50773;NCI-H226,,,lung,50774;NCI-H345,,,lung,50775;NCI-H446,,,lung,50776;NCI-H510A,,,lung,50777;NCI-H524,,,lung,50778;NCI-H526,,,lung,50779;NCI-H69,,,lung,50780;NCI-H719,,,lung,50781;NCI-H720,,,lung,50782;NCI-H748,,,lung,50783;NCI-H82,,,lung,50784;NCI-H847,,,lung,50785;NCI-H889,,,lung,50786;NEC8,,,testes,50787;NH-12,,,nervous system,50788;NK-92MI,,,lymphatic system,50789;NOMO-1/ADM,,,blood,50790;NU-DUL-1,,,lymphatic system,50791;OCI-AML2,,,blood,50792;OCI-AML3,,,blood,50793;OCI-AML5,,,blood,50794;OCI-LY-19,,,lymphatic system,50795;OCI-M1,,,blood,50796;OPM-2,,,blood,50797;P116.cl39,,,blood,50798;P12-ICHIKAWA,,,blood,50799;P30/OHK,,,blood,50800;P31/FUJ,,,blood,50801;P32/ISH,,,lymphatic system,50802;P3HR-1,,,lymphatic system,50803;PC-3 [JPC-3],,,lung,50804;PEER,,,blood,50805;PF-382,,,blood,50806;Pfeiffer,,,lymphatic system,50807;PL-21,,,blood,50808;PSN1,,,pancreas,50809;Raji,,,lymphatic system,50810;Ramos (RA 1),,,blood,50811;RC-K8,,,lymphatic system,50812;REC-1,,,lymphatic system,50813;Reh,,,blood,50814;RERF-LC-MS,,,lung,50815;RH-1,,,bone,50816;RH-30,,,muscle,50817;RH-41,,,muscle,50818;RL,,,lymphatic system,50819;ROS-50,,,blood,50820;RPMI 1788,,,blood,50821;RPMI 6666,,,lymphatic system,50822;RPMI 8226,,,blood,50823;RPMI-8402,,,blood,50824;RS4;11,,,blood,50825;SBC-1,,,lung,50826;SBC-2,,,lung,50827;SC-1,,,lymphatic system,50828;SCC-3,,,lymphatic system,50829;Sci-1,,,lymphatic system,50830;SIG-M5,,,blood,50831;SIMA,,,nervous system,50832;SK-MEL-1,,,skin,50833;SK-MEL-3,,,skin,50834;SK-N-BE(2),,,nervous system,50835;SK-N-FI,,,nervous system,50836;SLVL,,,lymphatic system,50837;SNB-19,,,brain,50838;SR,,,lymphatic system,50839;ST486,,,lymphatic system,50840;SU-DHL-1,,,lymphatic system,50841;SU-DHL-16,,,lymphatic system,50843;SU-DHL-4,,,lymphatic system,50844;SU-DHL-5,,,lymphatic system,50845;SU-DHL-6,,,lymphatic system,50846;SU-DHL-8,,,lymphatic system,50847;SUP-B15,,,blood,50848;SUP-HD1,,,lymphatic system,50849;SUP-M2,,,lymphatic system,50850;SUP-T1,,,blood,50851;SW 1990,,,pancreas,50853;TALL-1,,,blood,50854;TANOUE,,,blood,50855;TC-71,,,bone,50856;Tera-1,,,testes,50857;TF-1,,,blood,50858;TF-1.CN5a.1,,,blood,50859;TF-1a,,,blood,50860;THP-1,,,blood,50861;TK,,,lymphatic system,50862;Toledo,,,lymphatic system,50863;TT,,,thyroid,50864;TUR,,,lymphatic system,50865;U266B1,,,blood,50866;U-698-M,,,blood,50867;U-87 MG,,,brain,50868;U-937,,,lymphatic system,50869;VAL,,,lymphatic system,50870;WIL2 NS,,,lymphatic system,50871;WILCL,,,blood,50872;WSU-DLCL2,,,lymphatic system,50873;WSU-NHL,,,lymphatic system,50874;YMB-1,,,breast,50875;YT,,,lymphatic system,50876;697.0,,,blood,50877;8-MG-BA,,,brain,50878;A101D,,,skin,50879;A253,,,head &amp; neck,50880;A388,,,miscellaneous,50881;A498,,,kidney,50882;A4-Fuk,,,skin,50883;A704,,,kidney,50884;ACN,,,nervous system,50885;ALL-PO,,,blood,50886;AM-38,,,brain,50887;ATN-1,,,blood,50888;B2-17,,,brain,50889;BB30-HNC,,,head &amp; neck,50890;BB49-HNC,,,head &amp; neck,50891;BB65-RCC,,,kidney,50892;BE-13,,,blood,50893;Becker,,,brain,50894;BOKU,,,cervix,50895;BV-173,,,blood,50896;Calu-6,,,lung,50897;CAS-1,,,brain,50898;CGTH-W-1,,,thyroid,50899;COLO-320-HSR,,,intestine,50900;COLO-668,,,lung,50901;COLO-829,,,skin,50902;CP50-MEL-B,,,skin,50903;CP66-MEL,,,skin,50904;CTB-1,,,lymphatic system,50905;CW-2,,,intestine,50906;D-263MG,,,brain,50908;D-392MG,,,brain,50910;D-423MG,,,brain,50911;D-502MG,,,brain,50912;D-542MG,,,brain,50913;D-566MG,,,brain,50914;DEL,,,blood,50915;DJM-1,,,skin,50916;DOHH-2,,,lymphatic system,50917;DSH1,,,urinary tract,50918;ECC10,,,stomach,50919;ECC4,,,intestine,50921;EC-GI-10,,,esophagus,50922;EKVX,,,lung,50923;EM-2,,,blood,50924;EoL-1-cell,,,blood,50925;ES1,,,bone,50926;ES3,,,bone,50927;ES4,,,bone,50928;ES5,,,bone,50929;ES6,,,bone,50930;ES7,,,bone,50931;ES8,,,bone,50932;ETK-1,,,biliary tract,50933;EW-1,,,bone,50934;EW-11,,,bone,50935;EW-13,,,bone,50936;EW-16,,,bone,50937;EW-18,,,bone,50938;EW-24,,,bone,50939;EW-3,,,bone,50940;EW-7,,,bone,50941;GAK,,,skin,50942;GB-1,,,brain,50943;GCIY,,,stomach,50944;GI-1,,,brain,50945;GI-ME-N,,,nervous system,50946;GR-ST,,,blood,50947;GT3TKB,,,stomach,50948;H9,,,lymphatic system,50949;HA7-RCC,,,kidney,50950;HAL-01,,,blood,50951;HCC2998,,,intestine,50952;HCE-4,,,esophagus,50953;HCE-T,,,head &amp; neck,50954;HOP-62,,,lung,50955;HT-144,,,skin,50956;IMR-5,,,nervous system,50957;IST-MES1,,,pleura,50958;IST-SL1,,,lung,50959;IST-SL2,,,lung,50960;JEG-3,,,miscellaneous,50961;JVM-2,,,blood,50962;JVM-3,,,blood,50963;K5,,,thyroid,50964;KALS-1,,,brain,50965;KGN,,,ovary,50966;KINGS-1,,,brain,50967;KLE,,,uterus,50968;KM12,,,intestine,50969;KNS-42,,,brain,50970;KNS-81-FD,,,brain,50971;KP-N-YN,,,nervous system,50972;KP-N-YS,,,nervous system,50973;KS-1,,,brain,50974;KURAMOCHI,,,ovary,50975;LAN-5,,,nervous system,50976;LAN-6,,,nervous system,50977;LB1047-RCC,,,kidney,50978;LB2241-RCC,,,kidney,50979;LB2518-MEL,,,skin,50980;LB373-MEL-D,,,skin,50981;LB647-SCLC,,,lung,50982;LB771-HNC,,,head &amp; neck,50983;LB831-BLC,,,urinary tract,50984;LB996-RCC,,,kidney,50985;LC-1F,,,lung,50986;LC-2-ad,,,lung,50987;LOXIMVI,,,skin,50988;LS-1034,,,intestine,50989;LS-123,,,intestine,50990;LS-411N,,,intestine,50991;LS-513,,,intestine,50992;LU-134-A,,,lung,50993;LU-139,,,lung,50994;LU-165,,,lung,50995;LXF-289,,,lung,50996;MFH-ino,,,miscellaneous,50997;MHH-CALL-2,,,blood,50998;MMAC-SF,,,skin,50999;MN-60,,,blood,51000;Mo-T,,,blood,51001;MPP-89,,,pleura,51002;MUTZ-1,,,blood,51003;MZ1-PC,,,pancreas,51004;MZ2-MEL,,,skin,51005;MZ7-mel,,,skin,51006;NB10,,,nervous system,51007;NB12,,,nervous system,51008;NB13,,,nervous system,51009;NB14,,,nervous system,51010;NB16,,,nervous system,51011;NB5,,,nervous system,51013;NB6,,,nervous system,51014;NB7,,,nervous system,51015;NBsusSR,,,nervous system,51016;NCI-H1355,,,lung,51017;NCI-H157,,,lung,51018;NCI-H2126,,,lung,51019;NCI-H322M,,,lung,51020;NCI-H64,,,lung,51021;NCI-H716,,,intestine,51022;NCI-H747,,,intestine,51023;NKM-1,,,blood,51024;NMC-G1,,,brain,51025;no-10,,,brain,51026;no-11,,,brain,51027;NOMO-1,,,blood,51028;NOS-1,,,bone,51029;NTERA-S-cl-D1,,,testes,51030;OC-314,,,ovary,51031;OCUB-M,,,breast,51032;OMC-1,,,cervix,51033;ONS-76,,,brain,51034;OS-RC-2,,,kidney,51035;OVCAR-4,,,ovary,51036;QIMR-WIL,,,blood,51037;Ramos-2G6-4C10,,,lymphatic system,51038;RCC10RGB,,,kidney,51039;RF-48,,,stomach,51040;RKO,,,intestine,51041;RPMI-8866,,,blood,51043;RXF393,,,kidney,51044;SF126,,,brain,51045;SF268,,,brain,51046;SF539,,,brain,51047;SH-4,,,skin,51048;SJSA-1,,,bone,51049;SK-MEL-24,,,skin,51050;SK-MEL-5,,,skin,51051;SK-MG-1,,,brain,51052;SK-MM-2,,,blood,51053;SK-PN-DW,,,bone,51054;SK-UT-1,,,uterus,51055;SNU-C1,,,intestine,51056;SNU-C2B,,,intestine,51057;SW403,,,intestine,51058;SW684,,,miscellaneous,51059;SW872,,,miscellaneous,51060;SW954,,,vulva,51061;SW962,,,vulva,51062;SW982,,,miscellaneous,51063;TE-1,,,esophagus,51064;TE-10,,,esophagus,51065;TE-11,,,esophagus,51066;TE-12,,,esophagus,51067;TE-15,,,esophagus,51068;TE-441-T,,,muscle,51069;TE-5,,,esophagus,51070;TE-6,,,esophagus,51071;TE-8,,,esophagus,51072;TE-9,,,esophagus,51073;TGBC11TKB,,,stomach,51074;TGBC1TKB,,,biliary tract,51075;TGBC24TKB,,,biliary tract,51076;TK10,,,kidney,51077;UACC-257,,,skin,51078;VA-ES-BJ,,,miscellaneous,51079;YH-13,,,brain,51080</t>
+  </si>
+  <si>
+    <t>Bryostatin 1,small molecule,10296-101,LSM-6313</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20013/</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 64 nM to 0.25 nM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>5637.0,epithelial,,urinary bladder,50001;647-V,epithelial-like,,urinary bladder,50002;A375.S2,epithelial,,skin,50003;AGS,epithelial,,stomach,50004;BPH-1,epitheloid,,prostate,50005;Ca Ski,epithelial,,cervix,50006;Ca9-22,epithelial-like,,head &amp; neck,50007;CAL-51,epithelial-like,,breast,50008;Calu-1,epithelial,,lung,50009;Calu-3,epithelial,,lung,50010;COLO-679,fibroblastic,,skin,50011;COLO-800,epithelial-like,,skin,50012;FU97,epithelial-like,,stomach,50013;HEC-1,,,uterus,50014;HLF,,,liver,50015;HUTU-80,epithelial,,intestine,50016;IA-LM,,,lung,50017;Ishikawa,epithelial-like,,uterus,50018;Ishikawa (Heraklio) 02 ER-,epithelial,,uterus,50019;IST-MEL1,epithelial-like,,skin,50020;JHH-6,epithelial-like,,liver,50021;KMRC-20,epithelial-like,,kidney,50023;KYSE-140,,,esophagus,50024;KYSE-150,epitheloid,,esophagus,50025;KYSE-180,epitheloid,,esophagus,50026;KYSE-450,epitheloid,,esophagus,50027;LNZTA3WT4,,,brain,50028;MCF7,epithelial,,breast,50029;MDA-MB-435S,melanocyte,,skin,50030;MT-3,epithelial,,breast,50031;NCI-H1648,,,lung,50032;NCI-H1651,epithelial,,lung,50033;NCI-H1703,epithelial,,lung,50034;NCI-H1915,large cell,,lung,50035;NCI-H2023,,,lung,50036;NCI-H810,epithelial,,lung,50037;PE/CA-PJ15,epithelial-like,,head &amp; neck,50039;SJCRH30,fibroblast,,muscle,50041;SK-LMS-1,,,uterus,50042;SK-MES,epithelial,,lung,50043;SK-OV-3,epithelial,,ovary,50044;SNB75,,,brain,50045;SW527,epithelial,,breast,50046;SW620,epithelial,,intestine,50047;T24,epithelial,,urinary bladder,50048;WiDr,epithelial,,intestine,50049;Hep 3B2.1-7,epithelial,,liver,50051;Hep G2,epithelial,,liver,50052;Huh7,,,liver,50055;SK-BR-3,epithelial,,breast,50057;MDA-MB-231,epithelial,,breast,50058;LNCaP,epithelial,,prostate,50059;A-375,epithelial,,skin,50060;HeLa,epithelial,,cervix,50061;1205Lu,,,skin,50062;1321N1,,,brain,50063;143B,,,bone,50064;143B PML BK TK,,,bone,50065;1A6,,,urinary bladder,50066;22RV1,,,prostate,50067;23132/87,,,stomach,50068;42-MG-BA,,,brain,50069;639-V,,,ureter,50071;769-P,,,kidney,50072;786-O,,,kidney,50073;8305C,,,thyroid,50074;8505C,,,thyroid,50075;A172,,,brain,50076;A-204,,,muscle,50077;A2058,,,skin,50078;A2780,,,ovary,50079;A2780ADR,,,ovary,50080;A373-C6,,,skin,50081;A-427,,,lung,50082;A431,,,skin,50083;A549,,,lung,50084;A673,,,muscle,50085;ABC-1,,,lung,50086;ACHN,,,kidney,50087;AN3CA,,,uterus,50088;ASH-3,,,thyroid,50089;AsPC-1,,,pancreas,50090;AU565,,,breast,50091;AZ-521,,,stomach,50092;B-CPAP,,,thyroid,50093;BE(2)-C,,,nervous system,50094;BEN,,,lung,50095;BeWo,,,miscellaneous,50096;BFTC-905,,,urinary bladder,50097;BFTC-909,,,kidney,50098;BHT-101,,,thyroid,50099;BHY,,,head &amp; neck,50100;BICR 10,,,head &amp; neck,50101;BICR 22,,,head &amp; neck,50102;BICR 31,,,head &amp; neck,50103;BICR 78,,,head &amp; neck,50104;BT-20,,,breast,50105;BT-474,,,breast,50106;BT-483,,,breast,50107;BT-549,,,breast,50108;BxPC-3,,,pancreas,50109;C170,,,intestine,50110;C2BBe1,,,intestine,50111;C32,,,skin,50112;C-33 A,,,cervix,50113;C3A,,,liver,50114;C-4 I,,,cervix,50115;C-4 II,,,cervix,50116;Caco-2,,,intestine,50117;Caki-1,,,kidney,50118;CAL 27,,,head &amp; neck,50119;CAL-120,,,breast,50120;CAL-12T,,,lung,50121;CAL-148,,,breast,50122;CAL-29,,,urinary bladder,50123;CAL-33,,,head &amp; neck,50124;CAL-39,,,vulva,50125;CAL-54,,,kidney,50126;CAL-62,,,thyroid,50127;CAL-72,,,bone,50128;CAL-78,,,bone,50129;CAL-85-1,,,breast,50130;CAMA-1,,,breast,50131;Caov-3,,,ovary,50132;Caov-4,,,ovary,50133;Capan-1,,,pancreas,50134;Capan-2,,,pancreas,50135;CaR-1,,,intestine,50136;CCF-STTG1,,,brain,50137;CCK-81,,,intestine,50138;CHP-212,,,nervous system,50139;CoCM-1,,,intestine,50141;COLO 201,,,intestine,50142;COLO 205,,,intestine,50143;COLO 320DM,,,intestine,50144;COLO 741,,,intestine,50145;COLO 792,,,skin,50146;COLO 853,,,skin,50147;COLO 857,,,skin,50148;COLO 858,,,skin,50149;COLO-206F,,,intestine,50150;COLO-320,,,intestine,50151;COLO-678,,,intestine,50152;COLO-680N,,,esophagus,50153;COLO-783,,,skin,50154;COLO-818,,,skin,50155;COLO-824,,,breast,50156;COLO-849,,,skin,50157;COR-L 105,,,lung,50158;COR-L 23/CPR,,,lung,50159;COR-L23,,,lung,50160;DAN-G,,,pancreas,50161;Daoy,,,brain,50162;DBTRG-05MG,,,brain,50163;Detroit 562,,,head &amp; neck,50164;DK-MG,,,brain,50165;DLD-1,,,intestine,50166;DMS 273,,,lung,50167;DMS 53,,,lung,50168;DOK,,,head &amp; neck,50169;DoTc2 4510,,,cervix,50170;DU 145,,,prostate,50171;DV-90,,,lung,50172;EBC-1,,,lung,50173;EFE-184,,,uterus,50174;EFM-19,,,breast,50175;EFM-192A,,,breast,50176;EFM-192B,,,breast,50177;EFM-192C,,,breast,50178;EFO-21,,,ovary,50179;EFO-27,,,ovary,50180;EGI-1,,,biliary tract,50181;EJ138,,,urinary bladder,50182;EN,,,uterus,50183;EPLC-272H,,,lung,50184;ES-2,,,ovary,50185;ESS-1,,,uterus,50186;EVSA-T,,,breast,50187;FaDu,,,head &amp; neck,50188;FLYA13,,,miscellaneous,50189;FTC-133,,,thyroid,50190;FTC-238,,,thyroid,50191;FU-OV-1,,,ovary,50192;G-292 Clone A141B1,,,bone,50193;G-361,,,skin,50194;G-401,,,kidney,50195;G-402,,,kidney,50196;GAMG,,,brain,50197;GCT,,,miscellaneous,50198;GMS-10,,,brain,50199;GOS-3,,,brain,50200;GP5d,,,intestine,50201;H4,,,brain,50202;HARA,,,lung,50204;HCC1143,,,breast,50205;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC-15,,,lung,50209;HCC1569,,,breast,50210;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC-366,,,lung,50215;HCC38,,,breast,50216;HCC-44,,,lung,50217;HCC-56,,,intestine,50218;HCC70,,,breast,50219;HCC-78,,,lung,50220;HCC-827,,,lung,50221;HCT 116,,,intestine,50222;HCT-15,,,intestine,50223;HCT-8,,,intestine,50224;HDQ-P1,,,breast,50225;H-EMC-SS,,,bone,50226;HGC-27,,,stomach,50227;HLE,,,liver,50228;HMVII,,,skin,50229;HN,,,head &amp; neck,50230;HO-1-N-1,,,head &amp; neck,50231;HO-1-u-1,,,head &amp; neck,50232;HOS,,,bone,50233;HPAC,,,pancreas,50234;HPAF-II,,,pancreas,50235;HRT-18,,,intestine,50236;Hs 257.T,,,intestine,50237;Hs 578T,,,breast,50238;Hs 588.T,,,cervix,50239;Hs 633T,,,miscellaneous,50240;Hs 683,,,brain,50241;Hs 746T,,,stomach,50242;Hs 766T,,,pancreas,50243;HSC-2,,,head &amp; neck,50244;HSC-3,,,head &amp; neck,50245;HSC-4,,,head &amp; neck,50246;HT 1080,,,miscellaneous,50247;HT 1376,,,urinary bladder,50248;HT115,,,intestine,50249;HT-1197,,,urinary bladder,50250;HT-29,,,intestine,50251;HT-3,,,cervix,50252;HT55,,,intestine,50253;HTC-C3,,,thyroid,50254;HuCCT1,,,biliary tract,50255;huH-1,,,liver,50256;HuO-3N1,,,bone,50257;HuO9,,,bone,50258;HuO9N2,,,bone,50259;HUP-T3,,,pancreas,50260;HUP-T4,,,pancreas,50261;IGR-1,,,skin,50262;IGR-37,,,skin,50263;IGR-39,,,skin,50264;IHH-4,,,thyroid,50265;IM-95,,,stomach,50266;IM-95m,,,stomach,50267;IMR-32,,,nervous system,50268;IPC-298,,,skin,50269;J82,,,urinary bladder,50270;JAR,,,miscellaneous,50271;JHH-1,,,liver,50272;JHH-2,,,liver,50273;JHH-4,,,liver,50274;JHH-7,,,liver,50275;JIMT-1,,,breast,50276;KELLY,,,nervous system,50277;KG-1-C,,,brain,50278;KHOS/NP,,,bone,50280;KHOS-240S,,,bone,50281;KHOS-312H,,,bone,50282;KMH-2,,,thyroid,50283;KMRC-1,,,kidney,50284;KON,,,head &amp; neck,50285;KOSC-2 cl3-43,,,head &amp; neck,50286;KP-2,,,pancreas,50287;KP-3,,,pancreas,50288;KP-3L,,,pancreas,50289;KP-4,,,pancreas,50290;KPL-1,,,breast,50291;KU-19-19,,,urinary bladder,50292;KYSE-220,,,esophagus,50293;KYSE-270,,,esophagus,50294;KYSE-30,,,esophagus,50295;KYSE-410,,,esophagus,50296;KYSE-50,,,esophagus,50297;KYSE-510,,,esophagus,50298;KYSE-520,,,esophagus,50299;KYSE-70,,,esophagus,50300;LC-1 sq,,,lung,50301;LCLC-103H,,,lung,50302;LCLC-97TM1,,,lung,50303;LK-2,,,lung,50304;LN-18,,,brain,50305;LN-229,,,brain,50306;LN-405,,,brain,50307;LNZTA3WT11,,,brain,50308;LOU-NH91,,,lung,50309;LoVo,,,intestine,50310;LS174T,,,intestine,50311;LS180,,,intestine,50312;Lu-135,,,lung,50314;LU65,,,lung,50315;LU65A,,,lung,50316;LU65B,,,lung,50317;LU65C,,,lung,50318;LU99A,,,lung,50319;LU99B,,,lung,50320;LU99C,,,lung,50321;LUDLU-1,,,lung,50322;M059J,,,brain,50323;MB 157,,,breast,50324;MCAS,,,ovary,50325;MC-IXC,,,nervous system,50326;MDA-MB-134-VI,,,breast,50327;MDA-MB-157,,,breast,50328;MDA-MB-175-VII,,,breast,50329;MDA-MB-330,,,breast,50330;MDA-MB-361,,,breast,50331;MDA-MB-415,,,breast,50332;MDA-MB-436,,,breast,50333;MDA-MB-453,,,breast,50334;MDA-MB-468,,,breast,50335;MDST8,,,intestine,50336;ME-180,,,cervix,50337;MEL-HO,,,skin,50338;MEL-JUSO,,,skin,50339;MES-SA,,,uterus,50340;MES-SA/Dx-5,,,uterus,50341;MEWO,,,skin,50342;MFE-280,,,uterus,50343;MFE-296,,,uterus,50344;MFE-319,,,uterus,50345;MFM-223,,,breast,50346;MG-63,,,bone,50347;MHH-ES-1,,,nervous system,50348;MIA PaCa-2,,,pancreas,50349;MKN1,,,stomach,50350;MKN28,,,stomach,50351;MKN45,,,stomach,50352;MKN7,,,stomach,50353;MKN74,,,stomach,50354;ML-1,,,thyroid,50355;MOG-G-CCM,,,brain,50356;MOG-G-UVW,,,brain,50357;MS751,,,cervix,50358;MSTO-211H,,,pleura,50359;NB69,,,nervous system,50360;NCC-IT-A3,,,testes,50361;NCI-H1048,,,lung,50362;NCI-H1299,,,lung,50363;NCI-H1435,,,lung,50364;NCI-H1437,,,lung,50365;NCI-H1568,,,lung,50366;NCI-H1573,,,lung,50367;NCI-H1581,,,lung,50368;NCI-H1623,,,lung,50369;NCI-H1650,,,lung,50370;NCI-H1688,,,lung,50371;NCI-H1693,,,lung,50372;NCI-H1734,,,lung,50373;NCI-H1755,,,lung,50374;NCI-H1781,,,lung,50375;NCI-H1792,,,lung,50376;NCI-H1793,,,lung,50377;NCI-H1869,,,lung,50378;NCI-H1876,,,lung,50379;NCI-H1944,,,lung,50380;NCI-H196,,,lung,50381;NCI-H1993,,,lung,50382;NCI-H2009,,,lung,50383;NCI-H2029,,,lung,50384;NCI-H2030,,,lung,50385;NCI-H2073,,,lung,50386;NCI-H2085,,,lung,50387;NCI-H2087,,,lung,50388;NCI-H2110,,,lung,50389;NCI-H2122,,,lung,50390;NCI-H2135,,,lung,50391;NCI-H2170,,,lung,50392;NCI-H2172,,,lung,50393;NCI-H2195,,,lung,50394;NCI-H2196,,,lung,50395;NCI-H2198,,,lung,50396;NCI-H2228,,,lung,50397;NCI-H2286,,,lung,50398;NCI-H2291,,,lung,50399;NCI-H23,,,lung,50400;NCI-H2342,,,lung,50401;NCI-H2347,,,lung,50402;NCI-H2405,,,lung,50403;NCI-H2444,,,lung,50404;NCI-H2452,,,lung,50405;NCI-H322,,,lung,50407;NCI-H358,,,lung,50408;NCI-H441,,,lung,50409;NCI-H460,,,lung,50410;NCI-H520,,,lung,50411;NCI-H522,,,lung,50412;NCI-H596,,,lung,50413;NCI-H630,,,intestine,50414;NCI-H647,,,lung,50415;NCI-H650,,,lung,50416;NCI-H661,,,lung,50417;NCI-H727,,,lung,50418;NCI-H838,,,lung,50419;NCI-H841,,,lung,50420;NCI-N87,,,stomach,50421;NIH:OVCAR-3,,,ovary,50422;NUGC-3,,,stomach,50424;NUGC-4,,,stomach,50425;NY,,,bone,50426;OAW28,,,ovary,50427;OAW42,,,ovary,50428;OCUG-1,,,gall bladder,50429;OCUM-1,,,stomach,50430;OE19,,,esophagus,50431;OE21,,,esophagus,50432;OE33,,,esophagus,50433;OSC-19,,,head &amp; neck,50434;OSC-20,,,head &amp; neck,50435;OUMS-23,,,intestine,50436;OV-90,,,ovary,50437;OVISE,,,ovary,50438;OVKATE,,,ovary,50439;OVMIU,,,ovary,50440;OVSAYO,,,ovary,50441;OVTOKO,,,ovary,50442;PA-1,,,ovary,50443;Panc 02.03,,,pancreas,50444;Panc 03.27,,,pancreas,50445;Panc 04.03,,,pancreas,50446;Panc 08.13,,,pancreas,50447;Panc 10.05,,,pancreas,50448;PANC-1,,,pancreas,50449;PA-TU-8902,,,pancreas,50450;PA-TU-8988S,,,pancreas,50451;PA-TU-8988T,,,pancreas,50452;PC-14,,,lung,50453;PC-3,,,prostate,50454;PFSK-1,,,brain,50455;PL45,,,pancreas,50456;PLC/PRF/5,,,liver,50457;RCM-1,,,intestine,50459;RD,,,muscle,50460;RD-ES,,,nervous system,50461;RERF-GC-1B,,,stomach,50462;RERF-LC-Ad1,,,lung,50463;RERF-LC-KJ,,,lung,50464;RERF-LC-MA,,,lung,50465;RERF-LC-Sq1,,,lung,50466;RKN,,,ovary,50467;RMG-I,,,ovary,50468;RO82-W-1,,,thyroid,50469;RPMI 2650,,,head &amp; neck,50470;RPMI-7951,,,skin,50471;RT-112,,,urinary bladder,50472;RT112/84,,,urinary bladder,50473;RT4,,,urinary bladder,50474;RVH-421,,,skin,50475;S-117,,,thyroid,50476;Saos-2,,,bone,50477;SAS,,,head &amp; neck,50478;SAT,,,head &amp; neck,50479;SBC-3,,,lung,50480;SBC-5,,,lung,50481;SCaBER,,,urinary bladder,50482;SCC-15,,,head &amp; neck,50483;SCC-25,,,head &amp; neck,50484;SCC-4,,,head &amp; neck,50485;SCC-9,,,head &amp; neck,50486;SCCH-26,,,nervous system,50488;SCH,,,stomach,50489;SCLC-21H,,,lung,50490;SHP-77,,,lung,50491;SiHa,,,cervix,50493;SISO,,,cervix,50494;SK-CO-1,,,intestine,50495;SK-ES-1,,,bone,50496;SKG-IIIa,,,cervix,50497;SKG-IIIb,,,cervix,50498;SK-HEP-1,,,liver,50499;SK-LU-1,,,lung,50500;SK-MEL-2,,,skin,50501;SK-MEL-30,,,skin,50502;SKN,,,uterus,50503;SKN-3,,,head &amp; neck,50504;SK-N-AS,,,nervous system,50505;SK-N-DZ,,,nervous system,50506;SK-NEP-1,,,kidney,50507;SK-N-SH,,,nervous system,50508;SNG-M,,,uterus,50509;SNU-1,,,stomach,50510;SNU-16,,,stomach,50511;SNU-182,,,liver,50512;SNU-387,,,liver,50513;SNU-398,,,liver,50514;SNU-423,,,liver,50515;SNU-449,,,liver,50516;SNU-475,,,liver,50517;SNU-5,,,stomach,50518;SU.86.86,,,pancreas,50520;SUIT-2,,,pancreas,50521;SW 1088,,,brain,50522;SW 1271,,,lung,50524;SW 13,,,adrenal gland,50525;SW 1417,,,intestine,50526;SW 1463,,,intestine,50527;SW 156,,,kidney,50528;SW 1573,,,lung,50529;SW 1783,,,brain,50530;SW 48,,,intestine,50531;SW 626,,,ovary,50532;SW 780,,,urinary bladder,50533;SW 900,,,lung,50534;SW-1710,,,urinary bladder,50535;SW756,,,cervix,50536;SW837,,,intestine,50537;SW-948,,,intestine,50538;T.T,,,esophagus,50539;T.Tn,,,esophagus,50540;T47D,,,breast,50541;T84,,,intestine,50542;T98G,,,brain,50543;TASK1,,,nervous system,50544;TCCSUP,,,urinary bladder,50545;TGW,,,adrenal gland,50546;TOV-112D,,,ovary,50547;TOV-21G,,,ovary,50548;TT2609-C02,,,thyroid,50549;TYK-nu,,,ovary,50550;U-118 MG,,,brain,50551;U-138 MG,,,brain,50552;U-2 OS,,,bone,50553;U-251 MG,,,brain,50554;U373 MG,,,brain,50555;UACC-812,,,breast,50556;UACC-893,,,breast,50557;UMC-11,,,lung,50558;UM-UC-3,,,urinary bladder,50559;VCaP,,,prostate,50560;VM-CUB1,,,urinary bladder,50561;VMRC-LCP,,,lung,50562;VMRC-MELG,,,skin,50563;VMRC-RCW,,,kidney,50564;VMRC-RCZ,,,kidney,50565;WM 266-4,,,skin,50566;WM-115,,,skin,50567;WM1552C,,,skin,50568;WM278,,,skin,50569;WM35,,,skin,50570;WM793B,,,skin,50571;YAPC,,,pancreas,50572;YKG-1,,,brain,50573;ZR-75-1,,,breast,50574;ZR-75-30,,,breast,50575;DU4475,epithelial,,breast,50577;HCC1187,epithelial,,breast,50578;HCC1500,epithelial,,breast,50579;HCC1599,epithelial,,breast,50580;HCC2157,epithelial,,breast,50581;HCC2218,epithelial,,breast,50582;2B8,,,lymphatic system,50585;A2780cis,,,ovary,50586;A3,,,blood,50587;A3/KAW,,,lymphatic system,50588;AGR-ON,,,blood,50589;ALL-SIL,,,blood,50590;AMO-1,,,lymphatic system,50591;ARH-77,,,blood,50592;BALL-1,,,blood,50593;BC-1,,,lymphatic system,50594;BC-2,,,lymphatic system,50595;BC-3,,,lymphatic system,50596;BDCM,,,blood,50597;BE(2)-M17,,,nervous system,50598;BL-41,,,lymphatic system,50599;BL-70,,,lymphatic system,50600;C8166,,,blood,50601;CA46,,,lymphatic system,50602;CCRF-CEM,,,blood,50603;CCRF-HSB-2,,,blood,50604;CCRF-SB,,,blood,50605;CEM/C1,,,blood,50606;CEM/C2,,,blood,50607;CESS,,,blood,50608;CFPAC-1,,,pancreas,50609;ChaGo-K-1,,,lung,50610;CHP-126,,,nervous system,50611;CI-1,,,lymphatic system,50612;CL-11,,,intestine,50613;Clone 15 HL-60,,,blood,50614;CMK,,,blood,50615;COLO 684,,,uterus,50616;COLO-704,,,ovary,50617;COR-L279,,,lung,50618;COR-L51,,,lung,50619;COR-L88,,,lung,50620;COR-L95,,,lung,50621;CPC-N,,,lung,50622;CTV-1,,,blood,50623;D283 Med,,,brain,50624;Daudi,,,lymphatic system,50625;DB,,,lymphatic system,50626;DERL-2,,,lymphatic system,50627;DG-75,,,lymphatic system,50628;DMS 114,,,lung,50629;DMS 153,,,lung,50630;DMS 79,,,lung,50631;DND-41,,,blood,50632;EB1,,,lymphatic system,50633;EB2,,,lymphatic system,50634;EB-3,,,lymphatic system,50635;EHEB,,,blood,50636;EJM,,,blood,50637;Eos-HL-60,,,blood,50638;Farage,,,lymphatic system,50639;GA-10,,,lymphatic system,50640;GA-10 (Clone 20),,,lymphatic system,50641;GDM-1,,,blood,50642;GOTO,,,nervous system,50643;Gp2D,,,intestine,50644;GRANTA-519,,,lymphatic system,50645;H33HJ-JA1,,,blood,50646;HC-1,,,blood,50647;HCC-33,,,lung,50648;HDLM-2,,,lymphatic system,50649;HD-MY-Z,,,lymphatic system,50650;HEL,,,blood,50651;HEL 92.1.7,,,blood,50652;HH,,,lymphatic system,50653;HL-60,,,blood,50654;HL60(S),,,blood,50655;HL-60/MX2,,,blood,50656;HL60RG,,,blood,50657;Hs 445,,,lymphatic system,50658;HS-Sultan,,,lymphatic system,50659;HT,,,lymphatic system,50660;HuT 78,,,lymphatic system,50661;I 2.1,,,blood,50662;I 9.2,,,blood,50663;IM-9,,,lymphatic system,50664;J.gamma1,,,blood,50665;J.gamma1.WT,,,blood,50666;J.RT3-T3.5,,,blood,50667;J45.01,,,blood,50668;Jiyoye,,,lymphatic system,50669;JJN-3,,,blood,50670;JKT-beta-del,,,blood,50671;JM1,,,lymphatic system,50672;JSC-1,,,lymphatic system,50673;Jurkat, Clone E6-1,,,blood,50674;JURL-MK1,,,blood,50675;JURL-MK2,,,blood,50676;K-562,,,blood,50677;K562/ADM,,,blood,50678;KARPAS-231,,,blood,50679;KARPAS-299,,,lymphatic system,50680;KARPAS-422,,,lymphatic system,50681;KARPAS-45,,,blood,50682;KARPAS-620,,,blood,50683;Kasumi-1,,,blood,50684;KCL-22,,,blood,50685;KE-37,,,blood,50686;KG-1,,,blood,50687;KG-1a,,,blood,50688;KM-H2,,,lymphatic system,50689;KMOE-2,,,blood,50690;KMS-12-BM,,,blood,50691;KMS-12-PE,,,blood,50692;KO52,,,blood,50693;KOPN-8,,,blood,50694;KP-1N,,,pancreas,50695;KP-1NL,,,pancreas,50696;KU812,,,blood,50697;KU812E,,,blood,50698;KU812F,,,blood,50699;KY821,,,blood,50700;KY821A3,,,blood,50701;KYM-1,,,muscle,50702;L-1236,,,lymphatic system,50703;L-363,,,blood,50704;L-428,,,lymphatic system,50705;L-540,,,lymphatic system,50706;LAMA-84,,,blood,50707;LC4-1,,,blood,50708;Loucy,,,blood,50709;LP-1,,,blood,50710;Lu-134-B,,,lung,50711;M059K,,,brain,50712;MC/CAR,,,lymphatic system,50713;MC116,,,lymphatic system,50714;ME-1,,,blood,50715;MEC-1,,,blood,50716;MEC-2,,,blood,50717;MEG-01,,,blood,50718;MHH-NB-11,,,nervous system,50719;MHH-PREB-1,,,lymphatic system,50720;MJ,,,lymphatic system,50721;ML-2,,,blood,50722;MLMA,,,blood,50723;MOLM-13,,,blood,50724;MOLP-8,,,blood,50725;MOLT-14,,,blood,50726;MOLT-16,,,blood,50727;MOLT-4,,,blood,50728;MOLT-4F,,,blood,50729;MONO-MAC-1,,,blood,50730;MONO-MAC-6,,,blood,50731;MRK-nu-1,,,breast,50732;MS-1-L,,,lung,50733;MV-4-11,,,blood,50734;MY,,,blood,50735;MY-M12,,,blood,50736;MY-M13,,,blood,50737;NALM-19,,,blood,50738;NALM-6,,,blood,50739;NAMALWA,,,lymphatic system,50740;NAMALWA.PNT,,,lymphatic system,50741;NB(TU)1-10,,,nervous system,50742;NB-1,,,nervous system,50743;NB-4,,,blood,50744;NC-37,,,lymphatic system,50745;NCI-H1092,,,lung,50746;NCI-H1155,,,lung,50747;NCI-H1304,,,lung,50748;NCI-H1385,,,lung,50749;NCI-H1395,,,lung,50750;NCI-H1404,,,lung,50751;NCI-H1417,,,lung,50752;NCI-H1436,,,lung,50753;NCI-H1522,,,lung,50754;NCI-H1563,,,lung,50755;NCI-H1618,,,lung,50756;NCI-H1666,,,lung,50757;NCI-H1694,,,lung,50758;NCI-H1770,,,lung,50759;NCI-H1836,,,lung,50760;NCI-H1838,,,lung,50761;NCI-H187,,,lung,50762;NCI-H1882,,,lung,50763;NCI-H1963,,,lung,50764;NCI-H1975,,,lung,50765;NCI-H2081,,,lung,50766;NCI-H209,,,lung,50767;NCI-H2106,,,lung,50768;NCI-H211,,,lung,50769;NCI-H2141,,,lung,50770;NCI-H2171,,,lung,50771;NCI-H220,,,lung,50772;NCI-H2227,,,lung,50773;NCI-H226,,,lung,50774;NCI-H345,,,lung,50775;NCI-H446,,,lung,50776;NCI-H510A,,,lung,50777;NCI-H524,,,lung,50778;NCI-H526,,,lung,50779;NCI-H69,,,lung,50780;NCI-H719,,,lung,50781;NCI-H720,,,lung,50782;NCI-H748,,,lung,50783;NCI-H82,,,lung,50784;NCI-H847,,,lung,50785;NCI-H889,,,lung,50786;NEC8,,,testes,50787;NH-12,,,nervous system,50788;NK-92MI,,,lymphatic system,50789;NOMO-1/ADM,,,blood,50790;NU-DUL-1,,,lymphatic system,50791;OCI-AML2,,,blood,50792;OCI-AML3,,,blood,50793;OCI-AML5,,,blood,50794;OCI-LY-19,,,lymphatic system,50795;OCI-M1,,,blood,50796;OPM-2,,,blood,50797;P116.cl39,,,blood,50798;P12-ICHIKAWA,,,blood,50799;P30/OHK,,,blood,50800;P31/FUJ,,,blood,50801;P32/ISH,,,lymphatic system,50802;P3HR-1,,,lymphatic system,50803;PC-3 [JPC-3],,,lung,50804;PEER,,,blood,50805;PF-382,,,blood,50806;Pfeiffer,,,lymphatic system,50807;PL-21,,,blood,50808;PSN1,,,pancreas,50809;Raji,,,lymphatic system,50810;Ramos (RA 1),,,blood,50811;RC-K8,,,lymphatic system,50812;REC-1,,,lymphatic system,50813;Reh,,,blood,50814;RERF-LC-MS,,,lung,50815;RH-1,,,bone,50816;RH-30,,,muscle,50817;RH-41,,,muscle,50818;RL,,,lymphatic system,50819;ROS-50,,,blood,50820;RPMI 1788,,,blood,50821;RPMI 6666,,,lymphatic system,50822;RPMI 8226,,,blood,50823;RPMI-8402,,,blood,50824;RS4;11,,,blood,50825;SBC-1,,,lung,50826;SBC-2,,,lung,50827;SC-1,,,lymphatic system,50828;SCC-3,,,lymphatic system,50829;Sci-1,,,lymphatic system,50830;SIG-M5,,,blood,50831;SIMA,,,nervous system,50832;SK-MEL-1,,,skin,50833;SK-MEL-3,,,skin,50834;SK-N-BE(2),,,nervous system,50835;SK-N-FI,,,nervous system,50836;SLVL,,,lymphatic system,50837;SNB-19,,,brain,50838;SR,,,lymphatic system,50839;ST486,,,lymphatic system,50840;SU-DHL-1,,,lymphatic system,50841;SU-DHL-10,,,lymphatic system,50842;SU-DHL-16,,,lymphatic system,50843;SU-DHL-4,,,lymphatic system,50844;SU-DHL-5,,,lymphatic system,50845;SU-DHL-6,,,lymphatic system,50846;SU-DHL-8,,,lymphatic system,50847;SUP-B15,,,blood,50848;SUP-HD1,,,lymphatic system,50849;SUP-M2,,,lymphatic system,50850;SUP-T1,,,blood,50851;SVG p12,,,brain,50852;SW 1990,,,pancreas,50853;TALL-1,,,blood,50854;TANOUE,,,blood,50855;TC-71,,,bone,50856;Tera-1,,,testes,50857;TF-1,,,blood,50858;TF-1.CN5a.1,,,blood,50859;TF-1a,,,blood,50860;THP-1,,,blood,50861;TK,,,lymphatic system,50862;Toledo,,,lymphatic system,50863;TT,,,thyroid,50864;TUR,,,lymphatic system,50865;U266B1,,,blood,50866;U-698-M,,,blood,50867;U-87 MG,,,brain,50868;U-937,,,lymphatic system,50869;VAL,,,lymphatic system,50870;WIL2 NS,,,lymphatic system,50871;WILCL,,,blood,50872;WSU-DLCL2,,,lymphatic system,50873;WSU-NHL,,,lymphatic system,50874;YMB-1,,,breast,50875;YT,,,lymphatic system,50876;697.0,,,blood,50877;8-MG-BA,,,brain,50878;A101D,,,skin,50879;A253,,,head &amp; neck,50880;A388,,,miscellaneous,50881;A498,,,kidney,50882;A4-Fuk,,,skin,50883;A704,,,kidney,50884;ACN,,,nervous system,50885;ALL-PO,,,blood,50886;AM-38,,,brain,50887;ATN-1,,,blood,50888;B2-17,,,brain,50889;BB30-HNC,,,head &amp; neck,50890;BB49-HNC,,,head &amp; neck,50891;BB65-RCC,,,kidney,50892;BE-13,,,blood,50893;Becker,,,brain,50894;BOKU,,,cervix,50895;BV-173,,,blood,50896;Calu-6,,,lung,50897;CAS-1,,,brain,50898;CGTH-W-1,,,thyroid,50899;COLO-320-HSR,,,intestine,50900;COLO-668,,,lung,50901;COLO-829,,,skin,50902;CP50-MEL-B,,,skin,50903;CP66-MEL,,,skin,50904;CTB-1,,,lymphatic system,50905;CW-2,,,intestine,50906;D-247MG,,,brain,50907;D-263MG,,,brain,50908;D-336MG,,,brain,50909;D-392MG,,,brain,50910;D-423MG,,,brain,50911;D-502MG,,,brain,50912;D-542MG,,,brain,50913;D-566MG,,,brain,50914;DEL,,,blood,50915;DJM-1,,,skin,50916;DOHH-2,,,lymphatic system,50917;DSH1,,,urinary tract,50918;ECC10,,,stomach,50919;ECC12,,,stomach,50920;ECC4,,,intestine,50921;EC-GI-10,,,esophagus,50922;EKVX,,,lung,50923;EM-2,,,blood,50924;EoL-1-cell,,,blood,50925;ES1,,,bone,50926;ES3,,,bone,50927;ES4,,,bone,50928;ES5,,,bone,50929;ES6,,,bone,50930;ES7,,,bone,50931;ES8,,,bone,50932;ETK-1,,,biliary tract,50933;EW-1,,,bone,50934;EW-11,,,bone,50935;EW-13,,,bone,50936;EW-16,,,bone,50937;EW-18,,,bone,50938;EW-24,,,bone,50939;EW-3,,,bone,50940;EW-7,,,bone,50941;GAK,,,skin,50942;GB-1,,,brain,50943;GCIY,,,stomach,50944;GI-1,,,brain,50945;GI-ME-N,,,nervous system,50946;GR-ST,,,blood,50947;GT3TKB,,,stomach,50948;H9,,,lymphatic system,50949;HA7-RCC,,,kidney,50950;HAL-01,,,blood,50951;HCC2998,,,intestine,50952;HCE-4,,,esophagus,50953;HCE-T,,,head &amp; neck,50954;HOP-62,,,lung,50955;HT-144,,,skin,50956;IMR-5,,,nervous system,50957;IST-MES1,,,pleura,50958;IST-SL1,,,lung,50959;IST-SL2,,,lung,50960;JEG-3,,,miscellaneous,50961;JVM-2,,,blood,50962;JVM-3,,,blood,50963;K5,,,thyroid,50964;KALS-1,,,brain,50965;KGN,,,ovary,50966;KINGS-1,,,brain,50967;KLE,,,uterus,50968;KM12,,,intestine,50969;KNS-42,,,brain,50970;KNS-81-FD,,,brain,50971;KP-N-YN,,,nervous system,50972;KP-N-YS,,,nervous system,50973;KS-1,,,brain,50974;KURAMOCHI,,,ovary,50975;LAN-5,,,nervous system,50976;LAN-6,,,nervous system,50977;LB1047-RCC,,,kidney,50978;LB2241-RCC,,,kidney,50979;LB2518-MEL,,,skin,50980;LB373-MEL-D,,,skin,50981;LB647-SCLC,,,lung,50982;LB771-HNC,,,head &amp; neck,50983;LB831-BLC,,,urinary tract,50984;LB996-RCC,,,kidney,50985;LC-1F,,,lung,50986;LC-2-ad,,,lung,50987;LOXIMVI,,,skin,50988;LS-1034,,,intestine,50989;LS-123,,,intestine,50990;LS-411N,,,intestine,50991;LS-513,,,intestine,50992;LU-134-A,,,lung,50993;LU-139,,,lung,50994;LU-165,,,lung,50995;LXF-289,,,lung,50996;MFH-ino,,,miscellaneous,50997;MHH-CALL-2,,,blood,50998;MMAC-SF,,,skin,50999;MN-60,,,blood,51000;Mo-T,,,blood,51001;MPP-89,,,pleura,51002;MUTZ-1,,,blood,51003;MZ1-PC,,,pancreas,51004;MZ2-MEL,,,skin,51005;MZ7-mel,,,skin,51006;NB10,,,nervous system,51007;NB12,,,nervous system,51008;NB13,,,nervous system,51009;NB14,,,nervous system,51010;NB16,,,nervous system,51011;NB17,,,nervous system,51012;NB5,,,nervous system,51013;NB6,,,nervous system,51014;NB7,,,nervous system,51015;NBsusSR,,,nervous system,51016;NCI-H1355,,,lung,51017;NCI-H157,,,lung,51018;NCI-H2126,,,lung,51019;NCI-H322M,,,lung,51020;NCI-H64,,,lung,51021;NCI-H716,,,intestine,51022;NCI-H747,,,intestine,51023;NKM-1,,,blood,51024;NMC-G1,,,brain,51025;no-10,,,brain,51026;no-11,,,brain,51027;NOMO-1,,,blood,51028;NOS-1,,,bone,51029;NTERA-S-cl-D1,,,testes,51030;OC-314,,,ovary,51031;OCUB-M,,,breast,51032;OMC-1,,,cervix,51033;ONS-76,,,brain,51034;OS-RC-2,,,kidney,51035;OVCAR-4,,,ovary,51036;QIMR-WIL,,,blood,51037;Ramos-2G6-4C10,,,lymphatic system,51038;RCC10RGB,,,kidney,51039;RF-48,,,stomach,51040;RKO,,,intestine,51041;RL95-2,,,uterus,51042;RPMI-8866,,,blood,51043;RXF393,,,kidney,51044;SF126,,,brain,51045;SF268,,,brain,51046;SF539,,,brain,51047;SH-4,,,skin,51048;SJSA-1,,,bone,51049;SK-MEL-24,,,skin,51050;SK-MEL-5,,,skin,51051;SK-MG-1,,,brain,51052;SK-MM-2,,,blood,51053;SK-PN-DW,,,bone,51054;SK-UT-1,,,uterus,51055;SNU-C1,,,intestine,51056;SNU-C2B,,,intestine,51057;SW403,,,intestine,51058;SW684,,,miscellaneous,51059;SW872,,,miscellaneous,51060;SW954,,,vulva,51061;SW962,,,vulva,51062;SW982,,,miscellaneous,51063;TE-1,,,esophagus,51064;TE-10,,,esophagus,51065;TE-11,,,esophagus,51066;TE-12,,,esophagus,51067;TE-15,,,esophagus,51068;TE-441-T,,,muscle,51069;TE-5,,,esophagus,51070;TE-6,,,esophagus,51071;TE-8,,,esophagus,51072;TE-9,,,esophagus,51073;TGBC11TKB,,,stomach,51074;TGBC1TKB,,,biliary tract,51075;TGBC24TKB,,,biliary tract,51076;TK10,,,kidney,51077;UACC-257,,,skin,51078;VA-ES-BJ,,,miscellaneous,51079;YH-13,,,brain,51080</t>
+  </si>
+  <si>
+    <t>Vinorelbine,small molecule,10281-101,LSM-6302</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20014/</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 16 uM to 0.0625 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>A375.S2,epithelial,,skin,50003;CAL-51,epithelial-like,,breast,50008;Calu-1,epithelial,,lung,50009;Calu-3,epithelial,,lung,50010;COLO-800,epithelial-like,,skin,50012;FU97,epithelial-like,,stomach,50013;HUTU-80,epithelial,,intestine,50016;IA-LM,,,lung,50017;IST-MEL1,epithelial-like,,skin,50020;KMRC-20,epithelial-like,,kidney,50023;KYSE-150,epitheloid,,esophagus,50025;LNZTA3WT4,,,brain,50028;MCF7,epithelial,,breast,50029;MDA-MB-435S,melanocyte,,skin,50030;MT-3,epithelial,,breast,50031;NCI-H1648,,,lung,50032;NCI-H1651,epithelial,,lung,50033;NCI-H1703,epithelial,,lung,50034;NCI-H1915,large cell,,lung,50035;NCI-H2023,,,lung,50036;NCI-H810,epithelial,,lung,50037;PE/CA-PJ15,epithelial-like,,head &amp; neck,50039;SJCRH30,fibroblast,,muscle,50041;SK-MES,epithelial,,lung,50043;SK-OV-3,epithelial,,ovary,50044;SNB75,,,brain,50045;SW527,epithelial,,breast,50046;SW620,epithelial,,intestine,50047;Hep G2,epithelial,,liver,50052;SK-BR-3,epithelial,,breast,50057;MDA-MB-231,epithelial,,breast,50058;A-375,epithelial,,skin,50060;HeLa,epithelial,,cervix,50061;1321N1,,,brain,50063;143B,,,bone,50064;143B PML BK TK,,,bone,50065;42-MG-BA,,,brain,50069;639-V,,,ureter,50071;769-P,,,kidney,50072;786-O,,,kidney,50073;A172,,,brain,50076;A2058,,,skin,50078;A2780,,,ovary,50079;A2780ADR,,,ovary,50080;A373-C6,,,skin,50081;A-427,,,lung,50082;A431,,,skin,50083;A549,,,lung,50084;A673,,,muscle,50085;ABC-1,,,lung,50086;ACHN,,,kidney,50087;ASH-3,,,thyroid,50089;AsPC-1,,,pancreas,50090;AU565,,,breast,50091;BE(2)-C,,,nervous system,50094;BEN,,,lung,50095;BFTC-905,,,urinary bladder,50097;BFTC-909,,,kidney,50098;BT-20,,,breast,50105;BT-474,,,breast,50106;BT-483,,,breast,50107;BT-549,,,breast,50108;BxPC-3,,,pancreas,50109;C2BBe1,,,intestine,50111;C32,,,skin,50112;C-33 A,,,cervix,50113;Caco-2,,,intestine,50117;Caki-1,,,kidney,50118;CAL-120,,,breast,50120;CAL-12T,,,lung,50121;CAL-148,,,breast,50122;CAL-54,,,kidney,50126;CAL-72,,,bone,50128;CAL-78,,,bone,50129;CAL-85-1,,,breast,50130;CAMA-1,,,breast,50131;Caov-3,,,ovary,50132;Capan-1,,,pancreas,50134;Capan-2,,,pancreas,50135;CaR-1,,,intestine,50136;CCF-STTG1,,,brain,50137;CCK-81,,,intestine,50138;CHP-212,,,nervous system,50139;COLO 205,,,intestine,50143;COLO 320DM,,,intestine,50144;COLO 741,,,intestine,50145;COLO 792,,,skin,50146;COLO 853,,,skin,50147;COLO 857,,,skin,50148;COLO 858,,,skin,50149;COLO-206F,,,intestine,50150;COLO-320,,,intestine,50151;COLO-678,,,intestine,50152;COLO-783,,,skin,50154;COLO-818,,,skin,50155;COLO-824,,,breast,50156;COR-L 105,,,lung,50158;COR-L 23/CPR,,,lung,50159;COR-L23,,,lung,50160;DAN-G,,,pancreas,50161;Daoy,,,brain,50162;DBTRG-05MG,,,brain,50163;DK-MG,,,brain,50165;DLD-1,,,intestine,50166;DMS 273,,,lung,50167;DMS 53,,,lung,50168;DoTc2 4510,,,cervix,50170;DV-90,,,lung,50172;EBC-1,,,lung,50173;EFM-19,,,breast,50175;EFM-192A,,,breast,50176;EFM-192B,,,breast,50177;EFM-192C,,,breast,50178;EFO-21,,,ovary,50179;EFO-27,,,ovary,50180;EGI-1,,,biliary tract,50181;EN,,,uterus,50183;EPLC-272H,,,lung,50184;ES-2,,,ovary,50185;EVSA-T,,,breast,50187;FaDu,,,head &amp; neck,50188;FU-OV-1,,,ovary,50192;G-292 Clone A141B1,,,bone,50193;G-361,,,skin,50194;G-401,,,kidney,50195;G-402,,,kidney,50196;GAMG,,,brain,50197;GMS-10,,,brain,50199;GOS-3,,,brain,50200;GP5d,,,intestine,50201;H4,,,brain,50202;HARA,,,lung,50204;HCC1143,,,breast,50205;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC-15,,,lung,50209;HCC1569,,,breast,50210;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC202,,,breast,50214;HCC-366,,,lung,50215;HCC38,,,breast,50216;HCC-44,,,lung,50217;HCC-56,,,intestine,50218;HCC70,,,breast,50219;HCC-78,,,lung,50220;HCC-827,,,lung,50221;HCT 116,,,intestine,50222;HCT-15,,,intestine,50223;HDQ-P1,,,breast,50225;HLE,,,liver,50228;HMVII,,,skin,50229;HN,,,head &amp; neck,50230;HO-1-u-1,,,head &amp; neck,50232;HOS,,,bone,50233;HPAC,,,pancreas,50234;HPAF-II,,,pancreas,50235;Hs 578T,,,breast,50238;Hs 683,,,brain,50241;Hs 766T,,,pancreas,50243;HSC-4,,,head &amp; neck,50246;HT 1376,,,urinary bladder,50248;HT-29,,,intestine,50251;HT-3,,,cervix,50252;HT55,,,intestine,50253;HuCCT1,,,biliary tract,50255;HuO-3N1,,,bone,50257;HuO9,,,bone,50258;HuO9N2,,,bone,50259;HUP-T3,,,pancreas,50260;HUP-T4,,,pancreas,50261;IGR-1,,,skin,50262;IGR-37,,,skin,50263;IGR-39,,,skin,50264;IHH-4,,,thyroid,50265;IM-95,,,stomach,50266;IPC-298,,,skin,50269;J82,,,urinary bladder,50270;JHH-1,,,liver,50272;JHH-2,,,liver,50273;JHH-4,,,liver,50274;JHH-7,,,liver,50275;JIMT-1,,,breast,50276;KG-1-C,,,brain,50278;KHOS/NP,,,bone,50280;KHOS-240S,,,bone,50281;KHOS-312H,,,bone,50282;KMH-2,,,thyroid,50283;KMRC-1,,,kidney,50284;KP-2,,,pancreas,50287;KP-3,,,pancreas,50288;KP-3L,,,pancreas,50289;KP-4,,,pancreas,50290;KPL-1,,,breast,50291;KU-19-19,,,urinary bladder,50292;KYSE-220,,,esophagus,50293;KYSE-410,,,esophagus,50296;KYSE-510,,,esophagus,50298;LC-1 sq,,,lung,50301;LCLC-103H,,,lung,50302;LCLC-97TM1,,,lung,50303;LK-2,,,lung,50304;LN-18,,,brain,50305;LN-229,,,brain,50306;LN-405,,,brain,50307;LNZTA3WT11,,,brain,50308;LOU-NH91,,,lung,50309;LoVo,,,intestine,50310;LS174T,,,intestine,50311;LS180,,,intestine,50312;LU65,,,lung,50315;LU65A,,,lung,50316;LU65B,,,lung,50317;LU65C,,,lung,50318;LU99A,,,lung,50319;LU99B,,,lung,50320;LU99C,,,lung,50321;LUDLU-1,,,lung,50322;M059J,,,brain,50323;MB 157,,,breast,50324;MCAS,,,ovary,50325;MDA-MB-134-VI,,,breast,50327;MDA-MB-157,,,breast,50328;MDA-MB-175-VII,,,breast,50329;MDA-MB-330,,,breast,50330;MDA-MB-361,,,breast,50331;MDA-MB-415,,,breast,50332;MDA-MB-436,,,breast,50333;MDA-MB-453,,,breast,50334;MDA-MB-468,,,breast,50335;MEL-HO,,,skin,50338;MEL-JUSO,,,skin,50339;MES-SA,,,uterus,50340;MES-SA/Dx-5,,,uterus,50341;MEWO,,,skin,50342;MFE-319,,,uterus,50345;MFM-223,,,breast,50346;MG-63,,,bone,50347;MHH-ES-1,,,nervous system,50348;MIA PaCa-2,,,pancreas,50349;ML-1,,,thyroid,50355;MOG-G-CCM,,,brain,50356;MOG-G-UVW,,,brain,50357;MS751,,,cervix,50358;NB69,,,nervous system,50360;NCI-H1048,,,lung,50362;NCI-H1299,,,lung,50363;NCI-H1435,,,lung,50364;NCI-H1437,,,lung,50365;NCI-H1568,,,lung,50366;NCI-H1573,,,lung,50367;NCI-H1581,,,lung,50368;NCI-H1623,,,lung,50369;NCI-H1650,,,lung,50370;NCI-H1688,,,lung,50371;NCI-H1693,,,lung,50372;NCI-H1734,,,lung,50373;NCI-H1781,,,lung,50375;NCI-H1792,,,lung,50376;NCI-H1793,,,lung,50377;NCI-H1869,,,lung,50378;NCI-H1876,,,lung,50379;NCI-H1944,,,lung,50380;NCI-H196,,,lung,50381;NCI-H1993,,,lung,50382;NCI-H2009,,,lung,50383;NCI-H2030,,,lung,50385;NCI-H2073,,,lung,50386;NCI-H2085,,,lung,50387;NCI-H2087,,,lung,50388;NCI-H2110,,,lung,50389;NCI-H2122,,,lung,50390;NCI-H2170,,,lung,50392;NCI-H2172,,,lung,50393;NCI-H2196,,,lung,50395;NCI-H2198,,,lung,50396;NCI-H2228,,,lung,50397;NCI-H2286,,,lung,50398;NCI-H2291,,,lung,50399;NCI-H23,,,lung,50400;NCI-H2347,,,lung,50402;NCI-H2405,,,lung,50403;NCI-H2444,,,lung,50404;NCI-H2452,,,lung,50405;NCI-H322,,,lung,50407;NCI-H358,,,lung,50408;NCI-H441,,,lung,50409;NCI-H460,,,lung,50410;NCI-H520,,,lung,50411;NCI-H522,,,lung,50412;NCI-H596,,,lung,50413;NCI-H630,,,intestine,50414;NCI-H647,,,lung,50415;NCI-H650,,,lung,50416;NCI-H661,,,lung,50417;NCI-H727,,,lung,50418;NCI-H838,,,lung,50419;NCI-H841,,,lung,50420;NIH:OVCAR-3,,,ovary,50422;NUGC-2,,,stomach,50423;NY,,,bone,50426;OAW28,,,ovary,50427;OAW42,,,ovary,50428;OCUG-1,,,gall bladder,50429;OCUM-1,,,stomach,50430;OE21,,,esophagus,50432;OSC-20,,,head &amp; neck,50435;OUMS-23,,,intestine,50436;OV-90,,,ovary,50437;OVISE,,,ovary,50438;OVKATE,,,ovary,50439;OVMIU,,,ovary,50440;OVSAYO,,,ovary,50441;OVTOKO,,,ovary,50442;PA-1,,,ovary,50443;Panc 02.03,,,pancreas,50444;Panc 03.27,,,pancreas,50445;Panc 04.03,,,pancreas,50446;Panc 08.13,,,pancreas,50447;Panc 10.05,,,pancreas,50448;PANC-1,,,pancreas,50449;PA-TU-8902,,,pancreas,50450;PA-TU-8988S,,,pancreas,50451;PA-TU-8988T,,,pancreas,50452;PC-14,,,lung,50453;PC-3,,,prostate,50454;PFSK-1,,,brain,50455;PL45,,,pancreas,50456;QGP-1,,,pancreas,50458;RCM-1,,,intestine,50459;RD-ES,,,nervous system,50461;RERF-GC-1B,,,stomach,50462;RERF-LC-Ad1,,,lung,50463;RERF-LC-KJ,,,lung,50464;RERF-LC-MA,,,lung,50465;RERF-LC-Sq1,,,lung,50466;RKN,,,ovary,50467;RMG-I,,,ovary,50468;RPMI-7951,,,skin,50471;RT4,,,urinary bladder,50474;RVH-421,,,skin,50475;Saos-2,,,bone,50477;SAS,,,head &amp; neck,50478;SBC-3,,,lung,50480;SBC-5,,,lung,50481;SCaBER,,,urinary bladder,50482;SCC-15,,,head &amp; neck,50483;SCLC-21H,,,lung,50490;SHP-77,,,lung,50491;SiHa,,,cervix,50493;SISO,,,cervix,50494;SK-CO-1,,,intestine,50495;SK-ES-1,,,bone,50496;SKG-IIIa,,,cervix,50497;SK-LU-1,,,lung,50500;SK-MEL-2,,,skin,50501;SK-MEL-30,,,skin,50502;SKN,,,uterus,50503;SK-N-AS,,,nervous system,50505;SNG-M,,,uterus,50509;SNU-182,,,liver,50512;SNU-449,,,liver,50516;SU.86.86,,,pancreas,50520;SUIT-2,,,pancreas,50521;SW 1088,,,brain,50522;SW 1116,,,intestine,50523;SW 1271,,,lung,50524;SW 13,,,adrenal gland,50525;SW 1417,,,intestine,50526;SW 1463,,,intestine,50527;SW 156,,,kidney,50528;SW 1573,,,lung,50529;SW 1783,,,brain,50530;SW 48,,,intestine,50531;SW 626,,,ovary,50532;SW 780,,,urinary bladder,50533;SW 900,,,lung,50534;SW837,,,intestine,50537;SW-948,,,intestine,50538;T47D,,,breast,50541;T84,,,intestine,50542;T98G,,,brain,50543;TOV-112D,,,ovary,50547;TOV-21G,,,ovary,50548;TYK-nu,,,ovary,50550;U-118 MG,,,brain,50551;U-138 MG,,,brain,50552;U-2 OS,,,bone,50553;U-251 MG,,,brain,50554;U373 MG,,,brain,50555;UACC-812,,,breast,50556;UACC-893,,,breast,50557;UMC-11,,,lung,50558;UM-UC-3,,,urinary bladder,50559;VM-CUB1,,,urinary bladder,50561;VMRC-LCP,,,lung,50562;VMRC-RCW,,,kidney,50564;VMRC-RCZ,,,kidney,50565;WM 266-4,,,skin,50566;WM-115,,,skin,50567;WM1552C,,,skin,50568;WM278,,,skin,50569;WM35,,,skin,50570;WM793B,,,skin,50571;YAPC,,,pancreas,50572;YKG-1,,,brain,50573;ZR-75-1,,,breast,50574;ZR-75-30,,,breast,50575;DU4475,epithelial,,breast,50577;HCC1187,epithelial,,breast,50578;HCC1500,epithelial,,breast,50579;HCC1599,epithelial,,breast,50580;HCC2157,epithelial,,breast,50581;HCC2218,epithelial,,breast,50582;A3/KAW,,,lymphatic system,50588;AGR-ON,,,blood,50589;ALL-SIL,,,blood,50590;AMO-1,,,lymphatic system,50591;ARH-77,,,blood,50592;BALL-1,,,blood,50593;BC-2,,,lymphatic system,50595;BC-3,,,lymphatic system,50596;BDCM,,,blood,50597;BL-41,,,lymphatic system,50599;BL-70,,,lymphatic system,50600;C8166,,,blood,50601;CA46,,,lymphatic system,50602;CCRF-CEM,,,blood,50603;CCRF-HSB-2,,,blood,50604;CCRF-SB,,,blood,50605;CEM/C1,,,blood,50606;CEM/C2,,,blood,50607;CESS,,,blood,50608;CFPAC-1,,,pancreas,50609;ChaGo-K-1,,,lung,50610;CI-1,,,lymphatic system,50612;Clone 15 HL-60,,,blood,50614;CMK,,,blood,50615;COLO-704,,,ovary,50617;COR-L279,,,lung,50618;COR-L88,,,lung,50620;COR-L95,,,lung,50621;CPC-N,,,lung,50622;CTV-1,,,blood,50623;D283 Med,,,brain,50624;Daudi,,,lymphatic system,50625;DB,,,lymphatic system,50626;DERL-2,,,lymphatic system,50627;DG-75,,,lymphatic system,50628;DMS 114,,,lung,50629;DMS 79,,,lung,50631;DND-41,,,blood,50632;EB1,,,lymphatic system,50633;EB2,,,lymphatic system,50634;EB-3,,,lymphatic system,50635;EJM,,,blood,50637;Eos-HL-60,,,blood,50638;Farage,,,lymphatic system,50639;GA-10 (Clone 20),,,lymphatic system,50641;GDM-1,,,blood,50642;GRANTA-519,,,lymphatic system,50645;H33HJ-JA1,,,blood,50646;HC-1,,,blood,50647;HCC-33,,,lung,50648;HDLM-2,,,lymphatic system,50649;HD-MY-Z,,,lymphatic system,50650;HEL,,,blood,50651;HEL 92.1.7,,,blood,50652;HH,,,lymphatic system,50653;HL-60,,,blood,50654;HL60(S),,,blood,50655;HL-60/MX2,,,blood,50656;HL60RG,,,blood,50657;Hs 445,,,lymphatic system,50658;HS-Sultan,,,lymphatic system,50659;HT,,,lymphatic system,50660;HuT 78,,,lymphatic system,50661;I 2.1,,,blood,50662;J.gamma1,,,blood,50665;J.gamma1.WT,,,blood,50666;J.RT3-T3.5,,,blood,50667;J45.01,,,blood,50668;Jiyoye,,,lymphatic system,50669;JJN-3,,,blood,50670;JKT-beta-del,,,blood,50671;JSC-1,,,lymphatic system,50673;JURL-MK1,,,blood,50675;JURL-MK2,,,blood,50676;K-562,,,blood,50677;K562/ADM,,,blood,50678;KARPAS-299,,,lymphatic system,50680;KARPAS-422,,,lymphatic system,50681;KARPAS-45,,,blood,50682;KARPAS-620,,,blood,50683;Kasumi-1,,,blood,50684;KCL-22,,,blood,50685;KE-37,,,blood,50686;KG-1,,,blood,50687;KG-1a,,,blood,50688;KM-H2,,,lymphatic system,50689;KMOE-2,,,blood,50690;KMS-12-BM,,,blood,50691;KMS-12-PE,,,blood,50692;KO52,,,blood,50693;KOPN-8,,,blood,50694;KP-1N,,,pancreas,50695;KP-1NL,,,pancreas,50696;KU812,,,blood,50697;KU812E,,,blood,50698;KU812F,,,blood,50699;KY821,,,blood,50700;KY821A3,,,blood,50701;L-1236,,,lymphatic system,50703;L-363,,,blood,50704;L-428,,,lymphatic system,50705;L-540,,,lymphatic system,50706;LAMA-84,,,blood,50707;LC4-1,,,blood,50708;Loucy,,,blood,50709;LP-1,,,blood,50710;M059K,,,brain,50712;MC/CAR,,,lymphatic system,50713;MC116,,,lymphatic system,50714;ME-1,,,blood,50715;MEC-1,,,blood,50716;MEC-2,,,blood,50717;MEG-01,,,blood,50718;MHH-PREB-1,,,lymphatic system,50720;MJ,,,lymphatic system,50721;ML-2,,,blood,50722;MLMA,,,blood,50723;MOLM-13,,,blood,50724;MOLP-8,,,blood,50725;MOLT-14,,,blood,50726;MOLT-16,,,blood,50727;MOLT-4,,,blood,50728;MOLT-4F,,,blood,50729;MONO-MAC-1,,,blood,50730;MONO-MAC-6,,,blood,50731;MRK-nu-1,,,breast,50732;MS-1-L,,,lung,50733;MV-4-11,,,blood,50734;MY,,,blood,50735;MY-M13,,,blood,50737;NALM-19,,,blood,50738;NALM-6,,,blood,50739;NAMALWA,,,lymphatic system,50740;NAMALWA.PNT,,,lymphatic system,50741;NB-4,,,blood,50744;NC-37,,,lymphatic system,50745;NCI-H1155,,,lung,50747;NCI-H1385,,,lung,50749;NCI-H1395,,,lung,50750;NCI-H1417,,,lung,50752;NCI-H1436,,,lung,50753;NCI-H1563,,,lung,50755;NCI-H1666,,,lung,50757;NCI-H1694,,,lung,50758;NCI-H1770,,,lung,50759;NCI-H1836,,,lung,50760;NCI-H1838,,,lung,50761;NCI-H1882,,,lung,50763;NCI-H1975,,,lung,50765;NCI-H211,,,lung,50769;NCI-H2171,,,lung,50771;NCI-H226,,,lung,50774;NCI-H446,,,lung,50776;NCI-H524,,,lung,50778;NCI-H526,,,lung,50779;NCI-H720,,,lung,50782;NCI-H847,,,lung,50785;NOMO-1/ADM,,,blood,50790;NU-DUL-1,,,lymphatic system,50791;OCI-AML2,,,blood,50792;OCI-AML3,,,blood,50793;OCI-AML5,,,blood,50794;OCI-LY-19,,,lymphatic system,50795;OCI-M1,,,blood,50796;OPM-2,,,blood,50797;P116.cl39,,,blood,50798;P12-ICHIKAWA,,,blood,50799;P30/OHK,,,blood,50800;P31/FUJ,,,blood,50801;P3HR-1,,,lymphatic system,50803;PC-3 [JPC-3],,,lung,50804;PEER,,,blood,50805;PF-382,,,blood,50806;Pfeiffer,,,lymphatic system,50807;PL-21,,,blood,50808;PSN1,,,pancreas,50809;Raji,,,lymphatic system,50810;Ramos (RA 1),,,blood,50811;RC-K8,,,lymphatic system,50812;REC-1,,,lymphatic system,50813;Reh,,,blood,50814;RH-30,,,muscle,50817;RL,,,lymphatic system,50819;ROS-50,,,blood,50820;RPMI 6666,,,lymphatic system,50822;RPMI 8226,,,blood,50823;RPMI-8402,,,blood,50824;RS4;11,,,blood,50825;SBC-2,,,lung,50827;SCC-3,,,lymphatic system,50829;Sci-1,,,lymphatic system,50830;SIG-M5,,,blood,50831;SK-MEL-1,,,skin,50833;SK-MEL-3,,,skin,50834;SLVL,,,lymphatic system,50837;SR,,,lymphatic system,50839;ST486,,,lymphatic system,50840;SU-DHL-1,,,lymphatic system,50841;SU-DHL-10,,,lymphatic system,50842;SU-DHL-16,,,lymphatic system,50843;SU-DHL-4,,,lymphatic system,50844;SU-DHL-5,,,lymphatic system,50845;SU-DHL-6,,,lymphatic system,50846;SU-DHL-8,,,lymphatic system,50847;SUP-B15,,,blood,50848;SUP-HD1,,,lymphatic system,50849;SUP-M2,,,lymphatic system,50850;SUP-T1,,,blood,50851;SW 1990,,,pancreas,50853;TALL-1,,,blood,50854;TANOUE,,,blood,50855;TC-71,,,bone,50856;TF-1,,,blood,50858;TF-1.CN5a.1,,,blood,50859;TF-1a,,,blood,50860;THP-1,,,blood,50861;TK,,,lymphatic system,50862;Toledo,,,lymphatic system,50863;TUR,,,lymphatic system,50865;U266B1,,,blood,50866;U-698-M,,,blood,50867;U-87 MG,,,brain,50868;U-937,,,lymphatic system,50869;VAL,,,lymphatic system,50870;WIL2 NS,,,lymphatic system,50871;WSU-DLCL2,,,lymphatic system,50873;WSU-NHL,,,lymphatic system,50874;YMB-1,,,breast,50875;YT,,,lymphatic system,50876;697.0,,,blood,50877;8-MG-BA,,,brain,50878;A101D,,,skin,50879;A4-Fuk,,,skin,50883;A704,,,kidney,50884;ACN,,,nervous system,50885;ALL-PO,,,blood,50886;AM-38,,,brain,50887;ATN-1,,,blood,50888;BB49-HNC,,,head &amp; neck,50891;BB65-RCC,,,kidney,50892;BE-13,,,blood,50893;Becker,,,brain,50894;BOKU,,,cervix,50895;BV-173,,,blood,50896;Calu-6,,,lung,50897;CAS-1,,,brain,50898;COLO-320-HSR,,,intestine,50900;COLO-668,,,lung,50901;CP50-MEL-B,,,skin,50903;CP66-MEL,,,skin,50904;CW-2,,,intestine,50906;D-247MG,,,brain,50907;D-263MG,,,brain,50908;D-336MG,,,brain,50909;D-392MG,,,brain,50910;D-423MG,,,brain,50911;D-502MG,,,brain,50912;D-542MG,,,brain,50913;DEL,,,blood,50915;ECC4,,,intestine,50921;EKVX,,,lung,50923;EM-2,,,blood,50924;EoL-1-cell,,,blood,50925;ES1,,,bone,50926;ES3,,,bone,50927;ES4,,,bone,50928;ES5,,,bone,50929;ES6,,,bone,50930;ES7,,,bone,50931;ES8,,,bone,50932;ETK-1,,,biliary tract,50933;EW-1,,,bone,50934;EW-11,,,bone,50935;EW-13,,,bone,50936;EW-16,,,bone,50937;EW-18,,,bone,50938;EW-24,,,bone,50939;EW-3,,,bone,50940;EW-7,,,bone,50941;GAK,,,skin,50942;GB-1,,,brain,50943;GI-1,,,brain,50945;GI-ME-N,,,nervous system,50946;GR-ST,,,blood,50947;H9,,,lymphatic system,50949;HA7-RCC,,,kidney,50950;HAL-01,,,blood,50951;HCC2998,,,intestine,50952;HCE-4,,,esophagus,50953;HOP-62,,,lung,50955;HT-144,,,skin,50956;JVM-2,,,blood,50962;JVM-3,,,blood,50963;KALS-1,,,brain,50965;KGN,,,ovary,50966;KINGS-1,,,brain,50967;KM12,,,intestine,50969;KNS-42,,,brain,50970;KNS-81-FD,,,brain,50971;KS-1,,,brain,50974;KURAMOCHI,,,ovary,50975;LB1047-RCC,,,kidney,50978;LB2241-RCC,,,kidney,50979;LB2518-MEL,,,skin,50980;LB373-MEL-D,,,skin,50981;LB647-SCLC,,,lung,50982;LB996-RCC,,,kidney,50985;LC-1F,,,lung,50986;LC-2-ad,,,lung,50987;LOXIMVI,,,skin,50988;LS-1034,,,intestine,50989;LS-123,,,intestine,50990;LS-411N,,,intestine,50991;LS-513,,,intestine,50992;LU-134-A,,,lung,50993;LU-139,,,lung,50994;LXF-289,,,lung,50996;MHH-CALL-2,,,blood,50998;MMAC-SF,,,skin,50999;MN-60,,,blood,51000;Mo-T,,,blood,51001;MUTZ-1,,,blood,51003;MZ1-PC,,,pancreas,51004;MZ2-MEL,,,skin,51005;MZ7-mel,,,skin,51006;NCI-H1355,,,lung,51017;NCI-H157,,,lung,51018;NCI-H2126,,,lung,51019;NCI-H322M,,,lung,51020;NCI-H716,,,intestine,51022;NCI-H747,,,intestine,51023;NKM-1,,,blood,51024;NMC-G1,,,brain,51025;no-10,,,brain,51026;no-11,,,brain,51027;NOMO-1,,,blood,51028;NOS-1,,,bone,51029;OC-314,,,ovary,51031;OCUB-M,,,breast,51032;OMC-1,,,cervix,51033;ONS-76,,,brain,51034;OS-RC-2,,,kidney,51035;OVCAR-4,,,ovary,51036;QIMR-WIL,,,blood,51037;Ramos-2G6-4C10,,,lymphatic system,51038;RCC10RGB,,,kidney,51039;RKO,,,intestine,51041;RPMI-8866,,,blood,51043;RXF393,,,kidney,51044;SF126,,,brain,51045;SF268,,,brain,51046;SF539,,,brain,51047;SH-4,,,skin,51048;SJSA-1,,,bone,51049;SK-MEL-24,,,skin,51050;SK-MEL-5,,,skin,51051;SK-MG-1,,,brain,51052;SK-MM-2,,,blood,51053;SK-PN-DW,,,bone,51054;SNU-C1,,,intestine,51056;SNU-C2B,,,intestine,51057;TE-10,,,esophagus,51065;TE-11,,,esophagus,51066;TE-5,,,esophagus,51070;TE-6,,,esophagus,51071;TGBC1TKB,,,biliary tract,51075;TGBC24TKB,,,biliary tract,51076;TK10,,,kidney,51077;UACC-257,,,skin,51078;YH-13,,,brain,51080;5637.0,epithelial,,urinary bladder,50001;647-V,epithelial-like,,urinary bladder,50002;AGS,epithelial,,stomach,50004;BPH-1,epitheloid,,prostate,50005;Ca Ski,epithelial,,cervix,50006;Ca9-22,epithelial-like,,head &amp; neck,50007;COLO-679,fibroblastic,,skin,50011;HEC-1,,,uterus,50014;HLF,,,liver,50015;Ishikawa,epithelial-like,,uterus,50018;Ishikawa (Heraklio) 02 ER-,epithelial,,uterus,50019;JHH-6,epithelial-like,,liver,50021;KYSE-140,,,esophagus,50024;KYSE-180,epitheloid,,esophagus,50026;KYSE-450,epitheloid,,esophagus,50027;SK-LMS-1,,,uterus,50042;T24,epithelial,,urinary bladder,50048;WiDr,epithelial,,intestine,50049;Hep 3B2.1-7,epithelial,,liver,50051;Huh7,,,liver,50055;LNCaP,epithelial,,prostate,50059;1205Lu,,,skin,50062;1A6,,,urinary bladder,50066;22RV1,,,prostate,50067;23132/87,,,stomach,50068;8305C,,,thyroid,50074;8505C,,,thyroid,50075;A-204,,,muscle,50077;AN3CA,,,uterus,50088;AZ-521,,,stomach,50092;B-CPAP,,,thyroid,50093;BeWo,,,miscellaneous,50096;BHT-101,,,thyroid,50099;BHY,,,head &amp; neck,50100;BICR 10,,,head &amp; neck,50101;BICR 22,,,head &amp; neck,50102;BICR 31,,,head &amp; neck,50103;BICR 78,,,head &amp; neck,50104;C170,,,intestine,50110;C3A,,,liver,50114;C-4 I,,,cervix,50115;C-4 II,,,cervix,50116;CAL 27,,,head &amp; neck,50119;CAL-29,,,urinary bladder,50123;CAL-33,,,head &amp; neck,50124;CAL-39,,,vulva,50125;CAL-62,,,thyroid,50127;Caov-4,,,ovary,50133;CoCM-1,,,intestine,50141;COLO 201,,,intestine,50142;COLO-680N,,,esophagus,50153;COLO-849,,,skin,50157;Detroit 562,,,head &amp; neck,50164;DOK,,,head &amp; neck,50169;DU 145,,,prostate,50171;EFE-184,,,uterus,50174;EJ138,,,urinary bladder,50182;ESS-1,,,uterus,50186;FLYA13,,,miscellaneous,50189;FTC-133,,,thyroid,50190;FTC-238,,,thyroid,50191;GCT,,,miscellaneous,50198;HCT-8,,,intestine,50224;H-EMC-SS,,,bone,50226;HGC-27,,,stomach,50227;HO-1-N-1,,,head &amp; neck,50231;HRT-18,,,intestine,50236;Hs 257.T,,,intestine,50237;Hs 588.T,,,cervix,50239;Hs 633T,,,miscellaneous,50240;Hs 746T,,,stomach,50242;HSC-2,,,head &amp; neck,50244;HSC-3,,,head &amp; neck,50245;HT 1080,,,miscellaneous,50247;HT115,,,intestine,50249;HT-1197,,,urinary bladder,50250;HTC-C3,,,thyroid,50254;huH-1,,,liver,50256;IM-95m,,,stomach,50267;IMR-32,,,nervous system,50268;JAR,,,miscellaneous,50271;KELLY,,,nervous system,50277;KON,,,head &amp; neck,50285;KOSC-2 cl3-43,,,head &amp; neck,50286;KYSE-270,,,esophagus,50294;KYSE-30,,,esophagus,50295;KYSE-50,,,esophagus,50297;KYSE-520,,,esophagus,50299;KYSE-70,,,esophagus,50300;Lu-135,,,lung,50314;MC-IXC,,,nervous system,50326;MDST8,,,intestine,50336;ME-180,,,cervix,50337;MFE-280,,,uterus,50343;MFE-296,,,uterus,50344;MKN1,,,stomach,50350;MKN28,,,stomach,50351;MKN45,,,stomach,50352;MKN7,,,stomach,50353;MKN74,,,stomach,50354;MSTO-211H,,,pleura,50359;NCC-IT-A3,,,testes,50361;NCI-H1755,,,lung,50374;NCI-H2029,,,lung,50384;NCI-H2135,,,lung,50391;NCI-H2195,,,lung,50394;NCI-H2342,,,lung,50401;NCI-N87,,,stomach,50421;NUGC-3,,,stomach,50424;NUGC-4,,,stomach,50425;OE19,,,esophagus,50431;OE33,,,esophagus,50433;OSC-19,,,head &amp; neck,50434;PLC/PRF/5,,,liver,50457;RD,,,muscle,50460;RO82-W-1,,,thyroid,50469;RPMI 2650,,,head &amp; neck,50470;RT-112,,,urinary bladder,50472;RT112/84,,,urinary bladder,50473;S-117,,,thyroid,50476;SAT,,,head &amp; neck,50479;SCC-25,,,head &amp; neck,50484;SCC-4,,,head &amp; neck,50485;SCC-9,,,head &amp; neck,50486;SCCH-26,,,nervous system,50488;SCH,,,stomach,50489;SKG-IIIb,,,cervix,50498;SK-HEP-1,,,liver,50499;SKN-3,,,head &amp; neck,50504;SK-N-DZ,,,nervous system,50506;SK-NEP-1,,,kidney,50507;SK-N-SH,,,nervous system,50508;SNU-1,,,stomach,50510;SNU-16,,,stomach,50511;SNU-387,,,liver,50513;SNU-398,,,liver,50514;SNU-423,,,liver,50515;SNU-475,,,liver,50517;SNU-5,,,stomach,50518;SW-1710,,,urinary bladder,50535;SW756,,,cervix,50536;T.T,,,esophagus,50539;T.Tn,,,esophagus,50540;TASK1,,,nervous system,50544;TCCSUP,,,urinary bladder,50545;TGW,,,adrenal gland,50546;TT2609-C02,,,thyroid,50549;VCaP,,,prostate,50560;VMRC-MELG,,,skin,50563;2B8,,,lymphatic system,50585;A2780cis,,,ovary,50586;A3,,,blood,50587;BC-1,,,lymphatic system,50594;BE(2)-M17,,,nervous system,50598;CHP-126,,,nervous system,50611;CL-11,,,intestine,50613;COLO 684,,,uterus,50616;COR-L51,,,lung,50619;DMS 153,,,lung,50630;EHEB,,,blood,50636;GA-10,,,lymphatic system,50640;GOTO,,,nervous system,50643;Gp2D,,,intestine,50644;I 9.2,,,blood,50663;IM-9,,,lymphatic system,50664;JM1,,,lymphatic system,50672;Jurkat, Clone E6-1,,,blood,50674;KARPAS-231,,,blood,50679;KYM-1,,,muscle,50702;Lu-134-B,,,lung,50711;MHH-NB-11,,,nervous system,50719;MY-M12,,,blood,50736;NB(TU)1-10,,,nervous system,50742;NB-1,,,nervous system,50743;NCI-H1092,,,lung,50746;NCI-H1304,,,lung,50748;NCI-H1404,,,lung,50751;NCI-H1522,,,lung,50754;NCI-H1618,,,lung,50756;NCI-H187,,,lung,50762;NCI-H1963,,,lung,50764;NCI-H2081,,,lung,50766;NCI-H209,,,lung,50767;NCI-H2106,,,lung,50768;NCI-H2141,,,lung,50770;NCI-H220,,,lung,50772;NCI-H2227,,,lung,50773;NCI-H345,,,lung,50775;NCI-H510A,,,lung,50777;NCI-H69,,,lung,50780;NCI-H719,,,lung,50781;NCI-H748,,,lung,50783;NCI-H82,,,lung,50784;NCI-H889,,,lung,50786;NEC8,,,testes,50787;NH-12,,,nervous system,50788;NK-92MI,,,lymphatic system,50789;P32/ISH,,,lymphatic system,50802;RERF-LC-MS,,,lung,50815;RH-1,,,bone,50816;RH-41,,,muscle,50818;RPMI 1788,,,blood,50821;SBC-1,,,lung,50826;SC-1,,,lymphatic system,50828;SIMA,,,nervous system,50832;SK-N-BE(2),,,nervous system,50835;SK-N-FI,,,nervous system,50836;SNB-19,,,brain,50838;SVG p12,,,brain,50852;Tera-1,,,testes,50857;TT,,,thyroid,50864;WILCL,,,blood,50872;A253,,,head &amp; neck,50880;A388,,,miscellaneous,50881;A498,,,kidney,50882;B2-17,,,brain,50889;BB30-HNC,,,head &amp; neck,50890;CGTH-W-1,,,thyroid,50899;COLO-829,,,skin,50902;CTB-1,,,lymphatic system,50905;D-566MG,,,brain,50914;DJM-1,,,skin,50916;DOHH-2,,,lymphatic system,50917;DSH1,,,urinary tract,50918;ECC10,,,stomach,50919;ECC12,,,stomach,50920;EC-GI-10,,,esophagus,50922;GCIY,,,stomach,50944;GT3TKB,,,stomach,50948;HCE-T,,,head &amp; neck,50954;IMR-5,,,nervous system,50957;IST-MES1,,,pleura,50958;IST-SL1,,,lung,50959;IST-SL2,,,lung,50960;JEG-3,,,miscellaneous,50961;K5,,,thyroid,50964;KLE,,,uterus,50968;KP-N-YN,,,nervous system,50972;KP-N-YS,,,nervous system,50973;LAN-5,,,nervous system,50976;LAN-6,,,nervous system,50977;LB771-HNC,,,head &amp; neck,50983;LB831-BLC,,,urinary tract,50984;LU-165,,,lung,50995;MFH-ino,,,miscellaneous,50997;MPP-89,,,pleura,51002;NB10,,,nervous system,51007;NB12,,,nervous system,51008;NB13,,,nervous system,51009;NB14,,,nervous system,51010;NB16,,,nervous system,51011;NB17,,,nervous system,51012;NB5,,,nervous system,51013;NB6,,,nervous system,51014;NB7,,,nervous system,51015;NBsusSR,,,nervous system,51016;NCI-H64,,,lung,51021;NTERA-S-cl-D1,,,testes,51030;RF-48,,,stomach,51040;RL95-2,,,uterus,51042;SK-UT-1,,,uterus,51055;SW403,,,intestine,51058;SW684,,,miscellaneous,51059;SW872,,,miscellaneous,51060;SW954,,,vulva,51061;SW962,,,vulva,51062;SW982,,,miscellaneous,51063;TE-1,,,esophagus,51064;TE-12,,,esophagus,51067;TE-15,,,esophagus,51068;TE-441-T,,,muscle,51069;TE-8,,,esophagus,51072;TE-9,,,esophagus,51073;TGBC11TKB,,,stomach,51074;VA-ES-BJ,,,miscellaneous,51079</t>
+  </si>
+  <si>
+    <t>CP466722,small molecule,10009-101,LSM-1009;BMS345541,small molecule,10028-102,LSM-1028;Etoposide,small molecule,10250-101,LSM-6348;Shikonin,small molecule,10291-101,LSM-6309;Mitomycin C,small molecule,10292-101,LSM-6310;NSC-87877,small molecule,10297-101,LSM-6314;LFM-A13/DDE-28,small molecule,10298-101,LSM-6315;GSK650394,small molecule,10299-101,LSM-6316</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20016/</t>
+  </si>
+  <si>
+    <t>MGH (CMT) Growth Inhibition Assay Protocol (9 compound doses: 32 uM to 0.125 uM) -- DNA Staining</t>
+  </si>
+  <si>
+    <t>Embelin,small molecule,10294-101,LSM-6311;IPA-3,small molecule,10295-101,LSM-6312</t>
+  </si>
+  <si>
+    <t>false\small molecules,2</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20017/</t>
+  </si>
+  <si>
+    <t>Metrics other than potency reveal systematic variation in responses to cancer drugs: Data published in Fallahi-Sichani et al. (2013) Nature Chemical Biology. PMID: 24013279</t>
+  </si>
+  <si>
+    <t>The following is the abstract from Fallahi-Sichani et al. (2013) Nature Chemical Biology: &lt;i&gt;Large-scale analysis of cellular response to anticancer drugs typically focuses on variation in potency (half-maximum inhibitory concentration, (IC50)), assuming that it is the most important difference between effective and ineffective drugs or sensitive and resistant cells. We took a multiparametric approach involving analysis of the slope of the dose-response curve, the area under the curve and the maximum effect (Emax). We found that some of these parameters vary systematically with cell line and others with drug class. For cell-cycle inhibitors, Emax often but not always correlated with cell proliferation rate. For drugs targeting the Akt/PI3K/mTOR pathway, dose-response curves were unusually shallow. Classical pharmacology has no ready explanation for this phenomenon, but single-cell analysis showed that it correlated with significant and heritable cell-to-cell variability in the extent of target inhibition. We conclude that parameters other than potency should be considered in the comparative analysis of drug response, particularly at clinically relevant concentrations near and above the IC50.&lt;/i)</t>
+  </si>
+  <si>
+    <t>MCF7,epithelial,,breast,50029;SK-BR-3,epithelial,,breast,50057;MDA-MB-231,epithelial,,breast,50058;AU565,,,breast,50091;BT-20,,,breast,50105;BT-474,,,breast,50106;BT-483,,,breast,50107;BT-549,,,breast,50108;CAMA-1,,,breast,50131;HCC1143,,,breast,50205;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC1569,,,breast,50210;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC202,,,breast,50214;HCC38,,,breast,50216;HCC70,,,breast,50219;Hs 578T,,,breast,50238;MB 157,,,breast,50324;MDA-MB-134-VI,,,breast,50327;MDA-MB-157,,,breast,50328;MDA-MB-175-VII,,,breast,50329;MDA-MB-361,,,breast,50331;MDA-MB-436,,,breast,50333;MDA-MB-453,,,breast,50334;MDA-MB-468,,,breast,50335;T47D,,,breast,50541;UACC-812,,,breast,50556;UACC-893,,,breast,50557;ZR-75-1,,,breast,50574;184B5,epithelial,,breast,50576;HCC1187,epithelial,,breast,50578;MCF 10A,epithelial,,breast,50583;MCF 10F,epithelial,,breast,50584;SUM1315MO2,,,breast,51081;SUM149PT,,,breast,51082;SUM159PT,,,breast,51083;SUM185PE,,,breast,51084;SUM225CWN,,,breast,51085;SUM229PE,,,breast,51086;SUM52PE,,,breast,51087;184A1,,,breast,51088;MCF12A,,,breast,51089;MX1,,,breast,51090;T47DKBLUC,,,breast,51091;600MPE,,,breast,51092;HCC2185,,,breast,51093;HCC3153,,,breast,51094;LY2,,,breast,51095;ZR75B,,,breast,51096</t>
+  </si>
+  <si>
+    <t>53\cell lines</t>
+  </si>
+  <si>
+    <t>GSK461364,small molecule,10013-101,LSM-1013;Tozasertib,small molecule,10021-101,LSM-1021;Imatinib,small molecule,10023-103,LSM-1023;PD173074,small molecule,10026-101,LSM-1026;Sigma A6730,small molecule,10035-101,LSM-1035;GSK1070916,small molecule,10062-101,LSM-1062;Erlotinib,small molecule,10097-101,LSM-1097;Gefitinib,small molecule,10098-101,LSM-1098;Taxol,small molecule,10102-101,LSM-1102;MG-132,small molecule,10107-101,LSM-1107;Geldanamycin,small molecule,10108-101,LSM-1108;Afatinib,small molecule,10133-101,LSM-5742;Trametinib,small molecule,10142-101,LSM-1143;GSK2126458,small molecule,10146-101,LSM-1147;GSK1059615,small molecule,10172-101,LSM-1173;Sunitinib malate,small molecule,10175-106,LSM-1176;Bosutinib,small molecule,10189-101,LSM-1190;AG1478,small molecule,10223-101,LSM-1224;IKK16,small molecule,10228-102,LSM-2309;Lestaurtinib,small molecule,10230-101,LSM-1231;RAD001,small molecule,10235-101,LSM-4258;17-AAG,small molecule,10236-101,LSM-5870;5-DFUR,small molecule,10237-101,LSM-6359;5-FU,small molecule,10238-101,LSM-4261;Bortezomib,small molecule,10241-101,LSM-6281;Carboplatin,small molecule,10242-101,LSM-4265;CGC-11047,small molecule,10243-101,LSM-4266;CGC-11144,small molecule,10244-999,LSM-4267;Cisplatin,small molecule,10245-999,LSM-4268;CPT-11,small molecule,10246-999,LSM-2167;Docetaxel,small molecule,10247-101,LSM-6360;Doxorubicin,small molecule,10248-101,LSM-4062;Epirubicin,small molecule,10249-101,LSM-2078;Etoposide,small molecule,10250-101,LSM-6348;Fascaplysin,small molecule,10251-112,LSM-4272;Gemcitabine,small molecule,10252-101,LSM-5333;GSK1838705,small molecule,10255-101,LSM-4276;GSK923295,small molecule,10257-101,LSM-4278;Ibandronate sodium salt,small molecule,10258-110,LSM-4279;Ispinesib,small molecule,10260-999,LSM-5732;Ixabepilone,small molecule,10261-101,LSM-6350;LBH589,small molecule,10263-101,LSM-4284;MLN4924,small molecule,10265-101,LSM-6263;NSC 663284,small molecule,10266-101,LSM-2042;NU6102,small molecule,10267-101,LSM-4287;Nutlin 3a,small molecule,10268-101,LSM-6351;Oxaliplatin,small molecule,10269-999,LSM-6352;Oxamflatin,small molecule,10270-101,LSM-4290;(Z)-4-Hydroxytamoxifen,small molecule,10275-101,LSM-6361;TCS 2312,small molecule,10276-101,LSM-6362;Temsirolimus,small molecule,10277-101,LSM-4295;Topotecan,small molecule,10278-999,LSM-5662;Trichostatin A,small molecule,10279-101,LSM-3524;Triciribine,small molecule,10280-101,LSM-3810;Vinorelbine,small molecule,10281-101,LSM-6302;Vorinostat,small molecule,10282-101,LSM-3828;XRP44X,small molecule,10283-101,LSM-4298;Baicalein,small molecule,10343-101,LSM-6355;Olomoucine II,small molecule,10344-101,LSM-6356;PP242 hydrate,small molecule,10345-111,LSM-6357;Valproic acid,small molecule,10346-110,LSM-6363;Z-Leu-Leu-Norvalinal,small molecule,10348-101,LSM-6358</t>
+  </si>
+  <si>
+    <t>false\small molecules,62</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20120/</t>
+  </si>
+  <si>
+    <t>Basal profile of receptor tyrosine kinase signaling network measured by ELISA: Data published in Niepel, Hafner et al. (2013) Science Signaling. PMID: 24065145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here, basal profiles for cells are the data for the abundance and basal phosphorylation of 22 receptors and 3 downstream kinases, as well as for the abundance of estrogen receptor (ER) and progesterone receptor (PR). In this dataset, basal profiles were obtained for approximately 40 breast cancer cell lines. All basal phosphorylation and protein abundance data were obtained by ELISA and, where possible, we estimated steady-state levels of molecules per cell using calibrated, recombinant standards. For the receptor tyrosine kinase phosphorylation data, we measured the amount of total phosphotyrosine rather than of individual phosphorylation sites, with the exception of IGF1R, for which we measured phosphorylation of Tyr1131. </t>
+  </si>
+  <si>
+    <t>184B5,epithelial,,breast,50576;AU565,,,breast,50091;BT-20,,,breast,50105;BT-474,,,breast,50106;BT-483,,,breast,50107;BT-549,,,breast,50108;CAMA-1,,,breast,50131;HCC1187,epithelial,,breast,50578;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC1500,epithelial,,breast,50579;HCC1569,,,breast,50210;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC202,,,breast,50214;HCC38,,,breast,50216;HCC70,,,breast,50219;Hs 578T,,,breast,50238;MCF 10A,epithelial,,breast,50583;MCF 10F,epithelial,,breast,50584;MCF12A,,,breast,51089;MCF7,epithelial,,breast,50029;MDA-MB-134-VI,,,breast,50327;MDA-MB-157,,,breast,50328;MDA-MB-175-VII,,,breast,50329;MDA-MB-231,epithelial,,breast,50058;MDA-MB-361,,,breast,50331;MDA-MB-415,,,breast,50332;MDA-MB-436,,,breast,50333;MDA-MB-453,,,breast,50334;MDA-MB-468,,,breast,50335;SK-BR-3,epithelial,,breast,50057;T47D,,,breast,50541;UACC-812,,,breast,50556;UACC-893,,,breast,50557;ZR-75-1,,,breast,50574;ZR-75-30,,,breast,50575</t>
+  </si>
+  <si>
+    <t>39\cell lines</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20137/</t>
+  </si>
+  <si>
+    <t>Cell signaling response to growth factors measured by high throughput microscopy: Data published in Niepel, Hafner et al. (2013) Science Signaling. PMID: 24065145</t>
+  </si>
+  <si>
+    <t>To generate the growth factor __signaling profile__ set, we exposed approximately 40 breast cancer cell lines individually to fifteen different growth factors (protein ligands) for 10, 30, or 90 min. We monitored the response by measuring the phosphorylation state of ERK1/2, Akt, p38, and JNK using high throughput immunofluorescence microscopy.</t>
+  </si>
+  <si>
+    <t>184B5,epithelial,,breast,50576;AU565,,,breast,50091;BT-20,,,breast,50105;BT-474,,,breast,50106;BT-483,,,breast,50107;BT-549,,,breast,50108;CAMA-1,,,breast,50131;HCC1187,epithelial,,breast,50578;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC1500,epithelial,,breast,50579;HCC1569,,,breast,50210;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC202,,,breast,50214;HCC38,,,breast,50216;HCC70,,,breast,50219;Hs 578T,,,breast,50238;MCF 10A,epithelial,,breast,50583;MCF 10F,epithelial,,breast,50584;MCF12A,,,breast,51089;MCF7,epithelial,,breast,50029;MDA-MB-134-VI,,,breast,50327;MDA-MB-157,,,breast,50328;MDA-MB-175-VII,,,breast,50329;MDA-MB-231,epithelial,,breast,50058;MDA-MB-361,,,breast,50331;MDA-MB-415,,,breast,50332;MDA-MB-436,,,breast,50333;MDA-MB-453,,,breast,50334;SK-BR-3,epithelial,,breast,50057;T47D,,,breast,50541;UACC-812,,,breast,50556;UACC-893,,,breast,50557;ZR-75-1,,,breast,50574;ZR-75-30,,,breast,50575</t>
+  </si>
+  <si>
+    <t>38\cell lines</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20138/</t>
+  </si>
+  <si>
+    <t>15\proteins</t>
+  </si>
+  <si>
+    <t>Cell signaling response to cytokines measured by high throughput microscopy: Data published in Niepel, Hafner et al. (2013) Science Signaling. PMID: 24065145</t>
+  </si>
+  <si>
+    <t>To generate the cytokine __signaling profile__ set, we exposed approximately 40 breast cancer cell lines individually to seven different cytokines (protein ligands or LPS) for 10, 30, or 90 min. We monitored the response by measuring the phosphorylation state of ERK1/2, STAT1, and STAT3 and the nuclear translocation of NF-kappaB using high throughput immunofluorescence microscopy.</t>
+  </si>
+  <si>
+    <t>184B5,epithelial,,breast,50576;AU565,,,breast,50091;BT-20,,,breast,50105;BT-474,,,breast,50106;BT-483,,,breast,50107;BT-549,,,breast,50108;CAMA-1,,,breast,50131;HCC1187,epithelial,,breast,50578;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC1500,epithelial,,breast,50579;HCC1569,,,breast,50210;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC202,,,breast,50214;HCC38,,,breast,50216;HCC70,,,breast,50219;Hs 578T,,,breast,50238;MCF 10A,epithelial,,breast,50583;MCF 10F,epithelial,,breast,50584;MCF12A,,,breast,51089;MCF7,epithelial,,breast,50029;MDA-MB-134-VI,,,breast,50327;MDA-MB-157,,,breast,50328;MDA-MB-175-VII,,,breast,50329;MDA-MB-231,epithelial,,breast,50058;MDA-MB-361,,,breast,50331;MDA-MB-415,,,breast,50332;MDA-MB-453,,,breast,50334;SK-BR-3,epithelial,,breast,50057;T47D,,,breast,50541;UACC-812,,,breast,50556;UACC-893,,,breast,50557;ZR-75-1,,,breast,50574;ZR-75-30,,,breast,50575</t>
+  </si>
+  <si>
+    <t>37\cell lines</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20139/</t>
+  </si>
+  <si>
+    <t>6\proteins</t>
+  </si>
+  <si>
+    <t>Cell signaling response to growth factors measured by ELISA: Data published in Niepel, Hafner et al. (2013) Science Signaling. PMID: 24065145</t>
+  </si>
+  <si>
+    <t>To generate the growth factor __signaling profile__ set, we exposed approximately 40 breast cancer cell lines individually to fifteen different growth factors (protein ligands) for 10, 30, or 90 min. We monitored the response by measuring the phosphorylation state of ERK1/2 and Akt using ELISA.</t>
+  </si>
+  <si>
+    <t>MCF7,epithelial,,breast,50029;SK-BR-3,epithelial,,breast,50057;MDA-MB-231,epithelial,,breast,50058;AU565,,,breast,50091;BT-20,,,breast,50105;BT-474,,,breast,50106;BT-483,,,breast,50107;BT-549,,,breast,50108;CAMA-1,,,breast,50131;HCC1395,,,breast,50206;HCC1419,,,breast,50207;HCC1428,,,breast,50208;HCC1569,,,breast,50210;HCC1806,,,breast,50211;HCC1937,,,breast,50212;HCC1954,,,breast,50213;HCC202,,,breast,50214;HCC38,,,breast,50216;HCC70,,,breast,50219;Hs 578T,,,breast,50238;MDA-MB-134-VI,,,breast,50327;MDA-MB-157,,,breast,50328;MDA-MB-175-VII,,,breast,50329;MDA-MB-361,,,breast,50331;MDA-MB-415,,,breast,50332;MDA-MB-436,,,breast,50333;MDA-MB-453,,,breast,50334;MDA-MB-468,,,breast,50335;T47D,,,breast,50541;UACC-812,,,breast,50556;UACC-893,,,breast,50557;ZR-75-1,,,breast,50574;ZR-75-30,,,breast,50575;184B5,epithelial,,breast,50576;HCC1187,epithelial,,breast,50578;HCC1500,epithelial,,breast,50579;MCF 10A,epithelial,,breast,50583;MCF 10F,epithelial,,breast,50584;MCF12A,,,breast,51089</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/20140/</t>
+  </si>
+  <si>
+    <t>KINOMEscan</t>
+  </si>
+  <si>
+    <t>The KINOMEscan assay platform is based on a competition binding assay that is run for a compound of interest against each of a panel of 317 to 456 kinases. The assay has three components: a kinase-tagged phage, a test compound, and an immobilized ligand that the compound competes with to displace the kinase. The amount of kinase bound to the immobilized ligand is determined using quantitative PCR of the DNA tag.  Results for each kinase are reported as "Percent of control", where the control is DMSO and where a 100% result means no inhibition of kinase binding to the ligand in the presence of the compound, and where low percent results mean strong inhibition. The KINOMEscan data are presented graphically on TREEspot Kinase Dendrograms (http://www.discoverx.com/services/drug-discovery-development-services/treespot-data-analysis). For this study, HMS LINCS investigators have graphed results for kinases classified as 35 "percent of control" (in the presence of the compound, the kinase is 35% as active for binding ligand in the presence of DMSO), 5 "percent of control" and 1 "percent of control".</t>
+  </si>
+  <si>
+    <t>Sorafenib,small molecule,10008-101,LSM-1008;HG-6-64-01,small molecule,10017-101,LSM-6015;GW-5074,small molecule,10029-101,LSM-1029;SB590885,small molecule,10046-101,LSM-1046;PLX-4720,small molecule,10049-101,LSM-1049;AZ-628,small molecule,10050-101,LSM-1050;PLX4032,small molecule,10068-101,LSM-1068;AZD7762,small molecule,10006-101,LSM-1006;CP466722,small molecule,10009-101,LSM-1009;CP724714,small molecule,10010-101,LSM-1010;GSK429286A,small molecule,10012-101,LSM-1012;GSK461364,small molecule,10013-101,LSM-1013;GW843682,small molecule,10014-101,LSM-1014;Crizotinib,small molecule,10027-101,LSM-1027;BMS345541,small molecule,10028-102,LSM-1028;WH-4-023,small molecule,10038-101,LSM-5613;BX-912,small molecule,10055-101,LSM-1055;AZD-6482,small molecule,10059-101,LSM-1059;TAK-715,small molecule,10060-101,LSM-1060;NU7441,small molecule,10061-101,LSM-1061;KIN001-220,small molecule,10065-101,LSM-1065;MLN8054,small molecule,10066-101,LSM-1066;Barasertib,small molecule,10067-101,LSM-1067;PD0332991,small molecule,10071-101,LSM-1071;JWE-035,small molecule,10092-101,LSM-1092;ZM-447439,small molecule,10096-101,LSM-1096;JNK-9L,small molecule,10100-101,None;ALW-II-38-3,small molecule,10002-101,LSM-1002;ALW-II-49-7,small molecule,10003-101,LSM-1003;HG-5-113-01,small molecule,10015-101,LSM-5982;HG-5-88-01,small molecule,10016-101,LSM-5245;Neratinib,small molecule,10018-101,LSM-1018;CGP60474,small molecule,10025-101,LSM-1025;PD173074,small molecule,10026-101,LSM-1026;WH-4-025,small molecule,10039-101,LSM-5431;BI-2536,small molecule,10041-101,LSM-1041;KIN001-127,small molecule,10043-101,LSM-1043;A443654,small molecule,10045-101,LSM-1045;GDC-0941,small molecule,10047-101,LSM-1047;NPK76-II-72-1,small molecule,10070-101,LSM-1070;QL-X-138,small molecule,10075-101,LSM-5803;QL-XI-92,small molecule,10076-101,LSM-5394;Torin1,small molecule,10079-101,LSM-1079;Torin2,small molecule,10080-101,LSM-1080;WZ-4-145,small molecule,10082-101,LSM-5545;WZ-7043,small molecule,10083-101,LSM-5749;WZ3105,small molecule,10084-101,LSM-5970;WZ4002,small molecule,10085-101,LSM-1085;XMD11-50,small molecule,10086-101,LSM-1086;XMD11-85h,small molecule,10087-101,LSM-5577;XMD13-2,small molecule,10088-101,LSM-6296;XMD14-99,small molecule,10089-101,LSM-6297;XMD15-27,small molecule,10090-101,LSM-6298;XMD16-144,small molecule,10091-101,LSM-6299;XMD8-85,small molecule,10093-101,LSM-1093;XMD8-92,small molecule,10094-101,LSM-1094;ZG-10,small molecule,10095-101,LSM-6300;WYE-125132,small molecule,10064-101,LSM-1064;PD0325901,small molecule,10101-101,LSM-1101;JNK-IN-5A,small molecule,10208-101,LSM-1209;Momelotinib,small molecule,10140-101,LSM-1141;Sigma A6730,small molecule,10035-101,LSM-1035;GSK2126458,small molecule,10146-101,LSM-1147;GSK1059615,small molecule,10172-101,LSM-1173;AG1478,small molecule,10223-101,LSM-1224;BEZ235,small molecule,10232-101,LSM-4255;Lapatinib,small molecule,10051-104,LSM-1051;JW-7-24-1,small molecule,10019-101,LSM-5674;NVP-TAE684,small molecule,10024-101,LSM-1024;R406,small molecule,10040-101,LSM-1040;SP600125,small molecule,10162-101,LSM-1163;BMS-536924, KIN001-126,small molecule,10209-101,LSM-1210;KIN001-111/A770041,small molecule,10213-101,LSM-1214;CG-930,small molecule,10058-101,LSM-1058;XMD-12,small molecule,10106-101,LSM-1106;Bosutinib,small molecule,10189-101,LSM-1190;KU63794,small molecule,10229-101,LSM-1230;Canertinib,small molecule,10120-102,LSM-1120;KIN001-123/WZ-1-84,small molecule,10214-101,LSM-1215;(R)- Roscovitine,small molecule,10001-101,LSM-1001;PHA-793887,small molecule,10073-101,LSM-1073;PHA-767491,small molecule,10285-101,LSM-6304;BS-181,small molecule,10286-102,LSM-6305;Dinaciclib,small molecule,10287-101,LSM-6306;AZD4547,small molecule,10289-101,LSM-6308;OTSSP167,small molecule,10337-102,LSM-6340;Dabrafenib,small molecule,10284-101,LSM-6303;HG-9-91-01,small molecule,10340-101,LSM-6343;HG-14-8-02,small molecule,10341-101,LSM-6344;HG-14-10-04,small molecule,10342-101,LSM-6345;AZD 5438,small molecule,10158-101,LSM-1159;BMS345541,small molecule,10028-102,LSM-1028;AC220,small molecule,10037-101,LSM-1037;R406,small molecule,10040-101,LSM-1040;BI-2536,small molecule,10041-101,LSM-1041;Motesanib,small molecule,10042-101,LSM-1042;KIN001-242,small molecule,10044-104,LSM-1044;GDC-0941,small molecule,10047-101,LSM-1047;PD184352,small molecule,10048-101,LSM-1048;PLX-4720,small molecule,10049-101,LSM-1049;Lapatinib,small molecule,10051-104,LSM-1051;Selumetinib,small molecule,10056-101,LSM-1056;MLN8054,small molecule,10066-101,LSM-1066;Barasertib,small molecule,10067-101,LSM-1067;Enzastaurin,small molecule,10069-101,LSM-1069;Erlotinib,small molecule,10097-101,LSM-1097;Gefitinib,small molecule,10098-101,LSM-1098;Nilotinib,small molecule,10099-101,LSM-1099;Pazopanib,small molecule,10114-101,LSM-1114;Canertinib,small molecule,10120-102,LSM-1120;SGX523,small molecule,10123-101,LSM-1123;PHA-665752,small molecule,10125-101,LSM-1125;PI103,small molecule,10126-101,LSM-1126;Dovitinib,small molecule,10127-101,LSM-1127;GSK 690693,small molecule,10128-101,LSM-1128;Masitinib,small molecule,10130-101,LSM-1130;BMS-387032,small molecule,10132-101,LSM-1132;Afatinib,small molecule,10133-101,LSM-5742;Ruxolitinib,small molecule,10138-101,LSM-1139;TG 101348,small molecule,10141-101,LSM-1142;BIBF-1120,small molecule,10151-101,LSM-1152;Foretinib,small molecule,10157-101,LSM-1158;SB 203580,small molecule,10167-101,LSM-1168;VX-745,small molecule,10168-101,LSM-1169;Sunitinib,small molecule,10175-101,LSM-1176;Brivanib,small molecule,10177-101,LSM-1178;GDC-0879,small molecule,10181-101,LSM-1182;Linifanib,small molecule,10182-101,LSM-1183;Ki20227,small molecule,10187-101,LSM-1188;Bosutinib,small molecule,10189-101,LSM-1190;KW2449,small molecule,10192-101,LSM-1193;Vandetanib,small molecule,10198-101,LSM-1199;PKC412,small molecule,10220-101,LSM-1221;Tofacitinib,small molecule,10226-108,LSM-1227;Lestaurtinib,small molecule,10230-101,LSM-1231;GSK1838705,small molecule,10255-101,LSM-4276;AT-7519,small molecule,10004-101,LSM-1004;Sorafenib,small molecule,10008-101,LSM-1008;Flavopiridol,small molecule,10011-101,LSM-1011;GSK461364,small molecule,10013-101,LSM-1013;Neratinib,small molecule,10018-101,LSM-1018;Dasatinib,small molecule,10020-101,LSM-1020;Tozasertib,small molecule,10021-101,LSM-1021;Imatinib,small molecule,10023-103,LSM-1023;NVP-TAE684,small molecule,10024-101,LSM-1024;Crizotinib,small molecule,10027-101,LSM-1027;RAF 265,small molecule,10206-101,LSM-1207;RO-3306,small molecule,10104-101,LSM-1104;CGP74514A,small molecule,10355-101,LSM-6711;5z-7-oxozeaenol,small molecule,10356-101,LSM-6712</t>
+  </si>
+  <si>
+    <t>false\small molecules,150</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/data/kinomescan/</t>
+  </si>
+  <si>
+    <t>482\proteins</t>
+  </si>
+  <si>
+    <t>KiNativ</t>
+  </si>
+  <si>
+    <t>The KiNativ assay platform is based on the use of biotinylated acyl phosphates of ATP or ADP that act as probes by reacting with protein kinases on conserved lysine residues in the ATP binding pocket to covalently attach a biotin moiety.  Using these probes, cell lysates treated with a kinase inhibitor can be labeled with BHAcATP or BHAcADP, with kinases inhibited by the compound of interest exhibiting reduced or no labeling.  This is followed by digestion with trypsin, isolation of biotinylated peptides, and analysis by mass spectrometry to determine the extent of labeling of peptides from each kinase.</t>
+  </si>
+  <si>
+    <t>A-375,epithelial,,skin,50060;HeLa,epithelial,,cervix,50061;PC-3,,,prostate,50454;BCWM.1,,,blood,51097;Ramos (RA 1),,,blood,50811;NGP,,,nervous system,51099;MDA-MB-468,,,breast,50335</t>
+  </si>
+  <si>
+    <t>Sorafenib,small molecule,10008-101,LSM-1008;GW-5074,small molecule,10029-101,LSM-1029;SB590885,small molecule,10046-101,LSM-1046;PLX-4720,small molecule,10049-101,LSM-1049;AZ-628,small molecule,10050-101,LSM-1050;PLX4032,small molecule,10068-101,LSM-1068;HG-6-64-01,small molecule,10017-101,LSM-6015;Torin1,small molecule,10079-101,LSM-1079;Torin2,small molecule,10080-101,LSM-1080;XMD11-50,small molecule,10086-101,LSM-1086;XMD11-85h,small molecule,10087-101,LSM-5577;XMD16-144,small molecule,10091-101,LSM-6299;JWE-035,small molecule,10092-101,LSM-1092;XMD8-85,small molecule,10093-101,LSM-1093;XMD8-92,small molecule,10094-101,LSM-1094;XMD-12,small molecule,10106-101,LSM-1106;NVP-BHG712,small molecule,10200-101,LSM-1201;CH5424802,small molecule,10201-101,LSM-1202;NPK76-II-72-1,small molecule,10070-101,LSM-1070;QL-X-138,small molecule,10075-101,LSM-5803;Ibrutinib,small molecule,10129-101,LSM-1129;BX795,small molecule,10188-101,LSM-1189;OTSSP167,small molecule,10337-102,LSM-6340;DCC-2036,small molecule,10351-101,LSM-6708</t>
+  </si>
+  <si>
+    <t>false\small molecules,24</t>
+  </si>
+  <si>
+    <t>http://lincs.hms.harvard.edu/db/datasets/?search=&amp;extra_form_shown=true&amp;dataset_type=KiNativ</t>
+  </si>
+  <si>
+    <t>326\proteins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -911,8 +1316,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,6 +1356,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1670,7 +2087,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1738,6 +2155,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="659">
     <cellStyle name="Bad" xfId="43" builtinId="27"/>
@@ -2735,10 +3163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y101"/>
+  <dimension ref="A1:BQ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -6013,22 +6441,1052 @@
       <c r="X64" s="17"/>
       <c r="Y64" s="22"/>
     </row>
-    <row r="91" spans="1:1" ht="17" customHeight="1">
+    <row r="65" spans="1:69" ht="33">
+      <c r="A65" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="24"/>
+      <c r="W65" s="24"/>
+      <c r="X65" s="24"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="24"/>
+      <c r="AA65" s="24"/>
+      <c r="AB65" s="24"/>
+      <c r="AC65" s="24"/>
+      <c r="AD65" s="24"/>
+      <c r="AE65" s="24"/>
+      <c r="AF65" s="24"/>
+      <c r="AG65" s="24"/>
+      <c r="AH65" s="24"/>
+      <c r="AI65" s="24"/>
+      <c r="AJ65" s="24"/>
+      <c r="AK65" s="24"/>
+      <c r="AL65" s="24"/>
+      <c r="AM65" s="24"/>
+      <c r="AN65" s="24"/>
+      <c r="AO65" s="24"/>
+      <c r="AP65" s="24"/>
+      <c r="AQ65" s="24"/>
+      <c r="AR65" s="24"/>
+      <c r="AS65" s="24"/>
+      <c r="AT65" s="24"/>
+      <c r="AU65" s="24"/>
+      <c r="AV65" s="24"/>
+      <c r="AW65" s="24"/>
+      <c r="AX65" s="24"/>
+      <c r="AY65" s="24"/>
+      <c r="AZ65" s="24"/>
+      <c r="BA65" s="24"/>
+      <c r="BB65" s="24"/>
+      <c r="BC65" s="24"/>
+      <c r="BD65" s="24"/>
+      <c r="BE65" s="24"/>
+      <c r="BF65" s="24"/>
+      <c r="BG65" s="24"/>
+      <c r="BH65" s="24"/>
+      <c r="BI65" s="24"/>
+      <c r="BJ65" s="24"/>
+      <c r="BK65" s="24"/>
+      <c r="BL65" s="24"/>
+      <c r="BM65" s="24"/>
+      <c r="BN65" s="24"/>
+      <c r="BO65" s="24"/>
+      <c r="BP65" s="24"/>
+      <c r="BQ65" s="25"/>
+    </row>
+    <row r="66" spans="1:69" ht="17" customHeight="1">
+      <c r="A66" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H66" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="L66" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:69" ht="17" customHeight="1">
+      <c r="A67" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H67" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="L67" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:69" ht="17" customHeight="1">
+      <c r="A68" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H68" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="L68" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:69" ht="17" customHeight="1">
+      <c r="A69" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H69" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="L69" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:69" ht="17" customHeight="1">
+      <c r="A70" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H70" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="L70" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="71" spans="1:69" ht="17" customHeight="1">
+      <c r="A71" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="L71" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="26">
+        <v>20121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:69" ht="17" customHeight="1">
+      <c r="A72" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="H72" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="L72" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="26">
+        <v>20136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:69" ht="17" customHeight="1">
+      <c r="A73" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="F73" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="H73" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="L73" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26">
+        <v>20006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:69" ht="17" customHeight="1">
+      <c r="A74" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="F74" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="H74" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="L74" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26">
+        <v>20007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:69" ht="17" customHeight="1">
+      <c r="A75" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="F75" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="H75" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="L75" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="26">
+        <v>20008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:69" ht="17" customHeight="1">
+      <c r="A76" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="F76" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="H76" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="L76" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26">
+        <v>20009</v>
+      </c>
+    </row>
+    <row r="77" spans="1:69" ht="17" customHeight="1">
+      <c r="A77" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="F77" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="H77" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="L77" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26">
+        <v>20010</v>
+      </c>
+    </row>
+    <row r="78" spans="1:69" ht="17" customHeight="1">
+      <c r="A78" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="H78" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="L78" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26">
+        <v>20011</v>
+      </c>
+    </row>
+    <row r="79" spans="1:69" ht="17" customHeight="1">
+      <c r="A79" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="F79" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="H79" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="L79" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26">
+        <v>20012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:69" ht="17" customHeight="1">
+      <c r="A80" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H80" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="L80" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26">
+        <v>20013</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="17" customHeight="1">
+      <c r="A81" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="H81" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="L81" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26">
+        <v>20014</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="17" customHeight="1">
+      <c r="A82" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="F82" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H82" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="L82" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26">
+        <v>20016</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="17" customHeight="1">
+      <c r="A83" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="F83" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="H83" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="L83" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="26">
+        <v>20017</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="17" customHeight="1">
+      <c r="A84" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="H84" s="27">
+        <v>41761</v>
+      </c>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="L84" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M84" s="26"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="26">
+        <v>20120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="17" customHeight="1">
+      <c r="A85" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="L85" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="26">
+        <v>20137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="17" customHeight="1">
+      <c r="A86" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="27">
+        <v>41781</v>
+      </c>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="L86" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M86" s="26"/>
+      <c r="N86" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="O86" s="26">
+        <v>20138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="17" customHeight="1">
+      <c r="A87" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="27">
+        <v>41781</v>
+      </c>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="L87" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="O87" s="26">
+        <v>20139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="17" customHeight="1">
+      <c r="A88" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="27">
+        <v>41677</v>
+      </c>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="L88" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="O88" s="26">
+        <v>20140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="17" customHeight="1">
+      <c r="A89" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="G89" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="H89" s="27">
+        <v>41947</v>
+      </c>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="L89" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="O89" s="26"/>
+    </row>
+    <row r="90" spans="1:15" ht="17" customHeight="1">
+      <c r="A90" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="F90" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G90" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="H90" s="27">
+        <v>41816</v>
+      </c>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="L90" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="M90" s="26"/>
+      <c r="N90" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="O90" s="26"/>
+    </row>
+    <row r="91" spans="1:15" ht="17" customHeight="1">
       <c r="A91" s="21"/>
     </row>
-    <row r="92" spans="1:1" ht="17" customHeight="1">
+    <row r="92" spans="1:15" ht="17" customHeight="1">
       <c r="A92" s="21"/>
     </row>
-    <row r="93" spans="1:1" ht="17" customHeight="1">
+    <row r="93" spans="1:15" ht="17" customHeight="1">
       <c r="A93" s="21"/>
     </row>
-    <row r="94" spans="1:1" ht="17" customHeight="1">
+    <row r="94" spans="1:15" ht="17" customHeight="1">
       <c r="A94" s="21"/>
     </row>
-    <row r="95" spans="1:1" ht="17" customHeight="1">
+    <row r="95" spans="1:15" ht="17" customHeight="1">
       <c r="A95" s="21"/>
     </row>
-    <row r="96" spans="1:1" ht="17" customHeight="1">
+    <row r="96" spans="1:15" ht="17" customHeight="1">
       <c r="A96" s="21"/>
     </row>
     <row r="97" spans="1:1" ht="17" customHeight="1">
@@ -6047,6 +7505,9 @@
       <c r="A101" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A65:BQ65"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="R28" r:id="rId1"/>
     <hyperlink ref="R29" r:id="rId2"/>

--- a/milestones-consolidated.xlsx
+++ b/milestones-consolidated.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="426">
   <si>
     <t>center</t>
   </si>
@@ -1228,6 +1228,75 @@
   </si>
   <si>
     <t>lincs.milestones.m:f4d88949-9985-4fc9-863b-22a06599e1de</t>
+  </si>
+  <si>
+    <t>DCIC Assay Name</t>
+  </si>
+  <si>
+    <t>RNA-Seq Gene expression profiling assay</t>
+  </si>
+  <si>
+    <t>MS Protein Quantification Assay</t>
+  </si>
+  <si>
+    <t>Western Blot / PCR Assay</t>
+  </si>
+  <si>
+    <t>Western Blot Assay</t>
+  </si>
+  <si>
+    <t>L1000 Gene expression profiling assay</t>
+  </si>
+  <si>
+    <t>Fluorescence Imaging Cell viability assay</t>
+  </si>
+  <si>
+    <t>Fluorescence Imaging Cell Viability Assay / Apoptosis Assay</t>
+  </si>
+  <si>
+    <t>RPPA Protein Quantification Assay</t>
+  </si>
+  <si>
+    <t>Fluorescence Imaging Phosphorylation State /Protein Quantification Assay</t>
+  </si>
+  <si>
+    <t>Fluorescence Imaging Cell Growth Inhibition Assay</t>
+  </si>
+  <si>
+    <t>Secretion Response Immunoassay</t>
+  </si>
+  <si>
+    <t>Fluorescence Imaging Phosphorotein Quantification Assay / Cell State Assay</t>
+  </si>
+  <si>
+    <t>Fluorescence Imaging Cell Viability / Apoptosis Assay</t>
+  </si>
+  <si>
+    <t>Fluorescence Imaging Phosphorotein Quantification Assay</t>
+  </si>
+  <si>
+    <t>MS Phosphorotein Quantification Assay</t>
+  </si>
+  <si>
+    <t>P100 Phosphorotein Quantification Assay</t>
+  </si>
+  <si>
+    <t>Global Chromatin Profiling Epigenetic Profiling Assay</t>
+  </si>
+  <si>
+    <t>Fluorescence Imaging Cell Viability Assay</t>
+  </si>
+  <si>
+    <t>SWATH-MS Protein Quantification Assay</t>
+  </si>
+  <si>
+    <t>Atac-seq Epigenetic Profiling Assay</t>
+  </si>
+  <si>
+    <t>MEMA Cell Growth Assay</t>
+  </si>
+  <si>
+    <t>Unique ID (Qiaonan)</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1358,7 @@
       <name val="Strait"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1300,12 +1369,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB8CCE4"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1321,7 +1384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1390,8 +1453,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="675">
+  <cellStyleXfs count="677">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2067,16 +2152,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2093,17 +2177,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="675">
+  <cellStyles count="677">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2453,6 +2549,8 @@
     <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="673" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3117,8 +3215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -3140,3185 +3238,3413 @@
     <col min="15" max="17" width="15.375" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="43.625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="50" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="104.875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="5.625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="41.125" style="19" customWidth="1"/>
+    <col min="21" max="21" width="10.625" style="4"/>
+    <col min="22" max="22" width="5.625" style="21" customWidth="1"/>
     <col min="23" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="32">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="32">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="U1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="T1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="17" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" s="5" customFormat="1" ht="16">
-      <c r="A4" s="5" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="U3" s="23"/>
+    </row>
+    <row r="4" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A4" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>3</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>42124</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>42124</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>42124</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <v>42124</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="18" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" s="5" customFormat="1" ht="16">
-      <c r="A5" s="5" t="s">
+      <c r="U4" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="V4" s="20"/>
+    </row>
+    <row r="5" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A5" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>3</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>42124</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>42124</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>42124</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <v>42124</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="18" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" s="5" customFormat="1" ht="16">
-      <c r="A6" s="5" t="s">
+      <c r="U5" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="V5" s="20"/>
+    </row>
+    <row r="6" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A6" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>3</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>42124</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>42124</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>42124</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <v>42124</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="18" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" s="5" customFormat="1" ht="16">
-      <c r="A7" s="5" t="s">
+      <c r="U6" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="V6" s="20"/>
+    </row>
+    <row r="7" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A7" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>3</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>42216</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>42216</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>42216</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>42216</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="18" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" s="5" customFormat="1" ht="16">
-      <c r="A8" s="5" t="s">
+      <c r="U7" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="V7" s="20"/>
+    </row>
+    <row r="8" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A8" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>3</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>42216</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>42216</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>42216</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>42216</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T8" s="18" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" s="5" customFormat="1" ht="16">
-      <c r="A9" s="5" t="s">
+      <c r="U8" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="V8" s="20"/>
+    </row>
+    <row r="9" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A9" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>3</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>42216</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>42216</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>42216</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>42216</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="18" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" s="5" customFormat="1" ht="16">
-      <c r="A10" s="5" t="s">
+      <c r="U9" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="V9" s="20"/>
+    </row>
+    <row r="10" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A10" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>3</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>42308</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>42308</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>42308</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <v>42308</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="18" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" s="5" customFormat="1" ht="16">
-      <c r="A11" s="5" t="s">
+      <c r="U10" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="V10" s="20"/>
+    </row>
+    <row r="11" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A11" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>3</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>42308</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>42308</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>42308</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <v>42308</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="18" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" s="5" customFormat="1" ht="16">
-      <c r="A12" s="5" t="s">
+      <c r="U11" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="V11" s="20"/>
+    </row>
+    <row r="12" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A12" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>3</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>42308</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>42308</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <v>42308</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <v>42308</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="18" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" s="5" customFormat="1" ht="16">
-      <c r="A13" s="5" t="s">
+      <c r="U12" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="V12" s="20"/>
+    </row>
+    <row r="13" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>42308</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>42308</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>42308</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>42308</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="T13" s="18" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" s="5" customFormat="1" ht="16">
-      <c r="A14" s="5" t="s">
+      <c r="U13" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="V13" s="20"/>
+    </row>
+    <row r="14" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A14" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>42308</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>42308</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>42308</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <v>42308</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="18" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" s="5" customFormat="1" ht="16">
-      <c r="A15" s="5" t="s">
+      <c r="U14" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="V14" s="20"/>
+    </row>
+    <row r="15" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A15" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <v>42308</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>42308</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <v>42308</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <v>42308</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="18" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" s="5" customFormat="1" ht="16">
-      <c r="A16" s="5" t="s">
+      <c r="U15" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A16" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>3</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <v>42400</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>42400</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <v>42400</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <v>42400</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T16" s="18" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A17" s="5" t="s">
+      <c r="U16" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="V16" s="20"/>
+    </row>
+    <row r="17" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A17" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>3</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <v>42400</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="5">
         <v>42400</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="5">
         <v>42400</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="5">
         <v>42400</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="T17" s="18" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A18" s="5" t="s">
+      <c r="U17" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="V17" s="20"/>
+    </row>
+    <row r="18" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A18" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>3</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <v>42400</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>42400</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="5">
         <v>42400</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="5">
         <v>42400</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="S18" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T18" s="18" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" s="18" customFormat="1" ht="16"/>
-    <row r="20" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A20" s="5" t="s">
+      <c r="U18" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="V18" s="20"/>
+    </row>
+    <row r="19" spans="1:22" s="16" customFormat="1" ht="16"/>
+    <row r="20" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A20" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>3</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <v>42185</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <v>42185</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="5">
         <v>42185</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="5">
         <v>42185</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T20" s="18" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A21" s="5" t="s">
+      <c r="U20" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="V20" s="20"/>
+    </row>
+    <row r="21" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A21" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>3</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="5">
         <v>42185</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="5">
         <v>42185</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="5">
         <v>42185</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="5">
         <v>42185</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="T21" s="18" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A22" s="5" t="s">
+      <c r="U21" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="V21" s="20"/>
+    </row>
+    <row r="22" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A22" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>3</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <v>42185</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="5">
         <v>42185</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="5">
         <v>42185</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="5">
         <v>42185</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="S22" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="T22" s="18" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A23" s="5" t="s">
+      <c r="U22" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="V22" s="20"/>
+    </row>
+    <row r="23" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A23" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>3</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <v>42185</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="5">
         <v>42185</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="5">
         <v>42185</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="5">
         <v>42185</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S23" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T23" s="5" t="s">
+      <c r="T23" s="18" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" s="18" customFormat="1" ht="16"/>
-    <row r="25" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A25" s="5" t="s">
+      <c r="U23" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="V23" s="20"/>
+    </row>
+    <row r="24" spans="1:22" s="16" customFormat="1" ht="16"/>
+    <row r="25" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A25" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="4">
         <v>1</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <v>42004</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="5">
         <v>42004</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="R25" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="S25" s="5" t="s">
+      <c r="S25" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="T25" s="18" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A26" s="5" t="s">
+      <c r="U25" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="V25" s="20"/>
+    </row>
+    <row r="26" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A26" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="4">
         <v>1</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="P26" s="6">
+      <c r="N26" s="5"/>
+      <c r="P26" s="5">
         <v>42004</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="R26" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="S26" s="5" t="s">
+      <c r="S26" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="T26" s="18" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A27" s="5" t="s">
+      <c r="U26" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="V26" s="20"/>
+    </row>
+    <row r="27" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A27" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="4">
         <v>2</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="5">
         <v>42094</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="5">
         <v>42094</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="5">
         <v>42094</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="Q27" s="5">
         <v>42094</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="S27" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="T27" s="18" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A28" s="5" t="s">
+      <c r="U27" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="V27" s="20"/>
+    </row>
+    <row r="28" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A28" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="4">
         <v>21</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="5">
         <v>42094</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="5">
         <v>42094</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28" s="5">
         <v>42094</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28" s="5">
         <v>42094</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="S28" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="T28" s="18" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A29" s="5" t="s">
+      <c r="U28" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="V28" s="20"/>
+    </row>
+    <row r="29" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A29" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="4">
         <v>7</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="5">
         <v>42094</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29" s="5">
         <v>42094</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29" s="5">
         <v>42094</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="Q29" s="5">
         <v>42094</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="S29" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="T29" s="18" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A30" s="5" t="s">
+      <c r="U29" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="V29" s="20"/>
+    </row>
+    <row r="30" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A30" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="4">
         <v>1</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="5">
         <v>42185</v>
       </c>
-      <c r="O30" s="6">
+      <c r="O30" s="5">
         <v>42185</v>
       </c>
-      <c r="S30" s="5" t="s">
+      <c r="S30" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T30" s="5" t="s">
+      <c r="T30" s="18" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A31" s="5" t="s">
+      <c r="U30" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="V30" s="20"/>
+    </row>
+    <row r="31" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A31" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="4">
         <v>1</v>
       </c>
-      <c r="N31" s="6">
+      <c r="N31" s="5">
         <v>42185</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31" s="5">
         <v>42185</v>
       </c>
-      <c r="S31" s="5" t="s">
+      <c r="S31" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T31" s="5" t="s">
+      <c r="T31" s="18" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A32" s="5" t="s">
+      <c r="U31" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="V31" s="20"/>
+    </row>
+    <row r="32" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A32" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="4">
         <v>1</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="5">
         <v>42185</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="5">
         <v>42185</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q32" s="5">
         <v>42369</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="S32" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="T32" s="18" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A33" s="5" t="s">
+      <c r="U32" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="V32" s="20"/>
+    </row>
+    <row r="33" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A33" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="4">
         <v>1</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="5">
         <v>42185</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="5">
         <v>42185</v>
       </c>
-      <c r="P33" s="6">
+      <c r="P33" s="5">
         <v>42185</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q33" s="5">
         <v>42369</v>
       </c>
-      <c r="S33" s="5" t="s">
+      <c r="S33" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T33" s="5" t="s">
+      <c r="T33" s="18" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A34" s="5" t="s">
+      <c r="U33" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="V33" s="20"/>
+    </row>
+    <row r="34" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A34" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="5">
         <v>42185</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="5">
         <v>42185</v>
       </c>
-      <c r="S34" s="5" t="s">
+      <c r="S34" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T34" s="5" t="s">
+      <c r="T34" s="18" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A35" s="5" t="s">
+      <c r="U34" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="V34" s="20"/>
+    </row>
+    <row r="35" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A35" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="4">
         <v>51</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="5">
         <v>42185</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="5">
         <v>42185</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="5">
         <v>42277</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="Q35" s="5">
         <v>42369</v>
       </c>
-      <c r="S35" s="5" t="s">
+      <c r="S35" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T35" s="5" t="s">
+      <c r="T35" s="18" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A36" s="5" t="s">
+      <c r="U35" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="V35" s="20"/>
+    </row>
+    <row r="36" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A36" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="4">
         <v>51</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="5">
         <v>42185</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="5">
         <v>42185</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="5">
         <v>42369</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q36" s="5">
         <v>42460</v>
       </c>
-      <c r="S36" s="5" t="s">
+      <c r="S36" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T36" s="5" t="s">
+      <c r="T36" s="18" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A37" s="5" t="s">
+      <c r="U36" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="V36" s="20"/>
+    </row>
+    <row r="37" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A37" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="4">
         <v>1</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="5">
         <v>42277</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="5">
         <v>42277</v>
       </c>
-      <c r="S37" s="5" t="s">
+      <c r="S37" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T37" s="5" t="s">
+      <c r="T37" s="18" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A38" s="5" t="s">
+      <c r="U37" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="V37" s="20"/>
+    </row>
+    <row r="38" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A38" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38" s="5">
         <v>42277</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="5">
         <v>42277</v>
       </c>
-      <c r="S38" s="5" t="s">
+      <c r="S38" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T38" s="5" t="s">
+      <c r="T38" s="18" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A39" s="5" t="s">
+      <c r="U38" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="V38" s="20"/>
+    </row>
+    <row r="39" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A39" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="4">
         <v>51</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="5">
         <v>42277</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="5">
         <v>42369</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39" s="5">
         <v>42460</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="Q39" s="5">
         <v>42551</v>
       </c>
-      <c r="S39" s="5" t="s">
+      <c r="S39" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T39" s="5" t="s">
+      <c r="T39" s="18" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A40" s="5" t="s">
+      <c r="U39" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="V39" s="20"/>
+    </row>
+    <row r="40" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A40" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="5">
         <v>42369</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="5">
         <v>42369</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40" s="5">
         <v>42369</v>
       </c>
-      <c r="S40" s="5" t="s">
+      <c r="S40" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T40" s="5" t="s">
+      <c r="T40" s="18" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A41" s="5" t="s">
+      <c r="U40" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="V40" s="20"/>
+    </row>
+    <row r="41" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A41" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="5">
         <v>42369</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="5">
         <v>42369</v>
       </c>
-      <c r="S41" s="5" t="s">
+      <c r="S41" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T41" s="5" t="s">
+      <c r="T41" s="18" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A42" s="5" t="s">
+      <c r="U41" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="V41" s="20"/>
+    </row>
+    <row r="42" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A42" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="4">
         <v>2</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42" s="5">
         <v>42369</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="5">
         <v>42369</v>
       </c>
-      <c r="S42" s="5" t="s">
+      <c r="S42" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T42" s="5" t="s">
+      <c r="T42" s="18" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A43" s="5" t="s">
+      <c r="U42" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="V42" s="20"/>
+    </row>
+    <row r="43" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A43" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="5">
         <v>42369</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="5">
         <v>42369</v>
       </c>
-      <c r="S43" s="5" t="s">
+      <c r="S43" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T43" s="5" t="s">
+      <c r="T43" s="18" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A44" s="5" t="s">
+      <c r="U43" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="V43" s="20"/>
+    </row>
+    <row r="44" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A44" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="L44" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="4">
         <v>1</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="5">
         <v>42369</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="5">
         <v>42369</v>
       </c>
-      <c r="S44" s="5" t="s">
+      <c r="S44" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T44" s="5" t="s">
+      <c r="T44" s="18" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" s="18" customFormat="1" ht="16">
-      <c r="A45" s="18" t="s">
+      <c r="U44" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="V44" s="20"/>
+    </row>
+    <row r="45" spans="1:22" s="16" customFormat="1" ht="16">
+      <c r="A45" s="16" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A46" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="4">
         <v>3</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="L46" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="4">
         <v>100</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46" s="5">
         <v>42185</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="5">
         <v>42185</v>
       </c>
-      <c r="P46" s="6">
+      <c r="P46" s="5">
         <v>42185</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="Q46" s="5">
         <v>42185</v>
       </c>
-      <c r="S46" s="5" t="s">
+      <c r="S46" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T46" s="5" t="s">
+      <c r="T46" s="18" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A47" s="5" t="s">
+      <c r="U46" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="V46" s="20"/>
+    </row>
+    <row r="47" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A47" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="4">
         <v>3</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="L47" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="4">
         <v>100</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47" s="5">
         <v>42185</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47" s="5">
         <v>42185</v>
       </c>
-      <c r="P47" s="6">
+      <c r="P47" s="5">
         <v>42185</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="Q47" s="5">
         <v>42185</v>
       </c>
-      <c r="S47" s="5" t="s">
+      <c r="S47" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T47" s="5" t="s">
+      <c r="T47" s="18" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" s="18" customFormat="1" ht="16"/>
-    <row r="49" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A49" s="5" t="s">
+      <c r="U47" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="V47" s="20"/>
+    </row>
+    <row r="48" spans="1:22" s="16" customFormat="1" ht="16"/>
+    <row r="49" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A49" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <v>2</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="L49" s="5" t="s">
+      <c r="L49" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="4">
         <v>3</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N49" s="5">
         <v>42185</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O49" s="5">
         <v>42277</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P49" s="5">
         <v>42369</v>
       </c>
-      <c r="S49" s="5" t="s">
+      <c r="S49" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T49" s="5" t="s">
+      <c r="T49" s="18" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A50" s="5" t="s">
+      <c r="U49" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="V49" s="20"/>
+    </row>
+    <row r="50" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A50" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="4">
         <v>2</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="L50" s="5" t="s">
+      <c r="L50" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="4">
         <v>2</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N50" s="5">
         <v>42185</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O50" s="5">
         <v>42277</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P50" s="5">
         <v>42369</v>
       </c>
-      <c r="S50" s="5" t="s">
+      <c r="S50" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T50" s="5" t="s">
+      <c r="T50" s="18" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A51" s="5" t="s">
+      <c r="U50" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="V50" s="20"/>
+    </row>
+    <row r="51" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A51" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="4">
         <v>2</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="L51" s="5" t="s">
+      <c r="L51" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="4">
         <v>3</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N51" s="5">
         <v>42185</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O51" s="5">
         <v>42277</v>
       </c>
-      <c r="P51" s="6">
+      <c r="P51" s="5">
         <v>42369</v>
       </c>
-      <c r="S51" s="5" t="s">
+      <c r="S51" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T51" s="5" t="s">
+      <c r="T51" s="18" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A52" s="5" t="s">
+      <c r="U51" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="V51" s="20"/>
+    </row>
+    <row r="52" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A52" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="L52" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="4">
         <v>1</v>
       </c>
-      <c r="N52" s="6">
+      <c r="N52" s="5">
         <v>42185</v>
       </c>
-      <c r="O52" s="6">
+      <c r="O52" s="5">
         <v>42277</v>
       </c>
-      <c r="P52" s="6">
+      <c r="P52" s="5">
         <v>42369</v>
       </c>
-      <c r="S52" s="5" t="s">
+      <c r="S52" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T52" s="5" t="s">
+      <c r="T52" s="18" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A53" s="5" t="s">
+      <c r="U52" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="V52" s="20"/>
+    </row>
+    <row r="53" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A53" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L53" s="5" t="s">
+      <c r="L53" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="4">
         <v>1</v>
       </c>
-      <c r="N53" s="6">
+      <c r="N53" s="5">
         <v>42185</v>
       </c>
-      <c r="O53" s="6">
+      <c r="O53" s="5">
         <v>42277</v>
       </c>
-      <c r="P53" s="6">
+      <c r="P53" s="5">
         <v>42369</v>
       </c>
-      <c r="S53" s="5" t="s">
+      <c r="S53" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T53" s="5" t="s">
+      <c r="T53" s="18" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A54" s="5" t="s">
+      <c r="U53" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="V53" s="20"/>
+    </row>
+    <row r="54" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A54" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="L54" s="5" t="s">
+      <c r="L54" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="4">
         <v>1</v>
       </c>
-      <c r="N54" s="6">
+      <c r="N54" s="5">
         <v>42185</v>
       </c>
-      <c r="O54" s="6">
+      <c r="O54" s="5">
         <v>42277</v>
       </c>
-      <c r="P54" s="6">
+      <c r="P54" s="5">
         <v>42369</v>
       </c>
-      <c r="S54" s="5" t="s">
+      <c r="S54" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T54" s="5" t="s">
+      <c r="T54" s="18" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A55" s="5" t="s">
+      <c r="U54" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="V54" s="20"/>
+    </row>
+    <row r="55" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A55" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L55" s="5" t="s">
+      <c r="L55" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="4">
         <v>1</v>
       </c>
-      <c r="N55" s="6">
+      <c r="N55" s="5">
         <v>42185</v>
       </c>
-      <c r="O55" s="6">
+      <c r="O55" s="5">
         <v>42277</v>
       </c>
-      <c r="S55" s="5" t="s">
+      <c r="S55" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T55" s="5" t="s">
+      <c r="T55" s="18" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A56" s="5" t="s">
+      <c r="U55" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="V55" s="20"/>
+    </row>
+    <row r="56" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A56" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="L56" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M56" s="5">
+      <c r="M56" s="4">
         <v>1</v>
       </c>
-      <c r="N56" s="6">
+      <c r="N56" s="5">
         <v>42185</v>
       </c>
-      <c r="O56" s="6">
+      <c r="O56" s="5">
         <v>42277</v>
       </c>
-      <c r="P56" s="6">
+      <c r="P56" s="5">
         <v>42369</v>
       </c>
-      <c r="S56" s="5" t="s">
+      <c r="S56" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T56" s="5" t="s">
+      <c r="T56" s="18" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A57" s="5" t="s">
+      <c r="U56" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="V56" s="20"/>
+    </row>
+    <row r="57" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A57" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L57" s="5" t="s">
+      <c r="L57" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M57" s="5">
+      <c r="M57" s="4">
         <v>1</v>
       </c>
-      <c r="N57" s="6">
+      <c r="N57" s="5">
         <v>42185</v>
       </c>
-      <c r="O57" s="6">
+      <c r="O57" s="5">
         <v>42277</v>
       </c>
-      <c r="P57" s="6">
+      <c r="P57" s="5">
         <v>42369</v>
       </c>
-      <c r="S57" s="5" t="s">
+      <c r="S57" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T57" s="5" t="s">
+      <c r="T57" s="18" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A58" s="5" t="s">
+      <c r="U57" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="V57" s="20"/>
+    </row>
+    <row r="58" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A58" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="L58" s="5" t="s">
+      <c r="L58" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="4">
         <v>1</v>
       </c>
-      <c r="N58" s="6">
+      <c r="N58" s="5">
         <v>42185</v>
       </c>
-      <c r="O58" s="6">
+      <c r="O58" s="5">
         <v>42277</v>
       </c>
-      <c r="P58" s="6">
+      <c r="P58" s="5">
         <v>42369</v>
       </c>
-      <c r="S58" s="5" t="s">
+      <c r="S58" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T58" s="5" t="s">
+      <c r="T58" s="18" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A59" s="5" t="s">
+      <c r="U58" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="V58" s="20"/>
+    </row>
+    <row r="59" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A59" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="4">
         <v>3</v>
       </c>
-      <c r="L59" s="5" t="s">
+      <c r="L59" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="4">
         <v>3</v>
       </c>
-      <c r="N59" s="6">
+      <c r="N59" s="5">
         <v>42185</v>
       </c>
-      <c r="O59" s="6">
+      <c r="O59" s="5">
         <v>42277</v>
       </c>
-      <c r="P59" s="6">
+      <c r="P59" s="5">
         <v>42369</v>
       </c>
-      <c r="S59" s="5" t="s">
+      <c r="S59" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T59" s="5" t="s">
+      <c r="T59" s="18" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A60" s="5" t="s">
+      <c r="U59" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="V59" s="20"/>
+    </row>
+    <row r="60" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A60" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="4">
         <v>3</v>
       </c>
-      <c r="L60" s="5" t="s">
+      <c r="L60" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="4">
         <v>3</v>
       </c>
-      <c r="N60" s="6">
+      <c r="N60" s="5">
         <v>42185</v>
       </c>
-      <c r="O60" s="6">
+      <c r="O60" s="5">
         <v>42277</v>
       </c>
-      <c r="P60" s="6">
+      <c r="P60" s="5">
         <v>42369</v>
       </c>
-      <c r="S60" s="5" t="s">
+      <c r="S60" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T60" s="5" t="s">
+      <c r="T60" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A61" s="5" t="s">
+      <c r="U60" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="V60" s="20"/>
+    </row>
+    <row r="61" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A61" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="E61" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="4">
         <v>3</v>
       </c>
-      <c r="L61" s="5" t="s">
+      <c r="L61" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="4">
         <v>3</v>
       </c>
-      <c r="N61" s="6">
+      <c r="N61" s="5">
         <v>42185</v>
       </c>
-      <c r="O61" s="6">
+      <c r="O61" s="5">
         <v>42277</v>
       </c>
-      <c r="P61" s="6">
+      <c r="P61" s="5">
         <v>42369</v>
       </c>
-      <c r="S61" s="5" t="s">
+      <c r="S61" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T61" s="5" t="s">
+      <c r="T61" s="18" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" s="18" customFormat="1" ht="16"/>
-    <row r="63" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A63" s="5" t="s">
+      <c r="U61" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="V61" s="20"/>
+    </row>
+    <row r="62" spans="1:22" s="16" customFormat="1" ht="16"/>
+    <row r="63" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A63" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="4">
         <v>6</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L63" s="5" t="s">
+      <c r="L63" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="4">
         <v>13</v>
       </c>
-      <c r="N63" s="6">
+      <c r="N63" s="5">
         <v>42277</v>
       </c>
-      <c r="O63" s="6">
+      <c r="O63" s="5">
         <v>42277</v>
       </c>
-      <c r="P63" s="6">
+      <c r="P63" s="5">
         <v>42277</v>
       </c>
-      <c r="Q63" s="6">
+      <c r="Q63" s="5">
         <v>42277</v>
       </c>
-      <c r="S63" s="5" t="s">
+      <c r="S63" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T63" s="5" t="s">
+      <c r="T63" s="18" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" s="5" customFormat="1" ht="16">
-      <c r="A64" s="5" t="s">
+      <c r="U63" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="V63" s="20"/>
+    </row>
+    <row r="64" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A64" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J64" s="4">
         <v>6</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L64" s="5" t="s">
+      <c r="L64" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="4">
         <v>13</v>
       </c>
-      <c r="N64" s="6">
+      <c r="N64" s="5">
         <v>42459</v>
       </c>
-      <c r="O64" s="6">
+      <c r="O64" s="5">
         <v>42459</v>
       </c>
-      <c r="P64" s="6">
+      <c r="P64" s="5">
         <v>42459</v>
       </c>
-      <c r="Q64" s="6">
+      <c r="Q64" s="5">
         <v>42459</v>
       </c>
-      <c r="S64" s="5" t="s">
+      <c r="S64" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="T64" s="5" t="s">
+      <c r="T64" s="18" t="s">
         <v>402</v>
       </c>
+      <c r="U64" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="V64" s="20"/>
     </row>
     <row r="65" spans="1:69" ht="33">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="17"/>
-      <c r="V65" s="17"/>
-      <c r="W65" s="17"/>
-      <c r="X65" s="17"/>
-      <c r="Y65" s="17"/>
-      <c r="Z65" s="17"/>
-      <c r="AA65" s="17"/>
-      <c r="AB65" s="17"/>
-      <c r="AC65" s="17"/>
-      <c r="AD65" s="17"/>
-      <c r="AE65" s="17"/>
-      <c r="AF65" s="17"/>
-      <c r="AG65" s="17"/>
-      <c r="AH65" s="17"/>
-      <c r="AI65" s="17"/>
-      <c r="AJ65" s="17"/>
-      <c r="AK65" s="17"/>
-      <c r="AL65" s="17"/>
-      <c r="AM65" s="17"/>
-      <c r="AN65" s="17"/>
-      <c r="AO65" s="17"/>
-      <c r="AP65" s="17"/>
-      <c r="AQ65" s="17"/>
-      <c r="AR65" s="17"/>
-      <c r="AS65" s="17"/>
-      <c r="AT65" s="17"/>
-      <c r="AU65" s="17"/>
-      <c r="AV65" s="17"/>
-      <c r="AW65" s="17"/>
-      <c r="AX65" s="17"/>
-      <c r="AY65" s="17"/>
-      <c r="AZ65" s="17"/>
-      <c r="BA65" s="17"/>
-      <c r="BB65" s="17"/>
-      <c r="BC65" s="17"/>
-      <c r="BD65" s="17"/>
-      <c r="BE65" s="17"/>
-      <c r="BF65" s="17"/>
-      <c r="BG65" s="17"/>
-      <c r="BH65" s="17"/>
-      <c r="BI65" s="17"/>
-      <c r="BJ65" s="17"/>
-      <c r="BK65" s="17"/>
-      <c r="BL65" s="17"/>
-      <c r="BM65" s="17"/>
-      <c r="BN65" s="17"/>
-      <c r="BO65" s="17"/>
-      <c r="BP65" s="17"/>
-      <c r="BQ65" s="17"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="15"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="15"/>
+      <c r="Y65" s="15"/>
+      <c r="Z65" s="15"/>
+      <c r="AA65" s="15"/>
+      <c r="AB65" s="15"/>
+      <c r="AC65" s="15"/>
+      <c r="AD65" s="15"/>
+      <c r="AE65" s="15"/>
+      <c r="AF65" s="15"/>
+      <c r="AG65" s="15"/>
+      <c r="AH65" s="15"/>
+      <c r="AI65" s="15"/>
+      <c r="AJ65" s="15"/>
+      <c r="AK65" s="15"/>
+      <c r="AL65" s="15"/>
+      <c r="AM65" s="15"/>
+      <c r="AN65" s="15"/>
+      <c r="AO65" s="15"/>
+      <c r="AP65" s="15"/>
+      <c r="AQ65" s="15"/>
+      <c r="AR65" s="15"/>
+      <c r="AS65" s="15"/>
+      <c r="AT65" s="15"/>
+      <c r="AU65" s="15"/>
+      <c r="AV65" s="15"/>
+      <c r="AW65" s="15"/>
+      <c r="AX65" s="15"/>
+      <c r="AY65" s="15"/>
+      <c r="AZ65" s="15"/>
+      <c r="BA65" s="15"/>
+      <c r="BB65" s="15"/>
+      <c r="BC65" s="15"/>
+      <c r="BD65" s="15"/>
+      <c r="BE65" s="15"/>
+      <c r="BF65" s="15"/>
+      <c r="BG65" s="15"/>
+      <c r="BH65" s="15"/>
+      <c r="BI65" s="15"/>
+      <c r="BJ65" s="15"/>
+      <c r="BK65" s="15"/>
+      <c r="BL65" s="15"/>
+      <c r="BM65" s="15"/>
+      <c r="BN65" s="15"/>
+      <c r="BO65" s="15"/>
+      <c r="BP65" s="15"/>
+      <c r="BQ65" s="15"/>
     </row>
     <row r="66" spans="1:69" ht="17" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>233</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="L66" s="7" t="s">
+      <c r="L66" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="R66" s="8" t="s">
+      <c r="R66" s="7" t="s">
         <v>253</v>
       </c>
       <c r="S66" s="2" t="s">
@@ -6329,22 +6655,22 @@
       <c r="A67" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="6" t="s">
         <v>249</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="L67" s="7" t="s">
+      <c r="L67" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="R67" s="8" t="s">
+      <c r="R67" s="7" t="s">
         <v>254</v>
       </c>
       <c r="S67" s="2" t="s">
@@ -6355,22 +6681,22 @@
       <c r="A68" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="6" t="s">
         <v>183</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="L68" s="7" t="s">
+      <c r="L68" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="R68" s="8" t="s">
+      <c r="R68" s="7" t="s">
         <v>255</v>
       </c>
       <c r="S68" s="2" t="s">
@@ -6381,22 +6707,22 @@
       <c r="A69" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="6" t="s">
         <v>184</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L69" s="7" t="s">
+      <c r="L69" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="R69" s="8" t="s">
+      <c r="R69" s="7" t="s">
         <v>256</v>
       </c>
       <c r="S69" s="2" t="s">
@@ -6407,22 +6733,22 @@
       <c r="A70" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="6" t="s">
         <v>251</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="L70" s="7" t="s">
+      <c r="L70" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="R70" s="8" t="s">
+      <c r="R70" s="7" t="s">
         <v>261</v>
       </c>
       <c r="S70" s="2" t="s">
@@ -6433,22 +6759,22 @@
       <c r="A71" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>222</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="6" t="s">
         <v>234</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="L71" s="7" t="s">
+      <c r="L71" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="R71" s="8" t="s">
+      <c r="R71" s="7" t="s">
         <v>257</v>
       </c>
       <c r="S71" s="2" t="s">
@@ -6459,22 +6785,22 @@
       <c r="A72" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="6" t="s">
         <v>147</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L72" s="7" t="s">
+      <c r="L72" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="R72" s="8" t="s">
+      <c r="R72" s="7" t="s">
         <v>258</v>
       </c>
       <c r="S72" s="2" t="s">
@@ -6485,22 +6811,22 @@
       <c r="A73" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="6" t="s">
         <v>252</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="L73" s="7" t="s">
+      <c r="L73" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="R73" s="8" t="s">
+      <c r="R73" s="7" t="s">
         <v>259</v>
       </c>
       <c r="S73" s="2" t="s">
@@ -6511,49 +6837,49 @@
       <c r="A74" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>225</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="6" t="s">
         <v>149</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="L74" s="7" t="s">
+      <c r="L74" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="R74" s="8" t="s">
+      <c r="R74" s="7" t="s">
         <v>260</v>
       </c>
       <c r="S74" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:69" s="16" customFormat="1" ht="17" customHeight="1"/>
+    <row r="75" spans="1:69" s="17" customFormat="1" ht="17" customHeight="1"/>
     <row r="76" spans="1:69" ht="17" customHeight="1">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="6" t="s">
         <v>250</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L76" s="7" t="s">
+      <c r="L76" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="R76" s="8" t="s">
+      <c r="R76" s="7" t="s">
         <v>262</v>
       </c>
       <c r="S76" s="2" t="s">
@@ -6561,25 +6887,25 @@
       </c>
     </row>
     <row r="77" spans="1:69" ht="17" customHeight="1">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="6" t="s">
         <v>235</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="L77" s="7" t="s">
+      <c r="L77" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="R77" s="8" t="s">
+      <c r="R77" s="7" t="s">
         <v>262</v>
       </c>
       <c r="S77" s="2" t="s">
@@ -6587,32 +6913,32 @@
       </c>
     </row>
     <row r="78" spans="1:69" ht="17" customHeight="1">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>194</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="6" t="s">
         <v>152</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="L78" s="7" t="s">
+      <c r="L78" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="R78" s="8" t="s">
+      <c r="R78" s="7" t="s">
         <v>262</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:69" s="16" customFormat="1" ht="17" customHeight="1"/>
+    <row r="79" spans="1:69" s="17" customFormat="1" ht="17" customHeight="1"/>
     <row r="80" spans="1:69" ht="17" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>209</v>
@@ -6620,34 +6946,34 @@
       <c r="B80" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="6" t="s">
         <v>147</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="L80" s="7" t="s">
+      <c r="L80" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="R80" s="8" t="s">
+      <c r="R80" s="7" t="s">
         <v>263</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="16" customFormat="1" ht="17" customHeight="1"/>
-    <row r="82" spans="1:19" ht="17" customHeight="1">
+    <row r="81" spans="1:22" s="17" customFormat="1" ht="17" customHeight="1"/>
+    <row r="82" spans="1:22" ht="17" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="9" t="s">
         <v>275</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -6656,45 +6982,47 @@
       <c r="G82" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L82" s="7" t="s">
+      <c r="L82" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="R82" s="8" t="s">
+      <c r="R82" s="7" t="s">
         <v>264</v>
       </c>
       <c r="S82" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="16" customFormat="1" ht="17" customHeight="1"/>
-    <row r="84" spans="1:19" s="5" customFormat="1" ht="16">
-      <c r="A84" s="5" t="s">
+    <row r="83" spans="1:22" s="17" customFormat="1" ht="17" customHeight="1"/>
+    <row r="84" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A84" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="L84" s="5" t="s">
+      <c r="L84" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="N84" s="9">
+      <c r="N84" s="8">
         <v>2014</v>
       </c>
-      <c r="R84" s="11" t="s">
+      <c r="R84" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="S84" s="5" t="s">
+      <c r="S84" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" s="16" customFormat="1" ht="17" customHeight="1"/>
-    <row r="86" spans="1:19" ht="17" customHeight="1">
+      <c r="T84" s="18"/>
+      <c r="V84" s="20"/>
+    </row>
+    <row r="85" spans="1:22" s="17" customFormat="1" ht="17" customHeight="1"/>
+    <row r="86" spans="1:22" ht="17" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>214</v>
       </c>
@@ -6707,16 +7035,16 @@
       <c r="G86" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="L86" s="7" t="s">
+      <c r="L86" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="R86" s="8"/>
+      <c r="R86" s="7"/>
       <c r="S86" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="87" spans="1:19" s="16" customFormat="1" ht="17" customHeight="1"/>
-    <row r="88" spans="1:19" ht="17" customHeight="1">
+    <row r="87" spans="1:22" s="17" customFormat="1" ht="17" customHeight="1"/>
+    <row r="88" spans="1:22" ht="17" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>215</v>
       </c>
@@ -6729,24 +7057,24 @@
       <c r="G88" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="L88" s="7" t="s">
+      <c r="L88" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="R88" s="8" t="s">
+      <c r="R88" s="7" t="s">
         <v>265</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="17" customHeight="1">
+    <row r="89" spans="1:22" ht="17" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="9" t="s">
         <v>274</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -6755,25 +7083,25 @@
       <c r="G89" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="L89" s="7" t="s">
+      <c r="L89" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="R89" s="8" t="s">
+      <c r="R89" s="7" t="s">
         <v>265</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="16" customFormat="1" ht="17" customHeight="1"/>
-    <row r="91" spans="1:19" ht="17" customHeight="1">
+    <row r="90" spans="1:22" s="17" customFormat="1" ht="17" customHeight="1"/>
+    <row r="91" spans="1:22" ht="17" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="9" t="s">
         <v>276</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -6782,10 +7110,10 @@
       <c r="G91" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="L91" s="7" t="s">
+      <c r="L91" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="R91" s="8" t="s">
+      <c r="R91" s="7" t="s">
         <v>266</v>
       </c>
       <c r="S91" s="2" t="s">
@@ -6794,12 +7122,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A65:BQ65"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A45:XFD45"/>
-    <mergeCell ref="A48:XFD48"/>
-    <mergeCell ref="A62:XFD62"/>
     <mergeCell ref="A75:XFD75"/>
     <mergeCell ref="A79:XFD79"/>
     <mergeCell ref="A90:XFD90"/>
@@ -6807,6 +7129,12 @@
     <mergeCell ref="A83:XFD83"/>
     <mergeCell ref="A85:XFD85"/>
     <mergeCell ref="A87:XFD87"/>
+    <mergeCell ref="A65:BQ65"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A45:XFD45"/>
+    <mergeCell ref="A48:XFD48"/>
+    <mergeCell ref="A62:XFD62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R28" r:id="rId1"/>

--- a/milestones-consolidated.xlsx
+++ b/milestones-consolidated.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="423">
   <si>
     <t>center</t>
   </si>
@@ -231,21 +231,9 @@
     <t>iMN Tunicamycin Toxicity: ER Stress</t>
   </si>
   <si>
-    <t>Baseline RNAseq for control and diseased iPSC lines</t>
-  </si>
-  <si>
-    <t>RNAseq for control and diseased iMNs</t>
-  </si>
-  <si>
-    <t>RNAseq for control and diseased iMNs plus perturbations</t>
-  </si>
-  <si>
     <t>Imaging assay--monitoring cell survival in control, ALS, and SMA iMNs. iMNs will be transfected with a fluorescence reporter and imaged daily for 10 days. Images will be run through a custom analysis software package that tracks individual cells over time. The time of death (if it occurs) for each neuron will be determined. Neurite arborization will be determined using custom software analysis on these images. .</t>
   </si>
   <si>
-    <t xml:space="preserve">Baseline gene expression dataset for iMN and diseased state signature -- 4 control, 4 ALS, and 4 SMA iPSC-derived iMN with replicates and with no additional perturbagen. Generate gene expression signatures and analyze disease/control contrast for statistically significant differentially expressed genes. Generate disease signatures for future systems analysis: pathway, network, and category enrichment analysis, as well as for integration with other omics and machine learning analyses. </t>
-  </si>
-  <si>
     <t>24,48,72,96,120,144;hrs;6</t>
   </si>
   <si>
@@ -267,18 +255,6 @@
     <t>Sensitivity to tunicamycin/ER Stress.  iPS neurons will be  differentiated in 24 well plates for 39 days before treatment with increasing tunicamycin concentrations (0, 0.1, 0.3, 0.6, 1.0, or 3.0 uM). After 24 h of incubation with tunicamycin, 0.5 uM of propidium iodide (PI) will be added to each well and incubated for 30 minutes. The PI signal will be imaged. For each treatment and dose, at least 10 images were taken per experiment, and the number of iPS neurons exhibiting PI uptake will be quantified using the analyze particle function of the Image J software (NIH).</t>
   </si>
   <si>
-    <t>QC and SOP development for proteomic analysis  iPSC to  motor neuron differentiation</t>
-  </si>
-  <si>
-    <t>Quantitative discovery proteomics (SWATH), add perturbagens</t>
-  </si>
-  <si>
-    <t>Various perturbations on IPSC and potentially neurons. Analyze total protein and phosphorylation initially</t>
-  </si>
-  <si>
-    <t>Baseline ATAC-seq experiments for protocol assay optimization, QC and development of analysis methods -- 4 control, 4 ALS and 4 SMA iPSC cell lines with replicates, without additional perturbagens. Determine optimal conditions for purification of high quality nuclei to preserve chromatin structure and for transposase reaction (number of nuclei, enzyme concentration and incubation time) to avoid over- or under-digestion. Set up analysis pipelines and perform correlation and clustering tests to determine cell line variability and assay reproducibility  between either technical or biological replicates and Identify potential problematic samples.</t>
-  </si>
-  <si>
     <t>name1\datatype1;name2\datatype2</t>
   </si>
   <si>
@@ -396,15 +372,6 @@
     <t>histone modifications\number</t>
   </si>
   <si>
-    <t>Epigenomics-Baseline ATAC-Seq for control and disease iPSC lines</t>
-  </si>
-  <si>
-    <t>Epigenomics-ATAC-Seq for control and disease iMNs</t>
-  </si>
-  <si>
-    <t>Epigenomics-ATAC-Seq for control and disease iMNs plus perturbations</t>
-  </si>
-  <si>
     <t>Promocell myocytes line 1,cell line,normal,heart;Promocell myocytes line 2,cell line,normal,heart;Promocell myocytes line 3,cell line,normal,heart</t>
   </si>
   <si>
@@ -528,33 +495,9 @@
     <t>phase</t>
   </si>
   <si>
-    <t>Baseline gene expression dataset for QC and pipeline development -- 11 total control iPSC cell lines 3 in triplicate and 1 in duplicate and 28 diseased iPSC, 4 ALS and 4 SMA with replicates and with no additional perturbagen. Determine cell line variability and assay reproducibility. RNAseq QC statistics and expression correlation statistics will guide the development of QC standards and appropriate analysis pipeline.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene expression dataset for iMN and disease signature response to perturbagens -- 4 control, 4 ALS, and 4 SMA iPSC-derived iMN with replicates plus additional perturbagen. Generate gene expression signatures and for both disease and control and analyze perturb/disease &amp; perturb/control contrasts for statistically significant differentially expressed genes. Using a GLM setup multi-factor design matrix to analyze disease vs control with each perturbagen as an additional factor. Generate signatures for future systems analysis: pathway, network, and category enrichment analysis, as well as for integration with other omics and machine learning analyses. </t>
-  </si>
-  <si>
     <t>MS analysis on the QE and or Triple TOF MS instrument  of trypsin digested  iPSC derived from 4 control, 4 ALS and 4 SMA lines for 3 different wells at  multiple cell passages.</t>
   </si>
   <si>
-    <t>Quantitative discovery proteomics (SWATH), compare iPSC and mature differentiated neurons</t>
-  </si>
-  <si>
-    <t>Build MS SWATH data library: using  the QE and 6600 MS instrument analyzing either fractionated individuals and pools of iPSC derived from  4 controls and SMA and ALS lines into soluble, insoluble and acid soluble.</t>
-  </si>
-  <si>
-    <t>Quantitative discovery proteomics (SWATH), compare iPSC, neural rosettes and differentiated neurons</t>
-  </si>
-  <si>
-    <t>Build MS SWATH data library: using  the 6600 MS instrument analyzing either fractionated individuals and  pools of iPSC derived from  4 controls and SMA and ALS lines into soluble, insoluble and acid soluble enriched for phosphorylation.</t>
-  </si>
-  <si>
-    <t>Baseline ATAC-seq experiments for iMN and disease state signatures -- 4 control, 4 ALS, and 4 SMA iPSC-derived iMN lines with replicates without additional perturbagens. Annotate open chromatin regions and map transcription factor binding events in regulatory elements genome-wide. Generate chromatin accessibility signatures  for each sample individually by calculating the enrichment of genomic regions relative to a set of control reads from Tn5-treated naked genomic DNA. Detect differential peaks between disease and control state. Generate disease signatures for future systems analysis and integration with other omics by 1) identifying genes mapping near differential peaks and detecting significantly enriched GO terms for these gene lists; 2) performing DNA foo printing, motif scoring and applying regression methods to infer transcription factors responsible for gene expression signatures.</t>
-  </si>
-  <si>
-    <t>ATAC-seq dataset for iMN and disease signature response to perturbagens -- 4 control, 4 ALS, and 4 SMA iPSC-derived iMN lines with replicates plus additional perturbagens. Generate chromatin accessibility signatures  for each sample individually by calculating the enrichment of genomic regions relative to a set of control reads from Tn5-treated naked genomic DNA. Analyze perturb/disease &amp; perturb/control datasets to detected differentially enriched peaks reflecting changes in chromatin structures as a consequence of perturbation. Generate disease signatures for future systems analysis and integration with other omics and machine learning analyses.</t>
-  </si>
-  <si>
     <t>Use microenvironment microarray (MEMA) based platform to assess the impacts of ~3000 different pairwise combinations of ME perturbagens (MEPs) on 10 biological response endpoints.</t>
   </si>
   <si>
@@ -1297,6 +1240,54 @@
   </si>
   <si>
     <t>Unique ID (Qiaonan)</t>
+  </si>
+  <si>
+    <t>Baseline RNAseq for control and diseased iPSC lines. Baseline gene expression dataset for QC and pipeline development -- 11 total control iPSC cell lines 3 in triplicate and 1 in duplicate and 28 diseased iPSC, 4 ALS and 4 SMA with replicates and with no additional perturbagen. Determine cell line variability and assay reproducibility. RNAseq QC statistics and expression correlation statistics will guide the development of QC standards and appropriate analysis pipeline.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNAseq for control and diseased iMNs. Baseline gene expression dataset for iMN and diseased state signature -- 4 control, 4 ALS, and 4 SMA iPSC-derived iMN with replicates and with no additional perturbagen. Generate gene expression signatures and analyze disease/control contrast for statistically significant differentially expressed genes. Generate disease signatures for future systems analysis: pathway, network, and category enrichment analysis, as well as for integration with other omics and machine learning analyses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNASeq for control and diseased iMNs plus perturbagens. Gene expression dataset for iMN and disease signature response to perturbagens -- 4 control, 4 ALS, and 4 SMA iPSC-derived iMN with replicates plus additional perturbagen. Generate gene expression signatures and for both disease and control and analyze perturb/disease &amp; perturb/control contrasts for statistically significant differentially expressed genes. Using a GLM setup multi-factor design matrix to analyze disease vs control with each perturbagen as an additional factor. Generate signatures for future systems analysis: pathway, network, and category enrichment analysis, as well as for integration with other omics and machine learning analyses. </t>
+  </si>
+  <si>
+    <t>QC and SOP development for proteomic analysis iPSC to motor neuron differentiation</t>
+  </si>
+  <si>
+    <t>Quantitative discovery proteomics (SWATH)</t>
+  </si>
+  <si>
+    <t>ATAC-Seq</t>
+  </si>
+  <si>
+    <t>Epigenomics-Baseline ATAC-Seq for control and disease iPSC lines. Baseline ATAC-seq experiments for protocol assay optimization, QC and development of analysis methods -- 4 control, 4 ALS and 4 SMA iPSC cell lines with replicates, without additional perturbagens. Determine optimal conditions for purification of high quality nuclei to preserve chromatin structure and for transposase reaction (number of nuclei, enzyme concentration and incubation time) to avoid over- or under-digestion. Set up analysis pipelines and perform correlation and clustering tests to determine cell line variability and assay reproducibility  between either technical or biological replicates and Identify potential problematic samples.</t>
+  </si>
+  <si>
+    <t>Epigenomics-ATAC-Seq for control and disease iMNs. Baseline ATAC-seq experiments for iMN and disease state signatures -- 4 control, 4 ALS, and 4 SMA iPSC-derived iMN lines with replicates without additional perturbagens. Annotate open chromatin regions and map transcription factor binding events in regulatory elements genome-wide. Generate chromatin accessibility signatures  for each sample individually by calculating the enrichment of genomic regions relative to a set of control reads from Tn5-treated naked genomic DNA. Detect differential peaks between disease and control state. Generate disease signatures for future systems analysis and integration with other omics by 1) identifying genes mapping near differential peaks and detecting significantly enriched GO terms for these gene lists; 2) performing DNA foo printing, motif scoring and applying regression methods to infer transcription factors responsible for gene expression signatures.</t>
+  </si>
+  <si>
+    <t>Epigenomics-ATAC-Seq for control and disease iMNs plus perturbations. ATAC-seq dataset for iMN and disease signature response to perturbagens -- 4 control, 4 ALS, and 4 SMA iPSC-derived iMN lines with replicates plus additional perturbagens. Generate chromatin accessibility signatures  for each sample individually by calculating the enrichment of genomic regions relative to a set of control reads from Tn5-treated naked genomic DNA. Analyze perturb/disease &amp; perturb/control datasets to detected differentially enriched peaks reflecting changes in chromatin structures as a consequence of perturbation. Generate disease signatures for future systems analysis and integration with other omics and machine learning analyses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWATH: Global cellular protein quantification of iPSCs and motor neuron cultures. Build MS SWATH peptide library using the QE and 6600 MS instrument and use the library to identifiy and quantitate the proteome of individual control and disease cell lines. A) Build SWATH Library on iPSCs and motor neuron cell cultures. B) Run individual iPSC cells.C) Run individual mature motor neurons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWATH: Global cellular protein quantification of iPSCs and motor neuron cultures. Build MS SWATH peptide library using the QE and 6600 MS instrument and use the library to identifiy and quantitate the proteome of individual control and disease cell lines. A) Build SWATH Library on iPSCs and motor neuron cell cultures. B) Run individual iPSC cells. C) Run individual mature motor neurons </t>
+  </si>
+  <si>
+    <t>SWATH: Phosphorylation state. Build MS SWATH data library: Using the 6600 MS instrument analyzing either fractionated individuals and pools of iPSC dervied from 4 controls and SMA and ALS lines. A) Build SWATH Library. B) Run individual iPSC cells. C) Run individual mature motor neurons</t>
+  </si>
+  <si>
+    <t>SWATH: Next stage with perturbations. SWATH analysis of proteomic changes in disease and control lines with various perturbations on iPSC and potentially neuron cultures. Analyze total protein and phosphorylation initially. A) Run individual iPSC with stimulation A-N. B) Run individual mature motor neuron cultures with stimulation A-N. C) Run phospho-peptide enriched iPSC with stimulation A-N. D) Run phospho-peptide enriched motor neuron cultures with stimulation A-N</t>
+  </si>
+  <si>
+    <t>https://panoramaweb.org/labkey/project/LINCS/P100/begin.view?d=AwMFaQ&amp;c=4R1YgkJNMyVWjMjneTwN5tJRn8m8VqTSNCjYLg1wNX4&amp;r=exAPaECxhPO7sXarSuUTxMzJN8qL_f9Fnhd5jndkzh8&amp;m=lemH032IeT8RRj7JsjZEpF_Qj6Gg1mdn5jK-hkH8PRE&amp;s=4WBImVPsRsf0QBQtTW9QI_ED5etjHdNXYRUohzWHnU4&amp;e=?</t>
+  </si>
+  <si>
+    <t>https://panoramaweb.org/labkey/project/LINCS/GCP/begin.view?d=AwMFaQ&amp;c=4R1YgkJNMyVWjMjneTwN5tJRn8m8VqTSNCjYLg1wNX4&amp;r=exAPaECxhPO7sXarSuUTxMzJN8qL_f9Fnhd5jndkzh8&amp;m=lemH032IeT8RRj7JsjZEpF_Qj6Gg1mdn5jK-hkH8PRE&amp;s=3e6gOw7cbdQf1d1MNvQdUxpiBz8AK12-Kew_Zrdxlx4&amp;e=%3E</t>
+  </si>
+  <si>
+    <t>http://research.mssm.edu/pst/DToxS/data_results.html</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1443,17 +1434,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -2174,9 +2154,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="659" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2185,18 +2177,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="677">
@@ -3213,10 +3193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ91"/>
+  <dimension ref="A1:BQ105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="U50" sqref="U50"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -3238,9 +3218,9 @@
     <col min="15" max="17" width="15.375" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="43.625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="50" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.125" style="19" customWidth="1"/>
-    <col min="21" max="21" width="10.625" style="4"/>
-    <col min="22" max="22" width="5.625" style="21" customWidth="1"/>
+    <col min="20" max="20" width="41.125" style="13" customWidth="1"/>
+    <col min="21" max="21" width="10.875" style="4"/>
+    <col min="22" max="22" width="5.625" style="15" customWidth="1"/>
     <col min="23" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
@@ -3261,13 +3241,13 @@
         <v>6</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>24</v>
@@ -3297,16 +3277,16 @@
         <v>1</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="17" customHeight="1">
@@ -3314,19 +3294,19 @@
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>25</v>
@@ -3338,7 +3318,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11" t="s">
@@ -3378,11 +3358,11 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
-      <c r="U3" s="23"/>
+      <c r="U3" s="17"/>
     </row>
     <row r="4" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A4" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
@@ -3391,19 +3371,19 @@
         <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>26</v>
@@ -3415,34 +3395,37 @@
         <v>11</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="N4" s="5">
-        <v>42124</v>
+        <v>42185</v>
       </c>
       <c r="O4" s="5">
-        <v>42124</v>
+        <v>42185</v>
       </c>
       <c r="P4" s="5">
-        <v>42124</v>
+        <v>42185</v>
       </c>
       <c r="Q4" s="5">
-        <v>42124</v>
+        <v>42185</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>422</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="V4" s="20"/>
+        <v>172</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A5" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>16</v>
@@ -3451,19 +3434,19 @@
         <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>26</v>
@@ -3475,7 +3458,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="N5" s="5">
         <v>42124</v>
@@ -3490,19 +3473,19 @@
         <v>42124</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T5" s="18" t="s">
-        <v>310</v>
+        <v>172</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>291</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="V5" s="20"/>
+        <v>386</v>
+      </c>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A6" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
@@ -3511,19 +3494,19 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>26</v>
@@ -3535,7 +3518,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="N6" s="5">
         <v>42124</v>
@@ -3550,19 +3533,19 @@
         <v>42124</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T6" s="18" t="s">
-        <v>311</v>
+        <v>172</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="V6" s="20"/>
+        <v>387</v>
+      </c>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A7" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
@@ -3571,19 +3554,19 @@
         <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>26</v>
@@ -3595,7 +3578,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="N7" s="5">
         <v>42216</v>
@@ -3610,19 +3593,19 @@
         <v>42216</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T7" s="18" t="s">
-        <v>312</v>
+        <v>172</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="V7" s="20"/>
+        <v>385</v>
+      </c>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A8" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>16</v>
@@ -3631,19 +3614,19 @@
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>26</v>
@@ -3655,7 +3638,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="N8" s="5">
         <v>42216</v>
@@ -3670,19 +3653,19 @@
         <v>42216</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T8" s="18" t="s">
-        <v>313</v>
+        <v>172</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="V8" s="20"/>
+        <v>386</v>
+      </c>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A9" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
@@ -3691,19 +3674,19 @@
         <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>26</v>
@@ -3715,7 +3698,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="N9" s="5">
         <v>42216</v>
@@ -3730,19 +3713,19 @@
         <v>42216</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>314</v>
+        <v>172</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="V9" s="20"/>
+        <v>387</v>
+      </c>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A10" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>15</v>
@@ -3751,19 +3734,19 @@
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>26</v>
@@ -3775,7 +3758,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="N10" s="5">
         <v>42308</v>
@@ -3790,19 +3773,19 @@
         <v>42308</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T10" s="18" t="s">
-        <v>315</v>
+        <v>172</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="V10" s="20"/>
+        <v>385</v>
+      </c>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A11" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>16</v>
@@ -3811,19 +3794,19 @@
         <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>26</v>
@@ -3835,7 +3818,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="N11" s="5">
         <v>42308</v>
@@ -3850,19 +3833,19 @@
         <v>42308</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T11" s="18" t="s">
-        <v>316</v>
+        <v>172</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>297</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="V11" s="20"/>
+        <v>386</v>
+      </c>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A12" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>17</v>
@@ -3871,19 +3854,19 @@
         <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>26</v>
@@ -3895,7 +3878,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="N12" s="5">
         <v>42308</v>
@@ -3910,19 +3893,19 @@
         <v>42308</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T12" s="18" t="s">
-        <v>317</v>
+        <v>172</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>298</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="V12" s="20"/>
+        <v>387</v>
+      </c>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A13" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>15</v>
@@ -3931,19 +3914,19 @@
         <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>26</v>
@@ -3955,7 +3938,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="N13" s="5">
         <v>42308</v>
@@ -3970,19 +3953,19 @@
         <v>42308</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T13" s="18" t="s">
-        <v>318</v>
+        <v>172</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>299</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="V13" s="20"/>
+        <v>385</v>
+      </c>
+      <c r="V13" s="14"/>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A14" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>16</v>
@@ -3991,19 +3974,19 @@
         <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>26</v>
@@ -4015,7 +3998,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="N14" s="5">
         <v>42308</v>
@@ -4030,19 +4013,19 @@
         <v>42308</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T14" s="18" t="s">
-        <v>319</v>
+        <v>172</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="V14" s="20"/>
+        <v>386</v>
+      </c>
+      <c r="V14" s="14"/>
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A15" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>17</v>
@@ -4051,19 +4034,19 @@
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>26</v>
@@ -4075,7 +4058,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="N15" s="5">
         <v>42308</v>
@@ -4090,19 +4073,19 @@
         <v>42308</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T15" s="18" t="s">
-        <v>320</v>
+        <v>172</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>301</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="V15" s="20"/>
+        <v>387</v>
+      </c>
+      <c r="V15" s="14"/>
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A16" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>15</v>
@@ -4111,19 +4094,19 @@
         <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>26</v>
@@ -4135,7 +4118,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="N16" s="5">
         <v>42400</v>
@@ -4150,19 +4133,19 @@
         <v>42400</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T16" s="18" t="s">
-        <v>321</v>
+        <v>172</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="V16" s="20"/>
+        <v>385</v>
+      </c>
+      <c r="V16" s="14"/>
     </row>
     <row r="17" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A17" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>16</v>
@@ -4171,19 +4154,19 @@
         <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>26</v>
@@ -4195,7 +4178,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="N17" s="5">
         <v>42400</v>
@@ -4210,19 +4193,19 @@
         <v>42400</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T17" s="18" t="s">
-        <v>322</v>
+        <v>172</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="V17" s="20"/>
+        <v>386</v>
+      </c>
+      <c r="V17" s="14"/>
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A18" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>18</v>
@@ -4231,19 +4214,19 @@
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>26</v>
@@ -4255,7 +4238,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="N18" s="5">
         <v>42400</v>
@@ -4270,44 +4253,44 @@
         <v>42400</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T18" s="18" t="s">
-        <v>323</v>
+        <v>172</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>304</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="V18" s="20"/>
-    </row>
-    <row r="19" spans="1:22" s="16" customFormat="1" ht="16"/>
+        <v>388</v>
+      </c>
+      <c r="V18" s="14"/>
+    </row>
+    <row r="19" spans="1:22" s="22" customFormat="1" ht="16"/>
     <row r="20" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A20" s="4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J20" s="4">
         <v>3</v>
@@ -4316,7 +4299,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="N20" s="5">
         <v>42185</v>
@@ -4331,43 +4314,43 @@
         <v>42185</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T20" s="18" t="s">
-        <v>326</v>
+        <v>172</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>307</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="V20" s="20"/>
+        <v>389</v>
+      </c>
+      <c r="V20" s="14"/>
     </row>
     <row r="21" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A21" s="4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J21" s="4">
         <v>3</v>
@@ -4376,7 +4359,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="N21" s="5">
         <v>42185</v>
@@ -4391,49 +4374,49 @@
         <v>42185</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T21" s="18" t="s">
-        <v>328</v>
+        <v>172</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>309</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="V21" s="20"/>
+        <v>389</v>
+      </c>
+      <c r="V21" s="14"/>
     </row>
     <row r="22" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A22" s="4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J22" s="4">
         <v>3</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="N22" s="5">
         <v>42185</v>
@@ -4448,49 +4431,49 @@
         <v>42185</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T22" s="18" t="s">
-        <v>330</v>
+        <v>172</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>311</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="V22" s="20"/>
+        <v>389</v>
+      </c>
+      <c r="V22" s="14"/>
     </row>
     <row r="23" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A23" s="4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J23" s="4">
         <v>3</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="N23" s="5">
         <v>42185</v>
@@ -4505,38 +4488,38 @@
         <v>42185</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T23" s="18" t="s">
-        <v>332</v>
+        <v>172</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="V23" s="20"/>
-    </row>
-    <row r="24" spans="1:22" s="16" customFormat="1" ht="16"/>
+        <v>389</v>
+      </c>
+      <c r="V23" s="14"/>
+    </row>
+    <row r="24" spans="1:22" s="22" customFormat="1" ht="16"/>
     <row r="25" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A25" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>47</v>
@@ -4548,7 +4531,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M25" s="4">
         <v>1</v>
@@ -4560,40 +4543,40 @@
         <v>42004</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T25" s="18" t="s">
-        <v>335</v>
+        <v>172</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="V25" s="20"/>
+        <v>390</v>
+      </c>
+      <c r="V25" s="14"/>
     </row>
     <row r="26" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A26" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>47</v>
@@ -4605,7 +4588,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M26" s="4">
         <v>1</v>
@@ -4615,40 +4598,40 @@
         <v>42004</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T26" s="18" t="s">
-        <v>338</v>
+        <v>172</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="V26" s="20"/>
+        <v>390</v>
+      </c>
+      <c r="V26" s="14"/>
     </row>
     <row r="27" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A27" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>48</v>
@@ -4660,7 +4643,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="M27" s="4">
         <v>2</v>
@@ -4678,40 +4661,40 @@
         <v>42094</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T27" s="18" t="s">
-        <v>340</v>
+        <v>172</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="V27" s="20"/>
+        <v>391</v>
+      </c>
+      <c r="V27" s="14"/>
     </row>
     <row r="28" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A28" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>48</v>
@@ -4723,7 +4706,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M28" s="4">
         <v>21</v>
@@ -4741,40 +4724,40 @@
         <v>42094</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T28" s="18" t="s">
-        <v>343</v>
+        <v>172</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>324</v>
       </c>
       <c r="U28" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="V28" s="20"/>
+        <v>392</v>
+      </c>
+      <c r="V28" s="14"/>
     </row>
     <row r="29" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A29" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>49</v>
@@ -4786,7 +4769,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M29" s="4">
         <v>7</v>
@@ -4804,43 +4787,43 @@
         <v>42094</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T29" s="18" t="s">
-        <v>346</v>
+        <v>172</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="V29" s="20"/>
+        <v>393</v>
+      </c>
+      <c r="V29" s="14"/>
     </row>
     <row r="30" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A30" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>27</v>
@@ -4849,7 +4832,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M30" s="4">
         <v>1</v>
@@ -4861,40 +4844,40 @@
         <v>42185</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T30" s="18" t="s">
-        <v>348</v>
+        <v>172</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>329</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="V30" s="20"/>
+        <v>390</v>
+      </c>
+      <c r="V30" s="14"/>
     </row>
     <row r="31" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A31" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>36</v>
@@ -4903,7 +4886,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="M31" s="4">
         <v>1</v>
@@ -4915,37 +4898,37 @@
         <v>42185</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T31" s="18" t="s">
-        <v>351</v>
+        <v>172</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="V31" s="20"/>
+        <v>389</v>
+      </c>
+      <c r="V31" s="14"/>
     </row>
     <row r="32" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A32" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>50</v>
@@ -4957,7 +4940,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="M32" s="4">
         <v>1</v>
@@ -4972,37 +4955,37 @@
         <v>42369</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T32" s="18" t="s">
-        <v>353</v>
+        <v>172</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="V32" s="20"/>
+        <v>389</v>
+      </c>
+      <c r="V32" s="14"/>
     </row>
     <row r="33" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A33" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>50</v>
@@ -5014,7 +4997,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M33" s="4">
         <v>1</v>
@@ -5032,37 +5015,37 @@
         <v>42369</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T33" s="18" t="s">
-        <v>355</v>
+        <v>172</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="V33" s="20"/>
+        <v>394</v>
+      </c>
+      <c r="V33" s="14"/>
     </row>
     <row r="34" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A34" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>51</v>
@@ -5074,10 +5057,10 @@
         <v>11</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="N34" s="5">
         <v>42185</v>
@@ -5086,37 +5069,37 @@
         <v>42185</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T34" s="18" t="s">
-        <v>358</v>
+        <v>172</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>339</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="V34" s="20"/>
+        <v>390</v>
+      </c>
+      <c r="V34" s="14"/>
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A35" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>52</v>
@@ -5146,37 +5129,37 @@
         <v>42369</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T35" s="18" t="s">
-        <v>361</v>
+        <v>172</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="V35" s="20"/>
+        <v>395</v>
+      </c>
+      <c r="V35" s="14"/>
     </row>
     <row r="36" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A36" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>55</v>
@@ -5206,37 +5189,37 @@
         <v>42460</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T36" s="18" t="s">
-        <v>363</v>
+        <v>172</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="V36" s="20"/>
+        <v>395</v>
+      </c>
+      <c r="V36" s="14"/>
     </row>
     <row r="37" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A37" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>50</v>
@@ -5248,7 +5231,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="M37" s="4">
         <v>1</v>
@@ -5260,37 +5243,37 @@
         <v>42277</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T37" s="18" t="s">
-        <v>365</v>
+        <v>172</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>346</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="V37" s="20"/>
+        <v>389</v>
+      </c>
+      <c r="V37" s="14"/>
     </row>
     <row r="38" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A38" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>51</v>
@@ -5302,10 +5285,10 @@
         <v>11</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="N38" s="5">
         <v>42277</v>
@@ -5314,43 +5297,43 @@
         <v>42277</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T38" s="18" t="s">
-        <v>367</v>
+        <v>172</v>
+      </c>
+      <c r="T38" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="V38" s="20"/>
+        <v>390</v>
+      </c>
+      <c r="V38" s="14"/>
     </row>
     <row r="39" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A39" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>56</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>11</v>
@@ -5374,37 +5357,37 @@
         <v>42551</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T39" s="18" t="s">
-        <v>369</v>
+        <v>172</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>350</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="V39" s="20"/>
+        <v>395</v>
+      </c>
+      <c r="V39" s="14"/>
     </row>
     <row r="40" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A40" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>44</v>
@@ -5413,7 +5396,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="N40" s="5">
         <v>42369</v>
@@ -5425,49 +5408,49 @@
         <v>42369</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T40" s="18" t="s">
-        <v>373</v>
+        <v>172</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>354</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="V40" s="20"/>
+        <v>394</v>
+      </c>
+      <c r="V40" s="14"/>
     </row>
     <row r="41" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A41" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>58</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>43</v>
@@ -5479,49 +5462,49 @@
         <v>42369</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T41" s="18" t="s">
-        <v>376</v>
+        <v>172</v>
+      </c>
+      <c r="T41" s="12" t="s">
+        <v>357</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="V41" s="20"/>
+        <v>396</v>
+      </c>
+      <c r="V41" s="14"/>
     </row>
     <row r="42" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A42" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>59</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="M42" s="4">
         <v>2</v>
@@ -5533,37 +5516,37 @@
         <v>42369</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T42" s="18" t="s">
-        <v>378</v>
+        <v>172</v>
+      </c>
+      <c r="T42" s="12" t="s">
+        <v>359</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="V42" s="20"/>
+        <v>397</v>
+      </c>
+      <c r="V42" s="14"/>
     </row>
     <row r="43" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A43" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>60</v>
@@ -5575,7 +5558,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>43</v>
@@ -5587,34 +5570,34 @@
         <v>42369</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T43" s="18" t="s">
-        <v>380</v>
+        <v>172</v>
+      </c>
+      <c r="T43" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="V43" s="20"/>
+        <v>398</v>
+      </c>
+      <c r="V43" s="14"/>
     </row>
     <row r="44" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A44" s="4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>11</v>
@@ -5632,45 +5615,45 @@
         <v>42369</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T44" s="18" t="s">
-        <v>383</v>
+        <v>172</v>
+      </c>
+      <c r="T44" s="12" t="s">
+        <v>364</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="V44" s="20"/>
-    </row>
-    <row r="45" spans="1:22" s="16" customFormat="1" ht="16">
-      <c r="A45" s="16" t="s">
-        <v>191</v>
+        <v>399</v>
+      </c>
+      <c r="V44" s="14"/>
+    </row>
+    <row r="45" spans="1:22" s="22" customFormat="1" ht="16">
+      <c r="A45" s="22" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A46" s="4" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>65</v>
@@ -5682,7 +5665,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M46" s="4">
         <v>100</v>
@@ -5699,20 +5682,23 @@
       <c r="Q46" s="5">
         <v>42185</v>
       </c>
+      <c r="R46" s="4" t="s">
+        <v>420</v>
+      </c>
       <c r="S46" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T46" s="18" t="s">
-        <v>385</v>
+        <v>172</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>366</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="V46" s="20"/>
+        <v>400</v>
+      </c>
+      <c r="V46" s="14"/>
     </row>
     <row r="47" spans="1:22" s="4" customFormat="1" ht="16">
       <c r="A47" s="4" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>62</v>
@@ -5721,19 +5707,19 @@
         <v>64</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>30</v>
@@ -5745,7 +5731,7 @@
         <v>11</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="M47" s="4">
         <v>100</v>
@@ -5762,1379 +5748,2193 @@
       <c r="Q47" s="5">
         <v>42185</v>
       </c>
+      <c r="R47" s="4" t="s">
+        <v>421</v>
+      </c>
       <c r="S47" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T47" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T47" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="V47" s="14"/>
+    </row>
+    <row r="48" spans="1:22" s="22" customFormat="1" ht="16"/>
+    <row r="49" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A49" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J49" s="18">
+        <v>2</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M49" s="18">
+        <v>3</v>
+      </c>
+      <c r="N49" s="19">
+        <v>42185</v>
+      </c>
+      <c r="O49" s="19">
+        <v>42185</v>
+      </c>
+      <c r="P49" s="19">
+        <v>42185</v>
+      </c>
+      <c r="Q49" s="19">
+        <v>42185</v>
+      </c>
+      <c r="S49" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T49" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="U49" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A50" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J50" s="18">
+        <v>2</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M50" s="18">
+        <v>3</v>
+      </c>
+      <c r="N50" s="19">
+        <v>42277</v>
+      </c>
+      <c r="O50" s="19">
+        <v>42277</v>
+      </c>
+      <c r="P50" s="19">
+        <v>42277</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>42277</v>
+      </c>
+      <c r="S50" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T50" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="U50" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A51" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J51" s="18">
+        <v>2</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="L51" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M51" s="18">
+        <v>3</v>
+      </c>
+      <c r="N51" s="19">
+        <v>42369</v>
+      </c>
+      <c r="O51" s="19">
+        <v>42369</v>
+      </c>
+      <c r="P51" s="19">
+        <v>42369</v>
+      </c>
+      <c r="Q51" s="19">
+        <v>42369</v>
+      </c>
+      <c r="S51" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T51" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="U51" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A52" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J52" s="18">
+        <v>2</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="L52" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M52" s="18">
+        <v>2</v>
+      </c>
+      <c r="N52" s="19">
+        <v>42185</v>
+      </c>
+      <c r="O52" s="19">
+        <v>42185</v>
+      </c>
+      <c r="P52" s="19">
+        <v>42185</v>
+      </c>
+      <c r="Q52" s="19">
+        <v>42185</v>
+      </c>
+      <c r="S52" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T52" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="U52" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A53" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J53" s="18">
+        <v>2</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M53" s="18">
+        <v>2</v>
+      </c>
+      <c r="N53" s="19">
+        <v>42277</v>
+      </c>
+      <c r="O53" s="19">
+        <v>42277</v>
+      </c>
+      <c r="P53" s="19">
+        <v>42277</v>
+      </c>
+      <c r="Q53" s="19">
+        <v>42277</v>
+      </c>
+      <c r="S53" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T53" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="U53" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A54" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J54" s="18">
+        <v>2</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M54" s="18">
+        <v>2</v>
+      </c>
+      <c r="N54" s="19">
+        <v>42369</v>
+      </c>
+      <c r="O54" s="19">
+        <v>42369</v>
+      </c>
+      <c r="P54" s="19">
+        <v>42369</v>
+      </c>
+      <c r="Q54" s="19">
+        <v>42369</v>
+      </c>
+      <c r="S54" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T54" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="U54" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A55" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="18">
+        <v>2</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M55" s="18">
+        <v>3</v>
+      </c>
+      <c r="N55" s="19">
+        <v>42185</v>
+      </c>
+      <c r="O55" s="19">
+        <v>42185</v>
+      </c>
+      <c r="P55" s="19">
+        <v>42185</v>
+      </c>
+      <c r="Q55" s="19">
+        <v>42185</v>
+      </c>
+      <c r="S55" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T55" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="U55" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A56" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" s="18">
+        <v>2</v>
+      </c>
+      <c r="K56" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="L56" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M56" s="18">
+        <v>3</v>
+      </c>
+      <c r="N56" s="19">
+        <v>42277</v>
+      </c>
+      <c r="O56" s="19">
+        <v>42277</v>
+      </c>
+      <c r="P56" s="19">
+        <v>42277</v>
+      </c>
+      <c r="Q56" s="19">
+        <v>42277</v>
+      </c>
+      <c r="S56" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T56" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="U56" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A57" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J57" s="18">
+        <v>2</v>
+      </c>
+      <c r="K57" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="L57" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M57" s="18">
+        <v>3</v>
+      </c>
+      <c r="N57" s="19">
+        <v>42369</v>
+      </c>
+      <c r="O57" s="19">
+        <v>42369</v>
+      </c>
+      <c r="P57" s="19">
+        <v>42369</v>
+      </c>
+      <c r="Q57" s="19">
+        <v>42369</v>
+      </c>
+      <c r="S57" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T57" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="U57" s="18" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A58" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L58" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M58" s="18">
+        <v>1</v>
+      </c>
+      <c r="N58" s="19">
+        <v>42185</v>
+      </c>
+      <c r="O58" s="19">
+        <v>42185</v>
+      </c>
+      <c r="P58" s="19">
+        <v>42185</v>
+      </c>
+      <c r="Q58" s="19">
+        <v>42185</v>
+      </c>
+      <c r="S58" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T58" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="U58" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A59" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L59" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M59" s="18">
+        <v>1</v>
+      </c>
+      <c r="N59" s="19">
+        <v>42277</v>
+      </c>
+      <c r="O59" s="19">
+        <v>42277</v>
+      </c>
+      <c r="P59" s="19">
+        <v>42277</v>
+      </c>
+      <c r="Q59" s="19">
+        <v>42277</v>
+      </c>
+      <c r="S59" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T59" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="U59" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A60" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L60" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M60" s="18">
+        <v>1</v>
+      </c>
+      <c r="N60" s="19">
+        <v>42277</v>
+      </c>
+      <c r="O60" s="19">
+        <v>42277</v>
+      </c>
+      <c r="P60" s="19">
+        <v>42277</v>
+      </c>
+      <c r="Q60" s="19">
+        <v>42277</v>
+      </c>
+      <c r="S60" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T60" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="U60" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A61" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L61" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M61" s="18">
+        <v>1</v>
+      </c>
+      <c r="N61" s="19">
+        <v>42369</v>
+      </c>
+      <c r="O61" s="19">
+        <v>42369</v>
+      </c>
+      <c r="P61" s="19">
+        <v>42369</v>
+      </c>
+      <c r="Q61" s="19">
+        <v>42369</v>
+      </c>
+      <c r="S61" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T61" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="U61" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A62" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="L62" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M62" s="18">
+        <v>1</v>
+      </c>
+      <c r="N62" s="19">
+        <v>42369</v>
+      </c>
+      <c r="O62" s="19">
+        <v>42369</v>
+      </c>
+      <c r="P62" s="19">
+        <v>42369</v>
+      </c>
+      <c r="Q62" s="19">
+        <v>42369</v>
+      </c>
+      <c r="S62" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T62" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="U62" s="18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A63" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L63" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M63" s="18">
+        <v>1</v>
+      </c>
+      <c r="N63" s="19">
+        <v>42185</v>
+      </c>
+      <c r="O63" s="19">
+        <v>42185</v>
+      </c>
+      <c r="P63" s="19">
+        <v>42185</v>
+      </c>
+      <c r="Q63" s="19">
+        <v>42185</v>
+      </c>
+      <c r="R63" s="20"/>
+      <c r="S63" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T63" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="U63" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="U47" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="V47" s="20"/>
-    </row>
-    <row r="48" spans="1:22" s="16" customFormat="1" ht="16"/>
-    <row r="49" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A49" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I49" s="4" t="s">
+    </row>
+    <row r="64" spans="1:21" s="18" customFormat="1" ht="16">
+      <c r="A64" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L64" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M64" s="18">
+        <v>1</v>
+      </c>
+      <c r="N64" s="19">
+        <v>42277</v>
+      </c>
+      <c r="O64" s="19">
+        <v>42277</v>
+      </c>
+      <c r="P64" s="19">
+        <v>42277</v>
+      </c>
+      <c r="Q64" s="19">
+        <v>42277</v>
+      </c>
+      <c r="R64" s="20"/>
+      <c r="S64" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T64" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="U64" s="18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:69" s="18" customFormat="1" ht="16">
+      <c r="A65" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L65" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M65" s="18">
+        <v>1</v>
+      </c>
+      <c r="N65" s="19">
+        <v>42185</v>
+      </c>
+      <c r="O65" s="19">
+        <v>42185</v>
+      </c>
+      <c r="P65" s="19">
+        <v>42185</v>
+      </c>
+      <c r="Q65" s="19">
+        <v>42185</v>
+      </c>
+      <c r="R65" s="20"/>
+      <c r="S65" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T65" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="U65" s="18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:69" s="18" customFormat="1" ht="16">
+      <c r="A66" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L66" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M66" s="18">
+        <v>1</v>
+      </c>
+      <c r="N66" s="19">
+        <v>42277</v>
+      </c>
+      <c r="O66" s="19">
+        <v>42277</v>
+      </c>
+      <c r="P66" s="19">
+        <v>42277</v>
+      </c>
+      <c r="Q66" s="19">
+        <v>42277</v>
+      </c>
+      <c r="R66" s="20"/>
+      <c r="S66" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T66" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="U66" s="18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:69" s="18" customFormat="1" ht="18" customHeight="1">
+      <c r="A67" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L67" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M67" s="18">
+        <v>1</v>
+      </c>
+      <c r="N67" s="19">
+        <v>42277</v>
+      </c>
+      <c r="O67" s="19">
+        <v>42277</v>
+      </c>
+      <c r="P67" s="19">
+        <v>42277</v>
+      </c>
+      <c r="Q67" s="19">
+        <v>42277</v>
+      </c>
+      <c r="R67" s="20"/>
+      <c r="S67" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T67" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="U67" s="18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:69" s="18" customFormat="1" ht="18" customHeight="1">
+      <c r="A68" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="L68" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M68" s="18">
+        <v>1</v>
+      </c>
+      <c r="N68" s="19">
+        <v>42369</v>
+      </c>
+      <c r="O68" s="19">
+        <v>42369</v>
+      </c>
+      <c r="P68" s="19">
+        <v>42369</v>
+      </c>
+      <c r="Q68" s="19">
+        <v>42369</v>
+      </c>
+      <c r="R68" s="20"/>
+      <c r="S68" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T68" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="U68" s="18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="1:69" s="18" customFormat="1" ht="16">
+      <c r="A69" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L69" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M69" s="18">
+        <v>1</v>
+      </c>
+      <c r="N69" s="19">
+        <v>42369</v>
+      </c>
+      <c r="O69" s="19">
+        <v>42369</v>
+      </c>
+      <c r="P69" s="19">
+        <v>42369</v>
+      </c>
+      <c r="Q69" s="19">
+        <v>42369</v>
+      </c>
+      <c r="R69" s="20"/>
+      <c r="S69" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T69" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="U69" s="18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:69" s="18" customFormat="1" ht="16">
+      <c r="A70" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" s="18">
+        <v>3</v>
+      </c>
+      <c r="L70" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M70" s="18">
+        <v>3</v>
+      </c>
+      <c r="N70" s="19">
+        <v>42185</v>
+      </c>
+      <c r="O70" s="19">
+        <v>42185</v>
+      </c>
+      <c r="P70" s="19">
+        <v>42185</v>
+      </c>
+      <c r="Q70" s="19">
+        <v>42185</v>
+      </c>
+      <c r="S70" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T70" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="U70" s="18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71" spans="1:69" s="18" customFormat="1" ht="16">
+      <c r="A71" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J71" s="18">
+        <v>3</v>
+      </c>
+      <c r="L71" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M71" s="18">
+        <v>3</v>
+      </c>
+      <c r="N71" s="19">
+        <v>42277</v>
+      </c>
+      <c r="O71" s="19">
+        <v>42277</v>
+      </c>
+      <c r="P71" s="19">
+        <v>42277</v>
+      </c>
+      <c r="Q71" s="19">
+        <v>42277</v>
+      </c>
+      <c r="S71" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T71" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="U71" s="18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="72" spans="1:69" s="18" customFormat="1" ht="16">
+      <c r="A72" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J72" s="18">
+        <v>3</v>
+      </c>
+      <c r="L72" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M72" s="18">
+        <v>3</v>
+      </c>
+      <c r="N72" s="19">
+        <v>42369</v>
+      </c>
+      <c r="O72" s="19">
+        <v>42369</v>
+      </c>
+      <c r="P72" s="19">
+        <v>42369</v>
+      </c>
+      <c r="Q72" s="19">
+        <v>42369</v>
+      </c>
+      <c r="S72" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T72" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="U72" s="18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:69" s="18" customFormat="1" ht="16">
+      <c r="A73" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J73" s="18">
+        <v>3</v>
+      </c>
+      <c r="L73" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M73" s="18">
+        <v>3</v>
+      </c>
+      <c r="N73" s="19">
+        <v>42277</v>
+      </c>
+      <c r="O73" s="19">
+        <v>42277</v>
+      </c>
+      <c r="P73" s="19">
+        <v>42277</v>
+      </c>
+      <c r="Q73" s="19">
+        <v>42277</v>
+      </c>
+      <c r="S73" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T73" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="U73" s="18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:69" s="18" customFormat="1" ht="16">
+      <c r="A74" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J74" s="18">
+        <v>3</v>
+      </c>
+      <c r="L74" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M74" s="18">
+        <v>3</v>
+      </c>
+      <c r="N74" s="19">
+        <v>42369</v>
+      </c>
+      <c r="O74" s="19">
+        <v>42369</v>
+      </c>
+      <c r="P74" s="19">
+        <v>42369</v>
+      </c>
+      <c r="Q74" s="19">
+        <v>42369</v>
+      </c>
+      <c r="S74" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T74" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="U74" s="18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:69" s="18" customFormat="1" ht="16">
+      <c r="A75" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J75" s="18">
+        <v>3</v>
+      </c>
+      <c r="L75" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M75" s="18">
+        <v>3</v>
+      </c>
+      <c r="N75" s="19">
+        <v>42369</v>
+      </c>
+      <c r="O75" s="19">
+        <v>42369</v>
+      </c>
+      <c r="P75" s="19">
+        <v>42369</v>
+      </c>
+      <c r="Q75" s="19">
+        <v>42369</v>
+      </c>
+      <c r="S75" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="T75" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="U75" s="18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:69" s="22" customFormat="1" ht="16"/>
+    <row r="77" spans="1:69" s="4" customFormat="1" ht="16">
+      <c r="A77" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J49" s="4">
-        <v>2</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M49" s="4">
-        <v>3</v>
-      </c>
-      <c r="N49" s="5">
-        <v>42185</v>
-      </c>
-      <c r="O49" s="5">
+      <c r="C77" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J77" s="4">
+        <v>6</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M77" s="4">
+        <v>13</v>
+      </c>
+      <c r="N77" s="5">
         <v>42277</v>
       </c>
-      <c r="P49" s="5">
-        <v>42369</v>
-      </c>
-      <c r="S49" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T49" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="U49" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="V49" s="20"/>
-    </row>
-    <row r="50" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A50" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J50" s="4">
-        <v>2</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M50" s="4">
-        <v>2</v>
-      </c>
-      <c r="N50" s="5">
-        <v>42185</v>
-      </c>
-      <c r="O50" s="5">
+      <c r="O77" s="5">
         <v>42277</v>
       </c>
-      <c r="P50" s="5">
-        <v>42369</v>
-      </c>
-      <c r="S50" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T50" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="U50" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="V50" s="20"/>
-    </row>
-    <row r="51" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A51" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J51" s="4">
-        <v>2</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M51" s="4">
-        <v>3</v>
-      </c>
-      <c r="N51" s="5">
-        <v>42185</v>
-      </c>
-      <c r="O51" s="5">
+      <c r="P77" s="5">
         <v>42277</v>
       </c>
-      <c r="P51" s="5">
-        <v>42369</v>
-      </c>
-      <c r="S51" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T51" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="U51" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="V51" s="20"/>
-    </row>
-    <row r="52" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A52" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M52" s="4">
-        <v>1</v>
-      </c>
-      <c r="N52" s="5">
-        <v>42185</v>
-      </c>
-      <c r="O52" s="5">
+      <c r="Q77" s="5">
         <v>42277</v>
       </c>
-      <c r="P52" s="5">
-        <v>42369</v>
-      </c>
-      <c r="S52" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T52" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="U52" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="V52" s="20"/>
-    </row>
-    <row r="53" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A53" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M53" s="4">
-        <v>1</v>
-      </c>
-      <c r="N53" s="5">
-        <v>42185</v>
-      </c>
-      <c r="O53" s="5">
-        <v>42277</v>
-      </c>
-      <c r="P53" s="5">
-        <v>42369</v>
-      </c>
-      <c r="S53" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T53" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="U53" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="V53" s="20"/>
-    </row>
-    <row r="54" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A54" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="S77" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="T77" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="U77" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="V77" s="14"/>
+    </row>
+    <row r="78" spans="1:69" s="4" customFormat="1" ht="16">
+      <c r="A78" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M54" s="4">
-        <v>1</v>
-      </c>
-      <c r="N54" s="5">
-        <v>42185</v>
-      </c>
-      <c r="O54" s="5">
-        <v>42277</v>
-      </c>
-      <c r="P54" s="5">
-        <v>42369</v>
-      </c>
-      <c r="S54" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T54" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="U54" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="V54" s="20"/>
-    </row>
-    <row r="55" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A55" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M55" s="4">
-        <v>1</v>
-      </c>
-      <c r="N55" s="5">
-        <v>42185</v>
-      </c>
-      <c r="O55" s="5">
-        <v>42277</v>
-      </c>
-      <c r="S55" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T55" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="U55" s="4" t="s">
+      <c r="B78" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J78" s="4">
+        <v>6</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M78" s="4">
+        <v>13</v>
+      </c>
+      <c r="N78" s="5">
+        <v>42459</v>
+      </c>
+      <c r="O78" s="5">
+        <v>42459</v>
+      </c>
+      <c r="P78" s="5">
+        <v>42459</v>
+      </c>
+      <c r="Q78" s="5">
+        <v>42459</v>
+      </c>
+      <c r="S78" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="T78" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="U78" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="V55" s="20"/>
-    </row>
-    <row r="56" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A56" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M56" s="4">
-        <v>1</v>
-      </c>
-      <c r="N56" s="5">
-        <v>42185</v>
-      </c>
-      <c r="O56" s="5">
-        <v>42277</v>
-      </c>
-      <c r="P56" s="5">
-        <v>42369</v>
-      </c>
-      <c r="S56" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T56" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="U56" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="V56" s="20"/>
-    </row>
-    <row r="57" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A57" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M57" s="4">
-        <v>1</v>
-      </c>
-      <c r="N57" s="5">
-        <v>42185</v>
-      </c>
-      <c r="O57" s="5">
-        <v>42277</v>
-      </c>
-      <c r="P57" s="5">
-        <v>42369</v>
-      </c>
-      <c r="S57" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T57" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="U57" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="V57" s="20"/>
-    </row>
-    <row r="58" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A58" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M58" s="4">
-        <v>1</v>
-      </c>
-      <c r="N58" s="5">
-        <v>42185</v>
-      </c>
-      <c r="O58" s="5">
-        <v>42277</v>
-      </c>
-      <c r="P58" s="5">
-        <v>42369</v>
-      </c>
-      <c r="S58" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T58" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="U58" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="V58" s="20"/>
-    </row>
-    <row r="59" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A59" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J59" s="4">
-        <v>3</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="M59" s="4">
-        <v>3</v>
-      </c>
-      <c r="N59" s="5">
-        <v>42185</v>
-      </c>
-      <c r="O59" s="5">
-        <v>42277</v>
-      </c>
-      <c r="P59" s="5">
-        <v>42369</v>
-      </c>
-      <c r="S59" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T59" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="U59" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="V59" s="20"/>
-    </row>
-    <row r="60" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A60" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J60" s="4">
-        <v>3</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="M60" s="4">
-        <v>3</v>
-      </c>
-      <c r="N60" s="5">
-        <v>42185</v>
-      </c>
-      <c r="O60" s="5">
-        <v>42277</v>
-      </c>
-      <c r="P60" s="5">
-        <v>42369</v>
-      </c>
-      <c r="S60" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T60" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="U60" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="V60" s="20"/>
-    </row>
-    <row r="61" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A61" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J61" s="4">
-        <v>3</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="M61" s="4">
-        <v>3</v>
-      </c>
-      <c r="N61" s="5">
-        <v>42185</v>
-      </c>
-      <c r="O61" s="5">
-        <v>42277</v>
-      </c>
-      <c r="P61" s="5">
-        <v>42369</v>
-      </c>
-      <c r="S61" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T61" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="U61" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="V61" s="20"/>
-    </row>
-    <row r="62" spans="1:22" s="16" customFormat="1" ht="16"/>
-    <row r="63" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A63" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J63" s="4">
-        <v>6</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M63" s="4">
-        <v>13</v>
-      </c>
-      <c r="N63" s="5">
-        <v>42277</v>
-      </c>
-      <c r="O63" s="5">
-        <v>42277</v>
-      </c>
-      <c r="P63" s="5">
-        <v>42277</v>
-      </c>
-      <c r="Q63" s="5">
-        <v>42277</v>
-      </c>
-      <c r="S63" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T63" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="U63" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="V63" s="20"/>
-    </row>
-    <row r="64" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A64" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J64" s="4">
-        <v>6</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="M64" s="4">
-        <v>13</v>
-      </c>
-      <c r="N64" s="5">
-        <v>42459</v>
-      </c>
-      <c r="O64" s="5">
-        <v>42459</v>
-      </c>
-      <c r="P64" s="5">
-        <v>42459</v>
-      </c>
-      <c r="Q64" s="5">
-        <v>42459</v>
-      </c>
-      <c r="S64" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="T64" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="U64" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="V64" s="20"/>
-    </row>
-    <row r="65" spans="1:69" ht="33">
-      <c r="A65" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
-      <c r="U65" s="15"/>
-      <c r="V65" s="15"/>
-      <c r="W65" s="15"/>
-      <c r="X65" s="15"/>
-      <c r="Y65" s="15"/>
-      <c r="Z65" s="15"/>
-      <c r="AA65" s="15"/>
-      <c r="AB65" s="15"/>
-      <c r="AC65" s="15"/>
-      <c r="AD65" s="15"/>
-      <c r="AE65" s="15"/>
-      <c r="AF65" s="15"/>
-      <c r="AG65" s="15"/>
-      <c r="AH65" s="15"/>
-      <c r="AI65" s="15"/>
-      <c r="AJ65" s="15"/>
-      <c r="AK65" s="15"/>
-      <c r="AL65" s="15"/>
-      <c r="AM65" s="15"/>
-      <c r="AN65" s="15"/>
-      <c r="AO65" s="15"/>
-      <c r="AP65" s="15"/>
-      <c r="AQ65" s="15"/>
-      <c r="AR65" s="15"/>
-      <c r="AS65" s="15"/>
-      <c r="AT65" s="15"/>
-      <c r="AU65" s="15"/>
-      <c r="AV65" s="15"/>
-      <c r="AW65" s="15"/>
-      <c r="AX65" s="15"/>
-      <c r="AY65" s="15"/>
-      <c r="AZ65" s="15"/>
-      <c r="BA65" s="15"/>
-      <c r="BB65" s="15"/>
-      <c r="BC65" s="15"/>
-      <c r="BD65" s="15"/>
-      <c r="BE65" s="15"/>
-      <c r="BF65" s="15"/>
-      <c r="BG65" s="15"/>
-      <c r="BH65" s="15"/>
-      <c r="BI65" s="15"/>
-      <c r="BJ65" s="15"/>
-      <c r="BK65" s="15"/>
-      <c r="BL65" s="15"/>
-      <c r="BM65" s="15"/>
-      <c r="BN65" s="15"/>
-      <c r="BO65" s="15"/>
-      <c r="BP65" s="15"/>
-      <c r="BQ65" s="15"/>
-    </row>
-    <row r="66" spans="1:69" ht="17" customHeight="1">
-      <c r="A66" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="R66" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" spans="1:69" ht="17" customHeight="1">
-      <c r="A67" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="R67" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="S67" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:69" ht="17" customHeight="1">
-      <c r="A68" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="R68" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="S68" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="1:69" ht="17" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="R69" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="S69" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="1:69" ht="17" customHeight="1">
-      <c r="A70" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="R70" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="S70" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:69" ht="17" customHeight="1">
-      <c r="A71" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="R71" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="S71" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="72" spans="1:69" ht="17" customHeight="1">
-      <c r="A72" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="R72" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="S72" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="1:69" ht="17" customHeight="1">
-      <c r="A73" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="R73" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:69" ht="17" customHeight="1">
-      <c r="A74" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="L74" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="R74" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="75" spans="1:69" s="17" customFormat="1" ht="17" customHeight="1"/>
-    <row r="76" spans="1:69" ht="17" customHeight="1">
-      <c r="A76" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="R76" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" spans="1:69" ht="17" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="R77" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="S77" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:69" ht="17" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="L78" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="R78" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="79" spans="1:69" s="17" customFormat="1" ht="17" customHeight="1"/>
+      <c r="V78" s="14"/>
+    </row>
+    <row r="79" spans="1:69" ht="33">
+      <c r="A79" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
+      <c r="T79" s="21"/>
+      <c r="U79" s="21"/>
+      <c r="V79" s="21"/>
+      <c r="W79" s="21"/>
+      <c r="X79" s="21"/>
+      <c r="Y79" s="21"/>
+      <c r="Z79" s="21"/>
+      <c r="AA79" s="21"/>
+      <c r="AB79" s="21"/>
+      <c r="AC79" s="21"/>
+      <c r="AD79" s="21"/>
+      <c r="AE79" s="21"/>
+      <c r="AF79" s="21"/>
+      <c r="AG79" s="21"/>
+      <c r="AH79" s="21"/>
+      <c r="AI79" s="21"/>
+      <c r="AJ79" s="21"/>
+      <c r="AK79" s="21"/>
+      <c r="AL79" s="21"/>
+      <c r="AM79" s="21"/>
+      <c r="AN79" s="21"/>
+      <c r="AO79" s="21"/>
+      <c r="AP79" s="21"/>
+      <c r="AQ79" s="21"/>
+      <c r="AR79" s="21"/>
+      <c r="AS79" s="21"/>
+      <c r="AT79" s="21"/>
+      <c r="AU79" s="21"/>
+      <c r="AV79" s="21"/>
+      <c r="AW79" s="21"/>
+      <c r="AX79" s="21"/>
+      <c r="AY79" s="21"/>
+      <c r="AZ79" s="21"/>
+      <c r="BA79" s="21"/>
+      <c r="BB79" s="21"/>
+      <c r="BC79" s="21"/>
+      <c r="BD79" s="21"/>
+      <c r="BE79" s="21"/>
+      <c r="BF79" s="21"/>
+      <c r="BG79" s="21"/>
+      <c r="BH79" s="21"/>
+      <c r="BI79" s="21"/>
+      <c r="BJ79" s="21"/>
+      <c r="BK79" s="21"/>
+      <c r="BL79" s="21"/>
+      <c r="BM79" s="21"/>
+      <c r="BN79" s="21"/>
+      <c r="BO79" s="21"/>
+      <c r="BP79" s="21"/>
+      <c r="BQ79" s="21"/>
+    </row>
     <row r="80" spans="1:69" ht="17" customHeight="1">
       <c r="A80" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="R80" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="17" customHeight="1">
+      <c r="A81" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="R81" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="17" customHeight="1">
+      <c r="A82" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="R82" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="17" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="R83" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="17" customHeight="1">
+      <c r="A84" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="R84" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="17" customHeight="1">
+      <c r="A85" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="R85" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="17" customHeight="1">
+      <c r="A86" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="R86" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="17" customHeight="1">
+      <c r="A87" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="R87" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="17" customHeight="1">
+      <c r="A88" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="R88" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" s="23" customFormat="1" ht="17" customHeight="1"/>
+    <row r="90" spans="1:19" ht="17" customHeight="1">
+      <c r="A90" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="R90" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="17" customHeight="1">
+      <c r="A91" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="R91" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="17" customHeight="1">
+      <c r="A92" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="R92" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" s="23" customFormat="1" ht="17" customHeight="1"/>
+    <row r="94" spans="1:19" ht="17" customHeight="1">
+      <c r="A94" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R94" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" s="23" customFormat="1" ht="17" customHeight="1"/>
+    <row r="96" spans="1:19" ht="17" customHeight="1">
+      <c r="A96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C96" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="R96" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" s="23" customFormat="1" ht="17" customHeight="1"/>
+    <row r="98" spans="1:22" s="4" customFormat="1" ht="16">
+      <c r="A98" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="N98" s="8">
+        <v>2014</v>
+      </c>
+      <c r="R98" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="S98" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="T98" s="12"/>
+      <c r="V98" s="14"/>
+    </row>
+    <row r="99" spans="1:22" s="23" customFormat="1" ht="17" customHeight="1"/>
+    <row r="100" spans="1:22" ht="17" customHeight="1">
+      <c r="A100" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="R100" s="7"/>
+      <c r="S100" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" s="23" customFormat="1" ht="17" customHeight="1"/>
+    <row r="102" spans="1:22" ht="17" customHeight="1">
+      <c r="A102" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="R80" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" s="17" customFormat="1" ht="17" customHeight="1"/>
-    <row r="82" spans="1:22" ht="17" customHeight="1">
-      <c r="A82" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="L102" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="R102" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="S102" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" ht="17" customHeight="1">
+      <c r="A103" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L82" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="R82" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="S82" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" s="17" customFormat="1" ht="17" customHeight="1"/>
-    <row r="84" spans="1:22" s="4" customFormat="1" ht="16">
-      <c r="A84" s="4" t="s">
+      <c r="L103" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="R103" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="S103" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" s="23" customFormat="1" ht="17" customHeight="1"/>
+    <row r="105" spans="1:22" ht="17" customHeight="1">
+      <c r="A105" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C105" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="L84" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="N84" s="8">
-        <v>2014</v>
-      </c>
-      <c r="R84" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="S84" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="T84" s="18"/>
-      <c r="V84" s="20"/>
-    </row>
-    <row r="85" spans="1:22" s="17" customFormat="1" ht="17" customHeight="1"/>
-    <row r="86" spans="1:22" ht="17" customHeight="1">
-      <c r="A86" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L86" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="R86" s="7"/>
-      <c r="S86" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" s="17" customFormat="1" ht="17" customHeight="1"/>
-    <row r="88" spans="1:22" ht="17" customHeight="1">
-      <c r="A88" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="R88" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="S88" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" ht="17" customHeight="1">
-      <c r="A89" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="L105" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="R105" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="L89" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="R89" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="S89" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" s="17" customFormat="1" ht="17" customHeight="1"/>
-    <row r="91" spans="1:22" ht="17" customHeight="1">
-      <c r="A91" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="R91" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="S91" s="2" t="s">
-        <v>181</v>
+      <c r="S105" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A75:XFD75"/>
-    <mergeCell ref="A79:XFD79"/>
-    <mergeCell ref="A90:XFD90"/>
-    <mergeCell ref="A81:XFD81"/>
-    <mergeCell ref="A83:XFD83"/>
-    <mergeCell ref="A85:XFD85"/>
-    <mergeCell ref="A87:XFD87"/>
-    <mergeCell ref="A65:BQ65"/>
+    <mergeCell ref="A89:XFD89"/>
+    <mergeCell ref="A93:XFD93"/>
+    <mergeCell ref="A104:XFD104"/>
+    <mergeCell ref="A95:XFD95"/>
+    <mergeCell ref="A97:XFD97"/>
+    <mergeCell ref="A99:XFD99"/>
+    <mergeCell ref="A101:XFD101"/>
+    <mergeCell ref="A79:BQ79"/>
     <mergeCell ref="A19:XFD19"/>
     <mergeCell ref="A24:XFD24"/>
     <mergeCell ref="A45:XFD45"/>
     <mergeCell ref="A48:XFD48"/>
-    <mergeCell ref="A62:XFD62"/>
+    <mergeCell ref="A76:XFD76"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R28" r:id="rId1"/>
@@ -7142,24 +7942,24 @@
     <hyperlink ref="R27" r:id="rId3"/>
     <hyperlink ref="R25" r:id="rId4"/>
     <hyperlink ref="R26" r:id="rId5"/>
-    <hyperlink ref="R66" r:id="rId6"/>
-    <hyperlink ref="R67" r:id="rId7"/>
-    <hyperlink ref="R68" r:id="rId8"/>
-    <hyperlink ref="R69" r:id="rId9"/>
-    <hyperlink ref="R71" r:id="rId10"/>
-    <hyperlink ref="R72" r:id="rId11"/>
-    <hyperlink ref="R73" r:id="rId12"/>
-    <hyperlink ref="R74" r:id="rId13"/>
-    <hyperlink ref="R70" r:id="rId14" location="footer-wrap"/>
-    <hyperlink ref="R76" r:id="rId15"/>
-    <hyperlink ref="R77" r:id="rId16"/>
-    <hyperlink ref="R78" r:id="rId17"/>
-    <hyperlink ref="R80" r:id="rId18"/>
-    <hyperlink ref="R82" r:id="rId19"/>
-    <hyperlink ref="R84" r:id="rId20"/>
-    <hyperlink ref="R88" r:id="rId21"/>
-    <hyperlink ref="R89" r:id="rId22"/>
-    <hyperlink ref="R91" r:id="rId23"/>
+    <hyperlink ref="R80" r:id="rId6"/>
+    <hyperlink ref="R81" r:id="rId7"/>
+    <hyperlink ref="R82" r:id="rId8"/>
+    <hyperlink ref="R83" r:id="rId9"/>
+    <hyperlink ref="R85" r:id="rId10"/>
+    <hyperlink ref="R86" r:id="rId11"/>
+    <hyperlink ref="R87" r:id="rId12"/>
+    <hyperlink ref="R88" r:id="rId13"/>
+    <hyperlink ref="R84" r:id="rId14" location="footer-wrap"/>
+    <hyperlink ref="R90" r:id="rId15"/>
+    <hyperlink ref="R91" r:id="rId16"/>
+    <hyperlink ref="R92" r:id="rId17"/>
+    <hyperlink ref="R94" r:id="rId18"/>
+    <hyperlink ref="R96" r:id="rId19"/>
+    <hyperlink ref="R98" r:id="rId20"/>
+    <hyperlink ref="R102" r:id="rId21"/>
+    <hyperlink ref="R103" r:id="rId22"/>
+    <hyperlink ref="R105" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/milestones-consolidated.xlsx
+++ b/milestones-consolidated.xlsx
@@ -1456,7 +1456,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="677">
+  <cellStyleXfs count="679">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2117,6 +2117,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2179,7 +2181,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="677">
+  <cellStyles count="679">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2531,6 +2533,8 @@
     <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="675" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3196,7 +3200,7 @@
   <dimension ref="A1:BQ105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -3398,16 +3402,16 @@
         <v>79</v>
       </c>
       <c r="N4" s="5">
-        <v>42185</v>
+        <v>42124</v>
       </c>
       <c r="O4" s="5">
-        <v>42185</v>
+        <v>42124</v>
       </c>
       <c r="P4" s="5">
-        <v>42185</v>
+        <v>42124</v>
       </c>
       <c r="Q4" s="5">
-        <v>42185</v>
+        <v>42124</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>422</v>
